--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -73,13 +73,33 @@
   <si>
     <t>გასვლები "B" პუნქტიდან</t>
   </si>
+  <si>
+    <t>MAN A-47</t>
+  </si>
+  <si>
+    <t>BMC Procity</t>
+  </si>
+  <si>
+    <t>Isuzu Novociti Life</t>
+  </si>
+  <si>
+    <t>MAN A-21</t>
+  </si>
+  <si>
+    <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -88,25 +108,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Courier New"/>
+      <name val="Sylfaen"/>
       <sz val="11.0"/>
-      <i val="true"/>
-      <strike val="true"/>
     </font>
     <font>
-      <name val="Courier New"/>
+      <name val="Sylfaen"/>
       <sz val="11.0"/>
-      <i val="true"/>
-      <strike val="true"/>
     </font>
     <font>
-      <name val="Courier New"/>
+      <name val="Sylfaen"/>
       <sz val="11.0"/>
-      <i val="true"/>
-      <strike val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +149,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,47 +192,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.515625" customWidth="true"/>
-    <col min="2" max="2" width="3.515625" customWidth="true"/>
-    <col min="3" max="3" width="3.515625" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="5.078125" customWidth="true"/>
-    <col min="6" max="6" width="5.078125" customWidth="true"/>
-    <col min="7" max="7" width="5.078125" customWidth="true"/>
-    <col min="8" max="8" width="5.078125" customWidth="true"/>
-    <col min="9" max="9" width="5.078125" customWidth="true"/>
-    <col min="10" max="10" width="5.078125" customWidth="true"/>
-    <col min="11" max="11" width="5.078125" customWidth="true"/>
-    <col min="12" max="12" width="5.078125" customWidth="true"/>
-    <col min="13" max="13" width="5.078125" customWidth="true"/>
-    <col min="14" max="14" width="5.078125" customWidth="true"/>
-    <col min="20" max="20" width="5.078125" customWidth="true"/>
-    <col min="15" max="15" width="5.078125" customWidth="true"/>
-    <col min="17" max="17" width="5.078125" customWidth="true"/>
-    <col min="18" max="18" width="5.078125" customWidth="true"/>
+    <col min="1" max="1" width="4.6875" customWidth="true"/>
+    <col min="2" max="2" width="4.6875" customWidth="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true"/>
+    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="17.578125" customWidth="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true"/>
+    <col min="8" max="8" width="8.203125" customWidth="true"/>
+    <col min="9" max="9" width="8.203125" customWidth="true"/>
+    <col min="10" max="10" width="8.203125" customWidth="true"/>
+    <col min="11" max="11" width="8.203125" customWidth="true"/>
+    <col min="12" max="12" width="8.203125" customWidth="true"/>
+    <col min="13" max="13" width="8.203125" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
+    <col min="15" max="15" width="8.203125" customWidth="true"/>
+    <col min="16" max="16" width="8.203125" customWidth="true"/>
+    <col min="17" max="17" width="27.34375" customWidth="true"/>
+    <col min="18" max="18" width="8.203125" customWidth="true"/>
+    <col min="19" max="19" width="8.203125" customWidth="true"/>
+    <col min="20" max="20" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -313,8 +457,2228 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O5" t="n" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O6" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" t="n" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O9" t="n" s="10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="n" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="n" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O13" t="n" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="n" s="15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O15" t="n" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O16" t="n" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n" s="18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O18" t="n" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O20" t="n" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O21" t="n" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="n" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O23" t="n" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O24" t="n" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" t="n" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O27" t="n" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O28" t="n" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="n" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="n" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O31" t="n" s="32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O32" t="n" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O33" t="n" s="34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O34" t="n" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n" s="36">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O36" t="n" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O37" t="n" s="38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O38" t="n" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O39" t="n" s="40">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O40" t="n" s="41">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="n" s="42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O42" t="n" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="n" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O44" t="n" s="45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.099998474121094</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" t="n" s="46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O46" t="n" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O47" t="n" s="48">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O48" t="n" s="49">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O49" t="n" s="50">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O50" t="n" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="n" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="O51" t="n" s="52">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="n" s="53">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="n" s="54">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O54" t="n" s="55">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O55" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="n" s="57">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O57" t="n" s="58">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O58" t="n" s="59">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O59" t="n" s="60">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O60" t="n" s="61">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="n" s="62">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" t="n" s="63">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" t="n" s="64">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n" s="65">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O65" t="n" s="66">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O66" t="n" s="67">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O67" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="n" s="69">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O69" t="n" s="70">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O70" t="n" s="71">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" t="n" s="72">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O72" t="n" s="73">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O73" t="n" s="74">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O74" t="n" s="75">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O75" t="n" s="76">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O76" t="n" s="77">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O77" t="n" s="78">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O78" t="n" s="79">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O79" t="n" s="80">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O80" t="n" s="81">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O81" t="n" s="82">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O82" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O83" t="n" s="84">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O84" t="n" s="85">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O85" t="n" s="86">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O86" t="n" s="87">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O87" t="n" s="88">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O88" t="n" s="89">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O89" t="n" s="90">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="n" s="91">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O91" t="n" s="92">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O92" t="n" s="93">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O93" t="n" s="94">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O94" t="n" s="95">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O95" t="n" s="96">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O96" t="n" s="97">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O97" t="n" s="98">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O98" t="n" s="99">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O99" t="n" s="100">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="n" s="101">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O101" t="n" s="102">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="n" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O102" t="n" s="103">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O103" t="n" s="104">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O104" t="n" s="105">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O105" t="n" s="106">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O106" t="n" s="107">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O107" t="n" s="108">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O108" t="n" s="109">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O109" t="n" s="110">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O110" t="n" s="111">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O111" t="n" s="112">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O112" t="n" s="113">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O113" t="n" s="114">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O114" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -330,6 +2694,8 @@
     <mergeCell ref="N1:S2"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -96,11 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode=""/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -158,7 +157,7 @@
       <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +202,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,13 +271,13 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +499,10 @@
         <v>8.0</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I5" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O5" t="n" s="11">
         <v>0.925</v>
@@ -522,7 +534,10 @@
         <v>11.0</v>
       </c>
       <c r="H6" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I6" t="n" s="11">
+        <v>0.0763888888888889</v>
       </c>
       <c r="O6" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -554,7 +569,10 @@
         <v>6.0</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I7" t="n" s="11">
+        <v>0.06666666666666667</v>
       </c>
       <c r="O7" t="n" s="11">
         <v>0.9180555555555555</v>
@@ -586,7 +604,10 @@
         <v>3.0</v>
       </c>
       <c r="H8" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I8" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O8" t="n" s="11">
         <v>0.9145833333333333</v>
@@ -618,7 +639,10 @@
         <v>2.0</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I9" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O9" t="n" s="11">
         <v>0.875</v>
@@ -650,7 +674,10 @@
         <v>7.0</v>
       </c>
       <c r="H10" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I10" t="n" s="11">
+        <v>0.09722222222222222</v>
       </c>
       <c r="O10" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -682,7 +709,10 @@
         <v>3.0</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I11" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O11" t="n" s="11">
         <v>0.9375</v>
@@ -714,7 +744,10 @@
         <v>5.0</v>
       </c>
       <c r="H12" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I12" t="n" s="11">
+        <v>0.052083333333333336</v>
       </c>
       <c r="O12" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -746,7 +779,10 @@
         <v>4.0</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027083333333333334</v>
+      </c>
+      <c r="I13" t="n" s="11">
+        <v>0.10694444444444444</v>
       </c>
       <c r="O13" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -778,7 +814,10 @@
         <v>7.0</v>
       </c>
       <c r="H14" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I14" t="n" s="11">
+        <v>0.0875</v>
       </c>
       <c r="O14" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -810,7 +849,10 @@
         <v>4.0</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01875</v>
+      </c>
+      <c r="I15" t="n" s="11">
+        <v>0.07361111111111111</v>
       </c>
       <c r="O15" t="n" s="11">
         <v>0.8986111111111111</v>
@@ -842,7 +884,10 @@
         <v>11.0</v>
       </c>
       <c r="H16" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I16" t="n" s="11">
+        <v>0.09930555555555555</v>
       </c>
       <c r="O16" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -874,7 +919,10 @@
         <v>6.0</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I17" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O17" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -906,7 +954,10 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I18" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O18" t="n" s="11">
         <v>0.8125</v>
@@ -938,7 +989,10 @@
         <v>7.0</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I19" t="n" s="11">
+        <v>0.07291666666666667</v>
       </c>
       <c r="O19" t="n" s="11">
         <v>0.90625</v>
@@ -970,7 +1024,10 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I20" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O20" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -1002,7 +1059,10 @@
         <v>10.0</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I21" t="n" s="11">
+        <v>0.0763888888888889</v>
       </c>
       <c r="O21" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -1034,7 +1094,10 @@
         <v>11.0</v>
       </c>
       <c r="H22" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I22" t="n" s="11">
+        <v>0.12986111111111112</v>
       </c>
       <c r="O22" t="n" s="11">
         <v>0.89375</v>
@@ -1066,7 +1129,10 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I23" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O23" t="n" s="11">
         <v>0.875</v>
@@ -1098,7 +1164,10 @@
         <v>9.0</v>
       </c>
       <c r="H24" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I24" t="n" s="11">
+        <v>0.09027777777777778</v>
       </c>
       <c r="O24" t="n" s="11">
         <v>0.9152777777777777</v>
@@ -1130,7 +1199,10 @@
         <v>10.0</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I25" t="n" s="11">
+        <v>0.1111111111111111</v>
       </c>
       <c r="O25" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -1162,7 +1234,10 @@
         <v>8.0</v>
       </c>
       <c r="H26" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I26" t="n" s="11">
+        <v>0.07222222222222222</v>
       </c>
       <c r="O26" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -1194,7 +1269,10 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I27" t="n" s="11">
+        <v>0.04861111111111111</v>
       </c>
       <c r="O27" t="n" s="11">
         <v>0.8402777777777778</v>
@@ -1226,7 +1304,10 @@
         <v>6.0</v>
       </c>
       <c r="H28" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I28" t="n" s="11">
+        <v>0.06041666666666667</v>
       </c>
       <c r="O28" t="n" s="11">
         <v>0.9256944444444445</v>
@@ -1258,7 +1339,10 @@
         <v>4.0</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I29" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O29" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -1290,7 +1374,10 @@
         <v>3.0</v>
       </c>
       <c r="H30" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.022916666666666665</v>
+      </c>
+      <c r="I30" t="n" s="11">
+        <v>0.06875</v>
       </c>
       <c r="O30" t="n" s="11">
         <v>0.8986111111111111</v>
@@ -1322,7 +1409,10 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I31" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O31" t="n" s="11">
         <v>0.90625</v>
@@ -1354,7 +1444,10 @@
         <v>5.0</v>
       </c>
       <c r="H32" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I32" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O32" t="n" s="11">
         <v>0.9138888888888889</v>
@@ -1386,7 +1479,10 @@
         <v>4.0</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I33" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O33" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -1418,7 +1514,10 @@
         <v>9.0</v>
       </c>
       <c r="H34" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I34" t="n" s="11">
+        <v>0.1</v>
       </c>
       <c r="O34" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -1450,7 +1549,10 @@
         <v>9.0</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I35" t="n" s="11">
+        <v>0.09097222222222222</v>
       </c>
       <c r="O35" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -1482,7 +1584,10 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I36" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O36" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -1514,7 +1619,10 @@
         <v>6.0</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I37" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O37" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -1546,7 +1654,10 @@
         <v>10.0</v>
       </c>
       <c r="H38" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I38" t="n" s="11">
+        <v>0.10416666666666667</v>
       </c>
       <c r="O38" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -1578,7 +1689,10 @@
         <v>6.0</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.005555555555555556</v>
+      </c>
+      <c r="I39" t="n" s="11">
+        <v>0.03333333333333333</v>
       </c>
       <c r="O39" t="n" s="11">
         <v>0.925</v>
@@ -1610,7 +1724,10 @@
         <v>10.0</v>
       </c>
       <c r="H40" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I40" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O40" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -1642,7 +1759,10 @@
         <v>3.0</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.02013888888888889</v>
+      </c>
+      <c r="I41" t="n" s="11">
+        <v>0.06041666666666667</v>
       </c>
       <c r="O41" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -1674,7 +1794,10 @@
         <v>3.0</v>
       </c>
       <c r="H42" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I42" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O42" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -1706,7 +1829,10 @@
         <v>4.0</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I43" t="n" s="11">
+        <v>0.05138888888888889</v>
       </c>
       <c r="O43" t="n" s="11">
         <v>0.9208333333333333</v>
@@ -1738,7 +1864,10 @@
         <v>3.0</v>
       </c>
       <c r="H44" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I44" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O44" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -1770,7 +1899,10 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.015277777777777777</v>
+      </c>
+      <c r="I45" t="n" s="11">
+        <v>0.03125</v>
       </c>
       <c r="O45" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -1802,7 +1934,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I46" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O46" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -1834,7 +1969,10 @@
         <v>2.0</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I47" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O47" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -1866,7 +2004,10 @@
         <v>8.0</v>
       </c>
       <c r="H48" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I48" t="n" s="11">
+        <v>0.08888888888888889</v>
       </c>
       <c r="O48" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -1898,7 +2039,10 @@
         <v>4.0</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I49" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O49" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -1930,7 +2074,10 @@
         <v>6.0</v>
       </c>
       <c r="H50" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I50" t="n" s="11">
+        <v>0.06458333333333334</v>
       </c>
       <c r="O50" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -1962,7 +2109,10 @@
         <v>8.0</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I51" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O51" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -1994,7 +2144,10 @@
         <v>13.0</v>
       </c>
       <c r="H52" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I52" t="n" s="11">
+        <v>0.13541666666666666</v>
       </c>
       <c r="O52" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -2026,7 +2179,10 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I53" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O53" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -2058,7 +2214,10 @@
         <v>3.0</v>
       </c>
       <c r="H54" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I54" t="n" s="11">
+        <v>0.04791666666666667</v>
       </c>
       <c r="O54" t="n" s="11">
         <v>0.9194444444444444</v>
@@ -2090,7 +2249,10 @@
         <v>6.0</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I55" t="n" s="11">
+        <v>0.09583333333333334</v>
       </c>
       <c r="O55" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -2122,7 +2284,10 @@
         <v>5.0</v>
       </c>
       <c r="H56" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I56" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O56" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -2154,7 +2319,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I57" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O57" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -2186,7 +2354,10 @@
         <v>4.0</v>
       </c>
       <c r="H58" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I58" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O58" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -2218,7 +2389,10 @@
         <v>7.0</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I59" t="n" s="11">
+        <v>0.06805555555555555</v>
       </c>
       <c r="O59" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -2250,7 +2424,10 @@
         <v>6.0</v>
       </c>
       <c r="H60" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I60" t="n" s="11">
+        <v>0.075</v>
       </c>
       <c r="O60" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -2282,7 +2459,10 @@
         <v>7.0</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I61" t="n" s="11">
+        <v>0.08263888888888889</v>
       </c>
       <c r="O61" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -2314,7 +2494,10 @@
         <v>1.0</v>
       </c>
       <c r="H62" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I62" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O62" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -2346,7 +2529,10 @@
         <v>2.0</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.016666666666666666</v>
+      </c>
+      <c r="I63" t="n" s="11">
+        <v>0.03333333333333333</v>
       </c>
       <c r="O63" t="n" s="11">
         <v>0.9125</v>
@@ -2378,7 +2564,10 @@
         <v>1.0</v>
       </c>
       <c r="H64" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.03125</v>
+      </c>
+      <c r="I64" t="n" s="11">
+        <v>0.03125</v>
       </c>
       <c r="O64" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -2410,7 +2599,10 @@
         <v>3.0</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I65" t="n" s="11">
+        <v>0.035416666666666666</v>
       </c>
       <c r="O65" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -2442,7 +2634,10 @@
         <v>7.0</v>
       </c>
       <c r="H66" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I66" t="n" s="11">
+        <v>0.08472222222222223</v>
       </c>
       <c r="O66" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -2474,7 +2669,10 @@
         <v>9.0</v>
       </c>
       <c r="H67" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I67" t="n" s="11">
+        <v>0.0875</v>
       </c>
       <c r="O67" t="n" s="11">
         <v>0.9138888888888889</v>
@@ -2506,7 +2704,10 @@
         <v>6.0</v>
       </c>
       <c r="H68" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I68" t="n" s="11">
+        <v>0.06458333333333334</v>
       </c>
       <c r="O68" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -2538,7 +2739,10 @@
         <v>3.0</v>
       </c>
       <c r="H69" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I69" t="n" s="11">
+        <v>0.029166666666666667</v>
       </c>
       <c r="O69" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -2570,7 +2774,10 @@
         <v>1.0</v>
       </c>
       <c r="H70" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I70" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O70" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -2602,7 +2809,10 @@
         <v>2.0</v>
       </c>
       <c r="H71" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I71" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -2634,7 +2844,10 @@
         <v>1.0</v>
       </c>
       <c r="H72" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.034722222222222224</v>
+      </c>
+      <c r="I72" t="n" s="11">
+        <v>0.034722222222222224</v>
       </c>
       <c r="O72" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -2666,7 +2879,10 @@
         <v>4.0</v>
       </c>
       <c r="H73" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I73" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O73" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -2698,7 +2914,10 @@
         <v>2.0</v>
       </c>
       <c r="H74" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I74" t="n" s="11">
+        <v>0.022222222222222223</v>
       </c>
       <c r="O74" t="n" s="11">
         <v>0.9361111111111111</v>
@@ -2730,7 +2949,10 @@
         <v>1.0</v>
       </c>
       <c r="H75" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I75" t="n" s="11">
+        <v>0.04861111111111111</v>
       </c>
       <c r="O75" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -2762,7 +2984,10 @@
         <v>1.0</v>
       </c>
       <c r="H76" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0625</v>
+      </c>
+      <c r="I76" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O76" t="n" s="11">
         <v>0.8118055555555556</v>
@@ -2794,7 +3019,10 @@
         <v>2.0</v>
       </c>
       <c r="H77" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="I77" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O77" t="n" s="11">
         <v>0.84375</v>
@@ -2826,7 +3054,10 @@
         <v>4.0</v>
       </c>
       <c r="H78" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01875</v>
+      </c>
+      <c r="I78" t="n" s="11">
+        <v>0.075</v>
       </c>
       <c r="O78" t="n" s="11">
         <v>0.9041666666666667</v>
@@ -2858,7 +3089,10 @@
         <v>8.0</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I79" t="n" s="11">
+        <v>0.08888888888888889</v>
       </c>
       <c r="O79" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -2890,7 +3124,10 @@
         <v>3.0</v>
       </c>
       <c r="H80" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.014583333333333334</v>
+      </c>
+      <c r="I80" t="n" s="11">
+        <v>0.04375</v>
       </c>
       <c r="O80" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -2922,7 +3159,10 @@
         <v>10.0</v>
       </c>
       <c r="H81" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I81" t="n" s="11">
+        <v>0.08680555555555555</v>
       </c>
       <c r="O81" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -2954,7 +3194,10 @@
         <v>2.0</v>
       </c>
       <c r="H82" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.022916666666666665</v>
+      </c>
+      <c r="I82" t="n" s="11">
+        <v>0.04583333333333333</v>
       </c>
       <c r="O82" t="n" s="11">
         <v>0.9090277777777778</v>
@@ -2986,7 +3229,10 @@
         <v>5.0</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I83" t="n" s="11">
+        <v>0.052083333333333336</v>
       </c>
       <c r="O83" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3018,7 +3264,10 @@
         <v>3.0</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01875</v>
+      </c>
+      <c r="I84" t="n" s="11">
+        <v>0.05555555555555555</v>
       </c>
       <c r="O84" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -3050,7 +3299,10 @@
         <v>5.0</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0125</v>
+      </c>
+      <c r="I85" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O85" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3082,7 +3334,10 @@
         <v>4.0</v>
       </c>
       <c r="H86" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011805555555555555</v>
+      </c>
+      <c r="I86" t="n" s="11">
+        <v>0.04722222222222222</v>
       </c>
       <c r="O86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -3114,7 +3369,10 @@
         <v>7.0</v>
       </c>
       <c r="H87" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.013888888888888888</v>
+      </c>
+      <c r="I87" t="n" s="11">
+        <v>0.09930555555555555</v>
       </c>
       <c r="O87" t="n" s="11">
         <v>0.8965277777777778</v>
@@ -3146,7 +3404,10 @@
         <v>4.0</v>
       </c>
       <c r="H88" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I88" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O88" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -3178,7 +3439,10 @@
         <v>5.0</v>
       </c>
       <c r="H89" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01875</v>
+      </c>
+      <c r="I89" t="n" s="11">
+        <v>0.09375</v>
       </c>
       <c r="O89" t="n" s="11">
         <v>0.9159722222222222</v>
@@ -3210,7 +3474,10 @@
         <v>5.0</v>
       </c>
       <c r="H90" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.018055555555555554</v>
+      </c>
+      <c r="I90" t="n" s="11">
+        <v>0.09027777777777778</v>
       </c>
       <c r="O90" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -3242,7 +3509,10 @@
         <v>3.0</v>
       </c>
       <c r="H91" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I91" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O91" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -3274,7 +3544,10 @@
         <v>2.0</v>
       </c>
       <c r="H92" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.024305555555555556</v>
+      </c>
+      <c r="I92" t="n" s="11">
+        <v>0.04861111111111111</v>
       </c>
       <c r="O92" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -3306,7 +3579,10 @@
         <v>4.0</v>
       </c>
       <c r="H93" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I93" t="n" s="11">
+        <v>0.1111111111111111</v>
       </c>
       <c r="O93" t="n" s="11">
         <v>0.8756944444444444</v>
@@ -3338,7 +3614,10 @@
         <v>1.0</v>
       </c>
       <c r="H94" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="I94" t="n" s="11">
+        <v>0.0763888888888889</v>
       </c>
       <c r="O94" t="n" s="11">
         <v>0.8680555555555556</v>
@@ -3370,7 +3649,10 @@
         <v>4.0</v>
       </c>
       <c r="H95" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.017361111111111112</v>
+      </c>
+      <c r="I95" t="n" s="11">
+        <v>0.06944444444444445</v>
       </c>
       <c r="O95" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3402,7 +3684,10 @@
         <v>1.0</v>
       </c>
       <c r="H96" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="I96" t="n" s="11">
+        <v>0.04861111111111111</v>
       </c>
       <c r="O96" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -3434,7 +3719,10 @@
         <v>2.0</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="I97" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O97" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3466,7 +3754,10 @@
         <v>3.0</v>
       </c>
       <c r="H98" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="I98" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O98" t="n" s="11">
         <v>0.89375</v>
@@ -3498,7 +3789,10 @@
         <v>5.0</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="I99" t="n" s="11">
+        <v>0.05555555555555555</v>
       </c>
       <c r="O99" t="n" s="11">
         <v>0.925</v>
@@ -3530,7 +3824,10 @@
         <v>2.0</v>
       </c>
       <c r="H100" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.024305555555555556</v>
+      </c>
+      <c r="I100" t="n" s="11">
+        <v>0.04861111111111111</v>
       </c>
       <c r="O100" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -3562,7 +3859,10 @@
         <v>3.0</v>
       </c>
       <c r="H101" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="I101" t="n" s="11">
+        <v>0.04791666666666667</v>
       </c>
       <c r="O101" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -3594,7 +3894,10 @@
         <v>10.0</v>
       </c>
       <c r="H102" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I102" t="n" s="11">
+        <v>0.0763888888888889</v>
       </c>
       <c r="O102" t="n" s="11">
         <v>0.9375</v>
@@ -3626,7 +3929,10 @@
         <v>16.0</v>
       </c>
       <c r="H103" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I103" t="n" s="11">
+        <v>0.13333333333333333</v>
       </c>
       <c r="O103" t="n" s="11">
         <v>0.9354166666666667</v>
@@ -3658,7 +3964,10 @@
         <v>4.0</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I104" t="n" s="11">
+        <v>0.041666666666666664</v>
       </c>
       <c r="O104" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -3690,7 +3999,10 @@
         <v>8.0</v>
       </c>
       <c r="H105" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I105" t="n" s="11">
+        <v>0.08333333333333333</v>
       </c>
       <c r="O105" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -3722,7 +4034,10 @@
         <v>8.0</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I106" t="n" s="11">
+        <v>0.07222222222222222</v>
       </c>
       <c r="O106" t="n" s="11">
         <v>0.9256944444444445</v>
@@ -3754,7 +4069,10 @@
         <v>4.0</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.004861111111111111</v>
+      </c>
+      <c r="I107" t="n" s="11">
+        <v>0.019444444444444445</v>
       </c>
       <c r="O107" t="n" s="11">
         <v>0.9430555555555555</v>
@@ -3786,7 +4104,10 @@
         <v>9.0</v>
       </c>
       <c r="H108" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.010416666666666666</v>
+      </c>
+      <c r="I108" t="n" s="11">
+        <v>0.09375</v>
       </c>
       <c r="O108" t="n" s="11">
         <v>0.9291666666666667</v>
@@ -3818,7 +4139,10 @@
         <v>9.0</v>
       </c>
       <c r="H109" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I109" t="n" s="11">
+        <v>0.0625</v>
       </c>
       <c r="O109" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -3850,7 +4174,10 @@
         <v>15.0</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I110" t="n" s="11">
+        <v>0.10416666666666667</v>
       </c>
       <c r="O110" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -3882,7 +4209,10 @@
         <v>10.0</v>
       </c>
       <c r="H111" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I111" t="n" s="11">
+        <v>0.09027777777777778</v>
       </c>
       <c r="O111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -3914,7 +4244,10 @@
         <v>8.0</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I112" t="n" s="11">
+        <v>0.07777777777777778</v>
       </c>
       <c r="O112" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -3946,7 +4279,10 @@
         <v>8.0</v>
       </c>
       <c r="H113" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="I113" t="n" s="11">
+        <v>0.07222222222222222</v>
       </c>
       <c r="O113" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -3978,7 +4314,10 @@
         <v>3.0</v>
       </c>
       <c r="H114" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="I114" t="n" s="11">
+        <v>0.029166666666666667</v>
       </c>
       <c r="O114" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -4010,7 +4349,10 @@
         <v>4.0</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>1.1574074074074075E-5</v>
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="I115" t="n" s="11">
+        <v>0.030555555555555555</v>
       </c>
       <c r="O115" t="n" s="11">
         <v>0.9298611111111111</v>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="85">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -80,16 +80,193 @@
     <t>MAN A-47</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>BMC Procity</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>Isuzu Novociti Life</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>MAN A-21</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
 </sst>
 </file>
@@ -101,7 +278,7 @@
     <numFmt numFmtId="165" formatCode="[mm]:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -143,6 +320,10 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Sylfaen"/>
@@ -245,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -274,10 +455,13 @@
     <xf numFmtId="1" fontId="9" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,22 +682,25 @@
       <c r="G5" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n" s="10">
+      <c r="H5" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I5" t="n" s="11">
+      <c r="I5" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O5" t="n" s="11">
+      <c r="J5" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P5" t="n" s="11">
+      <c r="P5" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R5" t="n" s="11">
+      <c r="R5" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S5" t="n" s="11">
+      <c r="S5" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -528,27 +715,30 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H6" t="n" s="10">
+      <c r="H6" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I6" t="n" s="11">
+      <c r="I6" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="O6" t="n" s="11">
+      <c r="J6" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="P6" t="n" s="11">
+      <c r="P6" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R6" t="n" s="11">
+      <c r="R6" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S6" t="n" s="11">
+      <c r="S6" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -563,27 +753,30 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H7" t="n" s="10">
+      <c r="H7" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I7" t="n" s="11">
+      <c r="I7" t="n" s="12">
         <v>0.06666666666666667</v>
       </c>
-      <c r="O7" t="n" s="11">
+      <c r="J7" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="P7" t="n" s="11">
+      <c r="P7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R7" t="n" s="11">
+      <c r="R7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S7" t="n" s="11">
+      <c r="S7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -598,27 +791,30 @@
         <v>4.0</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H8" t="n" s="10">
+      <c r="H8" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I8" t="n" s="11">
+      <c r="I8" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O8" t="n" s="11">
+      <c r="J8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="P8" t="n" s="11">
+      <c r="P8" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R8" t="n" s="11">
+      <c r="R8" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S8" t="n" s="11">
+      <c r="S8" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
     </row>
@@ -633,27 +829,30 @@
         <v>5.0</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H9" t="n" s="10">
+      <c r="H9" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I9" t="n" s="11">
+      <c r="I9" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O9" t="n" s="11">
+      <c r="J9" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P9" t="n" s="11">
+      <c r="P9" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R9" t="n" s="11">
+      <c r="R9" t="n" s="12">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S9" t="n" s="11">
+      <c r="S9" t="n" s="12">
         <v>0.875</v>
       </c>
     </row>
@@ -668,27 +867,30 @@
         <v>6.0</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H10" t="n" s="10">
+      <c r="H10" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I10" t="n" s="11">
+      <c r="I10" t="n" s="12">
         <v>0.09722222222222222</v>
       </c>
-      <c r="O10" t="n" s="11">
+      <c r="J10" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P10" t="n" s="11">
+      <c r="P10" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R10" t="n" s="11">
+      <c r="R10" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S10" t="n" s="11">
+      <c r="S10" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -703,27 +905,30 @@
         <v>7.0</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H11" t="n" s="10">
+      <c r="H11" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I11" t="n" s="11">
+      <c r="I11" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O11" t="n" s="11">
+      <c r="J11" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="O11" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P11" t="n" s="11">
+      <c r="P11" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R11" t="n" s="11">
+      <c r="R11" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S11" t="n" s="11">
+      <c r="S11" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -738,27 +943,30 @@
         <v>9.0</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H12" t="n" s="10">
+      <c r="H12" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I12" t="n" s="11">
+      <c r="I12" t="n" s="12">
         <v>0.052083333333333336</v>
       </c>
-      <c r="O12" t="n" s="11">
+      <c r="J12" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P12" t="n" s="11">
+      <c r="P12" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R12" t="n" s="11">
+      <c r="R12" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S12" t="n" s="11">
+      <c r="S12" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -773,27 +981,30 @@
         <v>10.0</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H13" t="n" s="10">
+      <c r="H13" t="n" s="11">
         <v>0.027083333333333334</v>
       </c>
-      <c r="I13" t="n" s="11">
+      <c r="I13" t="n" s="12">
         <v>0.10694444444444444</v>
       </c>
-      <c r="O13" t="n" s="11">
+      <c r="J13" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P13" t="n" s="11">
+      <c r="P13" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="R13" t="n" s="11">
+      <c r="R13" t="n" s="12">
         <v>0.8840277777777777</v>
       </c>
-      <c r="S13" t="n" s="11">
+      <c r="S13" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -808,27 +1019,30 @@
         <v>11.0</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H14" t="n" s="10">
+      <c r="H14" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I14" t="n" s="11">
+      <c r="I14" t="n" s="12">
         <v>0.0875</v>
       </c>
-      <c r="O14" t="n" s="11">
+      <c r="J14" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P14" t="n" s="11">
+      <c r="P14" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
-      <c r="R14" t="n" s="11">
+      <c r="R14" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S14" t="n" s="11">
+      <c r="S14" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -843,27 +1057,30 @@
         <v>12.0</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H15" t="n" s="10">
+      <c r="H15" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I15" t="n" s="11">
+      <c r="I15" t="n" s="12">
         <v>0.07361111111111111</v>
       </c>
-      <c r="O15" t="n" s="11">
+      <c r="J15" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P15" t="n" s="11">
+      <c r="P15" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="R15" t="n" s="11">
+      <c r="R15" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S15" t="n" s="11">
+      <c r="S15" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
     </row>
@@ -878,27 +1095,30 @@
         <v>14.0</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H16" t="n" s="10">
+      <c r="H16" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I16" t="n" s="11">
+      <c r="I16" t="n" s="12">
         <v>0.09930555555555555</v>
       </c>
-      <c r="O16" t="n" s="11">
+      <c r="J16" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P16" t="n" s="11">
+      <c r="P16" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R16" t="n" s="11">
+      <c r="R16" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S16" t="n" s="11">
+      <c r="S16" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -913,27 +1133,30 @@
         <v>15.0</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H17" t="n" s="10">
+      <c r="H17" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I17" t="n" s="11">
+      <c r="I17" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O17" t="n" s="11">
+      <c r="J17" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P17" t="n" s="11">
+      <c r="P17" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R17" t="n" s="11">
+      <c r="R17" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S17" t="n" s="11">
+      <c r="S17" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -948,27 +1171,30 @@
         <v>16.0</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H18" t="n" s="10">
+      <c r="H18" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I18" t="n" s="11">
+      <c r="I18" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O18" t="n" s="11">
+      <c r="J18" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="O18" t="n" s="12">
         <v>0.8125</v>
       </c>
-      <c r="P18" t="n" s="11">
+      <c r="P18" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R18" t="n" s="11">
+      <c r="R18" t="n" s="12">
         <v>0.7708333333333334</v>
       </c>
-      <c r="S18" t="n" s="11">
+      <c r="S18" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
     </row>
@@ -983,27 +1209,30 @@
         <v>17.0</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H19" t="n" s="10">
+      <c r="H19" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I19" t="n" s="11">
+      <c r="I19" t="n" s="12">
         <v>0.07291666666666667</v>
       </c>
-      <c r="O19" t="n" s="11">
+      <c r="J19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P19" t="n" s="11">
+      <c r="P19" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R19" t="n" s="11">
+      <c r="R19" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S19" t="n" s="11">
+      <c r="S19" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -1018,27 +1247,30 @@
         <v>18.0</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H20" t="n" s="10">
+      <c r="H20" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I20" t="n" s="11">
+      <c r="I20" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O20" t="n" s="11">
+      <c r="J20" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P20" t="n" s="11">
+      <c r="P20" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="R20" t="n" s="11">
+      <c r="R20" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="S20" t="n" s="11">
+      <c r="S20" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -1058,22 +1290,25 @@
       <c r="G21" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H21" t="n" s="10">
+      <c r="H21" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I21" t="n" s="11">
+      <c r="I21" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="O21" t="n" s="11">
+      <c r="J21" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P21" t="n" s="11">
+      <c r="P21" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R21" t="n" s="11">
+      <c r="R21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S21" t="n" s="11">
+      <c r="S21" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -1088,27 +1323,30 @@
         <v>21.0</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H22" t="n" s="10">
+      <c r="H22" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I22" t="n" s="11">
+      <c r="I22" t="n" s="12">
         <v>0.12986111111111112</v>
       </c>
-      <c r="O22" t="n" s="11">
+      <c r="J22" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="O22" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P22" t="n" s="11">
+      <c r="P22" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R22" t="n" s="11">
+      <c r="R22" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S22" t="n" s="11">
+      <c r="S22" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1123,27 +1361,30 @@
         <v>22.0</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H23" t="n" s="10">
+      <c r="H23" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I23" t="n" s="11">
+      <c r="I23" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O23" t="n" s="11">
+      <c r="J23" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="O23" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P23" t="n" s="11">
+      <c r="P23" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="R23" t="n" s="11">
+      <c r="R23" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="S23" t="n" s="11">
+      <c r="S23" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -1158,27 +1399,30 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H24" t="n" s="10">
+      <c r="H24" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I24" t="n" s="11">
+      <c r="I24" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="O24" t="n" s="11">
+      <c r="J24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
       </c>
-      <c r="P24" t="n" s="11">
+      <c r="P24" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R24" t="n" s="11">
+      <c r="R24" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S24" t="n" s="11">
+      <c r="S24" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -1193,27 +1437,30 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H25" t="n" s="10">
+      <c r="H25" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I25" t="n" s="11">
+      <c r="I25" t="n" s="12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O25" t="n" s="11">
+      <c r="J25" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P25" t="n" s="11">
+      <c r="P25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R25" t="n" s="11">
+      <c r="R25" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="S25" t="n" s="11">
+      <c r="S25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -1233,22 +1480,25 @@
       <c r="G26" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H26" t="n" s="10">
+      <c r="H26" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I26" t="n" s="11">
+      <c r="I26" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="O26" t="n" s="11">
+      <c r="J26" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P26" t="n" s="11">
+      <c r="P26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R26" t="n" s="11">
+      <c r="R26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S26" t="n" s="11">
+      <c r="S26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -1263,27 +1513,30 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H27" t="n" s="10">
+      <c r="H27" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I27" t="n" s="11">
+      <c r="I27" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="O27" t="n" s="11">
+      <c r="J27" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
       </c>
-      <c r="P27" t="n" s="11">
+      <c r="P27" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="R27" t="n" s="11">
+      <c r="R27" t="n" s="12">
         <v>0.8159722222222222</v>
       </c>
-      <c r="S27" t="n" s="11">
+      <c r="S27" t="n" s="12">
         <v>0.8645833333333334</v>
       </c>
     </row>
@@ -1298,27 +1551,30 @@
         <v>27.0</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G28" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H28" t="n" s="10">
+      <c r="H28" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I28" t="n" s="11">
+      <c r="I28" t="n" s="12">
         <v>0.06041666666666667</v>
       </c>
-      <c r="O28" t="n" s="11">
+      <c r="J28" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P28" t="n" s="11">
+      <c r="P28" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R28" t="n" s="11">
+      <c r="R28" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S28" t="n" s="11">
+      <c r="S28" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1333,27 +1589,30 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H29" t="n" s="10">
+      <c r="H29" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I29" t="n" s="11">
+      <c r="I29" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O29" t="n" s="11">
+      <c r="J29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P29" t="n" s="11">
+      <c r="P29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R29" t="n" s="11">
+      <c r="R29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S29" t="n" s="11">
+      <c r="S29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1368,27 +1627,30 @@
         <v>29.0</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H30" t="n" s="10">
+      <c r="H30" t="n" s="11">
         <v>0.022916666666666665</v>
       </c>
-      <c r="I30" t="n" s="11">
+      <c r="I30" t="n" s="12">
         <v>0.06875</v>
       </c>
-      <c r="O30" t="n" s="11">
+      <c r="J30" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P30" t="n" s="11">
+      <c r="P30" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R30" t="n" s="11">
+      <c r="R30" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="S30" t="n" s="11">
+      <c r="S30" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1403,27 +1665,30 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H31" t="n" s="10">
+      <c r="H31" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I31" t="n" s="11">
+      <c r="I31" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O31" t="n" s="11">
+      <c r="J31" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="O31" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P31" t="n" s="11">
+      <c r="P31" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R31" t="n" s="11">
+      <c r="R31" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="S31" t="n" s="11">
+      <c r="S31" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1438,27 +1703,30 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G32" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H32" t="n" s="10">
+      <c r="H32" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I32" t="n" s="11">
+      <c r="I32" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O32" t="n" s="11">
+      <c r="J32" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P32" t="n" s="11">
+      <c r="P32" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R32" t="n" s="11">
+      <c r="R32" t="n" s="12">
         <v>0.91875</v>
       </c>
-      <c r="S32" t="n" s="11">
+      <c r="S32" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1473,27 +1741,30 @@
         <v>32.0</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H33" t="n" s="10">
+      <c r="H33" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I33" t="n" s="11">
+      <c r="I33" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O33" t="n" s="11">
+      <c r="J33" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P33" t="n" s="11">
+      <c r="P33" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R33" t="n" s="11">
+      <c r="R33" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S33" t="n" s="11">
+      <c r="S33" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1508,27 +1779,30 @@
         <v>33.0</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H34" t="n" s="10">
+      <c r="H34" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I34" t="n" s="11">
+      <c r="I34" t="n" s="12">
         <v>0.1</v>
       </c>
-      <c r="O34" t="n" s="11">
+      <c r="J34" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P34" t="n" s="11">
+      <c r="P34" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R34" t="n" s="11">
+      <c r="R34" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S34" t="n" s="11">
+      <c r="S34" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1543,27 +1817,30 @@
         <v>34.0</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G35" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H35" t="n" s="10">
+      <c r="H35" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I35" t="n" s="11">
+      <c r="I35" t="n" s="12">
         <v>0.09097222222222222</v>
       </c>
-      <c r="O35" t="n" s="11">
+      <c r="J35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P35" t="n" s="11">
+      <c r="P35" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R35" t="n" s="11">
+      <c r="R35" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S35" t="n" s="11">
+      <c r="S35" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1578,27 +1855,30 @@
         <v>35.0</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G36" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H36" t="n" s="10">
+      <c r="H36" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I36" t="n" s="11">
+      <c r="I36" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O36" t="n" s="11">
+      <c r="J36" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P36" t="n" s="11">
+      <c r="P36" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R36" t="n" s="11">
+      <c r="R36" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S36" t="n" s="11">
+      <c r="S36" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -1613,27 +1893,30 @@
         <v>36.0</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H37" t="n" s="10">
+      <c r="H37" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I37" t="n" s="11">
+      <c r="I37" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O37" t="n" s="11">
+      <c r="J37" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P37" t="n" s="11">
+      <c r="P37" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R37" t="n" s="11">
+      <c r="R37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S37" t="n" s="11">
+      <c r="S37" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1648,27 +1931,30 @@
         <v>37.0</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H38" t="n" s="10">
+      <c r="H38" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I38" t="n" s="11">
+      <c r="I38" t="n" s="12">
         <v>0.10416666666666667</v>
       </c>
-      <c r="O38" t="n" s="11">
+      <c r="J38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P38" t="n" s="11">
+      <c r="P38" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R38" t="n" s="11">
+      <c r="R38" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S38" t="n" s="11">
+      <c r="S38" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1683,27 +1969,30 @@
         <v>38.0</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H39" t="n" s="10">
+      <c r="H39" t="n" s="11">
         <v>0.005555555555555556</v>
       </c>
-      <c r="I39" t="n" s="11">
+      <c r="I39" t="n" s="12">
         <v>0.03333333333333333</v>
       </c>
-      <c r="O39" t="n" s="11">
+      <c r="J39" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P39" t="n" s="11">
+      <c r="P39" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R39" t="s" s="11">
+      <c r="R39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S39" t="s" s="11">
+      <c r="S39" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -1723,22 +2012,25 @@
       <c r="G40" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H40" t="n" s="10">
+      <c r="H40" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I40" t="n" s="11">
+      <c r="I40" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O40" t="n" s="11">
+      <c r="J40" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P40" t="n" s="11">
+      <c r="P40" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R40" t="n" s="11">
+      <c r="R40" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S40" t="n" s="11">
+      <c r="S40" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -1753,27 +2045,30 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G41" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H41" t="n" s="10">
+      <c r="H41" t="n" s="11">
         <v>0.02013888888888889</v>
       </c>
-      <c r="I41" t="n" s="11">
+      <c r="I41" t="n" s="12">
         <v>0.06041666666666667</v>
       </c>
-      <c r="O41" t="n" s="11">
+      <c r="J41" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P41" t="n" s="11">
+      <c r="P41" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R41" t="n" s="11">
+      <c r="R41" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S41" t="n" s="11">
+      <c r="S41" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -1788,27 +2083,30 @@
         <v>41.0</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G42" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H42" t="n" s="10">
+      <c r="H42" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I42" t="n" s="11">
+      <c r="I42" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O42" t="n" s="11">
+      <c r="J42" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P42" t="n" s="11">
+      <c r="P42" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R42" t="n" s="11">
+      <c r="R42" t="n" s="12">
         <v>0.9222222222222223</v>
       </c>
-      <c r="S42" t="n" s="11">
+      <c r="S42" t="n" s="12">
         <v>0.95</v>
       </c>
     </row>
@@ -1823,27 +2121,30 @@
         <v>42.0</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G43" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H43" t="n" s="10">
+      <c r="H43" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I43" t="n" s="11">
+      <c r="I43" t="n" s="12">
         <v>0.05138888888888889</v>
       </c>
-      <c r="O43" t="n" s="11">
+      <c r="J43" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="P43" t="n" s="11">
+      <c r="P43" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
-      <c r="R43" t="n" s="11">
+      <c r="R43" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S43" t="n" s="11">
+      <c r="S43" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1863,22 +2164,25 @@
       <c r="G44" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H44" t="n" s="10">
+      <c r="H44" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I44" t="n" s="11">
+      <c r="I44" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O44" t="n" s="11">
+      <c r="J44" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P44" t="n" s="11">
+      <c r="P44" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="R44" t="n" s="11">
+      <c r="R44" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S44" t="n" s="11">
+      <c r="S44" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1893,27 +2197,30 @@
         <v>45.0</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H45" t="n" s="10">
+      <c r="H45" t="n" s="11">
         <v>0.015277777777777777</v>
       </c>
-      <c r="I45" t="n" s="11">
+      <c r="I45" t="n" s="12">
         <v>0.03125</v>
       </c>
-      <c r="O45" t="n" s="11">
+      <c r="J45" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P45" t="n" s="11">
+      <c r="P45" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="R45" t="n" s="11">
+      <c r="R45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S45" t="n" s="11">
+      <c r="S45" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1928,27 +2235,30 @@
         <v>45.099998474121094</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G46" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H46" t="n" s="10">
+      <c r="H46" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I46" t="n" s="11">
+      <c r="I46" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O46" t="n" s="11">
+      <c r="J46" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P46" t="n" s="11">
+      <c r="P46" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R46" t="n" s="11">
+      <c r="R46" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
-      <c r="S46" t="n" s="11">
+      <c r="S46" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
     </row>
@@ -1963,27 +2273,30 @@
         <v>45.20000076293945</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H47" t="n" s="10">
+      <c r="H47" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I47" t="n" s="11">
+      <c r="I47" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O47" t="n" s="11">
+      <c r="J47" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P47" t="n" s="11">
+      <c r="P47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R47" t="n" s="11">
+      <c r="R47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S47" t="n" s="11">
+      <c r="S47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -1998,27 +2311,30 @@
         <v>46.0</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H48" t="n" s="10">
+      <c r="H48" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I48" t="n" s="11">
+      <c r="I48" t="n" s="12">
         <v>0.08888888888888889</v>
       </c>
-      <c r="O48" t="n" s="11">
+      <c r="J48" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P48" t="n" s="11">
+      <c r="P48" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R48" t="n" s="11">
+      <c r="R48" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S48" t="n" s="11">
+      <c r="S48" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2033,27 +2349,30 @@
         <v>47.0</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G49" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H49" t="n" s="10">
+      <c r="H49" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I49" t="n" s="11">
+      <c r="I49" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O49" t="n" s="11">
+      <c r="J49" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P49" t="n" s="11">
+      <c r="P49" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R49" t="n" s="11">
+      <c r="R49" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S49" t="n" s="11">
+      <c r="S49" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2068,27 +2387,30 @@
         <v>49.0</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G50" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H50" t="n" s="10">
+      <c r="H50" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I50" t="n" s="11">
+      <c r="I50" t="n" s="12">
         <v>0.06458333333333334</v>
       </c>
-      <c r="O50" t="n" s="11">
+      <c r="J50" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P50" t="n" s="11">
+      <c r="P50" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R50" t="n" s="11">
+      <c r="R50" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S50" t="n" s="11">
+      <c r="S50" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2108,22 +2430,25 @@
       <c r="G51" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H51" t="n" s="10">
+      <c r="H51" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I51" t="n" s="11">
+      <c r="I51" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O51" t="n" s="11">
+      <c r="J51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P51" t="n" s="11">
+      <c r="P51" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R51" t="n" s="11">
+      <c r="R51" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S51" t="n" s="11">
+      <c r="S51" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2138,27 +2463,30 @@
         <v>51.0</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n" s="9">
         <v>13.0</v>
       </c>
-      <c r="H52" t="n" s="10">
+      <c r="H52" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I52" t="n" s="11">
+      <c r="I52" t="n" s="12">
         <v>0.13541666666666666</v>
       </c>
-      <c r="O52" t="n" s="11">
+      <c r="J52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P52" t="n" s="11">
+      <c r="P52" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R52" t="n" s="11">
+      <c r="R52" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S52" t="n" s="11">
+      <c r="S52" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -2173,27 +2501,30 @@
         <v>52.0</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G53" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H53" t="n" s="10">
+      <c r="H53" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I53" t="n" s="11">
+      <c r="I53" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O53" t="n" s="11">
+      <c r="J53" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P53" t="n" s="11">
+      <c r="P53" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R53" t="n" s="11">
+      <c r="R53" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S53" t="n" s="11">
+      <c r="S53" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -2208,27 +2539,30 @@
         <v>53.0</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G54" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H54" t="n" s="10">
+      <c r="H54" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I54" t="n" s="11">
+      <c r="I54" t="n" s="12">
         <v>0.04791666666666667</v>
       </c>
-      <c r="O54" t="n" s="11">
+      <c r="J54" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
-      <c r="P54" t="n" s="11">
+      <c r="P54" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R54" t="n" s="11">
+      <c r="R54" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S54" t="n" s="11">
+      <c r="S54" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2243,27 +2577,30 @@
         <v>54.0</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H55" t="n" s="10">
+      <c r="H55" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I55" t="n" s="11">
+      <c r="I55" t="n" s="12">
         <v>0.09583333333333334</v>
       </c>
-      <c r="O55" t="n" s="11">
+      <c r="J55" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P55" t="n" s="11">
+      <c r="P55" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R55" t="n" s="11">
+      <c r="R55" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S55" t="n" s="11">
+      <c r="S55" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2283,22 +2620,25 @@
       <c r="G56" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H56" t="n" s="10">
+      <c r="H56" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I56" t="n" s="11">
+      <c r="I56" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O56" t="n" s="11">
+      <c r="J56" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P56" t="n" s="11">
+      <c r="P56" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R56" t="n" s="11">
+      <c r="R56" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S56" t="n" s="11">
+      <c r="S56" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2313,27 +2653,30 @@
         <v>57.0</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G57" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H57" t="n" s="10">
+      <c r="H57" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I57" t="n" s="11">
+      <c r="I57" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O57" t="n" s="11">
+      <c r="J57" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P57" t="n" s="11">
+      <c r="P57" t="n" s="12">
         <v>0.9548611111111112</v>
       </c>
-      <c r="R57" t="n" s="11">
+      <c r="R57" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S57" t="n" s="11">
+      <c r="S57" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -2348,27 +2691,30 @@
         <v>58.0</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G58" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H58" t="n" s="10">
+      <c r="H58" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I58" t="n" s="11">
+      <c r="I58" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O58" t="n" s="11">
+      <c r="J58" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P58" t="n" s="11">
+      <c r="P58" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R58" t="n" s="11">
+      <c r="R58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S58" t="n" s="11">
+      <c r="S58" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2383,27 +2729,30 @@
         <v>59.0</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H59" t="n" s="10">
+      <c r="H59" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I59" t="n" s="11">
+      <c r="I59" t="n" s="12">
         <v>0.06805555555555555</v>
       </c>
-      <c r="O59" t="n" s="11">
+      <c r="J59" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P59" t="n" s="11">
+      <c r="P59" t="n" s="12">
         <v>0.94375</v>
       </c>
-      <c r="R59" t="n" s="11">
+      <c r="R59" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S59" t="n" s="11">
+      <c r="S59" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2418,27 +2767,30 @@
         <v>60.0</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H60" t="n" s="10">
+      <c r="H60" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I60" t="n" s="11">
+      <c r="I60" t="n" s="12">
         <v>0.075</v>
       </c>
-      <c r="O60" t="n" s="11">
+      <c r="J60" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P60" t="n" s="11">
+      <c r="P60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R60" t="n" s="11">
+      <c r="R60" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S60" t="n" s="11">
+      <c r="S60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -2453,27 +2805,30 @@
         <v>62.0</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G61" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H61" t="n" s="10">
+      <c r="H61" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I61" t="n" s="11">
+      <c r="I61" t="n" s="12">
         <v>0.08263888888888889</v>
       </c>
-      <c r="O61" t="n" s="11">
+      <c r="J61" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P61" t="n" s="11">
+      <c r="P61" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R61" t="n" s="11">
+      <c r="R61" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S61" t="n" s="11">
+      <c r="S61" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2488,27 +2843,30 @@
         <v>64.0</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G62" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H62" t="n" s="10">
+      <c r="H62" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I62" t="n" s="11">
+      <c r="I62" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O62" t="n" s="11">
+      <c r="J62" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P62" t="n" s="11">
+      <c r="P62" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R62" t="n" s="11">
+      <c r="R62" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S62" t="n" s="11">
+      <c r="S62" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2523,27 +2881,30 @@
         <v>65.0</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G63" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H63" t="n" s="10">
+      <c r="H63" t="n" s="11">
         <v>0.016666666666666666</v>
       </c>
-      <c r="I63" t="n" s="11">
+      <c r="I63" t="n" s="12">
         <v>0.03333333333333333</v>
       </c>
-      <c r="O63" t="n" s="11">
+      <c r="J63" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="O63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="P63" t="n" s="11">
+      <c r="P63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R63" t="n" s="11">
+      <c r="R63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="S63" t="n" s="11">
+      <c r="S63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
     </row>
@@ -2558,27 +2919,30 @@
         <v>67.0</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G64" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H64" t="n" s="10">
+      <c r="H64" t="n" s="11">
         <v>0.03125</v>
       </c>
-      <c r="I64" t="n" s="11">
+      <c r="I64" t="n" s="12">
         <v>0.03125</v>
       </c>
-      <c r="O64" t="n" s="11">
+      <c r="J64" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P64" t="n" s="11">
+      <c r="P64" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R64" t="n" s="11">
+      <c r="R64" t="n" s="12">
         <v>0.8701388888888889</v>
       </c>
-      <c r="S64" t="n" s="11">
+      <c r="S64" t="n" s="12">
         <v>0.9013888888888889</v>
       </c>
     </row>
@@ -2593,27 +2957,30 @@
         <v>68.0</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H65" t="n" s="10">
+      <c r="H65" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I65" t="n" s="11">
+      <c r="I65" t="n" s="12">
         <v>0.035416666666666666</v>
       </c>
-      <c r="O65" t="n" s="11">
+      <c r="J65" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P65" t="n" s="11">
+      <c r="P65" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R65" t="n" s="11">
+      <c r="R65" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S65" t="n" s="11">
+      <c r="S65" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -2628,27 +2995,30 @@
         <v>70.0</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G66" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H66" t="n" s="10">
+      <c r="H66" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I66" t="n" s="11">
+      <c r="I66" t="n" s="12">
         <v>0.08472222222222223</v>
       </c>
-      <c r="O66" t="n" s="11">
+      <c r="J66" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P66" t="n" s="11">
+      <c r="P66" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R66" t="n" s="11">
+      <c r="R66" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S66" t="n" s="11">
+      <c r="S66" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2668,22 +3038,25 @@
       <c r="G67" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H67" t="n" s="10">
+      <c r="H67" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I67" t="n" s="11">
+      <c r="I67" t="n" s="12">
         <v>0.0875</v>
       </c>
-      <c r="O67" t="n" s="11">
+      <c r="J67" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P67" t="n" s="11">
+      <c r="P67" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R67" t="n" s="11">
+      <c r="R67" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S67" t="n" s="11">
+      <c r="S67" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2703,22 +3076,25 @@
       <c r="G68" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H68" t="n" s="10">
+      <c r="H68" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I68" t="n" s="11">
+      <c r="I68" t="n" s="12">
         <v>0.06458333333333334</v>
       </c>
-      <c r="O68" t="n" s="11">
+      <c r="J68" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P68" t="n" s="11">
+      <c r="P68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
-      <c r="R68" t="n" s="11">
+      <c r="R68" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S68" t="n" s="11">
+      <c r="S68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2733,27 +3109,30 @@
         <v>73.0</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H69" t="n" s="10">
+      <c r="H69" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I69" t="n" s="11">
+      <c r="I69" t="n" s="12">
         <v>0.029166666666666667</v>
       </c>
-      <c r="O69" t="n" s="11">
+      <c r="J69" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P69" t="n" s="11">
+      <c r="P69" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R69" t="n" s="11">
+      <c r="R69" t="n" s="12">
         <v>0.9284722222222223</v>
       </c>
-      <c r="S69" t="n" s="11">
+      <c r="S69" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -2768,27 +3147,30 @@
         <v>74.0</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G70" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H70" t="n" s="10">
+      <c r="H70" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I70" t="n" s="11">
+      <c r="I70" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O70" t="n" s="11">
+      <c r="J70" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P70" t="n" s="11">
+      <c r="P70" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R70" t="n" s="11">
+      <c r="R70" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S70" t="n" s="11">
+      <c r="S70" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2803,27 +3185,30 @@
         <v>75.0</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G71" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H71" t="n" s="10">
+      <c r="H71" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I71" t="n" s="11">
+      <c r="I71" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O71" t="n" s="11">
+      <c r="J71" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P71" t="n" s="11">
+      <c r="P71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R71" t="n" s="11">
+      <c r="R71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S71" t="n" s="11">
+      <c r="S71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -2838,27 +3223,30 @@
         <v>77.0</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G72" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H72" t="n" s="10">
+      <c r="H72" t="n" s="11">
         <v>0.034722222222222224</v>
       </c>
-      <c r="I72" t="n" s="11">
+      <c r="I72" t="n" s="12">
         <v>0.034722222222222224</v>
       </c>
-      <c r="O72" t="n" s="11">
+      <c r="J72" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P72" t="n" s="11">
+      <c r="P72" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R72" t="n" s="11">
+      <c r="R72" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S72" t="n" s="11">
+      <c r="S72" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
     </row>
@@ -2873,27 +3261,30 @@
         <v>78.0</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H73" t="n" s="10">
+      <c r="H73" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I73" t="n" s="11">
+      <c r="I73" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O73" t="n" s="11">
+      <c r="J73" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P73" t="n" s="11">
+      <c r="P73" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R73" t="n" s="11">
+      <c r="R73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S73" t="n" s="11">
+      <c r="S73" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2908,27 +3299,30 @@
         <v>79.0</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H74" t="n" s="10">
+      <c r="H74" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I74" t="n" s="11">
+      <c r="I74" t="n" s="12">
         <v>0.022222222222222223</v>
       </c>
-      <c r="O74" t="n" s="11">
+      <c r="J74" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="P74" t="n" s="11">
+      <c r="P74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R74" t="n" s="11">
+      <c r="R74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="S74" t="n" s="11">
+      <c r="S74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -2948,22 +3342,25 @@
       <c r="G75" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H75" t="n" s="10">
+      <c r="H75" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I75" t="n" s="11">
+      <c r="I75" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="O75" t="n" s="11">
+      <c r="J75" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P75" t="n" s="11">
+      <c r="P75" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R75" t="n" s="11">
+      <c r="R75" t="n" s="12">
         <v>0.8631944444444445</v>
       </c>
-      <c r="S75" t="n" s="11">
+      <c r="S75" t="n" s="12">
         <v>0.9118055555555555</v>
       </c>
     </row>
@@ -2978,27 +3375,30 @@
         <v>81.0</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G76" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H76" t="n" s="10">
+      <c r="H76" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I76" t="n" s="11">
+      <c r="I76" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O76" t="n" s="11">
+      <c r="J76" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
       </c>
-      <c r="P76" t="n" s="11">
+      <c r="P76" t="n" s="12">
         <v>0.8743055555555556</v>
       </c>
-      <c r="R76" t="n" s="11">
+      <c r="R76" t="n" s="12">
         <v>0.7805555555555556</v>
       </c>
-      <c r="S76" t="n" s="11">
+      <c r="S76" t="n" s="12">
         <v>0.8430555555555556</v>
       </c>
     </row>
@@ -3013,27 +3413,30 @@
         <v>82.0</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G77" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H77" t="n" s="10">
+      <c r="H77" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I77" t="n" s="11">
+      <c r="I77" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O77" t="n" s="11">
+      <c r="J77" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
-      <c r="P77" t="n" s="11">
+      <c r="P77" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R77" t="n" s="11">
+      <c r="R77" t="n" s="12">
         <v>0.8020833333333334</v>
       </c>
-      <c r="S77" t="n" s="11">
+      <c r="S77" t="n" s="12">
         <v>0.84375</v>
       </c>
     </row>
@@ -3048,27 +3451,30 @@
         <v>84.0</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H78" t="n" s="10">
+      <c r="H78" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I78" t="n" s="11">
+      <c r="I78" t="n" s="12">
         <v>0.075</v>
       </c>
-      <c r="O78" t="n" s="11">
+      <c r="J78" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
       </c>
-      <c r="P78" t="n" s="11">
+      <c r="P78" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R78" t="n" s="11">
+      <c r="R78" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="S78" t="n" s="11">
+      <c r="S78" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -3083,27 +3489,30 @@
         <v>86.0</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H79" t="n" s="10">
+      <c r="H79" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I79" t="n" s="11">
+      <c r="I79" t="n" s="12">
         <v>0.08888888888888889</v>
       </c>
-      <c r="O79" t="n" s="11">
+      <c r="J79" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P79" t="n" s="11">
+      <c r="P79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R79" t="n" s="11">
+      <c r="R79" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S79" t="n" s="11">
+      <c r="S79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -3118,27 +3527,30 @@
         <v>87.0</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H80" t="n" s="10">
+      <c r="H80" t="n" s="11">
         <v>0.014583333333333334</v>
       </c>
-      <c r="I80" t="n" s="11">
+      <c r="I80" t="n" s="12">
         <v>0.04375</v>
       </c>
-      <c r="O80" t="n" s="11">
+      <c r="J80" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P80" t="n" s="11">
+      <c r="P80" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R80" t="s" s="11">
+      <c r="R80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S80" t="s" s="11">
+      <c r="S80" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -3153,27 +3565,30 @@
         <v>88.0</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H81" t="n" s="10">
+      <c r="H81" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I81" t="n" s="11">
+      <c r="I81" t="n" s="12">
         <v>0.08680555555555555</v>
       </c>
-      <c r="O81" t="n" s="11">
+      <c r="J81" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="P81" t="n" s="11">
+      <c r="P81" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R81" t="n" s="11">
+      <c r="R81" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="S81" t="n" s="11">
+      <c r="S81" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3188,27 +3603,30 @@
         <v>89.0</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G82" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H82" t="n" s="10">
+      <c r="H82" t="n" s="11">
         <v>0.022916666666666665</v>
       </c>
-      <c r="I82" t="n" s="11">
+      <c r="I82" t="n" s="12">
         <v>0.04583333333333333</v>
       </c>
-      <c r="O82" t="n" s="11">
+      <c r="J82" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="P82" t="n" s="11">
+      <c r="P82" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R82" t="n" s="11">
+      <c r="R82" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="S82" t="n" s="11">
+      <c r="S82" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3223,27 +3641,30 @@
         <v>90.0</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G83" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H83" t="n" s="10">
+      <c r="H83" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I83" t="n" s="11">
+      <c r="I83" t="n" s="12">
         <v>0.052083333333333336</v>
       </c>
-      <c r="O83" t="n" s="11">
+      <c r="J83" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P83" t="n" s="11">
+      <c r="P83" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R83" t="n" s="11">
+      <c r="R83" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S83" t="n" s="11">
+      <c r="S83" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -3258,27 +3679,30 @@
         <v>91.0</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G84" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H84" t="n" s="10">
+      <c r="H84" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I84" t="n" s="11">
+      <c r="I84" t="n" s="12">
         <v>0.05555555555555555</v>
       </c>
-      <c r="O84" t="n" s="11">
+      <c r="J84" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P84" t="n" s="11">
+      <c r="P84" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R84" t="n" s="11">
+      <c r="R84" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="S84" t="n" s="11">
+      <c r="S84" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
     </row>
@@ -3293,27 +3717,30 @@
         <v>92.0</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G85" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H85" t="n" s="10">
+      <c r="H85" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I85" t="n" s="11">
+      <c r="I85" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O85" t="n" s="11">
+      <c r="J85" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P85" t="n" s="11">
+      <c r="P85" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R85" t="n" s="11">
+      <c r="R85" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S85" t="n" s="11">
+      <c r="S85" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -3328,27 +3755,30 @@
         <v>94.0</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G86" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H86" t="n" s="10">
+      <c r="H86" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I86" t="n" s="11">
+      <c r="I86" t="n" s="12">
         <v>0.04722222222222222</v>
       </c>
-      <c r="O86" t="n" s="11">
+      <c r="J86" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="P86" t="n" s="11">
+      <c r="P86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R86" t="n" s="11">
+      <c r="R86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S86" t="n" s="11">
+      <c r="S86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3363,27 +3793,30 @@
         <v>95.0</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G87" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H87" t="n" s="10">
+      <c r="H87" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I87" t="n" s="11">
+      <c r="I87" t="n" s="12">
         <v>0.09930555555555555</v>
       </c>
-      <c r="O87" t="n" s="11">
+      <c r="J87" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
       </c>
-      <c r="P87" t="n" s="11">
+      <c r="P87" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R87" t="n" s="11">
+      <c r="R87" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S87" t="n" s="11">
+      <c r="S87" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -3398,27 +3831,30 @@
         <v>99.0</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G88" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H88" t="n" s="10">
+      <c r="H88" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I88" t="n" s="11">
+      <c r="I88" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O88" t="n" s="11">
+      <c r="J88" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P88" t="n" s="11">
+      <c r="P88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R88" t="n" s="11">
+      <c r="R88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S88" t="n" s="11">
+      <c r="S88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3433,27 +3869,30 @@
         <v>101.0</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G89" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H89" t="n" s="10">
+      <c r="H89" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I89" t="n" s="11">
+      <c r="I89" t="n" s="12">
         <v>0.09375</v>
       </c>
-      <c r="O89" t="n" s="11">
+      <c r="J89" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="P89" t="n" s="11">
+      <c r="P89" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
-      <c r="R89" t="n" s="11">
+      <c r="R89" t="n" s="12">
         <v>0.9069444444444444</v>
       </c>
-      <c r="S89" t="n" s="11">
+      <c r="S89" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3468,27 +3907,30 @@
         <v>102.0</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G90" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H90" t="n" s="10">
+      <c r="H90" t="n" s="11">
         <v>0.018055555555555554</v>
       </c>
-      <c r="I90" t="n" s="11">
+      <c r="I90" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="O90" t="n" s="11">
+      <c r="J90" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P90" t="n" s="11">
+      <c r="P90" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R90" t="n" s="11">
+      <c r="R90" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="S90" t="n" s="11">
+      <c r="S90" t="n" s="12">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -3503,27 +3945,30 @@
         <v>103.0</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G91" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H91" t="n" s="10">
+      <c r="H91" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I91" t="n" s="11">
+      <c r="I91" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O91" t="n" s="11">
+      <c r="J91" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P91" t="n" s="11">
+      <c r="P91" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="R91" t="n" s="11">
+      <c r="R91" t="n" s="12">
         <v>0.8611111111111112</v>
       </c>
-      <c r="S91" t="n" s="11">
+      <c r="S91" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
     </row>
@@ -3538,27 +3983,30 @@
         <v>104.0</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G92" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H92" t="n" s="10">
+      <c r="H92" t="n" s="11">
         <v>0.024305555555555556</v>
       </c>
-      <c r="I92" t="n" s="11">
+      <c r="I92" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="O92" t="n" s="11">
+      <c r="J92" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P92" t="n" s="11">
+      <c r="P92" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R92" t="n" s="11">
+      <c r="R92" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S92" t="n" s="11">
+      <c r="S92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
     </row>
@@ -3573,27 +4021,30 @@
         <v>106.0</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G93" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H93" t="n" s="10">
+      <c r="H93" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I93" t="n" s="11">
+      <c r="I93" t="n" s="12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O93" t="n" s="11">
+      <c r="J93" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
       </c>
-      <c r="P93" t="n" s="11">
+      <c r="P93" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" t="n" s="11">
+      <c r="R93" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S93" t="n" s="11">
+      <c r="S93" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
     </row>
@@ -3608,27 +4059,30 @@
         <v>107.0</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G94" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H94" t="n" s="10">
+      <c r="H94" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I94" t="n" s="11">
+      <c r="I94" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="O94" t="n" s="11">
+      <c r="J94" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
       </c>
-      <c r="P94" t="n" s="11">
+      <c r="P94" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R94" t="n" s="11">
+      <c r="R94" t="n" s="12">
         <v>0.8298611111111112</v>
       </c>
-      <c r="S94" t="n" s="11">
+      <c r="S94" t="n" s="12">
         <v>0.90625</v>
       </c>
     </row>
@@ -3643,27 +4097,30 @@
         <v>108.0</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G95" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H95" t="n" s="10">
+      <c r="H95" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I95" t="n" s="11">
+      <c r="I95" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="O95" t="n" s="11">
+      <c r="J95" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P95" t="n" s="11">
+      <c r="P95" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R95" t="n" s="11">
+      <c r="R95" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S95" t="n" s="11">
+      <c r="S95" t="n" s="12">
         <v>0.9520833333333333</v>
       </c>
     </row>
@@ -3678,27 +4135,30 @@
         <v>109.0</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G96" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H96" t="n" s="10">
+      <c r="H96" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I96" t="n" s="11">
+      <c r="I96" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="O96" t="n" s="11">
+      <c r="J96" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P96" t="n" s="11">
+      <c r="P96" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R96" t="n" s="11">
+      <c r="R96" t="n" s="12">
         <v>0.8694444444444445</v>
       </c>
-      <c r="S96" t="n" s="11">
+      <c r="S96" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
     </row>
@@ -3713,27 +4173,30 @@
         <v>110.0</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G97" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H97" t="n" s="10">
+      <c r="H97" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I97" t="n" s="11">
+      <c r="I97" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O97" t="n" s="11">
+      <c r="J97" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P97" t="n" s="11">
+      <c r="P97" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R97" t="n" s="11">
+      <c r="R97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S97" t="n" s="11">
+      <c r="S97" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3748,27 +4211,30 @@
         <v>112.0</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H98" t="n" s="10">
+      <c r="H98" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I98" t="n" s="11">
+      <c r="I98" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O98" t="n" s="11">
+      <c r="J98" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="O98" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P98" t="n" s="11">
+      <c r="P98" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="R98" t="n" s="11">
+      <c r="R98" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="S98" t="n" s="11">
+      <c r="S98" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
     </row>
@@ -3783,27 +4249,30 @@
         <v>121.0</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G99" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H99" t="n" s="10">
+      <c r="H99" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I99" t="n" s="11">
+      <c r="I99" t="n" s="12">
         <v>0.05555555555555555</v>
       </c>
-      <c r="O99" t="n" s="11">
+      <c r="J99" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P99" t="n" s="11">
+      <c r="P99" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R99" t="n" s="11">
+      <c r="R99" t="n" s="12">
         <v>0.93125</v>
       </c>
-      <c r="S99" t="n" s="11">
+      <c r="S99" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -3818,27 +4287,30 @@
         <v>122.0</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G100" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H100" t="n" s="10">
+      <c r="H100" t="n" s="11">
         <v>0.024305555555555556</v>
       </c>
-      <c r="I100" t="n" s="11">
+      <c r="I100" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="O100" t="n" s="11">
+      <c r="J100" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P100" t="n" s="11">
+      <c r="P100" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R100" t="n" s="11">
+      <c r="R100" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="S100" t="n" s="11">
+      <c r="S100" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
     </row>
@@ -3853,27 +4325,30 @@
         <v>124.0</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H101" t="n" s="10">
+      <c r="H101" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I101" t="n" s="11">
+      <c r="I101" t="n" s="12">
         <v>0.04791666666666667</v>
       </c>
-      <c r="O101" t="n" s="11">
+      <c r="J101" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P101" t="n" s="11">
+      <c r="P101" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R101" t="n" s="11">
+      <c r="R101" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S101" t="n" s="11">
+      <c r="S101" t="n" s="12">
         <v>0.9527777777777777</v>
       </c>
     </row>
@@ -3888,27 +4363,30 @@
         <v>150.0</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G102" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H102" t="n" s="10">
+      <c r="H102" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I102" t="n" s="11">
+      <c r="I102" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="O102" t="n" s="11">
+      <c r="J102" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P102" t="n" s="11">
+      <c r="P102" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R102" t="n" s="11">
+      <c r="R102" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S102" t="n" s="11">
+      <c r="S102" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3923,27 +4401,30 @@
         <v>301.0</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103" t="n" s="9">
         <v>16.0</v>
       </c>
-      <c r="H103" t="n" s="10">
+      <c r="H103" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I103" t="n" s="11">
+      <c r="I103" t="n" s="12">
         <v>0.13333333333333333</v>
       </c>
-      <c r="O103" t="n" s="11">
+      <c r="J103" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
       </c>
-      <c r="P103" t="n" s="11">
+      <c r="P103" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R103" t="n" s="11">
+      <c r="R103" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S103" t="n" s="11">
+      <c r="S103" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3958,27 +4439,30 @@
         <v>321.0</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G104" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H104" t="n" s="10">
+      <c r="H104" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I104" t="n" s="11">
+      <c r="I104" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="O104" t="n" s="11">
+      <c r="J104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P104" t="n" s="11">
+      <c r="P104" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R104" t="n" s="11">
+      <c r="R104" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S104" t="n" s="11">
+      <c r="S104" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3993,27 +4477,30 @@
         <v>332.0</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H105" t="n" s="10">
+      <c r="H105" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I105" t="n" s="11">
+      <c r="I105" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O105" t="n" s="11">
+      <c r="J105" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P105" t="n" s="11">
+      <c r="P105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R105" t="n" s="11">
+      <c r="R105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S105" t="n" s="11">
+      <c r="S105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -4033,22 +4520,25 @@
       <c r="G106" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H106" t="n" s="10">
+      <c r="H106" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I106" t="n" s="11">
+      <c r="I106" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="O106" t="n" s="11">
+      <c r="J106" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P106" t="n" s="11">
+      <c r="P106" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R106" t="n" s="11">
+      <c r="R106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="S106" t="n" s="11">
+      <c r="S106" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -4063,27 +4553,30 @@
         <v>339.0</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H107" t="n" s="10">
+      <c r="H107" t="n" s="11">
         <v>0.004861111111111111</v>
       </c>
-      <c r="I107" t="n" s="11">
+      <c r="I107" t="n" s="12">
         <v>0.019444444444444445</v>
       </c>
-      <c r="O107" t="n" s="11">
+      <c r="J107" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="P107" t="n" s="11">
+      <c r="P107" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R107" t="s" s="11">
+      <c r="R107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S107" t="s" s="11">
+      <c r="S107" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4098,27 +4591,30 @@
         <v>343.0</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G108" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H108" t="n" s="10">
+      <c r="H108" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I108" t="n" s="11">
+      <c r="I108" t="n" s="12">
         <v>0.09375</v>
       </c>
-      <c r="O108" t="n" s="11">
+      <c r="J108" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="P108" t="n" s="11">
+      <c r="P108" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R108" t="n" s="11">
+      <c r="R108" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S108" t="n" s="11">
+      <c r="S108" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -4133,27 +4629,30 @@
         <v>344.0</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G109" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H109" t="n" s="10">
+      <c r="H109" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I109" t="n" s="11">
+      <c r="I109" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="O109" t="n" s="11">
+      <c r="J109" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="P109" t="n" s="11">
+      <c r="P109" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R109" t="n" s="11">
+      <c r="R109" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S109" t="n" s="11">
+      <c r="S109" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -4168,27 +4667,30 @@
         <v>345.0</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G110" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="H110" t="n" s="10">
+      <c r="H110" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I110" t="n" s="11">
+      <c r="I110" t="n" s="12">
         <v>0.10416666666666667</v>
       </c>
-      <c r="O110" t="n" s="11">
+      <c r="J110" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P110" t="n" s="11">
+      <c r="P110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R110" t="n" s="11">
+      <c r="R110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S110" t="n" s="11">
+      <c r="S110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -4203,27 +4705,30 @@
         <v>346.0</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G111" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H111" t="n" s="10">
+      <c r="H111" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I111" t="n" s="11">
+      <c r="I111" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="O111" t="n" s="11">
+      <c r="J111" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="P111" t="n" s="11">
+      <c r="P111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R111" t="n" s="11">
+      <c r="R111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S111" t="n" s="11">
+      <c r="S111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -4238,27 +4743,30 @@
         <v>363.0</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G112" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H112" t="n" s="10">
+      <c r="H112" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I112" t="n" s="11">
+      <c r="I112" t="n" s="12">
         <v>0.07777777777777778</v>
       </c>
-      <c r="O112" t="n" s="11">
+      <c r="J112" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P112" t="n" s="11">
+      <c r="P112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R112" t="n" s="11">
+      <c r="R112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S112" t="n" s="11">
+      <c r="S112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -4273,27 +4781,30 @@
         <v>383.0</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G113" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H113" t="n" s="10">
+      <c r="H113" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I113" t="n" s="11">
+      <c r="I113" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="O113" t="n" s="11">
+      <c r="J113" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P113" t="n" s="11">
+      <c r="P113" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R113" t="n" s="11">
+      <c r="R113" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S113" t="n" s="11">
+      <c r="S113" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -4308,27 +4819,30 @@
         <v>385.0</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G114" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H114" t="n" s="10">
+      <c r="H114" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I114" t="n" s="11">
+      <c r="I114" t="n" s="12">
         <v>0.029166666666666667</v>
       </c>
-      <c r="O114" t="n" s="11">
+      <c r="J114" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P114" t="n" s="11">
+      <c r="P114" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R114" t="s" s="11">
+      <c r="R114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S114" t="s" s="11">
+      <c r="S114" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4343,27 +4857,30 @@
         <v>387.0</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G115" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H115" t="n" s="10">
+      <c r="H115" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I115" t="n" s="11">
+      <c r="I115" t="n" s="12">
         <v>0.030555555555555555</v>
       </c>
-      <c r="O115" t="n" s="11">
+      <c r="J115" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="P115" t="n" s="11">
+      <c r="P115" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R115" t="s" s="11">
+      <c r="R115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S115" t="s" s="11">
+      <c r="S115" t="s" s="12">
         <v>20</v>
       </c>
     </row>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -80,193 +80,16 @@
     <t>MAN A-47</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>BMC Procity</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>55</t>
   </si>
   <si>
     <t>Isuzu Novociti Life</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>MAN A-21</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>ბოგდან А092, A093</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>84</t>
   </si>
 </sst>
 </file>
@@ -276,7 +99,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode=""/>
     <numFmt numFmtId="165" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -688,8 +511,15 @@
       <c r="I5" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J5" t="s" s="10">
-        <v>22</v>
+      <c r="J5" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="K5" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="n" s="12">
+        <v>0.9770833333333333</v>
       </c>
       <c r="O5" t="n" s="12">
         <v>0.925</v>
@@ -715,7 +545,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n" s="9">
         <v>11.0</v>
@@ -726,8 +556,15 @@
       <c r="I6" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="J6" t="s" s="10">
-        <v>24</v>
+      <c r="J6" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="K6" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n" s="12">
+        <v>0.9826388888888888</v>
       </c>
       <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
@@ -753,7 +590,7 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n" s="9">
         <v>6.0</v>
@@ -764,8 +601,15 @@
       <c r="I7" t="n" s="12">
         <v>0.06666666666666667</v>
       </c>
-      <c r="J7" t="s" s="10">
-        <v>25</v>
+      <c r="J7" t="n" s="10">
+        <v>55.5</v>
+      </c>
+      <c r="K7" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="n" s="12">
+        <v>0.9736111111111111</v>
       </c>
       <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
@@ -791,7 +635,7 @@
         <v>4.0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n" s="9">
         <v>3.0</v>
@@ -802,8 +646,15 @@
       <c r="I8" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J8" t="s" s="10">
-        <v>27</v>
+      <c r="J8" t="n" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="K8" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
@@ -829,7 +680,7 @@
         <v>5.0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n" s="9">
         <v>2.0</v>
@@ -840,8 +691,15 @@
       <c r="I9" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J9" t="s" s="10">
-        <v>28</v>
+      <c r="J9" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="K9" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O9" t="n" s="12">
         <v>0.875</v>
@@ -867,7 +725,7 @@
         <v>6.0</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n" s="9">
         <v>7.0</v>
@@ -878,8 +736,15 @@
       <c r="I10" t="n" s="12">
         <v>0.09722222222222222</v>
       </c>
-      <c r="J10" t="s" s="10">
-        <v>29</v>
+      <c r="J10" t="n" s="10">
+        <v>44.5</v>
+      </c>
+      <c r="K10" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="n" s="12">
+        <v>1.0</v>
       </c>
       <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -905,7 +770,7 @@
         <v>7.0</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n" s="9">
         <v>3.0</v>
@@ -916,8 +781,15 @@
       <c r="I11" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J11" t="s" s="10">
-        <v>29</v>
+      <c r="J11" t="n" s="10">
+        <v>44.5</v>
+      </c>
+      <c r="K11" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O11" t="n" s="12">
         <v>0.9375</v>
@@ -943,7 +815,7 @@
         <v>9.0</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n" s="9">
         <v>5.0</v>
@@ -954,8 +826,15 @@
       <c r="I12" t="n" s="12">
         <v>0.052083333333333336</v>
       </c>
-      <c r="J12" t="s" s="10">
-        <v>31</v>
+      <c r="J12" t="n" s="10">
+        <v>62.0</v>
+      </c>
+      <c r="K12" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="n" s="12">
+        <v>0.9736111111111111</v>
       </c>
       <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -981,7 +860,7 @@
         <v>10.0</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n" s="9">
         <v>4.0</v>
@@ -992,8 +871,15 @@
       <c r="I13" t="n" s="12">
         <v>0.10694444444444444</v>
       </c>
-      <c r="J13" t="s" s="10">
-        <v>32</v>
+      <c r="J13" t="n" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="K13" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="n" s="12">
+        <v>0.9902777777777778</v>
       </c>
       <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1019,7 +905,7 @@
         <v>11.0</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n" s="9">
         <v>7.0</v>
@@ -1030,8 +916,15 @@
       <c r="I14" t="n" s="12">
         <v>0.0875</v>
       </c>
-      <c r="J14" t="s" s="10">
-        <v>33</v>
+      <c r="J14" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="K14" t="n" s="12">
+        <v>0.2861111111111111</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="n" s="12">
+        <v>0.9923611111111111</v>
       </c>
       <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -1057,7 +950,7 @@
         <v>12.0</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n" s="9">
         <v>4.0</v>
@@ -1068,8 +961,15 @@
       <c r="I15" t="n" s="12">
         <v>0.07361111111111111</v>
       </c>
-      <c r="J15" t="s" s="10">
-        <v>34</v>
+      <c r="J15" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="K15" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="n" s="12">
+        <v>0.9909722222222223</v>
       </c>
       <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -1095,7 +995,7 @@
         <v>14.0</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n" s="9">
         <v>11.0</v>
@@ -1106,8 +1006,15 @@
       <c r="I16" t="n" s="12">
         <v>0.09930555555555555</v>
       </c>
-      <c r="J16" t="s" s="10">
-        <v>35</v>
+      <c r="J16" t="n" s="10">
+        <v>67.5</v>
+      </c>
+      <c r="K16" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -1133,7 +1040,7 @@
         <v>15.0</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n" s="9">
         <v>6.0</v>
@@ -1144,8 +1051,15 @@
       <c r="I17" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J17" t="s" s="10">
-        <v>36</v>
+      <c r="J17" t="n" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="K17" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1171,7 +1085,7 @@
         <v>16.0</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n" s="9">
         <v>1.0</v>
@@ -1182,8 +1096,15 @@
       <c r="I18" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J18" t="s" s="10">
-        <v>37</v>
+      <c r="J18" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="K18" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="n" s="12">
+        <v>0.9166666666666666</v>
       </c>
       <c r="O18" t="n" s="12">
         <v>0.8125</v>
@@ -1209,7 +1130,7 @@
         <v>17.0</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>7.0</v>
@@ -1220,8 +1141,15 @@
       <c r="I19" t="n" s="12">
         <v>0.07291666666666667</v>
       </c>
-      <c r="J19" t="s" s="10">
-        <v>38</v>
+      <c r="J19" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="K19" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O19" t="n" s="12">
         <v>0.90625</v>
@@ -1247,7 +1175,7 @@
         <v>18.0</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n" s="9">
         <v>3.0</v>
@@ -1258,8 +1186,15 @@
       <c r="I20" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J20" t="s" s="10">
-        <v>32</v>
+      <c r="J20" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="K20" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -1296,8 +1231,15 @@
       <c r="I21" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="J21" t="s" s="10">
-        <v>39</v>
+      <c r="J21" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="K21" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="n" s="12">
+        <v>0.9868055555555556</v>
       </c>
       <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -1323,7 +1265,7 @@
         <v>21.0</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n" s="9">
         <v>11.0</v>
@@ -1334,8 +1276,15 @@
       <c r="I22" t="n" s="12">
         <v>0.12986111111111112</v>
       </c>
-      <c r="J22" t="s" s="10">
-        <v>40</v>
+      <c r="J22" t="n" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="K22" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="n" s="12">
+        <v>1.0118055555555556</v>
       </c>
       <c r="O22" t="n" s="12">
         <v>0.89375</v>
@@ -1361,7 +1310,7 @@
         <v>22.0</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n" s="9">
         <v>3.0</v>
@@ -1372,8 +1321,15 @@
       <c r="I23" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J23" t="s" s="10">
-        <v>27</v>
+      <c r="J23" t="n" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="K23" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O23" t="n" s="12">
         <v>0.875</v>
@@ -1399,7 +1355,7 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n" s="9">
         <v>9.0</v>
@@ -1410,8 +1366,15 @@
       <c r="I24" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="J24" t="s" s="10">
-        <v>41</v>
+      <c r="J24" t="n" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="K24" t="n" s="12">
+        <v>0.3013888888888889</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="n" s="12">
+        <v>0.9909722222222223</v>
       </c>
       <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
@@ -1437,7 +1400,7 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n" s="9">
         <v>10.0</v>
@@ -1448,8 +1411,15 @@
       <c r="I25" t="n" s="12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J25" t="s" s="10">
-        <v>42</v>
+      <c r="J25" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="K25" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="n" s="12">
+        <v>0.9986111111111111</v>
       </c>
       <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1486,8 +1456,15 @@
       <c r="I26" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="J26" t="s" s="10">
-        <v>43</v>
+      <c r="J26" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="K26" t="n" s="12">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="n" s="12">
+        <v>0.9784722222222222</v>
       </c>
       <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
@@ -1513,7 +1490,7 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n" s="9">
         <v>1.0</v>
@@ -1524,8 +1501,15 @@
       <c r="I27" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="J27" t="s" s="10">
-        <v>44</v>
+      <c r="J27" t="n" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="K27" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="n" s="12">
+        <v>0.9131944444444444</v>
       </c>
       <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
@@ -1551,7 +1535,7 @@
         <v>27.0</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n" s="9">
         <v>6.0</v>
@@ -1562,8 +1546,15 @@
       <c r="I28" t="n" s="12">
         <v>0.06041666666666667</v>
       </c>
-      <c r="J28" t="s" s="10">
-        <v>45</v>
+      <c r="J28" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="K28" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n" s="12">
+        <v>0.9763888888888889</v>
       </c>
       <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
@@ -1589,7 +1580,7 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n" s="9">
         <v>4.0</v>
@@ -1600,8 +1591,15 @@
       <c r="I29" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J29" t="s" s="10">
-        <v>41</v>
+      <c r="J29" t="n" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="K29" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -1627,7 +1625,7 @@
         <v>29.0</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n" s="9">
         <v>3.0</v>
@@ -1638,8 +1636,15 @@
       <c r="I30" t="n" s="12">
         <v>0.06875</v>
       </c>
-      <c r="J30" t="s" s="10">
-        <v>46</v>
+      <c r="J30" t="n" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="K30" t="n" s="12">
+        <v>0.29375</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -1665,7 +1670,7 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n" s="9">
         <v>3.0</v>
@@ -1676,8 +1681,15 @@
       <c r="I31" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J31" t="s" s="10">
-        <v>48</v>
+      <c r="J31" t="n" s="10">
+        <v>29.5</v>
+      </c>
+      <c r="K31" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O31" t="n" s="12">
         <v>0.90625</v>
@@ -1703,7 +1715,7 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" t="n" s="9">
         <v>5.0</v>
@@ -1714,8 +1726,15 @@
       <c r="I32" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J32" t="s" s="10">
-        <v>36</v>
+      <c r="J32" t="n" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="K32" t="n" s="12">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32" t="n" s="12">
+        <v>0.9833333333333333</v>
       </c>
       <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -1741,7 +1760,7 @@
         <v>32.0</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n" s="9">
         <v>4.0</v>
@@ -1752,8 +1771,15 @@
       <c r="I33" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J33" t="s" s="10">
-        <v>49</v>
+      <c r="J33" t="n" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="K33" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1779,7 +1805,7 @@
         <v>33.0</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n" s="9">
         <v>9.0</v>
@@ -1790,8 +1816,15 @@
       <c r="I34" t="n" s="12">
         <v>0.1</v>
       </c>
-      <c r="J34" t="s" s="10">
-        <v>50</v>
+      <c r="J34" t="n" s="10">
+        <v>53.5</v>
+      </c>
+      <c r="K34" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="n" s="12">
+        <v>0.9951388888888889</v>
       </c>
       <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -1817,7 +1850,7 @@
         <v>34.0</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n" s="9">
         <v>9.0</v>
@@ -1828,8 +1861,15 @@
       <c r="I35" t="n" s="12">
         <v>0.09097222222222222</v>
       </c>
-      <c r="J35" t="s" s="10">
-        <v>51</v>
+      <c r="J35" t="n" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="K35" t="n" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="n" s="12">
+        <v>0.9923611111111111</v>
       </c>
       <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1855,7 +1895,7 @@
         <v>35.0</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n" s="9">
         <v>1.0</v>
@@ -1866,8 +1906,15 @@
       <c r="I36" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J36" t="s" s="10">
-        <v>52</v>
+      <c r="J36" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="K36" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="n" s="12">
+        <v>0.9375</v>
       </c>
       <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
@@ -1893,7 +1940,7 @@
         <v>36.0</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n" s="9">
         <v>6.0</v>
@@ -1904,8 +1951,15 @@
       <c r="I37" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J37" t="s" s="10">
-        <v>53</v>
+      <c r="J37" t="n" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="K37" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -1931,7 +1985,7 @@
         <v>37.0</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n" s="9">
         <v>10.0</v>
@@ -1942,8 +1996,15 @@
       <c r="I38" t="n" s="12">
         <v>0.10416666666666667</v>
       </c>
-      <c r="J38" t="s" s="10">
-        <v>51</v>
+      <c r="J38" t="n" s="10">
+        <v>63.0</v>
+      </c>
+      <c r="K38" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="n" s="12">
+        <v>1.0</v>
       </c>
       <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -1969,7 +2030,7 @@
         <v>38.0</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" t="n" s="9">
         <v>6.0</v>
@@ -1980,8 +2041,15 @@
       <c r="I39" t="n" s="12">
         <v>0.03333333333333333</v>
       </c>
-      <c r="J39" t="s" s="10">
-        <v>54</v>
+      <c r="J39" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="K39" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="n" s="12">
+        <v>0.975</v>
       </c>
       <c r="O39" t="n" s="12">
         <v>0.925</v>
@@ -2018,8 +2086,15 @@
       <c r="I40" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J40" t="s" s="10">
-        <v>55</v>
+      <c r="J40" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="K40" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2045,7 +2120,7 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n" s="9">
         <v>3.0</v>
@@ -2056,8 +2131,15 @@
       <c r="I41" t="n" s="12">
         <v>0.06041666666666667</v>
       </c>
-      <c r="J41" t="s" s="10">
-        <v>56</v>
+      <c r="J41" t="n" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="K41" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -2083,7 +2165,7 @@
         <v>41.0</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G42" t="n" s="9">
         <v>3.0</v>
@@ -2094,8 +2176,15 @@
       <c r="I42" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J42" t="s" s="10">
-        <v>32</v>
+      <c r="J42" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="K42" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="n" s="12">
+        <v>0.9930555555555556</v>
       </c>
       <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -2121,7 +2210,7 @@
         <v>42.0</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n" s="9">
         <v>4.0</v>
@@ -2132,8 +2221,15 @@
       <c r="I43" t="n" s="12">
         <v>0.05138888888888889</v>
       </c>
-      <c r="J43" t="s" s="10">
-        <v>57</v>
+      <c r="J43" t="n" s="10">
+        <v>48.5</v>
+      </c>
+      <c r="K43" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
@@ -2170,8 +2266,15 @@
       <c r="I44" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J44" t="s" s="10">
-        <v>49</v>
+      <c r="J44" t="n" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="K44" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2197,7 +2300,7 @@
         <v>45.0</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n" s="9">
         <v>2.0</v>
@@ -2208,8 +2311,15 @@
       <c r="I45" t="n" s="12">
         <v>0.03125</v>
       </c>
-      <c r="J45" t="s" s="10">
-        <v>58</v>
+      <c r="J45" t="n" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="K45" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n" s="12">
+        <v>0.9527777777777777</v>
       </c>
       <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2235,7 +2345,7 @@
         <v>45.099998474121094</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n" s="9">
         <v>1.0</v>
@@ -2246,8 +2356,15 @@
       <c r="I46" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J46" t="s" s="10">
-        <v>28</v>
+      <c r="J46" t="n" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="K46" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2273,7 +2390,7 @@
         <v>45.20000076293945</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G47" t="n" s="9">
         <v>2.0</v>
@@ -2284,8 +2401,15 @@
       <c r="I47" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J47" t="s" s="10">
-        <v>48</v>
+      <c r="J47" t="n" s="10">
+        <v>29.5</v>
+      </c>
+      <c r="K47" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2311,7 +2435,7 @@
         <v>46.0</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" t="n" s="9">
         <v>8.0</v>
@@ -2322,8 +2446,15 @@
       <c r="I48" t="n" s="12">
         <v>0.08888888888888889</v>
       </c>
-      <c r="J48" t="s" s="10">
-        <v>42</v>
+      <c r="J48" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="K48" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="n" s="12">
+        <v>0.9916666666666667</v>
       </c>
       <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2349,7 +2480,7 @@
         <v>47.0</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n" s="9">
         <v>4.0</v>
@@ -2360,8 +2491,15 @@
       <c r="I49" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J49" t="s" s="10">
-        <v>34</v>
+      <c r="J49" t="n" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="K49" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2387,7 +2525,7 @@
         <v>49.0</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n" s="9">
         <v>6.0</v>
@@ -2398,8 +2536,15 @@
       <c r="I50" t="n" s="12">
         <v>0.06458333333333334</v>
       </c>
-      <c r="J50" t="s" s="10">
-        <v>25</v>
+      <c r="J50" t="n" s="10">
+        <v>55.5</v>
+      </c>
+      <c r="K50" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -2436,8 +2581,15 @@
       <c r="I51" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J51" t="s" s="10">
-        <v>41</v>
+      <c r="J51" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="K51" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -2463,7 +2615,7 @@
         <v>51.0</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n" s="9">
         <v>13.0</v>
@@ -2474,8 +2626,15 @@
       <c r="I52" t="n" s="12">
         <v>0.13541666666666666</v>
       </c>
-      <c r="J52" t="s" s="10">
-        <v>41</v>
+      <c r="J52" t="n" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="K52" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52" t="n" s="12">
+        <v>1.0104166666666667</v>
       </c>
       <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2501,7 +2660,7 @@
         <v>52.0</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G53" t="n" s="9">
         <v>3.0</v>
@@ -2512,8 +2671,15 @@
       <c r="I53" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J53" t="s" s="10">
-        <v>36</v>
+      <c r="J53" t="n" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="K53" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -2539,7 +2705,7 @@
         <v>53.0</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G54" t="n" s="9">
         <v>3.0</v>
@@ -2550,8 +2716,15 @@
       <c r="I54" t="n" s="12">
         <v>0.04791666666666667</v>
       </c>
-      <c r="J54" t="s" s="10">
-        <v>59</v>
+      <c r="J54" t="n" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="K54" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
@@ -2577,7 +2750,7 @@
         <v>54.0</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G55" t="n" s="9">
         <v>6.0</v>
@@ -2588,8 +2761,15 @@
       <c r="I55" t="n" s="12">
         <v>0.09583333333333334</v>
       </c>
-      <c r="J55" t="s" s="10">
-        <v>59</v>
+      <c r="J55" t="n" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="K55" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55" t="n" s="12">
+        <v>0.9979166666666667</v>
       </c>
       <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -2626,8 +2806,15 @@
       <c r="I56" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J56" t="s" s="10">
-        <v>33</v>
+      <c r="J56" t="n" s="10">
+        <v>49.5</v>
+      </c>
+      <c r="K56" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2653,7 +2840,7 @@
         <v>57.0</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G57" t="n" s="9">
         <v>1.0</v>
@@ -2664,8 +2851,15 @@
       <c r="I57" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J57" t="s" s="10">
-        <v>28</v>
+      <c r="J57" t="n" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="n" s="12">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -2691,7 +2885,7 @@
         <v>58.0</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G58" t="n" s="9">
         <v>4.0</v>
@@ -2702,8 +2896,15 @@
       <c r="I58" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J58" t="s" s="10">
-        <v>60</v>
+      <c r="J58" t="n" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="K58" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2729,7 +2930,7 @@
         <v>59.0</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G59" t="n" s="9">
         <v>7.0</v>
@@ -2740,8 +2941,15 @@
       <c r="I59" t="n" s="12">
         <v>0.06805555555555555</v>
       </c>
-      <c r="J59" t="s" s="10">
-        <v>61</v>
+      <c r="J59" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="K59" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="n" s="12">
+        <v>0.9784722222222222</v>
       </c>
       <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
@@ -2767,7 +2975,7 @@
         <v>60.0</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G60" t="n" s="9">
         <v>6.0</v>
@@ -2778,8 +2986,15 @@
       <c r="I60" t="n" s="12">
         <v>0.075</v>
       </c>
-      <c r="J60" t="s" s="10">
-        <v>40</v>
+      <c r="J60" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="K60" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60" t="n" s="12">
+        <v>0.9833333333333333</v>
       </c>
       <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
@@ -2805,7 +3020,7 @@
         <v>62.0</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G61" t="n" s="9">
         <v>7.0</v>
@@ -2816,8 +3031,15 @@
       <c r="I61" t="n" s="12">
         <v>0.08263888888888889</v>
       </c>
-      <c r="J61" t="s" s="10">
-        <v>62</v>
+      <c r="J61" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="K61" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="n" s="12">
+        <v>0.9881944444444445</v>
       </c>
       <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -2843,7 +3065,7 @@
         <v>64.0</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n" s="9">
         <v>1.0</v>
@@ -2854,8 +3076,15 @@
       <c r="I62" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J62" t="s" s="10">
-        <v>28</v>
+      <c r="J62" t="n" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="K62" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -2881,7 +3110,7 @@
         <v>65.0</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G63" t="n" s="9">
         <v>2.0</v>
@@ -2892,8 +3121,15 @@
       <c r="I63" t="n" s="12">
         <v>0.03333333333333333</v>
       </c>
-      <c r="J63" t="s" s="10">
-        <v>63</v>
+      <c r="J63" t="n" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="K63" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63" t="n" s="12">
+        <v>0.9458333333333333</v>
       </c>
       <c r="O63" t="n" s="12">
         <v>0.9125</v>
@@ -2919,7 +3155,7 @@
         <v>67.0</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G64" t="n" s="9">
         <v>1.0</v>
@@ -2930,8 +3166,15 @@
       <c r="I64" t="n" s="12">
         <v>0.03125</v>
       </c>
-      <c r="J64" t="s" s="10">
-        <v>64</v>
+      <c r="J64" t="n" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="K64" t="n" s="12">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="n" s="12">
+        <v>0.9326388888888889</v>
       </c>
       <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2957,7 +3200,7 @@
         <v>68.0</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G65" t="n" s="9">
         <v>3.0</v>
@@ -2968,8 +3211,15 @@
       <c r="I65" t="n" s="12">
         <v>0.035416666666666666</v>
       </c>
-      <c r="J65" t="s" s="10">
-        <v>65</v>
+      <c r="J65" t="n" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="K65" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="n" s="12">
+        <v>0.9625</v>
       </c>
       <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -2995,7 +3245,7 @@
         <v>70.0</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G66" t="n" s="9">
         <v>7.0</v>
@@ -3006,8 +3256,15 @@
       <c r="I66" t="n" s="12">
         <v>0.08472222222222223</v>
       </c>
-      <c r="J66" t="s" s="10">
-        <v>40</v>
+      <c r="J66" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="K66" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66" t="n" s="12">
+        <v>0.9868055555555556</v>
       </c>
       <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -3044,8 +3301,15 @@
       <c r="I67" t="n" s="12">
         <v>0.0875</v>
       </c>
-      <c r="J67" t="s" s="10">
-        <v>61</v>
+      <c r="J67" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="K67" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67" t="n" s="12">
+        <v>0.9881944444444445</v>
       </c>
       <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -3082,8 +3346,15 @@
       <c r="I68" t="n" s="12">
         <v>0.06458333333333334</v>
       </c>
-      <c r="J68" t="s" s="10">
-        <v>45</v>
+      <c r="J68" t="n" s="10">
+        <v>60.5</v>
+      </c>
+      <c r="K68" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="n" s="12">
+        <v>0.9708333333333333</v>
       </c>
       <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3109,7 +3380,7 @@
         <v>73.0</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n" s="9">
         <v>3.0</v>
@@ -3120,8 +3391,15 @@
       <c r="I69" t="n" s="12">
         <v>0.029166666666666667</v>
       </c>
-      <c r="J69" t="s" s="10">
-        <v>66</v>
+      <c r="J69" t="n" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="K69" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="n" s="12">
+        <v>0.9625</v>
       </c>
       <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -3147,7 +3425,7 @@
         <v>74.0</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G70" t="n" s="9">
         <v>1.0</v>
@@ -3158,8 +3436,15 @@
       <c r="I70" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J70" t="s" s="10">
-        <v>52</v>
+      <c r="J70" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="K70" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n" s="12">
+        <v>0.9375</v>
       </c>
       <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
@@ -3185,7 +3470,7 @@
         <v>75.0</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G71" t="n" s="9">
         <v>2.0</v>
@@ -3196,8 +3481,15 @@
       <c r="I71" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J71" t="s" s="10">
-        <v>67</v>
+      <c r="J71" t="n" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="K71" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -3223,7 +3515,7 @@
         <v>77.0</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G72" t="n" s="9">
         <v>1.0</v>
@@ -3234,8 +3526,15 @@
       <c r="I72" t="n" s="12">
         <v>0.034722222222222224</v>
       </c>
-      <c r="J72" t="s" s="10">
-        <v>64</v>
+      <c r="J72" t="n" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="K72" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72" t="n" s="12">
+        <v>0.9618055555555556</v>
       </c>
       <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3261,7 +3560,7 @@
         <v>78.0</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G73" t="n" s="9">
         <v>4.0</v>
@@ -3272,8 +3571,15 @@
       <c r="I73" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J73" t="s" s="10">
-        <v>25</v>
+      <c r="J73" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="K73" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3299,7 +3605,7 @@
         <v>79.0</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G74" t="n" s="9">
         <v>2.0</v>
@@ -3310,8 +3616,15 @@
       <c r="I74" t="n" s="12">
         <v>0.022222222222222223</v>
       </c>
-      <c r="J74" t="s" s="10">
-        <v>68</v>
+      <c r="J74" t="n" s="10">
+        <v>57.5</v>
+      </c>
+      <c r="K74" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L74"/>
+      <c r="M74" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
@@ -3348,8 +3661,15 @@
       <c r="I75" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="J75" t="s" s="10">
-        <v>69</v>
+      <c r="J75" t="n" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="K75" t="n" s="12">
+        <v>0.3090277777777778</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75" t="n" s="12">
+        <v>0.9604166666666667</v>
       </c>
       <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -3375,7 +3695,7 @@
         <v>81.0</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G76" t="n" s="9">
         <v>1.0</v>
@@ -3386,8 +3706,15 @@
       <c r="I76" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J76" t="s" s="10">
-        <v>70</v>
+      <c r="J76" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="K76" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76" t="n" s="12">
+        <v>0.9055555555555556</v>
       </c>
       <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
@@ -3413,7 +3740,7 @@
         <v>82.0</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G77" t="n" s="9">
         <v>2.0</v>
@@ -3424,8 +3751,15 @@
       <c r="I77" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J77" t="s" s="10">
-        <v>71</v>
+      <c r="J77" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="K77" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n" s="12">
+        <v>0.9270833333333334</v>
       </c>
       <c r="O77" t="n" s="12">
         <v>0.84375</v>
@@ -3451,7 +3785,7 @@
         <v>84.0</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G78" t="n" s="9">
         <v>4.0</v>
@@ -3462,8 +3796,15 @@
       <c r="I78" t="n" s="12">
         <v>0.075</v>
       </c>
-      <c r="J78" t="s" s="10">
-        <v>60</v>
+      <c r="J78" t="n" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="K78" t="n" s="12">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
@@ -3489,7 +3830,7 @@
         <v>86.0</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G79" t="n" s="9">
         <v>8.0</v>
@@ -3500,8 +3841,15 @@
       <c r="I79" t="n" s="12">
         <v>0.08888888888888889</v>
       </c>
-      <c r="J79" t="s" s="10">
-        <v>62</v>
+      <c r="J79" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="K79" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -3527,7 +3875,7 @@
         <v>87.0</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G80" t="n" s="9">
         <v>3.0</v>
@@ -3538,8 +3886,15 @@
       <c r="I80" t="n" s="12">
         <v>0.04375</v>
       </c>
-      <c r="J80" t="s" s="10">
-        <v>36</v>
+      <c r="J80" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="K80" t="n" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80" t="n" s="12">
+        <v>0.98125</v>
       </c>
       <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
@@ -3565,7 +3920,7 @@
         <v>88.0</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G81" t="n" s="9">
         <v>10.0</v>
@@ -3576,8 +3931,15 @@
       <c r="I81" t="n" s="12">
         <v>0.08680555555555555</v>
       </c>
-      <c r="J81" t="s" s="10">
-        <v>22</v>
+      <c r="J81" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="K81" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
@@ -3603,7 +3965,7 @@
         <v>89.0</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G82" t="n" s="9">
         <v>2.0</v>
@@ -3614,8 +3976,15 @@
       <c r="I82" t="n" s="12">
         <v>0.04583333333333333</v>
       </c>
-      <c r="J82" t="s" s="10">
-        <v>72</v>
+      <c r="J82" t="n" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="K82" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
@@ -3641,7 +4010,7 @@
         <v>90.0</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G83" t="n" s="9">
         <v>5.0</v>
@@ -3652,8 +4021,15 @@
       <c r="I83" t="n" s="12">
         <v>0.052083333333333336</v>
       </c>
-      <c r="J83" t="s" s="10">
-        <v>38</v>
+      <c r="J83" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="K83" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3679,7 +4055,7 @@
         <v>91.0</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G84" t="n" s="9">
         <v>3.0</v>
@@ -3690,8 +4066,15 @@
       <c r="I84" t="n" s="12">
         <v>0.05555555555555555</v>
       </c>
-      <c r="J84" t="s" s="10">
-        <v>73</v>
+      <c r="J84" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="K84" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L84"/>
+      <c r="M84" t="n" s="12">
+        <v>0.9666666666666667</v>
       </c>
       <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -3717,7 +4100,7 @@
         <v>92.0</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G85" t="n" s="9">
         <v>5.0</v>
@@ -3728,8 +4111,15 @@
       <c r="I85" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J85" t="s" s="10">
-        <v>33</v>
+      <c r="J85" t="n" s="10">
+        <v>49.5</v>
+      </c>
+      <c r="K85" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3755,7 +4145,7 @@
         <v>94.0</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G86" t="n" s="9">
         <v>4.0</v>
@@ -3766,8 +4156,15 @@
       <c r="I86" t="n" s="12">
         <v>0.04722222222222222</v>
       </c>
-      <c r="J86" t="s" s="10">
-        <v>40</v>
+      <c r="J86" t="n" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="K86" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L86"/>
+      <c r="M86" t="n" s="12">
+        <v>0.9645833333333333</v>
       </c>
       <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
@@ -3793,7 +4190,7 @@
         <v>95.0</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G87" t="n" s="9">
         <v>7.0</v>
@@ -3804,8 +4201,15 @@
       <c r="I87" t="n" s="12">
         <v>0.09930555555555555</v>
       </c>
-      <c r="J87" t="s" s="10">
-        <v>74</v>
+      <c r="J87" t="n" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="K87" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
@@ -3831,7 +4235,7 @@
         <v>99.0</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G88" t="n" s="9">
         <v>4.0</v>
@@ -3842,8 +4246,15 @@
       <c r="I88" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J88" t="s" s="10">
-        <v>68</v>
+      <c r="J88" t="n" s="10">
+        <v>57.5</v>
+      </c>
+      <c r="K88" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -3869,7 +4280,7 @@
         <v>101.0</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G89" t="n" s="9">
         <v>5.0</v>
@@ -3880,8 +4291,15 @@
       <c r="I89" t="n" s="12">
         <v>0.09375</v>
       </c>
-      <c r="J89" t="s" s="10">
-        <v>73</v>
+      <c r="J89" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="K89" t="n" s="12">
+        <v>0.2972222222222222</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89" t="n" s="12">
+        <v>1.0006944444444446</v>
       </c>
       <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
@@ -3907,7 +4325,7 @@
         <v>102.0</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G90" t="n" s="9">
         <v>5.0</v>
@@ -3918,8 +4336,15 @@
       <c r="I90" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="J90" t="s" s="10">
-        <v>34</v>
+      <c r="J90" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="K90" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L90"/>
+      <c r="M90" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -3945,7 +4370,7 @@
         <v>103.0</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G91" t="n" s="9">
         <v>3.0</v>
@@ -3956,8 +4381,15 @@
       <c r="I91" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J91" t="s" s="10">
-        <v>27</v>
+      <c r="J91" t="n" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="K91" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -3983,7 +4415,7 @@
         <v>104.0</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G92" t="n" s="9">
         <v>2.0</v>
@@ -3994,8 +4426,15 @@
       <c r="I92" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="J92" t="s" s="10">
-        <v>75</v>
+      <c r="J92" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="K92" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92" t="n" s="12">
+        <v>0.9479166666666666</v>
       </c>
       <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -4021,7 +4460,7 @@
         <v>106.0</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G93" t="n" s="9">
         <v>4.0</v>
@@ -4032,8 +4471,15 @@
       <c r="I93" t="n" s="12">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J93" t="s" s="10">
-        <v>27</v>
+      <c r="J93" t="n" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="K93" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
@@ -4059,7 +4505,7 @@
         <v>107.0</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n" s="9">
         <v>1.0</v>
@@ -4070,8 +4516,15 @@
       <c r="I94" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="J94" t="s" s="10">
-        <v>70</v>
+      <c r="J94" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="K94" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94" t="n" s="12">
+        <v>0.9826388888888888</v>
       </c>
       <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
@@ -4097,7 +4550,7 @@
         <v>108.0</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G95" t="n" s="9">
         <v>4.0</v>
@@ -4108,8 +4561,15 @@
       <c r="I95" t="n" s="12">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J95" t="s" s="10">
-        <v>76</v>
+      <c r="J95" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="K95" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4135,7 +4595,7 @@
         <v>109.0</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G96" t="n" s="9">
         <v>1.0</v>
@@ -4146,8 +4606,15 @@
       <c r="I96" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="J96" t="s" s="10">
-        <v>69</v>
+      <c r="J96" t="n" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="K96" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n" s="12">
+        <v>0.9666666666666667</v>
       </c>
       <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -4173,7 +4640,7 @@
         <v>110.0</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G97" t="n" s="9">
         <v>2.0</v>
@@ -4184,8 +4651,15 @@
       <c r="I97" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J97" t="s" s="10">
-        <v>56</v>
+      <c r="J97" t="n" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="K97" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4211,7 +4685,7 @@
         <v>112.0</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n" s="9">
         <v>3.0</v>
@@ -4222,8 +4696,15 @@
       <c r="I98" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J98" t="s" s="10">
-        <v>77</v>
+      <c r="J98" t="n" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="K98" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98" t="n" s="12">
+        <v>0.9631944444444445</v>
       </c>
       <c r="O98" t="n" s="12">
         <v>0.89375</v>
@@ -4249,7 +4730,7 @@
         <v>121.0</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G99" t="n" s="9">
         <v>5.0</v>
@@ -4260,8 +4741,15 @@
       <c r="I99" t="n" s="12">
         <v>0.05555555555555555</v>
       </c>
-      <c r="J99" t="s" s="10">
-        <v>78</v>
+      <c r="J99" t="n" s="10">
+        <v>56.0</v>
+      </c>
+      <c r="K99" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O99" t="n" s="12">
         <v>0.925</v>
@@ -4287,7 +4775,7 @@
         <v>122.0</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G100" t="n" s="9">
         <v>2.0</v>
@@ -4298,8 +4786,15 @@
       <c r="I100" t="n" s="12">
         <v>0.04861111111111111</v>
       </c>
-      <c r="J100" t="s" s="10">
-        <v>75</v>
+      <c r="J100" t="n" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="K100" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100" t="n" s="12">
+        <v>0.9479166666666666</v>
       </c>
       <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -4325,7 +4820,7 @@
         <v>124.0</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G101" t="n" s="9">
         <v>3.0</v>
@@ -4336,8 +4831,15 @@
       <c r="I101" t="n" s="12">
         <v>0.04791666666666667</v>
       </c>
-      <c r="J101" t="s" s="10">
-        <v>76</v>
+      <c r="J101" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="K101" t="n" s="12">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101" t="n" s="12">
+        <v>0.9770833333333333</v>
       </c>
       <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -4363,7 +4865,7 @@
         <v>150.0</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G102" t="n" s="9">
         <v>10.0</v>
@@ -4374,8 +4876,15 @@
       <c r="I102" t="n" s="12">
         <v>0.0763888888888889</v>
       </c>
-      <c r="J102" t="s" s="10">
-        <v>39</v>
+      <c r="J102" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="K102" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102" t="n" s="12">
+        <v>0.9826388888888888</v>
       </c>
       <c r="O102" t="n" s="12">
         <v>0.9375</v>
@@ -4401,7 +4910,7 @@
         <v>301.0</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G103" t="n" s="9">
         <v>16.0</v>
@@ -4412,8 +4921,15 @@
       <c r="I103" t="n" s="12">
         <v>0.13333333333333333</v>
       </c>
-      <c r="J103" t="s" s="10">
-        <v>79</v>
+      <c r="J103" t="n" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="K103" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103" t="n" s="12">
+        <v>1.011111111111111</v>
       </c>
       <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
@@ -4439,7 +4955,7 @@
         <v>321.0</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G104" t="n" s="9">
         <v>4.0</v>
@@ -4450,8 +4966,15 @@
       <c r="I104" t="n" s="12">
         <v>0.041666666666666664</v>
       </c>
-      <c r="J104" t="s" s="10">
-        <v>41</v>
+      <c r="J104" t="n" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="K104" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4477,7 +5000,7 @@
         <v>332.0</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G105" t="n" s="9">
         <v>8.0</v>
@@ -4488,8 +5011,15 @@
       <c r="I105" t="n" s="12">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J105" t="s" s="10">
-        <v>45</v>
+      <c r="J105" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="K105" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4526,8 +5056,15 @@
       <c r="I106" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="J106" t="s" s="10">
-        <v>43</v>
+      <c r="J106" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="K106" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
@@ -4553,7 +5090,7 @@
         <v>339.0</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n" s="9">
         <v>4.0</v>
@@ -4564,8 +5101,15 @@
       <c r="I107" t="n" s="12">
         <v>0.019444444444444445</v>
       </c>
-      <c r="J107" t="s" s="10">
-        <v>80</v>
+      <c r="J107" t="n" s="10">
+        <v>136.0</v>
+      </c>
+      <c r="K107" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107" t="n" s="12">
+        <v>0.9673611111111111</v>
       </c>
       <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
@@ -4591,7 +5135,7 @@
         <v>343.0</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G108" t="n" s="9">
         <v>9.0</v>
@@ -4602,8 +5146,15 @@
       <c r="I108" t="n" s="12">
         <v>0.09375</v>
       </c>
-      <c r="J108" t="s" s="10">
-        <v>61</v>
+      <c r="J108" t="n" s="10">
+        <v>61.5</v>
+      </c>
+      <c r="K108" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108" t="n" s="12">
+        <v>0.9916666666666667</v>
       </c>
       <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
@@ -4629,7 +5180,7 @@
         <v>344.0</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G109" t="n" s="9">
         <v>9.0</v>
@@ -4640,8 +5191,15 @@
       <c r="I109" t="n" s="12">
         <v>0.0625</v>
       </c>
-      <c r="J109" t="s" s="10">
-        <v>24</v>
+      <c r="J109" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="K109" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
@@ -4667,7 +5225,7 @@
         <v>345.0</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G110" t="n" s="9">
         <v>15.0</v>
@@ -4678,8 +5236,15 @@
       <c r="I110" t="n" s="12">
         <v>0.10416666666666667</v>
       </c>
-      <c r="J110" t="s" s="10">
-        <v>81</v>
+      <c r="J110" t="n" s="10">
+        <v>89.5</v>
+      </c>
+      <c r="K110" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110" t="n" s="12">
+        <v>0.9930555555555556</v>
       </c>
       <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4705,7 +5270,7 @@
         <v>346.0</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G111" t="n" s="9">
         <v>10.0</v>
@@ -4716,8 +5281,15 @@
       <c r="I111" t="n" s="12">
         <v>0.09027777777777778</v>
       </c>
-      <c r="J111" t="s" s="10">
-        <v>22</v>
+      <c r="J111" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="K111" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n" s="12">
+        <v>0.9868055555555556</v>
       </c>
       <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
@@ -4743,7 +5315,7 @@
         <v>363.0</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G112" t="n" s="9">
         <v>8.0</v>
@@ -4754,8 +5326,15 @@
       <c r="I112" t="n" s="12">
         <v>0.07777777777777778</v>
       </c>
-      <c r="J112" t="s" s="10">
-        <v>82</v>
+      <c r="J112" t="n" s="10">
+        <v>64.0</v>
+      </c>
+      <c r="K112" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112" t="n" s="12">
+        <v>0.9777777777777777</v>
       </c>
       <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -4781,7 +5360,7 @@
         <v>383.0</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n" s="9">
         <v>8.0</v>
@@ -4792,8 +5371,15 @@
       <c r="I113" t="n" s="12">
         <v>0.07222222222222222</v>
       </c>
-      <c r="J113" t="s" s="10">
-        <v>22</v>
+      <c r="J113" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="K113" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113" t="n" s="12">
+        <v>0.9784722222222222</v>
       </c>
       <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -4819,7 +5405,7 @@
         <v>385.0</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G114" t="n" s="9">
         <v>3.0</v>
@@ -4830,8 +5416,15 @@
       <c r="I114" t="n" s="12">
         <v>0.029166666666666667</v>
       </c>
-      <c r="J114" t="s" s="10">
-        <v>83</v>
+      <c r="J114" t="n" s="10">
+        <v>68.0</v>
+      </c>
+      <c r="K114" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -4857,7 +5450,7 @@
         <v>387.0</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G115" t="n" s="9">
         <v>4.0</v>
@@ -4868,8 +5461,15 @@
       <c r="I115" t="n" s="12">
         <v>0.030555555555555555</v>
       </c>
-      <c r="J115" t="s" s="10">
-        <v>84</v>
+      <c r="J115" t="n" s="10">
+        <v>84.0</v>
+      </c>
+      <c r="K115" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -99,9 +99,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode=""/>
     <numFmt numFmtId="165" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="166" formatCode="hh:mm"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="234">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -160,8 +160,892 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +1102,46 @@
         <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="92CE50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="92CE50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="95B3D7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -249,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -285,6 +1209,669 @@
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="73" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="74" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="75" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="76" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="77" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="83" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="84" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="87" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="89" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="90" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="91" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="92" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="93" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="95" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="96" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="97" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="98" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="99" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="101" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="102" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="103" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="104" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="105" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="107" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="108" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="109" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="110" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="113" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="114" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="115" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="116" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="119" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="120" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="121" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="122" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="123" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="125" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="126" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="127" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="128" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="129" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="130" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="131" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="132" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="133" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="134" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="135" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="136" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="137" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="138" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="139" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="140" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="141" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="142" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="143" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="144" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="145" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="146" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="147" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="148" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="149" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="150" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="151" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="152" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="155" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="156" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="157" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="158" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="159" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="160" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="161" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="162" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="163" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="164" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="165" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="166" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="167" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="168" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="169" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="170" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="171" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="172" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="173" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="174" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="175" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="176" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="177" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="178" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="179" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="180" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="181" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="182" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="183" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="184" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="185" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="186" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="187" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="188" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="192" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="193" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="194" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="195" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="196" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="198" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="199" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="200" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="201" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="202" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="204" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="206" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="213" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="218" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="222" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="224" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="229" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="230" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +2086,7 @@
       <c r="C5" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
       <c r="G5" t="n" s="9">
@@ -517,7 +2104,9 @@
       <c r="K5" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="M5" t="n" s="12">
         <v>0.9770833333333333</v>
       </c>
@@ -544,7 +2133,7 @@
       <c r="C6" t="n" s="8">
         <v>2.0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="16">
         <v>22</v>
       </c>
       <c r="G6" t="n" s="9">
@@ -562,7 +2151,9 @@
       <c r="K6" t="n" s="12">
         <v>0.28125</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="n" s="12">
+        <v>1.007638888888889</v>
+      </c>
       <c r="M6" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
@@ -589,7 +2180,7 @@
       <c r="C7" t="n" s="8">
         <v>3.0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="18">
         <v>22</v>
       </c>
       <c r="G7" t="n" s="9">
@@ -607,7 +2198,9 @@
       <c r="K7" t="n" s="12">
         <v>0.2847222222222222</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="M7" t="n" s="12">
         <v>0.9736111111111111</v>
       </c>
@@ -634,7 +2227,7 @@
       <c r="C8" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="20">
         <v>23</v>
       </c>
       <c r="G8" t="n" s="9">
@@ -652,7 +2245,9 @@
       <c r="K8" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="n" s="12">
+        <v>0.9951388888888889</v>
+      </c>
       <c r="M8" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
@@ -679,7 +2274,7 @@
       <c r="C9" t="n" s="8">
         <v>5.0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="22">
         <v>23</v>
       </c>
       <c r="G9" t="n" s="9">
@@ -697,7 +2292,9 @@
       <c r="K9" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L9"/>
+      <c r="L9" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="M9" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -724,7 +2321,7 @@
       <c r="C10" t="n" s="8">
         <v>6.0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="24">
         <v>22</v>
       </c>
       <c r="G10" t="n" s="9">
@@ -742,7 +2339,9 @@
       <c r="K10" t="n" s="12">
         <v>0.3055555555555556</v>
       </c>
-      <c r="L10"/>
+      <c r="L10" t="n" s="12">
+        <v>1.0229166666666667</v>
+      </c>
       <c r="M10" t="n" s="12">
         <v>1.0</v>
       </c>
@@ -769,7 +2368,7 @@
       <c r="C11" t="n" s="8">
         <v>7.0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="26">
         <v>23</v>
       </c>
       <c r="G11" t="n" s="9">
@@ -787,7 +2386,9 @@
       <c r="K11" t="n" s="12">
         <v>0.2847222222222222</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="M11" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -814,7 +2415,7 @@
       <c r="C12" t="n" s="8">
         <v>9.0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="28">
         <v>24</v>
       </c>
       <c r="G12" t="n" s="9">
@@ -832,7 +2433,9 @@
       <c r="K12" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="M12" t="n" s="12">
         <v>0.9736111111111111</v>
       </c>
@@ -859,7 +2462,7 @@
       <c r="C13" t="n" s="8">
         <v>10.0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="30">
         <v>23</v>
       </c>
       <c r="G13" t="n" s="9">
@@ -877,7 +2480,9 @@
       <c r="K13" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="n" s="12">
+        <v>1.0263888888888888</v>
+      </c>
       <c r="M13" t="n" s="12">
         <v>0.9902777777777778</v>
       </c>
@@ -904,7 +2509,7 @@
       <c r="C14" t="n" s="8">
         <v>11.0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="32">
         <v>24</v>
       </c>
       <c r="G14" t="n" s="9">
@@ -922,7 +2527,9 @@
       <c r="K14" t="n" s="12">
         <v>0.2861111111111111</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" t="n" s="12">
+        <v>1.00625</v>
+      </c>
       <c r="M14" t="n" s="12">
         <v>0.9923611111111111</v>
       </c>
@@ -949,7 +2556,7 @@
       <c r="C15" t="n" s="8">
         <v>12.0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="34">
         <v>23</v>
       </c>
       <c r="G15" t="n" s="9">
@@ -967,7 +2574,9 @@
       <c r="K15" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="n" s="12">
+        <v>1.0041666666666667</v>
+      </c>
       <c r="M15" t="n" s="12">
         <v>0.9909722222222223</v>
       </c>
@@ -994,7 +2603,7 @@
       <c r="C16" t="n" s="8">
         <v>14.0</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="36">
         <v>24</v>
       </c>
       <c r="G16" t="n" s="9">
@@ -1012,7 +2621,9 @@
       <c r="K16" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" t="n" s="12">
+        <v>1.0055555555555555</v>
+      </c>
       <c r="M16" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
@@ -1039,7 +2650,7 @@
       <c r="C17" t="n" s="8">
         <v>15.0</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="38">
         <v>24</v>
       </c>
       <c r="G17" t="n" s="9">
@@ -1057,7 +2668,9 @@
       <c r="K17" t="n" s="12">
         <v>0.2986111111111111</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
       <c r="M17" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
@@ -1084,7 +2697,7 @@
       <c r="C18" t="n" s="8">
         <v>16.0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="40">
         <v>23</v>
       </c>
       <c r="G18" t="n" s="9">
@@ -1102,7 +2715,9 @@
       <c r="K18" t="n" s="12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" t="n" s="12">
+        <v>0.9215277777777777</v>
+      </c>
       <c r="M18" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -1129,7 +2744,7 @@
       <c r="C19" t="n" s="8">
         <v>17.0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="42">
         <v>22</v>
       </c>
       <c r="G19" t="n" s="9">
@@ -1147,7 +2762,9 @@
       <c r="K19" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="n" s="12">
+        <v>0.9902777777777778</v>
+      </c>
       <c r="M19" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
@@ -1174,7 +2791,7 @@
       <c r="C20" t="n" s="8">
         <v>18.0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="44">
         <v>23</v>
       </c>
       <c r="G20" t="n" s="9">
@@ -1192,7 +2809,9 @@
       <c r="K20" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="n" s="12">
+        <v>0.9965277777777778</v>
+      </c>
       <c r="M20" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -1219,7 +2838,7 @@
       <c r="C21" t="n" s="8">
         <v>20.0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="46">
         <v>21</v>
       </c>
       <c r="G21" t="n" s="9">
@@ -1237,7 +2856,9 @@
       <c r="K21" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="n" s="12">
+        <v>1.0083333333333333</v>
+      </c>
       <c r="M21" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
@@ -1264,7 +2885,7 @@
       <c r="C22" t="n" s="8">
         <v>21.0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="48">
         <v>24</v>
       </c>
       <c r="G22" t="n" s="9">
@@ -1282,7 +2903,9 @@
       <c r="K22" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="n" s="12">
+        <v>1.0208333333333333</v>
+      </c>
       <c r="M22" t="n" s="12">
         <v>1.0118055555555556</v>
       </c>
@@ -1309,7 +2932,7 @@
       <c r="C23" t="n" s="8">
         <v>22.0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="50">
         <v>23</v>
       </c>
       <c r="G23" t="n" s="9">
@@ -1327,7 +2950,9 @@
       <c r="K23" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="n" s="12">
+        <v>1.0013888888888889</v>
+      </c>
       <c r="M23" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -1354,7 +2979,7 @@
       <c r="C24" t="n" s="8">
         <v>23.0</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="52">
         <v>24</v>
       </c>
       <c r="G24" t="n" s="9">
@@ -1372,7 +2997,9 @@
       <c r="K24" t="n" s="12">
         <v>0.3013888888888889</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="n" s="12">
+        <v>1.007638888888889</v>
+      </c>
       <c r="M24" t="n" s="12">
         <v>0.9909722222222223</v>
       </c>
@@ -1399,7 +3026,7 @@
       <c r="C25" t="n" s="8">
         <v>24.0</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="54">
         <v>24</v>
       </c>
       <c r="G25" t="n" s="9">
@@ -1417,7 +3044,9 @@
       <c r="K25" t="n" s="12">
         <v>0.2986111111111111</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="n" s="12">
+        <v>1.0131944444444445</v>
+      </c>
       <c r="M25" t="n" s="12">
         <v>0.9986111111111111</v>
       </c>
@@ -1444,7 +3073,7 @@
       <c r="C26" t="n" s="8">
         <v>25.0</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="56">
         <v>21</v>
       </c>
       <c r="G26" t="n" s="9">
@@ -1462,7 +3091,9 @@
       <c r="K26" t="n" s="12">
         <v>0.2743055555555556</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
       <c r="M26" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
@@ -1489,7 +3120,7 @@
       <c r="C27" t="n" s="8">
         <v>26.0</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="58">
         <v>23</v>
       </c>
       <c r="G27" t="n" s="9">
@@ -1507,7 +3138,9 @@
       <c r="K27" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="n" s="12">
+        <v>0.91875</v>
+      </c>
       <c r="M27" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
@@ -1534,7 +3167,7 @@
       <c r="C28" t="n" s="8">
         <v>27.0</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="60">
         <v>23</v>
       </c>
       <c r="G28" t="n" s="9">
@@ -1552,7 +3185,9 @@
       <c r="K28" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="n" s="12">
+        <v>0.9854166666666667</v>
+      </c>
       <c r="M28" t="n" s="12">
         <v>0.9763888888888889</v>
       </c>
@@ -1579,7 +3214,7 @@
       <c r="C29" t="n" s="8">
         <v>28.0</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="62">
         <v>23</v>
       </c>
       <c r="G29" t="n" s="9">
@@ -1597,7 +3232,9 @@
       <c r="K29" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L29"/>
+      <c r="L29" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
       <c r="M29" t="n" s="12">
         <v>0.96875</v>
       </c>
@@ -1624,7 +3261,7 @@
       <c r="C30" t="n" s="8">
         <v>29.0</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="64">
         <v>23</v>
       </c>
       <c r="G30" t="n" s="9">
@@ -1642,7 +3279,9 @@
       <c r="K30" t="n" s="12">
         <v>0.29375</v>
       </c>
-      <c r="L30"/>
+      <c r="L30" t="n" s="12">
+        <v>0.9902777777777778</v>
+      </c>
       <c r="M30" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
@@ -1669,7 +3308,7 @@
       <c r="C31" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="66">
         <v>25</v>
       </c>
       <c r="G31" t="n" s="9">
@@ -1687,7 +3326,9 @@
       <c r="K31" t="n" s="12">
         <v>0.28125</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="n" s="12">
+        <v>0.98125</v>
+      </c>
       <c r="M31" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
@@ -1714,7 +3355,7 @@
       <c r="C32" t="n" s="8">
         <v>31.0</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="68">
         <v>23</v>
       </c>
       <c r="G32" t="n" s="9">
@@ -1732,7 +3373,9 @@
       <c r="K32" t="n" s="12">
         <v>0.28888888888888886</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="M32" t="n" s="12">
         <v>0.9833333333333333</v>
       </c>
@@ -1759,7 +3402,7 @@
       <c r="C33" t="n" s="8">
         <v>32.0</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="70">
         <v>24</v>
       </c>
       <c r="G33" t="n" s="9">
@@ -1777,7 +3420,9 @@
       <c r="K33" t="n" s="12">
         <v>0.25</v>
       </c>
-      <c r="L33"/>
+      <c r="L33" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="M33" t="n" s="12">
         <v>0.96875</v>
       </c>
@@ -1804,7 +3449,7 @@
       <c r="C34" t="n" s="8">
         <v>33.0</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="72">
         <v>22</v>
       </c>
       <c r="G34" t="n" s="9">
@@ -1822,7 +3467,9 @@
       <c r="K34" t="n" s="12">
         <v>0.2951388888888889</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="n" s="12">
+        <v>1.0069444444444444</v>
+      </c>
       <c r="M34" t="n" s="12">
         <v>0.9951388888888889</v>
       </c>
@@ -1849,7 +3496,7 @@
       <c r="C35" t="n" s="8">
         <v>34.0</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="74">
         <v>23</v>
       </c>
       <c r="G35" t="n" s="9">
@@ -1867,7 +3514,9 @@
       <c r="K35" t="n" s="12">
         <v>0.2673611111111111</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="n" s="12">
+        <v>1.0138888888888888</v>
+      </c>
       <c r="M35" t="n" s="12">
         <v>0.9923611111111111</v>
       </c>
@@ -1894,7 +3543,7 @@
       <c r="C36" t="n" s="8">
         <v>35.0</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="76">
         <v>25</v>
       </c>
       <c r="G36" t="n" s="9">
@@ -1912,7 +3561,9 @@
       <c r="K36" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L36"/>
+      <c r="L36" t="n" s="12">
+        <v>0.9513888888888888</v>
+      </c>
       <c r="M36" t="n" s="12">
         <v>0.9375</v>
       </c>
@@ -1939,7 +3590,7 @@
       <c r="C37" t="n" s="8">
         <v>36.0</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="78">
         <v>23</v>
       </c>
       <c r="G37" t="n" s="9">
@@ -1957,7 +3608,9 @@
       <c r="K37" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L37"/>
+      <c r="L37" t="n" s="12">
+        <v>0.9736111111111111</v>
+      </c>
       <c r="M37" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -1984,7 +3637,7 @@
       <c r="C38" t="n" s="8">
         <v>37.0</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="80">
         <v>22</v>
       </c>
       <c r="G38" t="n" s="9">
@@ -2002,7 +3655,9 @@
       <c r="K38" t="n" s="12">
         <v>0.25</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="n" s="12">
+        <v>1.023611111111111</v>
+      </c>
       <c r="M38" t="n" s="12">
         <v>1.0</v>
       </c>
@@ -2029,7 +3684,7 @@
       <c r="C39" t="n" s="8">
         <v>38.0</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="82">
         <v>22</v>
       </c>
       <c r="G39" t="n" s="9">
@@ -2047,7 +3702,9 @@
       <c r="K39" t="n" s="12">
         <v>0.3194444444444444</v>
       </c>
-      <c r="L39"/>
+      <c r="L39" t="n" s="12">
+        <v>0.9819444444444444</v>
+      </c>
       <c r="M39" t="n" s="12">
         <v>0.975</v>
       </c>
@@ -2074,7 +3731,7 @@
       <c r="C40" t="n" s="8">
         <v>39.0</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="84">
         <v>21</v>
       </c>
       <c r="G40" t="n" s="9">
@@ -2092,7 +3749,9 @@
       <c r="K40" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L40"/>
+      <c r="L40" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="M40" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
@@ -2119,7 +3778,7 @@
       <c r="C41" t="n" s="8">
         <v>40.0</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="86">
         <v>23</v>
       </c>
       <c r="G41" t="n" s="9">
@@ -2137,7 +3796,9 @@
       <c r="K41" t="n" s="12">
         <v>0.3055555555555556</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="M41" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -2164,7 +3825,7 @@
       <c r="C42" t="n" s="8">
         <v>41.0</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="88">
         <v>23</v>
       </c>
       <c r="G42" t="n" s="9">
@@ -2182,7 +3843,9 @@
       <c r="K42" t="n" s="12">
         <v>0.3055555555555556</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" t="n" s="12">
+        <v>1.0069444444444444</v>
+      </c>
       <c r="M42" t="n" s="12">
         <v>0.9930555555555556</v>
       </c>
@@ -2209,7 +3872,7 @@
       <c r="C43" t="n" s="8">
         <v>42.0</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="90">
         <v>23</v>
       </c>
       <c r="G43" t="n" s="9">
@@ -2227,7 +3890,9 @@
       <c r="K43" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="n" s="12">
+        <v>0.9902777777777778</v>
+      </c>
       <c r="M43" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
@@ -2254,7 +3919,7 @@
       <c r="C44" t="n" s="8">
         <v>43.0</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="92">
         <v>21</v>
       </c>
       <c r="G44" t="n" s="9">
@@ -2272,7 +3937,9 @@
       <c r="K44" t="n" s="12">
         <v>0.3020833333333333</v>
       </c>
-      <c r="L44"/>
+      <c r="L44" t="n" s="12">
+        <v>0.975</v>
+      </c>
       <c r="M44" t="n" s="12">
         <v>0.96875</v>
       </c>
@@ -2299,7 +3966,7 @@
       <c r="C45" t="n" s="8">
         <v>45.0</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="94">
         <v>23</v>
       </c>
       <c r="G45" t="n" s="9">
@@ -2317,7 +3984,9 @@
       <c r="K45" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="n" s="12">
+        <v>0.9597222222222223</v>
+      </c>
       <c r="M45" t="n" s="12">
         <v>0.9527777777777777</v>
       </c>
@@ -2344,7 +4013,7 @@
       <c r="C46" t="n" s="8">
         <v>45.099998474121094</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="96">
         <v>23</v>
       </c>
       <c r="G46" t="n" s="9">
@@ -2362,7 +4031,9 @@
       <c r="K46" t="n" s="12">
         <v>0.3194444444444444</v>
       </c>
-      <c r="L46"/>
+      <c r="L46" t="n" s="12">
+        <v>0.96875</v>
+      </c>
       <c r="M46" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
@@ -2389,7 +4060,7 @@
       <c r="C47" t="n" s="8">
         <v>45.20000076293945</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="98">
         <v>25</v>
       </c>
       <c r="G47" t="n" s="9">
@@ -2407,7 +4078,9 @@
       <c r="K47" t="n" s="12">
         <v>0.3055555555555556</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="M47" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -2434,7 +4107,7 @@
       <c r="C48" t="n" s="8">
         <v>46.0</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="100">
         <v>22</v>
       </c>
       <c r="G48" t="n" s="9">
@@ -2452,7 +4125,9 @@
       <c r="K48" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="n" s="12">
+        <v>1.0097222222222222</v>
+      </c>
       <c r="M48" t="n" s="12">
         <v>0.9916666666666667</v>
       </c>
@@ -2479,7 +4154,7 @@
       <c r="C49" t="n" s="8">
         <v>47.0</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="102">
         <v>23</v>
       </c>
       <c r="G49" t="n" s="9">
@@ -2497,7 +4172,9 @@
       <c r="K49" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="n" s="12">
+        <v>0.9875</v>
+      </c>
       <c r="M49" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -2524,7 +4201,7 @@
       <c r="C50" t="n" s="8">
         <v>49.0</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="104">
         <v>23</v>
       </c>
       <c r="G50" t="n" s="9">
@@ -2542,7 +4219,9 @@
       <c r="K50" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L50"/>
+      <c r="L50" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
       <c r="M50" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
@@ -2569,7 +4248,7 @@
       <c r="C51" t="n" s="8">
         <v>50.0</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="106">
         <v>21</v>
       </c>
       <c r="G51" t="n" s="9">
@@ -2587,7 +4266,9 @@
       <c r="K51" t="n" s="12">
         <v>0.2777777777777778</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="n" s="12">
+        <v>0.9951388888888889</v>
+      </c>
       <c r="M51" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -2614,7 +4295,7 @@
       <c r="C52" t="n" s="8">
         <v>51.0</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="108">
         <v>24</v>
       </c>
       <c r="G52" t="n" s="9">
@@ -2632,7 +4313,9 @@
       <c r="K52" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="n" s="12">
+        <v>1.0229166666666667</v>
+      </c>
       <c r="M52" t="n" s="12">
         <v>1.0104166666666667</v>
       </c>
@@ -2659,7 +4342,7 @@
       <c r="C53" t="n" s="8">
         <v>52.0</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="110">
         <v>23</v>
       </c>
       <c r="G53" t="n" s="9">
@@ -2677,7 +4360,9 @@
       <c r="K53" t="n" s="12">
         <v>0.3020833333333333</v>
       </c>
-      <c r="L53"/>
+      <c r="L53" t="n" s="12">
+        <v>0.98125</v>
+      </c>
       <c r="M53" t="n" s="12">
         <v>0.96875</v>
       </c>
@@ -2704,7 +4389,7 @@
       <c r="C54" t="n" s="8">
         <v>53.0</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="112">
         <v>23</v>
       </c>
       <c r="G54" t="n" s="9">
@@ -2722,7 +4407,9 @@
       <c r="K54" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="n" s="12">
+        <v>0.9875</v>
+      </c>
       <c r="M54" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
@@ -2749,7 +4436,7 @@
       <c r="C55" t="n" s="8">
         <v>54.0</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="114">
         <v>24</v>
       </c>
       <c r="G55" t="n" s="9">
@@ -2767,7 +4454,9 @@
       <c r="K55" t="n" s="12">
         <v>0.2951388888888889</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
       <c r="M55" t="n" s="12">
         <v>0.9979166666666667</v>
       </c>
@@ -2794,7 +4483,7 @@
       <c r="C56" t="n" s="8">
         <v>56.0</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="116">
         <v>21</v>
       </c>
       <c r="G56" t="n" s="9">
@@ -2812,7 +4501,9 @@
       <c r="K56" t="n" s="12">
         <v>0.3055555555555556</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
       <c r="M56" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
@@ -2839,7 +4530,7 @@
       <c r="C57" t="n" s="8">
         <v>57.0</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="118">
         <v>23</v>
       </c>
       <c r="G57" t="n" s="9">
@@ -2857,7 +4548,9 @@
       <c r="K57" t="n" s="12">
         <v>0.3298611111111111</v>
       </c>
-      <c r="L57"/>
+      <c r="L57" t="n" s="12">
+        <v>0.9798611111111111</v>
+      </c>
       <c r="M57" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
@@ -2884,7 +4577,7 @@
       <c r="C58" t="n" s="8">
         <v>58.0</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="120">
         <v>25</v>
       </c>
       <c r="G58" t="n" s="9">
@@ -2902,7 +4595,9 @@
       <c r="K58" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L58"/>
+      <c r="L58" t="n" s="12">
+        <v>0.9895833333333334</v>
+      </c>
       <c r="M58" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -2929,7 +4624,7 @@
       <c r="C59" t="n" s="8">
         <v>59.0</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="122">
         <v>23</v>
       </c>
       <c r="G59" t="n" s="9">
@@ -2947,7 +4642,9 @@
       <c r="K59" t="n" s="12">
         <v>0.3020833333333333</v>
       </c>
-      <c r="L59"/>
+      <c r="L59" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
       <c r="M59" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
@@ -2974,7 +4671,7 @@
       <c r="C60" t="n" s="8">
         <v>60.0</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="124">
         <v>23</v>
       </c>
       <c r="G60" t="n" s="9">
@@ -2992,7 +4689,9 @@
       <c r="K60" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L60"/>
+      <c r="L60" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
       <c r="M60" t="n" s="12">
         <v>0.9833333333333333</v>
       </c>
@@ -3019,7 +4718,7 @@
       <c r="C61" t="n" s="8">
         <v>62.0</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="126">
         <v>23</v>
       </c>
       <c r="G61" t="n" s="9">
@@ -3037,7 +4736,9 @@
       <c r="K61" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L61"/>
+      <c r="L61" t="n" s="12">
+        <v>0.99375</v>
+      </c>
       <c r="M61" t="n" s="12">
         <v>0.9881944444444445</v>
       </c>
@@ -3064,7 +4765,7 @@
       <c r="C62" t="n" s="8">
         <v>64.0</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="128">
         <v>25</v>
       </c>
       <c r="G62" t="n" s="9">
@@ -3082,7 +4783,9 @@
       <c r="K62" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L62"/>
+      <c r="L62" t="n" s="12">
+        <v>0.9659722222222222</v>
+      </c>
       <c r="M62" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -3109,7 +4812,7 @@
       <c r="C63" t="n" s="8">
         <v>65.0</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="130">
         <v>23</v>
       </c>
       <c r="G63" t="n" s="9">
@@ -3127,7 +4830,9 @@
       <c r="K63" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="M63" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
@@ -3154,7 +4859,7 @@
       <c r="C64" t="n" s="8">
         <v>67.0</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="132">
         <v>25</v>
       </c>
       <c r="G64" t="n" s="9">
@@ -3172,7 +4877,9 @@
       <c r="K64" t="n" s="12">
         <v>0.3229166666666667</v>
       </c>
-      <c r="L64"/>
+      <c r="L64" t="n" s="12">
+        <v>0.9368055555555556</v>
+      </c>
       <c r="M64" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -3199,7 +4906,7 @@
       <c r="C65" t="n" s="8">
         <v>68.0</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="134">
         <v>23</v>
       </c>
       <c r="G65" t="n" s="9">
@@ -3217,7 +4924,9 @@
       <c r="K65" t="n" s="12">
         <v>0.3194444444444444</v>
       </c>
-      <c r="L65"/>
+      <c r="L65" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="M65" t="n" s="12">
         <v>0.9625</v>
       </c>
@@ -3244,7 +4953,7 @@
       <c r="C66" t="n" s="8">
         <v>70.0</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="136">
         <v>24</v>
       </c>
       <c r="G66" t="n" s="9">
@@ -3262,7 +4971,9 @@
       <c r="K66" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L66"/>
+      <c r="L66" t="n" s="12">
+        <v>1.0027777777777778</v>
+      </c>
       <c r="M66" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
@@ -3289,7 +5000,7 @@
       <c r="C67" t="n" s="8">
         <v>71.0</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="138">
         <v>21</v>
       </c>
       <c r="G67" t="n" s="9">
@@ -3307,7 +5018,9 @@
       <c r="K67" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L67"/>
+      <c r="L67" t="n" s="12">
+        <v>0.9979166666666667</v>
+      </c>
       <c r="M67" t="n" s="12">
         <v>0.9881944444444445</v>
       </c>
@@ -3334,7 +5047,7 @@
       <c r="C68" t="n" s="8">
         <v>72.0</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="140">
         <v>21</v>
       </c>
       <c r="G68" t="n" s="9">
@@ -3352,7 +5065,9 @@
       <c r="K68" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L68"/>
+      <c r="L68" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="M68" t="n" s="12">
         <v>0.9708333333333333</v>
       </c>
@@ -3379,7 +5094,7 @@
       <c r="C69" t="n" s="8">
         <v>73.0</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="142">
         <v>23</v>
       </c>
       <c r="G69" t="n" s="9">
@@ -3397,7 +5112,9 @@
       <c r="K69" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L69"/>
+      <c r="L69" t="n" s="12">
+        <v>0.9680555555555556</v>
+      </c>
       <c r="M69" t="n" s="12">
         <v>0.9625</v>
       </c>
@@ -3424,7 +5141,7 @@
       <c r="C70" t="n" s="8">
         <v>74.0</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="144">
         <v>23</v>
       </c>
       <c r="G70" t="n" s="9">
@@ -3442,7 +5159,9 @@
       <c r="K70" t="n" s="12">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L70"/>
+      <c r="L70" t="n" s="12">
+        <v>0.9395833333333333</v>
+      </c>
       <c r="M70" t="n" s="12">
         <v>0.9375</v>
       </c>
@@ -3469,7 +5188,7 @@
       <c r="C71" t="n" s="8">
         <v>75.0</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="146">
         <v>23</v>
       </c>
       <c r="G71" t="n" s="9">
@@ -3487,7 +5206,9 @@
       <c r="K71" t="n" s="12">
         <v>0.2847222222222222</v>
       </c>
-      <c r="L71"/>
+      <c r="L71" t="n" s="12">
+        <v>0.9777777777777777</v>
+      </c>
       <c r="M71" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -3514,7 +5235,7 @@
       <c r="C72" t="n" s="8">
         <v>77.0</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="148">
         <v>23</v>
       </c>
       <c r="G72" t="n" s="9">
@@ -3532,7 +5253,9 @@
       <c r="K72" t="n" s="12">
         <v>0.2881944444444444</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="M72" t="n" s="12">
         <v>0.9618055555555556</v>
       </c>
@@ -3559,7 +5282,7 @@
       <c r="C73" t="n" s="8">
         <v>78.0</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="150">
         <v>23</v>
       </c>
       <c r="G73" t="n" s="9">
@@ -3577,7 +5300,9 @@
       <c r="K73" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L73"/>
+      <c r="L73" t="n" s="12">
+        <v>0.9715277777777778</v>
+      </c>
       <c r="M73" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -3604,7 +5329,7 @@
       <c r="C74" t="n" s="8">
         <v>79.0</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="152">
         <v>24</v>
       </c>
       <c r="G74" t="n" s="9">
@@ -3622,7 +5347,9 @@
       <c r="K74" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L74"/>
+      <c r="L74" t="n" s="12">
+        <v>0.9673611111111111</v>
+      </c>
       <c r="M74" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -3649,7 +5376,7 @@
       <c r="C75" t="n" s="8">
         <v>80.0</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="153">
         <v>20</v>
       </c>
       <c r="G75" t="n" s="9">
@@ -3667,7 +5394,9 @@
       <c r="K75" t="n" s="12">
         <v>0.3090277777777778</v>
       </c>
-      <c r="L75"/>
+      <c r="L75" t="n" s="12">
+        <v>0.9694444444444444</v>
+      </c>
       <c r="M75" t="n" s="12">
         <v>0.9604166666666667</v>
       </c>
@@ -3694,7 +5423,7 @@
       <c r="C76" t="n" s="8">
         <v>81.0</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="155">
         <v>25</v>
       </c>
       <c r="G76" t="n" s="9">
@@ -3712,7 +5441,9 @@
       <c r="K76" t="n" s="12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="L76"/>
+      <c r="L76" t="n" s="12">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="M76" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
@@ -3739,7 +5470,7 @@
       <c r="C77" t="n" s="8">
         <v>82.0</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="157">
         <v>25</v>
       </c>
       <c r="G77" t="n" s="9">
@@ -3757,7 +5488,9 @@
       <c r="K77" t="n" s="12">
         <v>0.3020833333333333</v>
       </c>
-      <c r="L77"/>
+      <c r="L77" t="n" s="12">
+        <v>0.9458333333333333</v>
+      </c>
       <c r="M77" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
@@ -3784,7 +5517,7 @@
       <c r="C78" t="n" s="8">
         <v>84.0</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="159">
         <v>23</v>
       </c>
       <c r="G78" t="n" s="9">
@@ -3802,7 +5535,9 @@
       <c r="K78" t="n" s="12">
         <v>0.30416666666666664</v>
       </c>
-      <c r="L78"/>
+      <c r="L78" t="n" s="12">
+        <v>0.9944444444444445</v>
+      </c>
       <c r="M78" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
@@ -3829,7 +5564,7 @@
       <c r="C79" t="n" s="8">
         <v>86.0</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="161">
         <v>22</v>
       </c>
       <c r="G79" t="n" s="9">
@@ -3847,7 +5582,9 @@
       <c r="K79" t="n" s="12">
         <v>0.2951388888888889</v>
       </c>
-      <c r="L79"/>
+      <c r="L79" t="n" s="12">
+        <v>0.9993055555555556</v>
+      </c>
       <c r="M79" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
@@ -3874,7 +5611,7 @@
       <c r="C80" t="n" s="8">
         <v>87.0</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="163">
         <v>24</v>
       </c>
       <c r="G80" t="n" s="9">
@@ -3892,7 +5629,9 @@
       <c r="K80" t="n" s="12">
         <v>0.29583333333333334</v>
       </c>
-      <c r="L80"/>
+      <c r="L80" t="n" s="12">
+        <v>0.9972222222222222</v>
+      </c>
       <c r="M80" t="n" s="12">
         <v>0.98125</v>
       </c>
@@ -3919,7 +5658,7 @@
       <c r="C81" t="n" s="8">
         <v>88.0</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="165">
         <v>24</v>
       </c>
       <c r="G81" t="n" s="9">
@@ -3937,7 +5676,9 @@
       <c r="K81" t="n" s="12">
         <v>0.2777777777777778</v>
       </c>
-      <c r="L81"/>
+      <c r="L81" t="n" s="12">
+        <v>0.9972222222222222</v>
+      </c>
       <c r="M81" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
@@ -3964,7 +5705,7 @@
       <c r="C82" t="n" s="8">
         <v>89.0</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="167">
         <v>23</v>
       </c>
       <c r="G82" t="n" s="9">
@@ -3982,7 +5723,9 @@
       <c r="K82" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L82"/>
+      <c r="L82" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="M82" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -4009,7 +5752,7 @@
       <c r="C83" t="n" s="8">
         <v>90.0</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="169">
         <v>23</v>
       </c>
       <c r="G83" t="n" s="9">
@@ -4027,7 +5770,9 @@
       <c r="K83" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L83"/>
+      <c r="L83" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="M83" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
@@ -4054,7 +5799,7 @@
       <c r="C84" t="n" s="8">
         <v>91.0</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="171">
         <v>25</v>
       </c>
       <c r="G84" t="n" s="9">
@@ -4072,7 +5817,9 @@
       <c r="K84" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L84"/>
+      <c r="L84" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="M84" t="n" s="12">
         <v>0.9666666666666667</v>
       </c>
@@ -4099,7 +5846,7 @@
       <c r="C85" t="n" s="8">
         <v>92.0</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="173">
         <v>25</v>
       </c>
       <c r="G85" t="n" s="9">
@@ -4117,7 +5864,9 @@
       <c r="K85" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L85"/>
+      <c r="L85" t="n" s="12">
+        <v>0.99375</v>
+      </c>
       <c r="M85" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
@@ -4144,7 +5893,7 @@
       <c r="C86" t="n" s="8">
         <v>94.0</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="175">
         <v>24</v>
       </c>
       <c r="G86" t="n" s="9">
@@ -4162,7 +5911,9 @@
       <c r="K86" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L86"/>
+      <c r="L86" t="n" s="12">
+        <v>0.975</v>
+      </c>
       <c r="M86" t="n" s="12">
         <v>0.9645833333333333</v>
       </c>
@@ -4189,7 +5940,7 @@
       <c r="C87" t="n" s="8">
         <v>95.0</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="177">
         <v>24</v>
       </c>
       <c r="G87" t="n" s="9">
@@ -4207,7 +5958,9 @@
       <c r="K87" t="n" s="12">
         <v>0.2986111111111111</v>
       </c>
-      <c r="L87"/>
+      <c r="L87" t="n" s="12">
+        <v>1.0055555555555555</v>
+      </c>
       <c r="M87" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
@@ -4234,7 +5987,7 @@
       <c r="C88" t="n" s="8">
         <v>99.0</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="179">
         <v>23</v>
       </c>
       <c r="G88" t="n" s="9">
@@ -4252,7 +6005,9 @@
       <c r="K88" t="n" s="12">
         <v>0.2986111111111111</v>
       </c>
-      <c r="L88"/>
+      <c r="L88" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="M88" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
@@ -4279,7 +6034,7 @@
       <c r="C89" t="n" s="8">
         <v>101.0</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="181">
         <v>25</v>
       </c>
       <c r="G89" t="n" s="9">
@@ -4297,7 +6052,9 @@
       <c r="K89" t="n" s="12">
         <v>0.2972222222222222</v>
       </c>
-      <c r="L89"/>
+      <c r="L89" t="n" s="12">
+        <v>1.0125</v>
+      </c>
       <c r="M89" t="n" s="12">
         <v>1.0006944444444446</v>
       </c>
@@ -4324,7 +6081,7 @@
       <c r="C90" t="n" s="8">
         <v>102.0</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="183">
         <v>25</v>
       </c>
       <c r="G90" t="n" s="9">
@@ -4342,7 +6099,9 @@
       <c r="K90" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L90"/>
+      <c r="L90" t="n" s="12">
+        <v>1.0215277777777778</v>
+      </c>
       <c r="M90" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
@@ -4369,7 +6128,7 @@
       <c r="C91" t="n" s="8">
         <v>103.0</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="185">
         <v>23</v>
       </c>
       <c r="G91" t="n" s="9">
@@ -4387,7 +6146,9 @@
       <c r="K91" t="n" s="12">
         <v>0.2777777777777778</v>
       </c>
-      <c r="L91"/>
+      <c r="L91" t="n" s="12">
+        <v>0.98125</v>
+      </c>
       <c r="M91" t="n" s="12">
         <v>0.9701388888888889</v>
       </c>
@@ -4414,7 +6175,7 @@
       <c r="C92" t="n" s="8">
         <v>104.0</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="187">
         <v>23</v>
       </c>
       <c r="G92" t="n" s="9">
@@ -4432,7 +6193,9 @@
       <c r="K92" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L92"/>
+      <c r="L92" t="n" s="12">
+        <v>0.9527777777777777</v>
+      </c>
       <c r="M92" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
@@ -4459,7 +6222,7 @@
       <c r="C93" t="n" s="8">
         <v>106.0</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="189">
         <v>23</v>
       </c>
       <c r="G93" t="n" s="9">
@@ -4477,7 +6240,9 @@
       <c r="K93" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L93"/>
+      <c r="L93" t="n" s="12">
+        <v>1.0034722222222223</v>
+      </c>
       <c r="M93" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -4504,7 +6269,7 @@
       <c r="C94" t="n" s="8">
         <v>107.0</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="191">
         <v>23</v>
       </c>
       <c r="G94" t="n" s="9">
@@ -4522,7 +6287,9 @@
       <c r="K94" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L94"/>
+      <c r="L94" t="n" s="12">
+        <v>0.9944444444444445</v>
+      </c>
       <c r="M94" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
@@ -4549,7 +6316,7 @@
       <c r="C95" t="n" s="8">
         <v>108.0</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="193">
         <v>23</v>
       </c>
       <c r="G95" t="n" s="9">
@@ -4567,7 +6334,9 @@
       <c r="K95" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L95"/>
+      <c r="L95" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="M95" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -4594,7 +6363,7 @@
       <c r="C96" t="n" s="8">
         <v>109.0</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="195">
         <v>25</v>
       </c>
       <c r="G96" t="n" s="9">
@@ -4612,7 +6381,9 @@
       <c r="K96" t="n" s="12">
         <v>0.3194444444444444</v>
       </c>
-      <c r="L96"/>
+      <c r="L96" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="M96" t="n" s="12">
         <v>0.9666666666666667</v>
       </c>
@@ -4639,7 +6410,7 @@
       <c r="C97" t="n" s="8">
         <v>110.0</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="197">
         <v>23</v>
       </c>
       <c r="G97" t="n" s="9">
@@ -4657,7 +6428,9 @@
       <c r="K97" t="n" s="12">
         <v>0.3125</v>
       </c>
-      <c r="L97"/>
+      <c r="L97" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="M97" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
@@ -4684,7 +6457,7 @@
       <c r="C98" t="n" s="8">
         <v>112.0</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="199">
         <v>23</v>
       </c>
       <c r="G98" t="n" s="9">
@@ -4702,7 +6475,9 @@
       <c r="K98" t="n" s="12">
         <v>0.2986111111111111</v>
       </c>
-      <c r="L98"/>
+      <c r="L98" t="n" s="12">
+        <v>0.9743055555555555</v>
+      </c>
       <c r="M98" t="n" s="12">
         <v>0.9631944444444445</v>
       </c>
@@ -4729,7 +6504,7 @@
       <c r="C99" t="n" s="8">
         <v>121.0</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="201">
         <v>23</v>
       </c>
       <c r="G99" t="n" s="9">
@@ -4747,7 +6522,9 @@
       <c r="K99" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L99"/>
+      <c r="L99" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
       <c r="M99" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
@@ -4774,7 +6551,7 @@
       <c r="C100" t="n" s="8">
         <v>122.0</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="203">
         <v>23</v>
       </c>
       <c r="G100" t="n" s="9">
@@ -4792,7 +6569,9 @@
       <c r="K100" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L100"/>
+      <c r="L100" t="n" s="12">
+        <v>0.9618055555555556</v>
+      </c>
       <c r="M100" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
@@ -4819,7 +6598,7 @@
       <c r="C101" t="n" s="8">
         <v>124.0</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="205">
         <v>23</v>
       </c>
       <c r="G101" t="n" s="9">
@@ -4837,7 +6616,9 @@
       <c r="K101" t="n" s="12">
         <v>0.3541666666666667</v>
       </c>
-      <c r="L101"/>
+      <c r="L101" t="n" s="12">
+        <v>0.9902777777777778</v>
+      </c>
       <c r="M101" t="n" s="12">
         <v>0.9770833333333333</v>
       </c>
@@ -4864,7 +6645,7 @@
       <c r="C102" t="n" s="8">
         <v>150.0</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="207">
         <v>24</v>
       </c>
       <c r="G102" t="n" s="9">
@@ -4882,7 +6663,9 @@
       <c r="K102" t="n" s="12">
         <v>0.2881944444444444</v>
       </c>
-      <c r="L102"/>
+      <c r="L102" t="n" s="12">
+        <v>0.9979166666666667</v>
+      </c>
       <c r="M102" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
@@ -4909,7 +6692,7 @@
       <c r="C103" t="n" s="8">
         <v>301.0</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="209">
         <v>22</v>
       </c>
       <c r="G103" t="n" s="9">
@@ -4927,7 +6710,9 @@
       <c r="K103" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L103"/>
+      <c r="L103" t="n" s="12">
+        <v>1.0347222222222223</v>
+      </c>
       <c r="M103" t="n" s="12">
         <v>1.011111111111111</v>
       </c>
@@ -4954,7 +6739,7 @@
       <c r="C104" t="n" s="8">
         <v>321.0</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="211">
         <v>22</v>
       </c>
       <c r="G104" t="n" s="9">
@@ -4972,7 +6757,9 @@
       <c r="K104" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L104"/>
+      <c r="L104" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="M104" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
@@ -4999,7 +6786,7 @@
       <c r="C105" t="n" s="8">
         <v>332.0</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="213">
         <v>22</v>
       </c>
       <c r="G105" t="n" s="9">
@@ -5017,7 +6804,9 @@
       <c r="K105" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L105"/>
+      <c r="L105" t="n" s="12">
+        <v>1.0048611111111112</v>
+      </c>
       <c r="M105" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
@@ -5044,7 +6833,7 @@
       <c r="C106" t="n" s="8">
         <v>334.0</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="215">
         <v>21</v>
       </c>
       <c r="G106" t="n" s="9">
@@ -5062,7 +6851,9 @@
       <c r="K106" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L106"/>
+      <c r="L106" t="n" s="12">
+        <v>0.9993055555555556</v>
+      </c>
       <c r="M106" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
@@ -5089,7 +6880,7 @@
       <c r="C107" t="n" s="8">
         <v>339.0</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="217">
         <v>22</v>
       </c>
       <c r="G107" t="n" s="9">
@@ -5107,7 +6898,9 @@
       <c r="K107" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L107"/>
+      <c r="L107" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="M107" t="n" s="12">
         <v>0.9673611111111111</v>
       </c>
@@ -5134,7 +6927,7 @@
       <c r="C108" t="n" s="8">
         <v>343.0</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" t="s" s="219">
         <v>22</v>
       </c>
       <c r="G108" t="n" s="9">
@@ -5152,7 +6945,9 @@
       <c r="K108" t="n" s="12">
         <v>0.2881944444444444</v>
       </c>
-      <c r="L108"/>
+      <c r="L108" t="n" s="12">
+        <v>1.020138888888889</v>
+      </c>
       <c r="M108" t="n" s="12">
         <v>0.9916666666666667</v>
       </c>
@@ -5179,7 +6974,7 @@
       <c r="C109" t="n" s="8">
         <v>344.0</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" t="s" s="221">
         <v>22</v>
       </c>
       <c r="G109" t="n" s="9">
@@ -5197,7 +6992,9 @@
       <c r="K109" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L109"/>
+      <c r="L109" t="n" s="12">
+        <v>1.0027777777777778</v>
+      </c>
       <c r="M109" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -5224,7 +7021,7 @@
       <c r="C110" t="n" s="8">
         <v>345.0</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" t="s" s="223">
         <v>22</v>
       </c>
       <c r="G110" t="n" s="9">
@@ -5242,7 +7039,9 @@
       <c r="K110" t="n" s="12">
         <v>0.2881944444444444</v>
       </c>
-      <c r="L110"/>
+      <c r="L110" t="n" s="12">
+        <v>1.0256944444444445</v>
+      </c>
       <c r="M110" t="n" s="12">
         <v>0.9930555555555556</v>
       </c>
@@ -5269,7 +7068,7 @@
       <c r="C111" t="n" s="8">
         <v>346.0</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" t="s" s="225">
         <v>22</v>
       </c>
       <c r="G111" t="n" s="9">
@@ -5287,7 +7086,9 @@
       <c r="K111" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L111"/>
+      <c r="L111" t="n" s="12">
+        <v>1.0208333333333333</v>
+      </c>
       <c r="M111" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
@@ -5314,7 +7115,7 @@
       <c r="C112" t="n" s="8">
         <v>363.0</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" t="s" s="227">
         <v>23</v>
       </c>
       <c r="G112" t="n" s="9">
@@ -5332,7 +7133,9 @@
       <c r="K112" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L112"/>
+      <c r="L112" t="n" s="12">
+        <v>0.99375</v>
+      </c>
       <c r="M112" t="n" s="12">
         <v>0.9777777777777777</v>
       </c>
@@ -5359,7 +7162,7 @@
       <c r="C113" t="n" s="8">
         <v>383.0</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" t="s" s="229">
         <v>23</v>
       </c>
       <c r="G113" t="n" s="9">
@@ -5377,7 +7180,9 @@
       <c r="K113" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L113"/>
+      <c r="L113" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
       <c r="M113" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
@@ -5404,7 +7209,7 @@
       <c r="C114" t="n" s="8">
         <v>385.0</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" t="s" s="231">
         <v>22</v>
       </c>
       <c r="G114" t="n" s="9">
@@ -5422,7 +7227,9 @@
       <c r="K114" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L114"/>
+      <c r="L114" t="n" s="12">
+        <v>0.9875</v>
+      </c>
       <c r="M114" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
@@ -5449,7 +7256,7 @@
       <c r="C115" t="n" s="8">
         <v>387.0</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" t="s" s="233">
         <v>22</v>
       </c>
       <c r="G115" t="n" s="9">
@@ -5467,7 +7274,9 @@
       <c r="K115" t="n" s="12">
         <v>0.2916666666666667</v>
       </c>
-      <c r="L115"/>
+      <c r="L115" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="M115" t="n" s="12">
         <v>0.9701388888888889</v>
       </c>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -77,19 +77,553 @@
     <t/>
   </si>
   <si>
+    <t>როსტომ აბრამიშვილის ქ. #1-3 კორპუსის  მიმდებარედ (მოედანთან) - როსტომ აბრამიშვილის ქ. -  ლილოს დასახლება (ჭირნახულის ქ. - მეფრინველეთა ქ. - თენზიგ სტურუას ქ. - ზურაბ ნამორაძის ქ. - ევგენი აფხაზავას II შესახვევი - ევგენი აფხაზავას ქ. - ჭირნახულის ქ.) - ივანე იუმაშევის ქ. - კახეთის გზატკეცილი - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - კახეთის გზატკეცილი - ივანე იუმაშევის ქ. - ლილოს დასახლება (ჭირნახულის ქ. - ევგენი აფხაზავას ქ. - ევგენი აფხაზავას II შესახვევი - ევგენი აფხაზავას IV შესახვევი -  ევგენი აფხაზავას ქ. - თენზიგ სტურუას ქ. - მეფრინველეთა ქ. - ჭირნახულის ქ. ) - როსტომ აბრამიშვილის ქ. - როსტომ აბრამიშვილის ქ. #1-3 კორპუსის  მიმდებარედ (მოედანთან))</t>
+  </si>
+  <si>
     <t>MAN A-47</t>
   </si>
   <si>
+    <t>მ/ს ისანი</t>
+  </si>
+  <si>
+    <t>ქიზიყის ქ. (#5 კორპუსის მიმდებარედ) - ქიზიყის ქ. - პოლიციის ქ. - აბელ ენუქიძის ქ. - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - ქინძმარაულის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს) – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – ქეთევან დედოფლის გამზირი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
     <t>BMC Procity</t>
   </si>
   <si>
+    <t>ბარათაშვილის ქუჩა</t>
+  </si>
+  <si>
+    <t>მ/ს ,,სანდრო ახმეტელის თეატრი' (ალეკო გობრონიძისა და ომარ ხიზანიშვილის ქუჩის გადაკვეთა) - ალეკო გობრონიძის ქ. - აქვსენტ ისააკიანის ქ. - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის V-IV კვ.) - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის III-II-I კვ - ზღვის უბნის X-X'ბ' კვარტალი) - მ/ს ,,სარაჯიშვილი'- დავით სარაჯიშვილის გამზირი (მობრუნება ქერჩის ქუჩის გადაკვეთასთან) - გიორგი მინდელის ქ. - გიორგი მინდელის ხიდი - ჯორჯ ბალანჩინის ქ.  - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. (მიქელაძის ქუჩის გადაკვეთა, #21 პოლიკლინიკის პირდაპირ).
+უკუ მიმართულებით:  ბორის პაიჭაძის ქ. (მიქელაძის ქუჩის გადაკვეთა, #21 პოლიკლინიკის პირდაპირ) - მიქელაძის ქ. - რობერტ ბარძიმაშვილის ქ. - სანდრო ახმეტელის ქ. - ლუბლიანას ქ. - ნოდარ ბოხუას ქ. - აკაკი ბელიაშვილის ქ. - ჯორჯ ბალანჩინის ქ. - გიორგი მინდელის ხიდი - გიორგი მინდელის ქ. - დავით გურამიშვილის გამზირი (მობრუნება შატილის ქუჩის გადაკვეთასთან) - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის X'ბ'-X კვარტალი - ზღვის უბნის XI მ/რ-ის I-II-III კვ) - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>პაიჭაძის ქუჩა (დიღომი)</t>
+  </si>
+  <si>
+    <t>სოფელი წავკისი (რუსთაველის ქ. #86-ის მიმდებარედ, გიორგი ბრწყინვალეს ქუჩის გადაკვეთასთან) - სოფელი წავკისი (რუსთაველის ქ. - დავით აღმაშენებლის ქ.) - თბილისი-კოჯრის ქ. - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ). 
+უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
     <t>Isuzu Novociti Life</t>
   </si>
   <si>
+    <t xml:space="preserve">დაბა წყნეთი (მაია წყნეთელის ქუჩისა და მაია წყნეთელის I შესახვევის გადაკვეთის მიმდებარედ) - დაბა წყნეთი (მაია წყნეთელის ქ. - თამარ მეფის ქ. - შოთა რუსთაველის ქ. - დავით აღმაშენებლის ქ. - დიმიტრი ამილახვარის ქ.) - წყნეთის გზატკეცილი -ქაქუცა  ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი-- ფერდინანდ თავაძის ქ. - სერგო ზაქარიაძის ქ. - ვაჟა ფშაველას I ჩიხი - ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ). 
+უკუმიმართულებით:  მ/ს 'დელისი' (ვაჟა ფშაველას გამზირი)  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. №1-თან მოხვევით) - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი - დაბა წყნეთი (დიმიტრი ამილახვარის ქ. - დავით აღმაშენებლის ქ. - შოთა რუსთაველის ქ. - თამარ მეფის ქ. - მაია წყნეთელის ქ. - მაია წყნეთელის ქუჩისა და მაია წყნეთელის I შესახვევის გადაკვეთის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t>მ/ს დელისი</t>
+  </si>
+  <si>
+    <t>ანა პოლიტკოვსკაიას ქ. (ანა პოლიტკოვსკაიას ქ. #18-ის მიმდებარედ, მოედანთან) - ზურაბ ანჯაფარიძის ქ. - ელიზბარ მინდელის ქ. (მობრუნება ელიზბარ მინდელის ქ. #9-ის მიმდებარედ) - შალვა ნუცუბიძის ქ. -  სიმონ კანდელაკის ქ- პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ბექას ქ. - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - გიორგი ჭანტურიას ქ. - სულიკო ვირსალაძის ქ. - მარჯვენა სანაპირო - ბართაშვილის ქ. (#2-ის მიმდებარედ). 
+უკუმიმართულებით: ნიკოლოზ ბართაშვილის ქ. (#2-ის მიმდებარედ) - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - ზურაბ ჟვანიას მოედანი - სიმონ კანდელაკის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>პოლიტკოვსკაიას ქუჩა</t>
+  </si>
+  <si>
+    <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. №1-ის მიმდებარედ)აკაკი წერეთლის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფ. დიღომი (დავით აღმაშენებლის ქ. - დავით სარაჯიშვილის ქ. - დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა) (ტრანსპორტის ქ. №1-ის მიმდებარედ)(წრიული). (წრიული). </t>
+  </si>
+  <si>
+    <t>მ/ს დიდუბე</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - ჩოლოყაშვილის გამზირი-წყნეთის გზატკეცილი (ბაგების დასახლება) - წყნეთის გზატკეცილი, კორპუსი #2-ის მიდებარედ (თბილისის ივანე ჯავახიშვილის სახ. სუ-ის საერთო სახოვრებელი). 
+უკუმიმართულებით:  წყნეთის გზატკეცილი, კორპუსი #2-ის მიდებარედ (თბილისის ივანე ჯავახიშვილის სახ. სუ-ის საერთო სახოვრებელი) - წყნეთის გზატკეცილი (ბაგების დასახლება) - ჩოლოყაშვილის გამზირი-ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქუჩა - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).</t>
+  </si>
+  <si>
     <t>MAN A-21</t>
   </si>
   <si>
+    <t>ვაკე-ბაგები</t>
+  </si>
+  <si>
+    <t xml:space="preserve">დაბა კოჯორი (ვაჟა ფშაველას ქ. #33-ის მიმდებარედ) - დაბა კოჯორი (ვაჟა ფშაველას ქ. - ალექსანდრე ჩხეიძის ქ. (მობრუნება ალექსანდრე ჩხეიძის ქ. #16-თან) - გრიგოლ ორბელიანის ქ. - ამაღლების ქ. - ზაქარია ბაქრაძის ქ. - იუნკერთა ქ.) - თბილისი-კოჯრის ქ. (სოფ. ტაბახმელას, სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).
+უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი –  კოჯრის გზატკეცილი -  თბილისი-კოჯრის ქ. (წავკისის ველის, სოფ. წავკისის, სოფ. შინდისის, სოფ. ტაბახმელას გავლით) - დაბა კოჯორი (იუნკერთა ქ. - ზაქარია ბაქრაძის ქ. -  ამაღლების ქ. - გრიგოლ ორბელიანის ქ. - ალექსანდრე ჩხეიძის ქ. (მობრუნება ალექსანდრე ჩხეიძის ქ. #16-თან) - ვაჟა ფშაველას ქ. - აზეულას ქ. (მობრუნება ნიკო კეცხოველის ქუჩის გადაკვეთასთან) - ვჟა ფშაველას ქ. - ვაჟა ფშაველას ქ.#33-ის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">დაბა ზაჰესის დასახლება (ავჭალის ქ., ბენზინ გასამართი სადგურის მიმდებარე ტერიტორია) - ავჭალის ქ. - ელეფთერ ანდრონიკაშვილის ქ. - უწერის ქ. - ლიბანის ქ. - დავით სარაჯიშვილის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი)
+უკუმიმართულებით:  აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი) - აკაკი წერეთლის გამზირი (მობრუნება გიორგი ცაბაძის ქუჩის გადაკვეთასთან) - შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t>ეროვნული სტადიონი</t>
+  </si>
+  <si>
+    <t>სოფელი დიდი ლილო (ერეკლე მეორეს და მშვიდობის ქუჩების გადაკვეთა) - ერეკლე მეორეს ქ. (სოფელი დიდი ლილო) - კახეთის გზატკეცილი - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი' (ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ) - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღომი  IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი  - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - ზურაბ ჟვანიას მოედანი - სიმონ კანდელაკის ქ. - ჟიული შარტავას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი -  თავისუფლების მოედანი-ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                                                                                                                              უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – მერაბ კოსტავას ქ. – გიორგი სააკაძის მოედანი – ჟიული შარტავას ქუჩა -  შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.)- პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი - გრიგოლ რობაქიძის გამზირი -  შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუ მიმართულებით:  სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი 1</t>
+  </si>
+  <si>
+    <t>მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფ. დიღომი (დავით აღმაშენებლის ქ. ) - დიდგორის ქ. - მირიან მეფე და ნანა დედოფლის I ჩიხი - სოფელი დიდგორი (ორასი თავდადებული მხედრის ქ. ) - ხოდაბუნების ქ. - მირიან მეფე და ნანა დედოფლის I ჩიხი - სოფელი თელოვანი (ქეთევან დედოფლის ქ. - ქეთევან დედოფლის ქ. #17-19-ის მიმდებარედ).
+უკუმიმართულებით: სოფელი თელოვანი (ქეთევან დედოფლის ქ. #17-19-ის მიმდებარედ - ქეთევან დედოფლის ქ.) - მირიან მეფე და ნანა დედოფლის I ჩიხი - ხოდაბუნების ქ. - სოფელი დიდგორი (ორასი თავდადებული მხედრის ქ. ) - მირიან მეფე და ნანა დედოფლის I ჩიხი - დიდგორის ქ. - სოფ. დიღომი (დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>მუხიანის IV 'ბ' მ/რ (კორპუსი #42-ის მიმდებარედ) - ალეკო გობრონიძის ქ. - აქვსენტ ისააკიანის ქ. - გია რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) - ზღვის უბნის IV მ/რ (მობრუნება სარაჯიშვილის ქ. #1-ის მიმდებარედ) - ჩარგლის ქ. - გუდამაყრის ქ. - დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. -  (მობრუნება ფიროსმანის მოედანზე) - დავით გურამიშვილის გამზირი  - გუდამაყრის ქ. - ჩარგლის ქ. - ზღვის უბნის IV მ/რ - გია რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) -  აქვსენტ ისააკიანის ქ. - ალეკო გობრონიძის ქ. - მუხიანის IV 'ბ' მ/რ (კორპუსი #42-ის მიმდებარედ)(წრიული)</t>
+  </si>
+  <si>
+    <t>გადასასვლელი ხიდი</t>
+  </si>
+  <si>
+    <t>სოფელი პატარა ლილო (თამარ მეფის ქ. #72-ის მიმდებარედ) - სოფელი პატარა ლილო (თამარ მეფის ქ. - დავით აღმაშენებლის ქ.) - ვარკეთილის მეურნეობა (ალექსანდრე ყაზბეგის ქ. - მეგობრობის ქ. - გრიგოლ რობაქიძის გამზირი - მშვიდობის ქ.) - ევგენია მაისურაძის ქ. - მიხეილ გახოკიძის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>დიღმის მასივი, ლუბლიანას ქ. #21“ა“-ს მიმდებარე ტერიტორია - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენის მოედანი - ჩუღურეთის ხიდი – მშრალი ხიდი – გიორგი ათონელის ქ. – სულიკო ვირსალაძის ქ. – მტკვრის მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                              უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)- ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – გიორგი ათონელის ქ. – მშრალი ხიდი – ჩუღურეთის ხიდი – ზაარბრუკენის მოედანი – მტკვრის მარცხენა სანაპირო – კოტე მარჯანიშვილის ქ. – კოტე მარჯანიშვილის მოედანი – დავით აღმაშენებლის გამზირი – გიორგი ცაბაძის ქ. – აკაკი წერეთლის გამზირი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი №6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი წინამძღვრიშვილის ქ. - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. -ივანე  ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
+უკუმიმართულებით: ივანე  ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი) - ზურაბ ანჯაფარიძის ქ.  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. №1-თან მოხვევით) - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - ბორის პაიჭაძის ქ. - ევგენი მიქელაძის ქ. -  რობერტ ბარძიმაშვილის ქ. - სანდრო ახმეტელის ქ. - ლუბლიანას ქ. - ნოდარ ბოხუას ქ. - აკაკი ბელიაშვილის ქ. - შემდეგ იგივე სქემით.
+</t>
+  </si>
+  <si>
+    <t>სახ. უნივერსიტეტის მ/კ</t>
+  </si>
+  <si>
+    <t>სოფელი ნასაგური (აფხაზეთის და ნახშირგორას ქუჩების გადაკვეთის მიმდებარედ) - სოფელი ნასაგური (აფხაზეთის ქ. - იორის ქ. - აკაკი მგელაძის ქ.) - კახეთის გზატკეცილი - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა)  - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. - გიორგი ჩიტაიას ქ. - გიორგი მაზნიაშვილის ქ. - ივანე ჯავახიშვილის ქ. -  მოსე გოგიბერიძის ქ. – ზაარბრუკენის მოედანი – ჩუღურეთის ხიდი – მშრალი ხიდი – გიორგი ათონელის ქ. – სულიკო ვირსალაძის ქ. – მტკვრის მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).    უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – გიორგი ათონელის ქ. – მშრალი ხიდი – ჩუღურეთის ხიდი – მოსე გოგიბერიძის ქ. – არნოლდ ჩიქობავას ქ. – გიორგი ჩიტაიას ქ. – ცოტნე დადიანის ქ. – დავით გურამიშვილის გამზირი – ქერჩის ქ. – აკაკი ვასაძის ქ. – მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
+  </si>
+  <si>
+    <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა) - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - გიორგი მინდელის ქ. - გიორგი მინდელის ხიდი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - პეტრე ქავთარაძის ქ. (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
+უკუ მიმართულებით: ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი) - პეტრე ქავთარაძის ქ. - ალექსანდრე ყაზბეგის გამზირი - იონა ვაკელის ქ. - ბუდაპეშტის ქ. - გურამ ფანჯიკიძის ქ. - პეკინის გამზირი - ზურაბ ჟვანიას მოედანი - იური გაგარინის ქუჩა - მარშალ გელოვანის გამზირი - გრიგოლ რობაქიძის გამზირი - ბორის პაიჭაძის ქ. - მიქელაძის ქ. -  რობერტ ბარძიმაშვილის ქ. - სანდრო ახმეტელის ქ. - ლუბლიანას ქ. -  ნოდარ ბოხუას ქ. - აკაკი ბელიაშვილის ქ. - ჯორჯ ბალანჩინის ქ. - გიორგი მინდელის ხიდი - გიორგი მინდელის ქ. - მ/ს 'სარაჯიშვილი' - დავით გურამიშვილის გამზირი - ქერჩის ქ. - აკაკი ვასაძის ქ. - მ/ს 'ახმეტელის თეატრი' - ომარ ხიზანიშვილის ქ.  (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ვაზისუბანი II მ/რ (#23 კორპუსის მიმდებარედ) - ვაზისუბნის III მ/რ I კვ.(#3,4,5,6 კორპუსების გავლით) - ვაზისუბნის I მ/რ (#15,14,13 კორპუსების გავლით) - თეოფანე დავითაიას ქ. - შანდორ პეტეფის ქ. - 17 შინდისელი გმირის ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი -  ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).                                       უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს)  – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს `ავლაბარი“ – ქეთევან დედოფლის გამზირი – მოსკოვის გამზირი – ჯავახეთის ქ. (მობრუნება მ/ს „ვარკეთილთან“) – 17 შინდისელი გმირის ქ. – შანდორ პეტეფის ქ. – შემდეგ იგივე სქემით (წრიული) </t>
+  </si>
+  <si>
+    <t>ზურგოვანა (მერაბ კოსტავას ქ. - თავისუფლების ქ.) - ასი ათასი მოწამის ქ. - ფარნავაზ მეფის გამზირი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ბაზრობა 'ჩემპიონის' პირდაპირ) 
+უკუ მიმართულებით: მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ბაზრობა 'ჩემპიონის' პირდაპირ) - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - ბორის პაიჭაძის ქ. - ევგენი მიქელაძის ქ. -  რობერტ ბარძიმაშვილის ქ. - სანდრო ახმეტელის ქ. - ლუბლიანას ქ. - ნოდარ ბოხუას ქ. - აკაკი ბელიაშვილის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ზურგოვანა</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ვაშლიჯვრის დასახლება IV ზონა (#11 კორპუსის მიმდებარედ) - ვასო გოძიაშვილის II შესახვევი - ვასო გოძიაშვილის ქ. - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მიხეილ  წინამძღვრიშვილის ქ. - აბასთუმნის ქ. - ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის' მიმდებარედ).
+უკუმიმართულებით: სადგურის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებარედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) – სადგურის მოედანი აბასთუმნის ქ. – მიხეილ წინამძღვრიშვილის ქ. – აკაკი წერეთლის გამზირი – შალიკაშვილის ხიდი – გრიგოლ რობაქიძის გამზირი – დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) – მარშალ გელოვანის გამზირი – დავით აღმაშენებლის ქ. – თეთრი დუქნის ქ. – პეტრე სარაჯიშვილის ქ. – ვასო გოძიაშვილის ქ. – ვაშლიჯვრის დასახლება II – III ზონა – ვასო გოძიაშვილის II შესახვევი  – ვაშლიჯვრის დასახლება IV ზონა (№11 კორპუსის მიმდებარედ).
+</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">კოტე მარჯანიშვილის ქუჩისა და კოტე მარჯანიშვილის მოედნის გადაკვეთის მიმდებარედ- კოტე მარჯანიშვილის ქ. - მიხეილ წინამძღვრიშვილის ქ. - კიტა აბაშიძის ქ. - არნოლდ ჩიქობავას მოედანი - ტერენტი გრანელის ქ. - ლამის ქ. - პაატა სააკაძის ქ. - მნათობის ქ. #73-ის პირდაპირ.
+უკუ მიმართულებით: მნათობის ქ. #73-ის პირდაპირ - პაატა სააკაძის ქ. - ლამის ქ. - ტერენტი გრანელის ქ. - არნოლდ ჩიქობავას მოედანი - გიორგი მაზნიაშვილის ქ. - კიევის ქ. - დავით აღმაშენებლის გამზირი - კოტე მარჯანიშვილის მოედანი - კოტე მარჯანიშვილის ქუჩისა და კოტე მარჯანიშვილის მოედნის გადაკვეთის მიმდებარედ.
+</t>
+  </si>
+  <si>
+    <t>მარჯანიშვილის მ-ნი</t>
+  </si>
+  <si>
+    <t>ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებარედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) – თამარ მეფის გამზირი – გმირთა მოედანი – მერაბ კოსტავას ქ. – სააკაძის მოედანი – ჟიული შარტავას ქ. – ზურაბ ჟვანიას მოედანი – სიმონ კანდელაკის ქ. – ბუდაპეშტის ქ. – ივანე ბერიტაშვილის ქ. – ლევან კვაჭაძის ქ.- ონკოლოგიის კვლ. ცენტრი (მობრუნება) – ლევან კვაჭაძის ქ.- ფერმწერთა ქ. - ავტო ვარაზის ქ. - თხინვალას ქ. - იოსებ კეჭაყმაძის ქ. – ლევან კვაჭაძის ქ. – ფერმწერთა ქ. (მობრუნება ნუცუბიძის IV მ/რ, №42 კორპუსის მიმდებარედ) – ლევან კვაჭაძის ქ.- ონკოლოგიის კვლ. ცენტრი (მობრუნება) – ლევან კვაჭაძის ქ.- ივანე ბერიტაშვილის ქ. – ბუდაპეშტის ქ. – სიმონ კანდელაკის ქ. – ჟიული შარტავას ქ. – გიორგი სააკაძის მოედანი – მერაბ კოსტავას ქ. – გიორგი მიროტაძის ქ. – პეკინის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი (მობრუნება ვაგზლის მოედნის გადაკვეთასთან) – თევდორე მღვდლის ქ. – ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ)(წრიული).</t>
+  </si>
+  <si>
+    <t>სოფ. თხინვალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ქიზიყის ქ. (#34-ის მიმდებარედ) - ქიზიყის ქ. - პოლიციის ქ. - გრიგოლ ლორთქიფანიძის ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - გრიგოლ ლორთქიფანიძის ქ. - შემდეგ იგივე სქემით.
+</t>
+  </si>
+  <si>
     <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – გმირთა მოედანი – ვარაზისხევის ქ. – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – შოთა რუსთაველის გამზირი – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (მობრუნება ნიკოლოზ ბარათაშვილისა და ალექსანდრე პუშკინის ქუჩების გადაკვეთასთან) – მარჯვენა სანაპირო – ვახტანგ გორგასალის ქ. – კრწანისის ქ.  (მობრუნება გრიგოლ ვოლსკის ქუჩის გადაკვეთასთან) -კრწანისის ქ. (№63-ის მიმდებარედ). უკუმიმართულებით: კრწანისის ქ. (№63-ის მიმდებარედ)  – კრწანისის ქ. (მობრუნება გრიგოლ ვოლსკის ქუჩის გადაკვეთასთან) – ვახტანგ გორგასალის ქ. – წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი – ევროპის მოედანი – რიყე – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების  მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).</t>
+  </si>
+  <si>
+    <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა)  - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - სარაჯიშვილის გამზირი - თენგიზ შეშელიძის ქ. - ჯორჯ ბალანჩინის ქ. - მირიან მეფის ქ. - ფარნავაზ მეფის გამზირი - გიორგი ბრწყინვალეს ქ. (მობრუნება ფარნავაზ მეფის გამზირზე) - პეტრე იბერის ქ. - მირიან მეფის ქ. - დიდი დიღომი III  მ/რ (მირიან მეფის ქ.) - დიდი დიღმის IV მ/რაიონი ( არჩილ მეფის ქ. - დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.)
+უკუმიმართულებით: დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) -  დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღომი III  მ/რ (მირიან მეფის ქ.) - პეტრე იბერის ქ. - გიორგი ბრწყინვალეს ქ. - ფარნავაზ მეფის გამზირი - მირიან მეფის ქ. - ჯორჯ ბალანჩინის ქ. - გიორგი მინდელის ქ. - თენგიზ შეშელიძის ქ. - მ/ს 'სარაჯიშვილი' - ქერჩის ქ. – აკაკი ვასაძის ქ. – მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
+  </si>
+  <si>
+    <t>დიდი დიღომი IV მ/რ</t>
+  </si>
+  <si>
+    <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა)  - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს  ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - კოტე მარჯანიშვილის ქ. - მიხეილ ჯავახიშვილის ქ. - პირველი რესპუბლიკის მოედანი - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ). 
+უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების  მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ – გმირთა მოედანი – თამარ მეფის გამზირი – მიხეილ წინამძღვრიშვილის ქ. – აკაკი წერეთლის გამზირი – თორნიკე ერისთავის ქ. – დავით გურამიშვილის გამზირი – მ/ს „სარაჯიშვილი“ – ქერჩის ქ. – აკაკი ვასაძის ქ. – მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ.  (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი - დაბა წყნეთი (შოთა რუსთაველის ქ. - აფხაზეთის ქ. - გაგრის ქ. - აფხაზეთის ქ. - შოთა რუსთაველის ქ.) - დაბა წყნეთი (შოთა რუსთაველის  და ბატუ კრავეიშვილის ქუჩის გადაკვეთის პირდაპირ). 
+უკუმიმართულებით: დაბა წყნეთი (შოთა რუსთაველის  და ბატუ კრავეიშვილის ქუჩის გადაკვეთის პირდაპირ) - დაბა წყნეთი (შოთა რუსთაველის ქ. - აფხაზეთის ქ. - გაგრის ქ. - აფხაზეთის ქ. - შოთა რუსთაველის ქ. - დავით აღმაშენებლის ქ. - დიმიტრი ამილახვარის ქ.) - წყნეთის გზატკეცილი - ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+</t>
+  </si>
+  <si>
+    <t>წყნეთი</t>
+  </si>
+  <si>
+    <t>ზღვის უბნის დასახლება, მე-2 მ/რაიონი, კორპუსი #204-ის მიმდებარედ (ლოტკინის მთა) - დავით იოსელიანის ქ. - გარეჯის ქ. - ნიკოლოზ ხუდადოვის ქ. - ცოტნე დადიანის ქ. - რკინიგზის გადასასვლელი ხიდი (მიმდებარედ). 
+უკუმიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარედ) - ცოტნე დადიანის ქ. - ნიკოლოზ ხუდადოვის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>რკინიგზის გადასასვლელი ხიდი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ავიაქიმიის ქ. (#53-ის მიმდებარედ) - ავიაქიმიის ქ. - სანავარდოს ქ. - წერონისის ქ. - კლდეკარის ქ. - სამღერეთის ქ. - რევაზ ურიდიას ქ. - ცოტნე დადიანის ქ. - რკინიგზის გადასასვლელი ხიდი (მიმდებარედ).
+უკუმიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარედ) - ცოტნე დადიანის ქ. - შემდეგ იგივე სქემით.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – გმირთა მოედანი – ვარაზისხევის ქ. – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – შოთა რუსთაველის გამზირი – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – ქეთევან დედოფლის გამზირი – ლეხ კაჩინსკის ქ. – ჯორჯ ბუშის ქ. – კახეთის გზატკეცილი – ევროპის ქ. – თბილისის შოთა რუსთაველის სახელობის საერთაშორისო აეროპორტი. უკუმიმართულებით: თბილისის შოთა რუსთაველის სახელობის საერთაშორისო აეროპორტი – ევროპის ქ. – კახეთის გზატკეცილი – ჯორჯ ბუშის ქ. – ლეხ კაჩინსკის ქ. – ქეთევან დედოფლის გამზირი – ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).
+</t>
+  </si>
+  <si>
+    <t>აეროპორტი</t>
+  </si>
+  <si>
+    <t>აგრარული უნივერსიტეტი - დავით აღმაშენებლის ხეივანი - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (მიმდებარე ტერიტორია, აკაკი წერეთლის გამზირი) - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი - აგრარული უნივერსიტეტი (მობრუნება გურამ ნიჟარაძის ქუჩის მოპირდაპირედ)(წრიული)</t>
+  </si>
+  <si>
+    <t>წრიული</t>
+  </si>
+  <si>
+    <t>სესილია თაყაიშვილის ქ. (ვარკეთილის IV მ/რ #418 კორპ.) - ვიქტორ კუპრაძის ქ. (მობრუნება ვარკეთილის IV მ/რ, ვიქტორ კუპრაძის და იოთამ ზედგენიძის ქუჩების გადაკვეთასთან) - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი -ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).   უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს) – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს „ავლაბარი“ – ქეთევან დედოფლის გამზირი – მოსკოვის გამზირი –  ჯავახეთის ქ. – ილია სუხიშვილის ქ. – სესილია თაყაიშვილის ქ. (ვარკეთილის IV მ/რ №403 კორპ.).</t>
+  </si>
+  <si>
+    <t>ვარკეთილის მეურნეობა (შოთა რუსთაველის ქ. #16 - მეგობრობის ქ.) - ვარკეთილის მეურნეობა (მშვიდობის ქ. - გრიგოლ რობაქიძის გამზირი (მობრუნება აკაკი წერეთლის გადაკვეთასთან) - მშვიდობის ქ. - ევგენია მაისურაძის ქ. - მიხეილ გახოკიძის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'  - ნავთლუღის ქ. - ვლადიმერ ლობჟანიძის ქ. - ვლადიმერ ლობჟანიძის ქ.  (#41-42-ის მიმდებარედ)   
+უკუმიმართულებით: ვლადიმერ ლობჟანიძის ქ. (#41-42-ის მიმდებარედ) - ვლადიმერ ლობჟანიძის ქ. - ნავთლუღის ქ. - მ/ს 'ისანი' - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - რომანოზ ხომლელის ქ. - მიხეილ გახოკიძის ქ. - ევგენია მაისურაძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ექიმის გასასვლელი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">სოფელი წინუბანი (მშვიდობისა და გუდამაყარის ქუჩის გადაკვეთის მიმდებარედ) - მშვიდობის ქ. - კახეთის გზატკეცილი - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი -ჯავახეთის ქ. - კახეთის გზატკეცილი - მშვიდობის ქ. -სოფელი წინუბანი (მშვიდობის ქ. - იალნოს ქ. (მობრუნება იალნოს მე-5 შესახვევთან) - მერი მდივანის ქ. (მობრუნება ხიდამდე) - მშვიდობისა და გუდამაყარის ქუჩის გადაკვეთის მიმდებარედ. 
+</t>
+  </si>
+  <si>
+    <t>იყალთოს მთა (#40-ის მიმდებარე ტერიტორია) - ზაზა  ფანასკერტელ-ციციშვილის ქ. (#25,21,19,22,20,16 კორპუსების გავლით) - ბახტრიონის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას - გმირთა მოედანი - მერაბ კოსტავას ქ. - ვახტანგ ჭაბუკიანის ქ. - პეკინის გამზირი - ბახტრიონის ქ. - ფანასკერტელ-ციციშვილის ქ. (#16,20,22,19,21,25 კორპუსების გავლით) - იყალთოს მთა (#40-ის მიმდებარე ტერიტორია). (წრიული)</t>
+  </si>
+  <si>
+    <t>ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება) - ყვარლის ქ. - კაკაბეთის ქ. - კახეთის გზატკეცილი - ვაჟა ჩაჩავას ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი -ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).                                                                   უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს) – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს ,,ავლაბარი“   ქეთევან დედოფლის გამზირი - მ/ს ,,ისანი' - ვაჟა ჩაჩავას ქ. -  კახეთის გზატკეცილი - კაკაბეთის ქ. - ტვიშის ქ. - თევდორე უშაკოვის ქ. - ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება). (წრიული)</t>
+  </si>
+  <si>
+    <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. №18 სახლის მიმდებარედ) – სოფელი გლდანი (ბორის პაიჭაძის ქ. – ვიტალი დარასელიას ქ. – ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   – თიანეთის გზატკეცილი – ქერჩის ქ. – აკაკი ვასაძის ქ. – ომარ ხიხანიშვილის ქ. – მ/ს „ახმეტელის თეატრი“ (მიმდებარე ტერიტორია).
+უკუმიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ. - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>მ/ს ახმეტელის თეატრი</t>
+  </si>
+  <si>
+    <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. #18 სახლის მიმდებარედ) - სოფელი გლდანი (ბორის პაიჭაძის ქ. - ვიტალი დარასელიას ქ. - ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
+უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ.  - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>სოფელ გლდანი (26 მაისის ქ. #83- 26 მაისის ქუჩა).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა -  ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
+უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ. - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. - სანდრო ახმეტელის ქ - რობერტ ბარძიმაშვილის ქ. - პაიჭაძის ქ. (მობრუნება პაიჭაძის ქ. #5'ა'-სთან) - ევგენი მიქელაძის ქ. - აკაკი ბელიაშვილის ქ. - აკაკი ბაქრაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის აღმართი - მ/ს ,,ავლაბარი' (მიმდებარედ).
+უკუმიმართულებით: მ/ს ,,ავლაბარი' (მიმდებარედ) - ნიკოლოზ ბარათაშვილის აღმართი - ნიკოლოზ ბარათაშვილის ხიდი - მარჯვენა სანაპირო - მიხეილ ჯავახიშვილის ქუჩა - რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი  - აკაკი ბელიაშვილის ქ. (მობრუნება ჯორჯ ბალანჩინის ქუჩაზე, 'Mcdonald's'-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ).
+</t>
+  </si>
+  <si>
+    <t>მ/ს ავლაბარი</t>
+  </si>
+  <si>
+    <t>თავისუფალი უნივერსიტეტი (შალვა ნუცუბიძის I მ/რ) - ბედიას ქ. (შალვა ნუცუბიძის I მ/რ) - შალვა ნუცუბიძის ქ. - ფერდინანდ თავაძის ქ. -  მ/ს ,,დელისი' - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - იონა ვაკელის ქ. - ადამ მიცკევიჩის ქ. - დავით გამრეკელის ქ. - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი (მობრუნება ვაგზლის მოედნის გადაკვეთასთან) - თევდორე მღვდლის ქ. - ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ)
+უკუ მიმართულებით: ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) - თამარ მეფის გამზირი - თამარ მეფის გამზირი - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ბექას ქ. - დავით გამრეკელის ქ. - ადამ მიცკევიჩის ქ. - იონა ვაკელის ქ. - ვაჟა ფშაველას გამზირი - მარიჯანის ქ. - შალვა ნუცუბიძის ქ. - ბედიას ქ. (შალვა ნუცუბიძის I მ/რ)  - თავისუფალი უნივერსიტეტი (შალვა ნუცუბიძის I მ/რ).</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ჟიული შარტავას ქ.- ანა კალანდაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი  - მ/ს ,,დელისი' - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - რამაზ ჩხიკვაძის ქ. (შალვა ნუცუბიძის III მ/რ) - შალვა ნუცუბიძის III მ/რ-ის II კვ. #5-2-1 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ IIIკვ. #3-5 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ IIკვ. #8-9 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ I კვ. #8-7 კორპუსების გავლით (ძოწენიძის ქ.) - რამაზ ჩხიკვაძის ქ. - შალვა ნუცუბიძის ქ. - ფერდინანდ  თავაძის ქ. -  მ/ს ,,დელისი'  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - პეკინის გამზირი - თინა იოსებიძის ქ. - დები იშხნელების ქ. - ჟიული შარტავას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) (წრიული).</t>
+  </si>
+  <si>
+    <t>საერთაშორისო სავაჭრო ცენტრი "თბილისის ზღვის პლაზა"-ს მიმდებარე ტერიტორია (ს/კ: 404934381). - პატარიძის ქ. (ვაზისუბნის III მ/რ, II კვ.) - თეოფანე დავითაიას ქ. - შანდორ პეტეფის ქ. - ლიზა ნაკაშიძე-ბოლქვაძის ქ.  – მ/ს „ვარკეთილი“ - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - მ/ს "ისანი" - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - მარჯვენა სანაპირო - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი - ევროპის მოედანი - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი -კოტე აფხაზის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება "კონკის" მხარეს).
+უკუ მიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ("კონკის" მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქუჩა - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. (მობრუნება მ/ს "ვარკეთილთან") - 17 შინდისელი გმირის ქ. - შანდორ პეტეფის ქ. - თეოფანე დავითაიას ქ. - ვაზისუბნის III მ/რ, II კვარტლი (წრეზე მოძრაობით) - საერთაშორისო სავაჭრო ცენტრი "თბილისის ზღვის პლაზა"-ს მიმდებარე ტერიტორია (ს/კ: 404934381).</t>
+  </si>
+  <si>
+    <t>გლდანულას დასახლება (#4 კორპუსის მიმდებარედ) - გლდანისხევის ქ. - შოთა მიქატაძის ქ. - კონსტანტინე ლესელიძის ქ. (გლდანის VI-VIII მ/რ-ს გამყოფი გზა)  - ომარ ხიზანიშვილის ქ. (გლდანის VIII მ/რ) - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - სარაჯიშვილის გამზირი - თენგიზ შეშელიძის ქ. - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - ქუთაისის ქ. - ვახუშტი ბაგრატიონის ხიდი - გიორგი სააკაძის დაღმართი - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. -  პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი (ბაგების დასახლება) - წყნეთის გზატკეცილი, კორპუსი #2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი)
+უკუ მიმართულებით:  წყნეთის გზატკეცილი, კორპუსი №2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი) – წყნეთის გზატკეცილი (ბაგების დასახლება) – ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – გიორგი სააკაძის მოედანი – გიორგი სააკაძის დაღმართი – ვახუშტი ბაგრატიონის  ხიდი – ვახუშტი ბაგრატიონის ქ. – აკაკი წერეთლის გამზირი – შალიკაშვილის ხიდი – გრიგოლ რობაქიძის გამზირი – ბორის პაიჭაძის ქ. – მიქელაძის ქ. – რობერტ ბარძიმაშვილის ქ. – სანდრო ახმეტელის ქ. – ლუბლიანას ქ. – ნოდარ ბოხუას ქ. – აკაკი ბელიაშვილის ქ. – ჯორჯ ბალანჩინის ქ. – გიორგი მინდელის ქ. – თენგიზ შეშელიძის ქ.  - მ/ს 'სარაჯიშვილი' - ქერჩის ქ. - აკაკი ვასაძის ქ. –  მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI მ/რ)  – კონსტანტინე ლესელიძის ქ. – შოთა მიქატაძის ქ. – გლდანისხევის ქ. -გლდანულას დასახლება (№4 კორპუსის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>ვიქტორ დოლიძის ქ. (#89-ის მიმდებარედ) - ვიქტორ დოლიძის ქ. - მელიტონ და ანდრია ბალანჩივაძის ქ. - მერაბ კოსტავას ქ. - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი -გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                            უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – მერაბ კოსტავას ქ. – გიორგი მიროტაძის ქ. – პეკინის გამზირი – დოლიძის ქ. (№89-ის მიმდებარედ). (წრიული)</t>
+  </si>
+  <si>
+    <t>ცაიშის ქ. (კუკიის დასახლება, ქვის დამამუშავებელი საამქროს მიმდებარედ) - ატოცის ქ.  - ნორიოს აღმართი - ართვინის ქ. (მობრუნება ართვინის ქ. #71-ის მიმდებარედ) - მერაბ მამარდაშვილის ქ. - არნოლდ ჩიქობავას მოედანი - გიორგი მაზნიაშვილის ქ. - კიევის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - დავით აღმაშენებლის გამზირი - კორტე მარჯანიშვილის მოედანი - კოტე მარჯანიშვილის ქ. - მიხეილ წინამძღვრიშვილის ქ. - კიტა აბაშიძის ქ. - არნოლდ ჩიქობავას მოედანი - მერაბ მამარდაშვილის ქ. - ართვინის ქ. (მობრუნება ართვინის ქ. #71-ის მიმდებარედ) - ნორიოს აღმართი - ატოცის ქ. - ცაიშის ქ. (ქვის დამამუშავებელი საამქროს მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.)  - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - ზურაბ ჟვანიას მოედანი - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. - ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
+უკუმიმართულებით:  ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი) - ზურაბ ანჯაფარიძის ქ. - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - ზურაბ ჟვანიას მოედანი - გაგარინის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ორხევის დასახლება (თენგიზ ჩანტლაძის ქ., #5-ის მიმდებარედ) - ორხევის დასახლება (თენგიზ ჩანტლაძის ქ. -  კობა ახვლედიანის ქ. - გიორგი ახვლედიანის ქ. - გიორგი მუხაძის ქ. - თენგიზ ჩანტლაძის ქ.) - კახეთის გზატკეცილი - გიორგი აბაშვილის ქ. - კალოუბნის ქ. - ჯავახეთის ქ. (მობრუნება მ/ს 'ვარკეთილის' მიმდებარედ) - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
+უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - კახეთის გზატკეცილი - ორხევის დასახლება ( თენგიზ ჩანტლაძის ქ. - გიორგი მუხაძის ქ. - გიორგი ახვლედიანის ქ. - თენგიზ ჩანტლაძის ქ.) - ორხევის დასახლება (თენგიზ ჩანტლაძის ქ., #5-ის მიმდებარედ)</t>
+  </si>
+  <si>
+    <t>კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია) - კრწანისის ქ. - ორთაჭალის ქ. - ვახტანგ გორგასალის ქ. - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - სამგორის ქ. (#2-ის მიმდებარედ)
+უკუმიმართულებით: სამგორის ქ. (#2-ის მიმდებარედ) - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - გია გულუას ქ. - ვახტანგ გორგასალის ქ. - ორთაჭალის ქ. - კრწანისის ქ. - კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია).</t>
+  </si>
+  <si>
+    <t>სამგორის ქუჩა</t>
+  </si>
+  <si>
+    <t>ნუგზარ ენდელაძის მოედანი (ილია ჭავჭავაძის გადაკვეთის მიმდებარედ) - ქაქუცა ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ალექსანდრე ყაზბეგის გამზირი - გივი კარტოზიას ქ. - ვლადიმერ და არჩილ ასათიანების ქ. (მობრუნება გვირაბთან) - სულხან ცინცაძის ქ. - პეკინის გამზირი - 26 მაისის მოედანი - მერაბ კოსტავას ქ. - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი -  მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                       უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) -  ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - მიროტაძის ქ. - პეკინის გამზირი - ვაჟა-ფშაველას გამზირი - ბექას ქ. - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - სულხან ცინცაძის ქ. - გივი კარტოზიას ქ. - მიხეილ ასათიანის ქ. - ვაჟა-ფშაველას გამზირი - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - ნუგზარ ენდელაძის მოედანი (ილია ჭავჭავაძის გადაკვეთის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს)- ნიკოლოზ ბარათაშვილის ხიდი - მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის პანდუსი (მობრუნება ნიკოლოზ ბარათაშვილის ხიდის დასაწყისში) - კოსტა ხეთაგუროვის ქ. - მოსე გოგიბერიძის ქ. - ზაარბრიუკენის მოედანი - მარცხენა სანაპირო - კოტე მარჯანიშვილის ქ.  (მობრუნება კოტე მარჯანიშვილის მოედანზე) - გალაქტიონ ტაბიძის ხიდი - მიხეილ ჯავახიშვილის ქ. - ვარდების რევოლუციის მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი -ჩოლოყაშვილის გამზირი -  წყნეთის გზატკეცილი (ბაგების დასახლება) - წყნეთის გზატკეცილი, კორპუსი #4-2 კორპუსი (უნივერსიტეტის საერთო საცხოვრებელი)
+უკუმიმართულებით:  წყნეთის გზატკეცილი, კორპუსი #2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი) - წყნეთის გზატკეცილი (ბაგების დასახლება) - ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - მიხეილ ჯავახიშვილის ქ. - გალაქტიონ ტაბიძის ხიდი - კოტე მარჯანიშვილის ქ. - კოტე მარჯანიშვილის მოედანი - დავით აღმაშენებელის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენის მოედანი - ლევ ტოლსტოის ქ. - წმ. ნიკოლოზის ქ. - ხეთაგუროვის ქ. - ნიოლოზ ბარათაშვილის პანდუსი - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს).</t>
+  </si>
+  <si>
+    <t>მ/ს ,,ღრმაღელე' (მიმდებარედ) - დავით გურამიშვილის გამზირი - გუდამაყრის ქ. - ჩარგლის ქ. - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის  XI მ/რ-ის I-II-III კვ.) - უცნობ გმირთა ქ. - ბეშენოვას ქ. - ლიპტოვის ქ. - ნიკოლოზ ხუდადოვის ქ. - რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია)
+უკუ მიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია) - ნიკოლოზ ხუდადოვის ქ. -  ლიპტოვის ქ. - ბეშენოვას ქ. - უცნობ გმირთა ქ. - ანაპის დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის III-II-I კვ.) - ჩარგლის ქ. - ლიახვის ქ. - დავით გურამიშვილის გამზირი - მ/ს ,,ღრმაღელე' (მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>ზღვის უბნის III მ/რ-ის IV კვ. (№65 კორპუსის მიმდებარედ) – ლევან რჩეულიშვილის ქ. (ზღვის უბნის III მ/რ, IV-III კვ.) – ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის V-IV – III-II-I კვარტალი) – ურეკის ქ. – პეტრე გამყრელიძის ქ. – ალექსანდრე ბარამიძის ქ. – დავით გურამიშვილის გამზირი – ცოტნე დადიანის ქ. – გიორგი ჩიტაიას ქ. – დავით კლდიაშვილის ქ. – ივანე ჯავახიშვილის ქ. – კონსტიტუციის ქ. – გიორგი  ჩუბინაშვილის ქ. – თამარ მეფის გამზირი (მობრუნება ვაგზლის მოედნის გადაკვეთასთან) – თევდორე მღვდლის ქ. – ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ)
+უკუმიმართულებით: ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) – თამარ მეფის გამზირი – ეგნატე ნინოშვილის ქ. – კონსტიტუციის ქ. – მიხეილ წინამძღვრიშვილის ქ. – კოტე მარჯანიშვილის ქ. – გიორგი ჩიტაიას ქ. – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ცაცა ამირეჯიბის მესამე და მეორე შესახვევების გადაკვეთის მიმდებარედ (360-ე კმ) - ჯამბულ წურწუმიას ქ. (360-ე კმ) - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - ბესარიონ ჭიჭინაძის ქ. - ქინძმარაულის ქ. - გარდაბნის გზატკეცილი - სადგური ველი.
+უკუმიმართულებით: სადგური ველი - გარდაბნის გზატკეცილი - ქინძმარაულის ქ. - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>სადგური ველი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ვიქტორ დოლიძის ქ. (#89-ის მიმდებარედ) - დოლიძის ქ. - მელიტონ და ანდრია ბალანჩივაძის ქ. - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - დოლიძის ქ. (#89-ის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t>ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება) - ყვარლის ქ. - კაკაბეთის ქ. - კახეთის გზატკეცილი - ვაჟა ჩაჩავას ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - სამგორის ქ., #2-ის მიმდებარედ.
+უკუმიმართულებით: სამგორის ქ., #2-ის მიმდებარედ - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - მ/ს ,,ისანი' - ვაჟა ჩაჩავას ქ. -  კახეთის გზატკეცილი - კაკაბეთის ქ. - მესხეთის ქ. - თევდორე უშაკოვის ქ. - ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება).</t>
+  </si>
+  <si>
+    <t>ცაიშის ქ. (ლებარდეს ქუჩის გადაკვეთასთან) - სალხინოს ქ. - ცხრა ძმა ხერხეულიძის ქ. - გიორგი ჩიტაიას ქ. - დავით კლდიაშვილის ქ. - ივანე ჯავახიშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - ეგნატე ნინოშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - დავით კლდიაშვილის ქ. - გიორგი ჩიტაიას ქ. - ცხრა ძმა ხერხეულიძის ქ. - სალხინოს ქ. - თეკლათის ქ. - ლებარდეს ქ. - დავით გივიშვილის ქ. - სენაკის ქ. - ასხინის ქ. - ცაიშის ქ. (ლებარდეს ქუჩის გადაკვეთასთან).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ბიჭვინთის ქ. (II-III კორპუსების მიმდებარედ) - ალექსანდრე მანაგაძის ქ. - უწერის ქ. - ლიბანის ქ. - დავით სარაჯიშვილის ქ. -  დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. - (მობრუნება ფიროსმანის მოედანზე) - დავით გურამიშვილის გამზირი - დავით სარაჯიშვილის ქ. -  ლიბანის ქ. - უწერის ქ. - ალექსანდრე მანაგაძის ქ.- ბიჭვინთის ქ.  (II-III კორპუსების მიმდებარედ)(წრიული)
+</t>
+  </si>
+  <si>
+    <t>დიმიტრი ალექსიძის ქ. (კორპუსი #403-ის მიმდებარედ) - ვიქტორ კუპრაძის ქ. (ვარკეთილის IV მ/რ-ის #404,406,415,424,420 კორპუსების გავლით) - ვარკეთილის IV მ/რ (#422,421 კორპუსების გავლით) - დიმიტრი ალექსიძის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - ხომლელის ქ. - თრიალეთის ქ. - ზაზა ფანასკერტელ-ციციშვილის ქ. - გიორგი აბაშვილის ქ. - კალოუბნის ქ. - ჯავახეთის ქ. (მობრუნება მ/ს 'ვარკეთილთან') - კახეთის გზატკეცილი - მ/ს ,,ისანი' - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - მარჯვენა სანაპირო - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი - ევროპის მოედანი - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი -კოტე აფხაზის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს) (წრიული).                                                                                                                                                                                                                           უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქუჩა - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - მ/ს 'ისანი' - კახეთის გზატკეცილი - ჯავახეთის ქ. - კალოუბნის ქ. -  გიორგი აბაშვილის ქ. - ზაზა ფანასკერტელ-ციციშვილის ქ. - თრიალეთის ქ. - ხომლელის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - დიმიტრი ალექსიძის ქ. (კორპუსი #403-ის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ძმები ოცხელებისა და ნაკადულის ქუჩების გადაკვეთა  - ილია ბაბუციძის ქ. - ქინძმარაულის შესახვევი - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი' - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - ბერი გაბრიელ სალოსის გამზირი - ბოგდან ხმელნიცკის ქ. - გარდაბნის გზატკეცილი - წმინდა ბარბარეს სახელობის უბანი (გარდაბნის გზატკეცილისა და დავით ყიფიანის ქუჩის გადაკვეთის მიმდებარედ).
+უკუმიმართულებით: წმინდა ბარბარეს სახელობის უბანი (გარდაბნის გზატკეცილისა და დავით ყიფიანის ქუჩის გადაკვეთის მიმდებარედ) - ბოგდან ხმელნიცკის ქ. - ბერი გაბრიელ სალოსის გამზირი - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. -  ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი -  ქინძმარაულის შესახვევი - ძმები ოცხელებისა - ძმები ოცხელებისა და ნაკადულის ქუჩების გადაკვეთა. </t>
+  </si>
+  <si>
+    <t>წმინდა ბარბარეს უბანი</t>
+  </si>
+  <si>
+    <t>გლდანულას დასახლება (#4 კორპუსის მიმდებარედ) - გლდანის ხევის ქ. - თიანეთის გზატკეცილი - ქერჩის ქ. - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
+უკუმიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარედ) - ომარ ხიზანიშვილის ქ. - ფორე მოსულიშვილის ქ.- ქერჩის ქ. - თიანეთის გზატკეცილი - გლდანის ხევის ქ. - გლდანულას დასახლება (#4 კორპუსის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>მაცხოვრის ნათლიღების სახ. მამათა მონასტერი (მიმდებარედ) - მონასტრის ქ. - წყალსადენის ქ. - ფეიქართა ქ. - ქსნის ქ. - დავით გურამიშვილის გამზირი (მობრუნება ერწოს ქუჩის გადაკვეთის მიმდებარედ) - მ/ს 'ღრმაღელე' - მ/ს 'სარაჯიშვილი' (მიმდებარედ).
+უკუმიმართულებით: მ/ს 'სარაჯიშვილი' (მიმდებარედ) - დავით სარაჯიშვილის ქ. (მობრუნება ქერჩის ქუჩის გადაკვეთასთან) - დავით გურამიშვილის გამზირი - ქერჩის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>მ/ს სარაჯიშვილი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ზღვის უბნის III მ/რ-ის IV კვ. (#65 კორპუსის მიმდებარედ) - ლევან რჩეულიშვილის ქ. (თემქის III მ/რ, IV-III კვ.) - გიორგი რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) - ზღვის უბნის IV მ/რ - მობრუნება სარაჯიშვილის ქ. #1-ის მიმდებარედ - ჩარგლის ქ - ანაპის 414-ე დივიზიის ქ. - მ/ს 'სარაჯიშვილი' (მიმდებარედ).
+უკუმიმართულებით: მ/ს 'სარაჯიშვილი' (მიმდებარედ) - დავით სარაჯიშვილის ქ. (მობრუნება ქერჩის ქუჩის გადაკვეთასთან) - ანაპის 414-ე დივიზიის ქ. - შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t>სამშვილდეს ქ. #27-ის მიმდებარედ - გიორგი მარუაშვილის ქ. - აჭარის ქ. (მობრუნება #10-ის მიმდებარედ) - გიორგი მარუაშვილის ქ. - გიორგი ზაზიაშვილის ქ. - გიორგი ჩიტაიას ქ. - დავით კლდიაშვილის ქ. - ივანე ჯავახიშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულება: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - ეგნატე ნინოშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - დავით კლდიაშვილის ქ. - გიორგი ჩიტაიას ქ. - გიორგი ზაზიაშვილის ქ. - გიორგი მარუაშვილის ქ. - აჭარის ქ. (მობრუნება #10-ის მიმდებარედ) - გიორგი მარუაშვილის ქ. - სამშვილდეს ქ. #27-ის მიმდებარედ.</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. -  თამარ ჭოველიძის ქ. - იაკობ გოგებაშვილის ქ. - გურამ რჩეულიშვილის ქ. - ჯაფარიძის ქ. #46 (მიმდებარედ).
+უკუმიმართულებით: ჯაფარიძის ქ. #46 (მიმდებარედ) - ჯაფარიძის ქ. - გურამ რჩეულიშვილის ქ. - იაკობ გოგებაშვილის ქ. - აკაკი შანიძის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).</t>
+  </si>
+  <si>
+    <t>მუხიანის III მ/რ (#5'ა' კორპუსის მიმდებარედ) - ნოდარ დუმბაძის გამზირი - ნოდარ დუმბაძის გამზირისა და იოსებ ნონეშვილის ქუჩის დამაკავშირებელი გზა -  იოსებ ნონეშვილის ქ.- ალეკო გობრონიძის ქ. - მ/ს 'ახმეტელის თეატრი' (ალეკო გობრონიძისა და ომარ ხიზანიშვილის ქუჩების გადაკვეთა).
+უკუ მიმართულებით: იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია) – კრწანისის ქ. – ორთაჭალის ქ. – ვახტანგ გორგასალის ქ. – დიმიტრი გულიას მოედანი – ვახტანგ გორგასალის ქ. – წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი – რიყე – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი (მობრუნება შოთა რუსთაველის გამზირი №42-44-თან) – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (№2-ის მოპირდაპირედ, გაჩერება „კონკის“ მხარეს).
+უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>დაბა კიკეთი (9 ძმა ხერხეულიძის ქ. #17-19-ის პირდაპირ) - დაბა კიკეთი (9 ძმა ხერხეულიძის ქ. - ექვთიმე თაყაიშვილის ქ.) - წყნეთი - სამადლოს გზა (სოფ. დიდებაში ჩასვლა-ამოსვლით) - დაბ წყნეთი (რუსთაველის ქ. - რუსთაველისა და დავით აღმაშენებლის ქუჩების გადაკვეთის მიმდებარედ).
+უკუმიმართულებით: იგივე სქემით</t>
+  </si>
+  <si>
+    <t>დაბა წყნეთი</t>
+  </si>
+  <si>
+    <t>სოფ. ახალდაბა - ახალდაბის ქ. - დაბა წყნეთი (აფხაზეთის ქ. - რუსთაველის ქ. - დიმიტრი ამილახვარის ქ.) - წყნეთის გზატკეცილი - ქაქუცა ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი (მ/ს 'დელისი')' - ფერდინანდ თავაძის ქ. - სერგო ზაქარიაძის ქ. - ვაჟა ფშაველას I ჩიხი - ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ). 
+უკუმიმართულებით: ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ)  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. №1-თან მოხვევით) - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი - დაბა წყნეთი (რუსთაველის ქ. - აფხაზეთის ქ. ) - ახალდაბის ქ. - სოფ. ახალდაბა.</t>
+  </si>
+  <si>
+    <t>პატარა დიღომი (#1 სახლის მიმდებარედ) - გრიგოლ ფერაძის ქ. (პატარა დიღომი #1-15 სახლი, V- I კორპუსის გავლით) - დავით აღმაშენებლის ხეივანი (მობრუნება 'AUDI'-ს ავტოსერვისის მიმდებარედ) - ასი ათასი მოწამის ქ. - დემეტრე თავდადებულის ქ. - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი - გრიგოლ ფერაძის ქ. (პატარა დიღომი, I-V კორპუსის, #15-1 სახლის გავლით) - პატარა დიღომი ( #1 სახლი).</t>
+  </si>
+  <si>
+    <t>მუხიანის III მ/რ (#5'ა' კორპუსის მიმდებარედ) - ნოდარ დუმბაძის გამზირი - ალეკო გობრონიძის ქ. - აქვსენტ ისააკიანის ქ. - გიორგი რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) - ზღვის უბნის IV მ/რ - მობრუნება სარაჯიშვილის ქ. #1-ის მიმდებარედ  - ჩარგლის ქ. - ანაპის დივიზიის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
+უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - გიორგი ჭანტურიას ქ. - სულიკო ვირსალაძის ქ. - მარჯვენა სანაპირო - ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>შალვა ნუცუბიძის IV მ/რ (შალვა ნუცუბიძის V მ/რ-ის გადასახვევის მიმდებარედ) - ავთო ვარაზის ქ. - შალვა ნუცუბიძის IV მ/რ (№19-20-21-22-29-28-კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (№14-6-5-4-3-2-1-11 კორპუსების გავლით) - შალვა ნუცუბიძის IV მ/რ ( №12,3,2,1 კორპუსების გავლით) - ნუცუბიძის II მ/რ (ბესარიონ ჟღენტის ქ.) -  შალვა ნუცუბიძის ქ. - მარიჯანის ქ. - პეტრე ქავთარაძის ქ. - ალექსანდრე ყაზბეგის გამზირი - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი - მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - მარიჯანის ქ. - შალვა ნუცუბიძის ქ. - ბესარიონ ჟღენტის ქ. (შალვა ნუცუბიძის II მ/რ) - შალვა ნუცუბიძის IV მ/რ ( №1,2,3,12 კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (№11-1-2-3-5-6-14 კორპუსების გავლით) - შალვა ნუცუბიძის IV მ/რ ( №28-29-22-21-20-19 კორპუსების გავლით) - ავთო ვარაზის ქ. - შალვა ნუცუბიძის V მ/რ-ის გადასახვევის მიმდებარედ.</t>
+  </si>
+  <si>
+    <t>მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - დავით აღმაშენებლის ქ. - თეთრი დუქნის ქ. - პეტრე სარაჯიშვილის ქ. - ვასო გოძიაშვილის ქ. - მუხრან მაჭავარიანის ქ. - ივანე ბერიტაშვილის ქ. - შალვა ნუცუბიძის ქ. - მიხეილ ასათიანის ქ. - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ.  (მ/ს 'სახელმწიფო უნივერსიტეტის' მიმდებარედ).
+უკუმიმართულებით: ზურაბ ანჯაფარიძის ქ.   (მ/ს 'სახელმწიფო უნივერსიტეტის' მიმდებარედ) - ზურაბ ანჯაფარიძის ქ. (მობრუნება ანა პოლიტკოვსკაიას ქუჩის გადაკვეთასთან) - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი  (პეტრე ქავთარაძის ქ. #1-თან მოხვევით)- მიხეილ თამარაშვილის ქუჩა (მობრუნება მარცხნივ ალ. ყაზბეგის გამზირიდან) - ვაჟა ფშაველას გამზირი - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - ბუდაპეშტის ქ. - ტაშკენტის ქ. - სიმონ კანდელაკის ქ. - ივანე ბერიტაშვილის ქ. - მუხრან მაჭავარიანის ქ. - ვასო გოძიაშვილის ქ. - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი - გრიგოლ რობაქიძის გამზირი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ)</t>
+  </si>
+  <si>
+    <t>მ/ს სახელმწიფო უნივერსიტეტი</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – გერონტი ქიქოძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – ოქროყანის დასახლება (თბილისის ქუჩა, „გ-ბ“ ზონებთან მობრუნება) – მთაწმინდის პარკი.
+უკუმიმართულებით: მთაწმინდის პარკი - ოქროყანის დასახლება ('გ-ბ' ზონებთან მობრუნება, თბილისის ქუჩა) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>მ/ს 'ავლაბარი' - ჰამლეტ გონაშვილის ქ. - ვახტანგ VI ქ. - ვლადიმერ მესხიშვილის ქ. - სამრეკლოს ქ. - მიხეილ ბუხაიძის ქ. - მაქსიმ გორკის ქ. - ივანე ჯავახიშვილის ქ. - მოსე გოგიბერიძის ქ. - ზაარბრიუკენის მოედანი - მარცხენა სანაპირო - კოტე მარჯანიშვილის ქ.  (მობრუნება კოტე მარჯანიშვილის მოედანზე) - გალაქტიონ ტაბიძის ხიდი - მიხეილ ჯავახიშვილის ქ. - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ლევან გოთუას ქ. (#26-ის მიმდებარედ).
+უკუმიმართულებით: ლევან გოთუას ქ. (#26-ის მიმდებარედ) - ლევან გოთუას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. -  გმირთა მოედანი - ვარაზის ხევი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - ივანე ჯავახიშვილის ქ. - გალაქტიონ ტაბიძის ხიდი - კოტე მარჯანიშვილის ქ. - დავით აღმაშენებლის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენი მოედანი - ლევ ტოლსტოის ქ. - კოსტა ხეთაგუროვის ქ. - მაქსიმ გორკის ქ. - მიხეილ ბუხაიძის ქ. - სამრეკლოს ქ. - ვლადიმერ მესხიშვილის ქ. - ფაღავას ქ. - მ/ს 'ავლაბარი' (მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>გოთუას ქუჩა</t>
+  </si>
+  <si>
+    <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ვახტანგ ჭაბუკიანის ქ. - სულხან ცინცაძის ქ. - გივი კარტოზიას ქ. - მიხეილ ასათიანის ქ. - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. - ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
+უკუმიმართულებით: ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი) - ზურაბ ანჯაფარიძის ქ. - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - გივი კარტოზიას ქ. - ვლადიმერ და არჩილ ასათიანების ქ. (მობრუნება გვირბთან) - სულხან ცინცაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).</t>
+  </si>
+  <si>
+    <t>ზღვის უბნის III მ/რ-ის IV კვ. (#65 კორპუსის მიმდებარედ) - ლევან რჩეულიშვილის ქ. (ზღვის უბნის III მ/რ, IV-III კვ.) - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის V-IV - III-II-I კვარტალი) - ჩარგლის ქ. - გუდამაყრის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - თორნიკე ერისთავის ქ. #1 (მ/ს 'დიდუბე' ზედა გასასვლელი).
+უკუმიმართულებით: თორნიკე ერისთავის ქ. #1 (მ/ს 'დიდუბე' ზედა გასასვლელი) - თორნიკე ერისთავის ქ. - დავით გურამიშვილის გამზირი - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>მ/ს დიდუბე ზედა</t>
+  </si>
+  <si>
+    <t>მუხიანის III მ/რ (№5“ა“ კორპუსის მიმდებარედ) – ნოდარ დუმბაძის გამზირი – მუხიანის III მ/რ (№I-22 კორპუსების გავლით) – იოსებ ნონეშვილის ქ. – ალეკო გობრონიძის ქ. – აქვსენტ ისააკიანის ქ. – ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის V-IV – III-II-I კვარტალი) – ჩარგლის ქ. – გუდამაყრის ქ. – დავით გურამიშვილის გამზირი – ცოტნე დადიანის ქ. – გიორგი ჩიტაიას ქ. – გიორგი მაზნიაშვილის ქ. – ივანე ჯავახიშვილის ქ. – კოსტა ხეთაგუროვის ქ. – ნიკოლოზ ბარათაშვილის ხიდი –  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).  უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო  – კოსტა ხეთაგუროვის ქ. – არნოლდ ჩიქობავას ქ. – არნოლდ ჩიქობავას  მოედანი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">შალვა ნუცუბიძის V მ/რ (კორპუსი #10-11-ის მიდებარედ)- ავთო ვარაზის ქ. - შალვა ნუცუბიძის IV მ/რ (#19-20-21-22-29-28-კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (#14-6-5-4-3-2-1-11-12 კორპუსების გავლით) - შალვა ნუცუბიძის II მ/რ (ბესარიონ ჟღენტის ქ.) - შალვა ნუცუბიძის ქ. - ფერდინანდ თავაძის ქ. - სერგო ზაქარიაძის ქ. - ვაჟა ფშაველას ჩიხი - ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ).
+უკუმიმართულებით: ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ) - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t>ყოფილი ზოოვეტერინარული უნივერსიტეტის საერთო საცხოვრებელი კორპუსები - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასალის ქ. - გულიას მ-ნი, ქ. - ბაღდადის ქ. - ნავთლუღის ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. - სუხიშვილის ქ - თაყაიშვილის ქ. (ვარკეთილის IV მ/რ, #418-403 კორპუსის მიმდებარედ)
+უკუ მიმართულებით:  იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ვარკეთილის IV მ/რ</t>
+  </si>
+  <si>
+    <t>საქართველოს სასჯელაღსრულების, პრობაციისა და იურიდიული დახმარების საკითხთა სამინისტროს სასჯელაღსრულების დეპარტამეტის დაქვემდებარებაში არსებული N6 დაწესებულება - სოფელი კრწანისი - კრწანისის სასწავლო ცენტრი - შსს-ოს აგარაკები - გიგანტის დასახლება - ზოოვეტერინარული ინსტიტუტის დასახლება - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასლის ქ. - მეტეხის ხიდი - რიყე - მარცხენა სანაპირო - ბარათაშვილის ქ. (მობრუნება ბარათაშვილისა და პუშკინის ქუჩების გადაკვეთასთან, გაჩერება 'კონკის' მხარეს)
+უკუ მიმართულებით: ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - გორგასალის ქ. - შემდეგ იგივე სქემით</t>
+  </si>
+  <si>
+    <t xml:space="preserve">სოფელი ტაბახმელა (#7 და #6 სახლების გზაგამყოფის მიმდებარედ ) - თბილისი-კოჯრის ქ. (სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                             უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. -  მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - თბილისი-კოჯრის ქ. ( წავკისის ველის, სოფელი წავკისის, სოფ. შინდისის გავლით) - სოფელი ტაბახმელა (კვირაცხოვლის ქ. - საცხოვრებელი კორპუსი - იაშაღაშვილის ქ. - #7,11,12,13,14 სახლი - #6,5,4,3,2,1 სახლი - #7 და #6 სახლების გზაგამყოფის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ)  - წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფელი დიღომი (დავით აღმაშენებლის ქ. - კვირაცხოვლის ქ. - ცამეტი ასურელი მამის ქ. - ალექსანდრე ყაზბეგის ქ. - შოთა რუსთაველის ქ. - ფიროსმანის ქ. - ალექსანდრე ყაზბეგის ქ. - ცამეტი ასურელი მამის ქ. - კვირაცხოვლის ქ. - დავით აღმაშენებლის ქ.). - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი -  შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ, წრიული). </t>
+  </si>
+  <si>
+    <t>დაბა კიკეთი - თბილისი-კოჯრის გზა (სოფ. დიდება, დაბა კოჯორი, სოფ. ტაბახმელა, სოფ. შინდისი, სოფ. წავკისი, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ არსებული სქემით.</t>
+  </si>
+  <si>
+    <t>კიკეთი</t>
+  </si>
+  <si>
+    <t>სოფ. ლისი - სოფ. თხინვალი - ახალი იპოდრომი -  ნუცუბიძის IV-II მ/რ - ჟღენტის ქ. - ნუცუბიძის ქ. - თავაძის ქ. - ზაქარიაძის ქ. - ვაჟა ფშაველას ჩიხი - მ/ს 'დელისი' (მიმდებარედ) 
+უკუ მიმართულებით:  მ/ს 'დელისი' - თავაძის ქ. - ნუცუბიძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>სოფ. გლდანი (26 მაისის და ვახტანგ გორგასალის ქუჩების გადაკვეთის მიმდებარედ-26 მაისის ქ.) – ცენტროლიტის ნაკვეთები (თბილისის შემოვლითი გზა) – ელიფთერ ანდრონიკაშვილის ქ. – უწერის ქ. – ლიბანის ქ. – დავით სარაჯიშვილის ქ. – მ/ს „სარაჯიშვილი“ – ქერჩის ქ – აკაკი ვასაძის ქ. – ომარ ხიხანიშვილის ქ. – მ/ს „ახმეტელის თეატრი“ (მიმდებარედ).
+უკუმიმართულებით: მ/ს „ ახმეტელის თეატრი“ (მიმდებარედ) – ილია ვეკუას ქ. – აკაკი ვასაძის ქ. – ქერჩის ქ. – დავით სარაჯიშვილის ქ. – ლიბანის ქ. – უწერის ქ. – ელიფთერ ანდრონიკაშვილის ქ. – ცენტროლიტის ნაკვეთები (თბილისის შემოვლითი გზა) – სოფ. გლდანი (26 მაისის ქ. – 26 მაისის და ვახტანგ გორგასალის ქუჩების გადაკვეთის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფელი დიღომი (დავით აღმაშენებლის ქ. - კვირაცხოვლის ქ. - მუხრან მაჭავარიანის ქ. - ვაჟა ფშაველას ქ. - კვირაცხოვლის ქ. - ავთანდილ მამუჩაშვილის ქ. - მარიამ უგრეხელიძის ქ. - ცამეტი ასურელი მამის ქ. - კვირაცხოვლის ქ. - დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი  წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t>მახათას მთა (კორპუსი #3-ის მიმდებარედ) - მახათას აღმართი -  ნიკოლოზ ხუდადოვის ქ. - ეროსი მანჯგალაძის ქ. - რევაზ ურიდიას ქ. - ცოტნე დადიანის ქ. - რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია).
+უკუმიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია) - ნიკოლოზ ხუდადოვის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>სოფელი შინდისი (ტიციან ტაბიძის ქ. # 25-ის მიმდებარედ) - თბილისი-კოჯრის გზა (სოფ. წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).
+უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. –  თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>დაბა ზაჰესი (თვისუფლებისა და მიხეილ წინამძღვრიშვილის ქუჩების გადაკვეთის მიმდებარედ) - დაბა ზაჰესის დასახლება (თავისუფლების ქ.- ჭიჭინაძის ქ.- ავჭალის ქ.) - ზაჰესის ხიდი - დავით აღმაშენებლის ხეივანი - ჯორჯ ბალანჩინის ქ. (მობრუნება დიდი დიღომში, ფარნავაზ მეფის გამზირის მიმდებარედ) - აკაკი ბელიაშვილის ქ. - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ). 
+უკუ მიმართულებით: იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>თამარ მუჯირიშვილის ქ. (№12 კორპუსის მიმდებარედ) – შილდის ქ. – ახალუბნის ქ. – საინგილოს ქ. – გუმბრის ქ. – ვლადიმერ მესხიშვილის ქ. – ნიკოლოზ ბარათაშვილის აღმართი – კოსტა ხეთაგუროვის ქ. – არნოლდ ჩიქობავას ქ. – გიორგი ჩიტაიას ქ. – დავით კლდიაშვილის ქ. – ივანე ჯავახიშვილის ქ. – კონსტიტუციის ქ. – მიხეილ წინამძღვრიშვილის ქ. – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).
+უკუმიმართულებით:  სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – ეგნატე ნინოშვილის ქ. –  კონსტიტუციის ქ. – მიხეილ წინამძღვრიშვილის ქ. – მოსე გოგიბერიძის ქ. – კოსტა ხეთაგუროვის ქ. – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მ/ს ,,ავლაბარი“ – ჰამლეტ გონაშვილის ქ. – მეფე ვახტანგ VI-ს ქ. – ვლადიმერ მესხიშვილის ქ. – გუმბრის ქ. – საინგილოს ქ. – ახალუბნის ქ. – შილდის ქ. – თამარ მუჯირიშვილის ქ. (№12 კორპუსის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>მ/ს 'რუსთაველი' (Mcdonald's'-ის მიმდებარე ტერიტორია) - შოთა რუსთაველის გამზირი - გიორგი ლეონიძის ქ. - გერონტი ქიქოძის ქ. - მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. - მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - ოქროყანის დასახლება (შემოვლითი გზით, კოტეჯების მხრიდან) - მთაწმინდის პარკი.
+უკუ მიმართულებით: მთაწმინდის პარკი - ოქროყანის დასახლება (შემოვლითი გზით, კოტეჯების მხრიდან) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. (სახ. ფილარმონიასთან მობრუნებით) - მ/ს 'რუსთაველი' (Mcdonald's'-ის მიმდებარე ტერიტორია)</t>
+  </si>
+  <si>
+    <t>მთაწმინდის პარკი</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. –   თავისუფლების მოედანი -  შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ჟიული შარტავას ქ. - ანა კალანდაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. - თბილისის ივანე ჯავახიშვილის სახ. სუ-ის  X კორპუსი (მაღლივი კორპუსი)
+უკუმიმართულებით: თბილისის ივანე ჯავახიშვილის სახ. სუ-ის  X კორპუსი (მაღლივი კორპუსი) - ზურაბ ანჯაფარიძის ქ. - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ.  - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>ემირ ბურჯანაძის ქ.(დავით ყიფიანის ქუჩის გადაკვეთის მიმდებარედ) - ემირ ბურჯანაძის ქ. - ბოგდან ხმელნიცკის ქ. - ბერი გაბრიელ სალოსის გამზირი - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - მეტეხის ხიდი - ევროპის მოედანი - მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - პეტრე ქავთარაძის ქ.  - ანა პოლიტკოვსკაიას ქ. - ანა პოლიტკოვსკაიას ქ. (№16-18-ის მოპირდაპირედ).
+უკუმიმართულებით:  ანა პოლიტკოვსკაიას ქ. (#16-18-ის მოპირდაპირედ) - ანა პოლიტკოვსკაიას ქ. - პეტრე ქავთარაძის ქ. -  ალექსანდრე ყაზბეგის გამზირი - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ნიკოლოზ ბარათშვილის ქ. - მტკვრის მარჯვენა სანაპირო -  ვახტანგ გორგასალის ქ. - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - ბერი გაბრიელ სალოსის გამზირი - ბოგდან ხმელნიცკის ქ. - ემირ ბურჯანაძის ქ. - ემირ ბურჯანაძის ქ.(დავით ყიფიანის ქუჩის გადაკვეთის მიმდებარედ)</t>
+  </si>
+  <si>
+    <t>დიდი დიღმის IV მ/რაიონი, კორპუსი №6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) –  დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. – არჩილ მეფის ქ.) – დიდი დიღომი III-I  მ/რ (მირიან მეფის ქ.) – ჯორჯ ბალანჩინის ქ. – გიორგი მინდელის ქ. – თენგიზ შეშელიძის ქ. – მ/ს „სარაჯიშვილი“ (მიმდებარედ)
+უკუმიმართულებით: მ/ს „სარაჯიშვილი“ (მიმდებარედ) – დავით სარაჯიშვილის გამზირი - თენგიზ შეშელიძის ქ. – ჯორჯ ბალანჩინის ქ. – მირიან მეფის ქ. – დიდი დიღომი III-I  მ/რ (მირიან მეფის ქ.) – დიდი დიღმის IV მ/რაიონი ( არჩილ მეფის ქ. – დემეტრე თავდადებულის ქ.) – დიდი დიღმის IV მ/რაიონი, კორპუსი №6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.)</t>
+  </si>
+  <si>
+    <t>შალვა ნუცუბიძის IV მ/რ (შალვა ნუცუბიძის V მ/რ-ის გადასახვევის მიმდებარედ) - ავთო ვარაზის ქ. - შალვა ნუცუბიძის IV მ/რ (№19-20-21-22-29-28-კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (№14-6-5-4-3-2-1-11 კორპუსების გავლით) - შალვა ნუცუბიძის IV მ/რ ( №12,3,2,1 კორპუსების გავლით) - ნუცუბიძის II მ/რ (ბესარიონ ჟღენტის ქ.) -  შალვა ნუცუბიძის ქ. - ფერდინანდ თავაძის ქ. - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (გადასვლა ვაჟა ფშაველას გამზირი #68-ის მიმდებარე ტერიტორიიდან) - გივი კარტოზიას ქ. – ვლადიმერ და არჩილ ასათიანების ქ. (მობრუნება გვირაბთან) – სულხან ცინცაძის ქ. – პეკინის გამზირი - მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).
+უკუმიმართულებით:  სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – მერაბ კოსტავას ქ. – გიორგი მიროტაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ბექას ქ. - ალექსანდრე ყაზბეგის გამზირი - გამრეკელის ქ. - სულხან ცინცაძის ქ. - გივი კარტოზიას ქ. - მიხეილ ასათიანის ქ. - ვაჟაა ფშაველას გამზირი - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - ბესარიონ ჟღენტის ქ. (შალვა ნუცუბიძის II მ/რ) - შალვა ნუცუბიძის IV მ/რ ( №1,2,3,12 კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (№11-1-2-3-5-6-14 კორპუსების გავლით) - შალვა ნუცუბიძის IV მ/რ ( №28-29-22-21-20-19 კორპუსების გავლით) - ავთო ვარაზის ქ. - შალვა ნუცუბიძის V მ/რ-ის გადასახვევის მიმდებარედ.</t>
+  </si>
+  <si>
+    <t>წყნეთი (შოთა რუსთაველის  და ბათუ კრავეიშვილის ქუჩის გადაკვეთის პირდაპირ) - წყნეთი (შოთა რუსთაველის ქ. - დავით აღმაშენებლის ქ. - დიმიტრი ამილახვრის ქ.) - წყნეთის გზატკეცილი - ქაქუცა ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - მ/ს 'დელისი'.
+უკუმიმართულებით:  მ/ს 'დელისი' - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (გადასვლა ვაჟა ფშაველას გამზირი #68-ის მიმდებარე ტერიტორიიდან) - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი - წყნეთი (შოთა რუსთაველის ქ.) - წყნეთი (შოთა რუსთაველის  და ბათუ კრავეიშვილის ქუჩის გადაკვეთის პირდაპირ).</t>
+  </si>
+  <si>
+    <t>მ/ს 'ახმეტელის თეატრი' (მიმდებარედ) - ომარ ხიზანიშვილის ქ. (გლდანის II-IV-VI-VIII მ/რ) - ილია ვეკუას ქ. (გლდანის VII-V-III-I მ/რ) - მ/ს 'ახმეტელის თეატრი' (ომარ ხიზანიშვილის ქუჩა) (წრიული)</t>
+  </si>
+  <si>
+    <t>ვაზისუბნის II მ/რ (№23 კორპუსის მიმდებარედ) – ვაზისუბნის II მ/რ (№6-11-4-2 კორპუსების გავლით) -შალვა მშველიძის ქ. – ნიკო მუსხელიშვილის ქ. – დავით კვაჭანტირაძის ქ. – იოსებ და ლეონ ორბელების ქ. – ალექსანდრე წულუკიძის ქ. – ოსიპ მანდელშტამის ქ. – ლიზა ნაკაშიძე-ბოლქვაძის ქ.  – მ/ს „ვარკეთილი“ – ჯავახეთის ქ. – მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქუჩა - დიმიტრი გულიას ქ. - ვახტანგ გორგასალის ქ. -  მარნეულის გზატკეცილი -ზემო ფონიჭალის დასახლება (ანდრო ჟორდანიას ქ. - ლევან ღოღობერიძის ქ. #5,3,2 კორპუსების გავლით) - ზემო ფონიჭალის დასახლება (კორპუსი #28,14,15,19,23,20 კორპუსების გავლით) - მარნეულის გზატკეცილი - ვახტანგ გორგასალის ქ. -  დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქუჩა - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. (მობრუნება მ/ს 'ვარკეთილთან') -17 შინდისელი გმირის ქ. – ოსიპ მანდელშტამის ქ. – ალექსანდრე წულუკიძის ქ. – იოსებ და ლეონ ორბელების ქ. – დავით კვაჭანტირაძის ქ. – ნიკო მუსხელიშვილის ქ. – შალვა მშველიძის ქ. – ვაზისუბნის II მ/რ (№2-4-11-6 კორპუსების გავლით) – ვაზისუბნის II მ/რ (№23 კორპუსის მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>ზემო ფონიჭალის დასახლება</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს) - ნიკოლოზ ბარათაშვილის ქ. - მტკვრის მარჯვენა სანაპირო - ვახტანგ გორგასალის ქ. - მარნეულის გზატკეცილი -ზემო ფონიჭალის დასახლება (ანდრო ჟორდანიას ქ. - ლევან ღოღობერიძის ქ. #5,3,2 კორპუსების გავლით) - ზემო ფონიჭალის დასახლება (კორპუსი #28,14,15,19,23,20 კორპუსების გავლით) - მარნეულის გზატკეცილი - ვახტანგ გორგასალის ქ. - მეტეხის ხიდი (მობრუნება ევროპის მოედანზე) - კოტე აფხაზის ქ. - თავისუფლების მოედანი - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე) - ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - ვახტანგ გორგასალის ქ. -  მეტეხის ხიდი - ევროპის მოედანი - მტკვრის მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი -მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - წყნეთის გზატკეცილი - ბაგები (წყნეთის გზატკეცილი, კორპუსი #2-ის მიდებარედ, თბილისის ივანე ჯავახიშვილის სახ. სუ-ის საერთო საცხოვრებელი).
+უკუმიმართულებით:  ბაგები (წყნეთის გზატკეცილი, კორპუსი #2-ის მიდებარედ, თბილისის ივანე ჯავახიშვილის სახ. სუ-ის საერთო საცხოვრებელი) -  წყნეთის გზატკეცილი - ქაქუცა ჩოლოყაშვილის გამზირი - ილია  ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი -თავისუფლების მოედანი -ნიკოლოზ ბარათაშვილის ქ. - მტკვრის მარჯვენა სანაპირო - ვახტანგ  გორგასალის ქ. - რუსთავის გზატკეცილი -ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე). </t>
+  </si>
+  <si>
+    <t>რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე) - ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - ვახტანგ გორგასალის ქ. - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქუჩა - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ.  - ვიქტორ კუპრაძის ქ. - ზურაბ პატარიძის ქ. - ჰოთელს &amp; პრეფერენს ჰუალინგ თბილისის მიმდებარედ.
+უკუმიმართულებით:  ჰოთელს &amp; პრეფერენს ჰუალინგ თბილისი - ზურაბ პატარიძის ქ. - ვიქტორ კუპრაძის ქ. -  ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქუჩა - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - რუსთავის გზატკეცილი - ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე)</t>
+  </si>
+  <si>
+    <t>ჰუალინგ თბილისი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">სოფელი თხინვალი (თხინვალას და ავალიანის ქუჩების გადაკვეთის მიმდებარედ) – კეჭაყმაძის ქ. – ლევან კვაჭაძის ქ. – ფერმწერთა ქ. – ტატა თვალჭრელიძის ქ. (მობრუნება ალექსანდრე ბანძელაძის ქუჩის გადაკვეთასთან) – ფერმწერთა ქ. – ავთო ვარაზის ქ. (ნუცუბიძის IV მ/რაიონი) – ბესარიონ ჟღენტის ქ. (ნუცუბიძის II მ/რაიონი) – შალვა ნუცუბიძის ქ. – ფერდინანდ თავაძის ქ. – სერგო ზაქარიაძის ქ. – ვაჟა-ფშაველას ჩიხი – მ/ს „დელისი“ (ვაჟა-ფშაველას გამზირი) - ალექსანდრე ყაზბეგის გამზირი (მობრუნება ვაჟა ფშაველას გამზირი #68-ის მიმდებარედ) - მიხეილ თამარაშვილის გამზირი - უნივერსიტეტის ქ. (ივანე ჯავახიშვილის სახელობის თსუ-ის მაღლივი კორპუსი).
+უკუმიმართულებით:  უნივერსიტეტის ქ. (ივანე ჯავახიშვილის სახელობის თსუ-ის მაღლივი კორპუსი) - მიხეილ თამარაშვილის გამზირი (მობრუნება ჭაბუა ამირეჯიბის გზატკეცილის პირდაპირ) - მ/ს „დელისი“ (ვაჟა-ფშაველას გამზირი) – ფერდინანდ თავაძის ქ. – შალვა ნუცუბიძის ქ. – ბესარიონ ჟღენტის ქ. ( შალვა ნუცუბიძის II მ/რაიონი) – ავთო ვარაზის ქ. (ნუცუბიძის  IV მ/რაიონი) – ფერმწერთა ქ. – ტატა თვალჭრელიძის ქ. (მობრუნება ალექსანდრე ბანძელაძის ქუჩის გადაკვეთასთან) – ლევან კვაჭაძის ქ. – კეჭაყმაძის ქ. – სოფელი თხინვალი (თხინვალას და ავალიანის ქუჩების გადაკვეთის მიმდებარედ). </t>
+  </si>
+  <si>
+    <t>მ/ს „სახელმწიფო უნივერსიტეტი“(მიმდებარედ) - ზურაბ ანჯაფარიძის ქ. - პეტრე ქავთარაძის ქ. - ალექსანდრე ყაზბეგის გამზირი - მიხეილ თამარაშვილის გამზირი - გიორგი წერეთლის ქ. - ქაქუცა ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - არჩილ მიშველაძის ქ. - ირაკლი აბაშიძის ქ. - მრგვალი ბაღი - ვასილ ბარნოვის ქ. - კოტე მაყაშვილის ქ. - პოლიკარპე კაკაბაძის ქ. - დანიელ ჭონქაძის ქ. - ამაღლების ქ. - ლადო ასათიანის II შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ.  (კონკის 'მხარეს'). 
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (კონკის 'მხარეს') - ნიკოლოზ ბარათაშვილის ხიდი - მტკვრის მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. -თავისუფლების მოედანი - გიორგი ლეონიძის ქ. - მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. - დანიელ ჭონქაძის ქ. - პოლიკარპე კაკაბაძის ქ. - კოტე მაყაშვილის ქ. - მიხეილ ზანდუკელის ქ. - ვასილ ბარნოვის ქ. - მრგვალი ბაღი - რაფიელ ერისთავის ქ. - ზაქარია ფალიაშვილის ქ. - ნიკოლოზ ბერძენიშვილის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი -  პეტრე ქავთარაძის ქ. (გადასვლა ვაჟა ფშაველას გამზირი #68-ის გავლით) - ზურაბ ანჯაფარიძის ქ. - მ/ს „სახელმწიფო უნივერსიტეტი“ (მიმდებარედ).</t>
+  </si>
+  <si>
+    <t>მერაბ კოსტავას ქ. (№68-ის მიმდებარედ) – მერაბ კოსტავას ქ. – ვარაზისხევის ქ. – ილია ჭავჭავაძის გამზირი – მიხეილ თამარაშვილის გამზირი – ალექსანდრე ყაზბეგის გამზირი – პეკინის გამზირი – მერაბ კოსტავას ქ. (№68-ის მიმდებარედ) (წრიული).</t>
+  </si>
+  <si>
+    <t>მერაბ  კოსტავას ქ. (#69-ის მიდებარედ) - გიორგი სააკაძის მოედანი - ჟიული შარტავას ქ. - ანა კალანდაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი  - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ.  (#69-ის მიდებარედ)(წრიული).</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1579,7 @@
       <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1634,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1211,667 +1755,667 @@
     <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="61" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="62" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="63" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="66" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="68" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="69" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="71" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="73" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="74" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="75" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="67" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="73" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="74" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="75" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="76" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="77" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="78" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="79" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="80" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="81" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="82" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="83" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="84" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="86" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="87" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="88" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="89" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="90" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="91" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="92" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="93" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="94" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="95" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="96" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="97" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="77" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="83" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="84" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="87" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="88" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="89" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="90" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="91" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="92" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="93" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="95" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="96" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="97" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="98" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="99" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="100" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="101" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="102" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="103" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="104" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="105" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="106" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="107" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="108" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="109" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="110" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="111" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="112" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="113" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="114" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="115" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="116" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="117" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="118" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="119" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="99" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="101" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="102" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="103" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="104" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="105" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="107" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="108" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="109" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="110" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="113" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="114" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="115" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="116" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="119" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="120" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="121" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="122" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="123" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="124" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="125" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="126" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="127" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="121" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="122" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="123" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="125" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="126" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="127" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="128" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="129" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="130" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="131" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="129" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="130" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="131" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="132" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="133" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="134" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="135" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="136" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="137" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="138" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="139" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="140" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="141" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="142" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="143" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="144" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="145" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="146" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="147" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="148" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="149" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="150" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="151" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="152" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="153" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="154" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="133" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="134" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="135" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="136" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="137" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="138" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="139" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="140" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="141" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="142" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="143" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="144" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="145" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="146" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="147" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="148" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="149" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="150" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="151" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="152" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="155" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="156" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="156" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="157" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="158" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="159" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="160" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="161" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="162" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="163" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="164" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="165" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="166" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="167" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="168" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="169" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="170" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="158" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="159" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="160" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="161" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="162" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="163" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="164" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="165" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="166" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="167" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="168" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="169" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="170" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="171" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="172" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="172" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="173" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="174" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="175" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="176" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="177" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="178" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="179" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="180" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="174" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="175" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="176" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="177" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="178" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="179" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="180" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="181" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="182" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="182" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="183" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="184" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="185" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="186" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="187" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="188" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="189" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="190" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="191" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="192" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="193" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="194" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="184" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="185" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="186" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="187" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="188" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="192" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="193" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="194" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="195" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="196" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="197" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="198" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="199" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="200" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="201" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="202" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="203" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="204" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="205" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="206" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="207" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="208" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="209" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="210" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="211" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="212" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="213" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="214" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="215" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="216" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="217" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="218" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="219" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="220" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="221" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="222" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="223" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="224" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="225" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="226" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="227" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="228" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="229" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="230" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="231" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="232" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="233" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="196" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="198" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="199" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="200" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="201" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="202" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="204" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="206" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="21" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="213" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="15" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="218" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="222" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="224" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="229" fillId="19" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="230" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="17" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,8 +2630,14 @@
       <c r="C5" t="n" s="8">
         <v>1.0</v>
       </c>
+      <c r="D5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F5" t="s" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n" s="9">
         <v>8.0</v>
@@ -2110,12 +2660,16 @@
       <c r="M5" t="n" s="12">
         <v>0.9770833333333333</v>
       </c>
+      <c r="N5" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
       <c r="P5" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
+      <c r="Q5" s="10"/>
       <c r="R5" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2133,8 +2687,14 @@
       <c r="C6" t="n" s="8">
         <v>2.0</v>
       </c>
+      <c r="D6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F6" t="s" s="16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n" s="9">
         <v>11.0</v>
@@ -2157,12 +2717,16 @@
       <c r="M6" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
+      <c r="N6" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
       <c r="P6" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q6" s="10"/>
       <c r="R6" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -2180,8 +2744,14 @@
       <c r="C7" t="n" s="8">
         <v>3.0</v>
       </c>
+      <c r="D7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F7" t="s" s="18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n" s="9">
         <v>6.0</v>
@@ -2204,12 +2774,16 @@
       <c r="M7" t="n" s="12">
         <v>0.9736111111111111</v>
       </c>
+      <c r="N7" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
       <c r="P7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
+      <c r="Q7" s="10"/>
       <c r="R7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
@@ -2227,8 +2801,14 @@
       <c r="C8" t="n" s="8">
         <v>4.0</v>
       </c>
+      <c r="D8" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F8" t="s" s="20">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n" s="9">
         <v>3.0</v>
@@ -2251,12 +2831,16 @@
       <c r="M8" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
+      <c r="N8" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
       <c r="P8" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
+      <c r="Q8" s="10"/>
       <c r="R8" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -2274,8 +2858,14 @@
       <c r="C9" t="n" s="8">
         <v>5.0</v>
       </c>
+      <c r="D9" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F9" t="s" s="22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n" s="9">
         <v>2.0</v>
@@ -2298,12 +2888,16 @@
       <c r="M9" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N9" t="s" s="10">
+        <v>32</v>
+      </c>
       <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="P9" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
+      <c r="Q9" s="10"/>
       <c r="R9" t="n" s="12">
         <v>0.8333333333333334</v>
       </c>
@@ -2321,8 +2915,14 @@
       <c r="C10" t="n" s="8">
         <v>6.0</v>
       </c>
+      <c r="D10" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F10" t="s" s="24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n" s="9">
         <v>7.0</v>
@@ -2345,12 +2945,16 @@
       <c r="M10" t="n" s="12">
         <v>1.0</v>
       </c>
+      <c r="N10" t="s" s="10">
+        <v>34</v>
+      </c>
       <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P10" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q10" s="10"/>
       <c r="R10" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -2368,8 +2972,14 @@
       <c r="C11" t="n" s="8">
         <v>7.0</v>
       </c>
+      <c r="D11" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F11" t="s" s="26">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n" s="9">
         <v>3.0</v>
@@ -2392,12 +3002,16 @@
       <c r="M11" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N11" t="s" s="10">
+        <v>36</v>
+      </c>
       <c r="O11" t="n" s="12">
         <v>0.9375</v>
       </c>
       <c r="P11" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
+      <c r="Q11" s="10"/>
       <c r="R11" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -2415,8 +3029,14 @@
       <c r="C12" t="n" s="8">
         <v>9.0</v>
       </c>
+      <c r="D12" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F12" t="s" s="28">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n" s="9">
         <v>5.0</v>
@@ -2439,12 +3059,16 @@
       <c r="M12" t="n" s="12">
         <v>0.9736111111111111</v>
       </c>
+      <c r="N12" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="P12" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
+      <c r="Q12" s="10"/>
       <c r="R12" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
@@ -2462,8 +3086,14 @@
       <c r="C13" t="n" s="8">
         <v>10.0</v>
       </c>
+      <c r="D13" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F13" t="s" s="30">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n" s="9">
         <v>4.0</v>
@@ -2486,12 +3116,16 @@
       <c r="M13" t="n" s="12">
         <v>0.9902777777777778</v>
       </c>
+      <c r="N13" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P13" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
+      <c r="Q13" s="10"/>
       <c r="R13" t="n" s="12">
         <v>0.8840277777777777</v>
       </c>
@@ -2509,8 +3143,14 @@
       <c r="C14" t="n" s="8">
         <v>11.0</v>
       </c>
+      <c r="D14" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F14" t="s" s="32">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G14" t="n" s="9">
         <v>7.0</v>
@@ -2533,12 +3173,16 @@
       <c r="M14" t="n" s="12">
         <v>0.9923611111111111</v>
       </c>
+      <c r="N14" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="P14" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
+      <c r="Q14" s="10"/>
       <c r="R14" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
@@ -2556,8 +3200,14 @@
       <c r="C15" t="n" s="8">
         <v>12.0</v>
       </c>
+      <c r="D15" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F15" t="s" s="34">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n" s="9">
         <v>4.0</v>
@@ -2580,12 +3230,16 @@
       <c r="M15" t="n" s="12">
         <v>0.9909722222222223</v>
       </c>
+      <c r="N15" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
       <c r="P15" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
+      <c r="Q15" s="10"/>
       <c r="R15" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -2603,8 +3257,14 @@
       <c r="C16" t="n" s="8">
         <v>14.0</v>
       </c>
+      <c r="D16" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F16" t="s" s="36">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n" s="9">
         <v>11.0</v>
@@ -2627,12 +3287,16 @@
       <c r="M16" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
+      <c r="N16" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
       <c r="P16" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q16" s="10"/>
       <c r="R16" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
@@ -2650,8 +3314,14 @@
       <c r="C17" t="n" s="8">
         <v>15.0</v>
       </c>
+      <c r="D17" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F17" t="s" s="38">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n" s="9">
         <v>6.0</v>
@@ -2674,12 +3344,16 @@
       <c r="M17" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
+      <c r="N17" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P17" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q17" s="10"/>
       <c r="R17" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2697,8 +3371,14 @@
       <c r="C18" t="n" s="8">
         <v>16.0</v>
       </c>
+      <c r="D18" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F18" t="s" s="40">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n" s="9">
         <v>1.0</v>
@@ -2721,12 +3401,16 @@
       <c r="M18" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
+      <c r="N18" t="s" s="10">
+        <v>36</v>
+      </c>
       <c r="O18" t="n" s="12">
         <v>0.8125</v>
       </c>
       <c r="P18" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
+      <c r="Q18" s="10"/>
       <c r="R18" t="n" s="12">
         <v>0.7708333333333334</v>
       </c>
@@ -2744,8 +3428,14 @@
       <c r="C19" t="n" s="8">
         <v>17.0</v>
       </c>
+      <c r="D19" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F19" t="s" s="42">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>7.0</v>
@@ -2768,12 +3458,16 @@
       <c r="M19" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
+      <c r="N19" t="s" s="10">
+        <v>49</v>
+      </c>
       <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
       <c r="P19" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q19" s="10"/>
       <c r="R19" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
@@ -2791,8 +3485,14 @@
       <c r="C20" t="n" s="8">
         <v>18.0</v>
       </c>
+      <c r="D20" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F20" t="s" s="44">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n" s="9">
         <v>3.0</v>
@@ -2815,12 +3515,16 @@
       <c r="M20" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N20" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="P20" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
+      <c r="Q20" s="10"/>
       <c r="R20" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
@@ -2838,8 +3542,14 @@
       <c r="C21" t="n" s="8">
         <v>20.0</v>
       </c>
+      <c r="D21" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F21" t="s" s="46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n" s="9">
         <v>10.0</v>
@@ -2862,12 +3572,16 @@
       <c r="M21" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
+      <c r="N21" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="P21" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q21" s="10"/>
       <c r="R21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -2885,8 +3599,14 @@
       <c r="C22" t="n" s="8">
         <v>21.0</v>
       </c>
+      <c r="D22" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F22" t="s" s="48">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n" s="9">
         <v>11.0</v>
@@ -2909,12 +3629,16 @@
       <c r="M22" t="n" s="12">
         <v>1.0118055555555556</v>
       </c>
+      <c r="N22" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O22" t="n" s="12">
         <v>0.89375</v>
       </c>
       <c r="P22" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q22" s="10"/>
       <c r="R22" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -2932,8 +3656,14 @@
       <c r="C23" t="n" s="8">
         <v>22.0</v>
       </c>
+      <c r="D23" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F23" t="s" s="50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n" s="9">
         <v>3.0</v>
@@ -2956,12 +3686,16 @@
       <c r="M23" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N23" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O23" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="P23" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
+      <c r="Q23" s="10"/>
       <c r="R23" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
@@ -2979,8 +3713,14 @@
       <c r="C24" t="n" s="8">
         <v>23.0</v>
       </c>
+      <c r="D24" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F24" t="s" s="52">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n" s="9">
         <v>9.0</v>
@@ -3003,12 +3743,16 @@
       <c r="M24" t="n" s="12">
         <v>0.9909722222222223</v>
       </c>
+      <c r="N24" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
       </c>
       <c r="P24" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
+      <c r="Q24" s="10"/>
       <c r="R24" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -3026,8 +3770,14 @@
       <c r="C25" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="D25" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F25" t="s" s="54">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n" s="9">
         <v>10.0</v>
@@ -3050,12 +3800,16 @@
       <c r="M25" t="n" s="12">
         <v>0.9986111111111111</v>
       </c>
+      <c r="N25" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q25" s="10"/>
       <c r="R25" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
@@ -3073,8 +3827,14 @@
       <c r="C26" t="n" s="8">
         <v>25.0</v>
       </c>
+      <c r="D26" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F26" t="s" s="56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n" s="9">
         <v>8.0</v>
@@ -3097,12 +3857,16 @@
       <c r="M26" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
+      <c r="N26" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="P26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
+      <c r="Q26" s="10"/>
       <c r="R26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -3120,8 +3884,14 @@
       <c r="C27" t="n" s="8">
         <v>26.0</v>
       </c>
+      <c r="D27" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F27" t="s" s="58">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n" s="9">
         <v>1.0</v>
@@ -3144,12 +3914,16 @@
       <c r="M27" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
+      <c r="N27" t="s" s="10">
+        <v>59</v>
+      </c>
       <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
       </c>
       <c r="P27" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
+      <c r="Q27" s="10"/>
       <c r="R27" t="n" s="12">
         <v>0.8159722222222222</v>
       </c>
@@ -3167,8 +3941,14 @@
       <c r="C28" t="n" s="8">
         <v>27.0</v>
       </c>
+      <c r="D28" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F28" t="s" s="60">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n" s="9">
         <v>6.0</v>
@@ -3191,12 +3971,16 @@
       <c r="M28" t="n" s="12">
         <v>0.9763888888888889</v>
       </c>
+      <c r="N28" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
       <c r="P28" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
+      <c r="Q28" s="10"/>
       <c r="R28" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -3214,8 +3998,14 @@
       <c r="C29" t="n" s="8">
         <v>28.0</v>
       </c>
+      <c r="D29" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F29" t="s" s="62">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n" s="9">
         <v>4.0</v>
@@ -3238,12 +4028,16 @@
       <c r="M29" t="n" s="12">
         <v>0.96875</v>
       </c>
+      <c r="N29" t="s" s="10">
+        <v>63</v>
+      </c>
       <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
       <c r="P29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="Q29" s="10"/>
       <c r="R29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
@@ -3261,8 +4055,14 @@
       <c r="C30" t="n" s="8">
         <v>29.0</v>
       </c>
+      <c r="D30" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F30" t="s" s="64">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n" s="9">
         <v>3.0</v>
@@ -3285,12 +4085,16 @@
       <c r="M30" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
+      <c r="N30" t="s" s="10">
+        <v>65</v>
+      </c>
       <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
       <c r="P30" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q30" s="10"/>
       <c r="R30" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
@@ -3308,8 +4112,14 @@
       <c r="C31" t="n" s="8">
         <v>30.0</v>
       </c>
+      <c r="D31" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F31" t="s" s="66">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G31" t="n" s="9">
         <v>3.0</v>
@@ -3332,12 +4142,16 @@
       <c r="M31" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
+      <c r="N31" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O31" t="n" s="12">
         <v>0.90625</v>
       </c>
       <c r="P31" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q31" s="10"/>
       <c r="R31" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
@@ -3355,8 +4169,14 @@
       <c r="C32" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="D32" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F32" t="s" s="68">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n" s="9">
         <v>5.0</v>
@@ -3379,12 +4199,16 @@
       <c r="M32" t="n" s="12">
         <v>0.9833333333333333</v>
       </c>
+      <c r="N32" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
       <c r="P32" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q32" s="10"/>
       <c r="R32" t="n" s="12">
         <v>0.91875</v>
       </c>
@@ -3402,8 +4226,14 @@
       <c r="C33" t="n" s="8">
         <v>32.0</v>
       </c>
+      <c r="D33" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F33" t="s" s="70">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n" s="9">
         <v>4.0</v>
@@ -3426,12 +4256,16 @@
       <c r="M33" t="n" s="12">
         <v>0.96875</v>
       </c>
+      <c r="N33" t="s" s="10">
+        <v>70</v>
+      </c>
       <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="P33" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q33" s="10"/>
       <c r="R33" t="n" s="12">
         <v>0.90625</v>
       </c>
@@ -3449,8 +4283,14 @@
       <c r="C34" t="n" s="8">
         <v>33.0</v>
       </c>
+      <c r="D34" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F34" t="s" s="72">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n" s="9">
         <v>9.0</v>
@@ -3473,12 +4313,16 @@
       <c r="M34" t="n" s="12">
         <v>0.9951388888888889</v>
       </c>
+      <c r="N34" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
       <c r="P34" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
+      <c r="Q34" s="10"/>
       <c r="R34" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
@@ -3496,8 +4340,14 @@
       <c r="C35" t="n" s="8">
         <v>34.0</v>
       </c>
+      <c r="D35" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F35" t="s" s="74">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G35" t="n" s="9">
         <v>9.0</v>
@@ -3520,12 +4370,16 @@
       <c r="M35" t="n" s="12">
         <v>0.9923611111111111</v>
       </c>
+      <c r="N35" t="s" s="10">
+        <v>73</v>
+      </c>
       <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="P35" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q35" s="10"/>
       <c r="R35" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
@@ -3543,8 +4397,14 @@
       <c r="C36" t="n" s="8">
         <v>35.0</v>
       </c>
+      <c r="D36" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F36" t="s" s="76">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n" s="9">
         <v>1.0</v>
@@ -3567,12 +4427,16 @@
       <c r="M36" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="N36" t="s" s="10">
+        <v>75</v>
+      </c>
       <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
       <c r="P36" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
+      <c r="Q36" s="10"/>
       <c r="R36" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -3590,8 +4454,14 @@
       <c r="C37" t="n" s="8">
         <v>36.0</v>
       </c>
+      <c r="D37" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F37" t="s" s="78">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n" s="9">
         <v>6.0</v>
@@ -3614,12 +4484,16 @@
       <c r="M37" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N37" t="s" s="10">
+        <v>49</v>
+      </c>
       <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P37" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q37" s="10"/>
       <c r="R37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3637,8 +4511,14 @@
       <c r="C38" t="n" s="8">
         <v>37.0</v>
       </c>
+      <c r="D38" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F38" t="s" s="80">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n" s="9">
         <v>10.0</v>
@@ -3661,12 +4541,16 @@
       <c r="M38" t="n" s="12">
         <v>1.0</v>
       </c>
+      <c r="N38" t="s" s="10">
+        <v>78</v>
+      </c>
       <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P38" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q38" s="10"/>
       <c r="R38" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
@@ -3684,8 +4568,14 @@
       <c r="C39" t="n" s="8">
         <v>38.0</v>
       </c>
+      <c r="D39" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F39" t="s" s="82">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G39" t="n" s="9">
         <v>6.0</v>
@@ -3708,12 +4598,16 @@
       <c r="M39" t="n" s="12">
         <v>0.975</v>
       </c>
+      <c r="N39" t="s" s="10">
+        <v>80</v>
+      </c>
       <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
       <c r="P39" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q39" s="10"/>
       <c r="R39" t="s" s="12">
         <v>20</v>
       </c>
@@ -3731,8 +4625,14 @@
       <c r="C40" t="n" s="8">
         <v>39.0</v>
       </c>
+      <c r="D40" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F40" t="s" s="84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" t="n" s="9">
         <v>10.0</v>
@@ -3755,12 +4655,16 @@
       <c r="M40" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
+      <c r="N40" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P40" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q40" s="10"/>
       <c r="R40" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -3778,8 +4682,14 @@
       <c r="C41" t="n" s="8">
         <v>40.0</v>
       </c>
+      <c r="D41" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F41" t="s" s="86">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n" s="9">
         <v>3.0</v>
@@ -3802,12 +4712,16 @@
       <c r="M41" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N41" t="s" s="10">
+        <v>83</v>
+      </c>
       <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P41" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q41" s="10"/>
       <c r="R41" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
@@ -3825,8 +4739,14 @@
       <c r="C42" t="n" s="8">
         <v>41.0</v>
       </c>
+      <c r="D42" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F42" t="s" s="88">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G42" t="n" s="9">
         <v>3.0</v>
@@ -3849,12 +4769,16 @@
       <c r="M42" t="n" s="12">
         <v>0.9930555555555556</v>
       </c>
+      <c r="N42" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P42" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q42" s="10"/>
       <c r="R42" t="n" s="12">
         <v>0.9222222222222223</v>
       </c>
@@ -3872,8 +4796,14 @@
       <c r="C43" t="n" s="8">
         <v>42.0</v>
       </c>
+      <c r="D43" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F43" t="s" s="90">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n" s="9">
         <v>4.0</v>
@@ -3896,12 +4826,16 @@
       <c r="M43" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
+      <c r="N43" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
       <c r="P43" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
+      <c r="Q43" s="10"/>
       <c r="R43" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
@@ -3919,8 +4853,14 @@
       <c r="C44" t="n" s="8">
         <v>43.0</v>
       </c>
+      <c r="D44" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F44" t="s" s="92">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n" s="9">
         <v>3.0</v>
@@ -3943,12 +4883,16 @@
       <c r="M44" t="n" s="12">
         <v>0.96875</v>
       </c>
+      <c r="N44" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
       <c r="P44" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
+      <c r="Q44" s="10"/>
       <c r="R44" t="n" s="12">
         <v>0.90625</v>
       </c>
@@ -3966,8 +4910,14 @@
       <c r="C45" t="n" s="8">
         <v>45.0</v>
       </c>
+      <c r="D45" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F45" t="s" s="94">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n" s="9">
         <v>2.0</v>
@@ -3990,12 +4940,16 @@
       <c r="M45" t="n" s="12">
         <v>0.9527777777777777</v>
       </c>
+      <c r="N45" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P45" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
+      <c r="Q45" s="10"/>
       <c r="R45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -4013,8 +4967,14 @@
       <c r="C46" t="n" s="8">
         <v>45.099998474121094</v>
       </c>
+      <c r="D46" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F46" t="s" s="96">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n" s="9">
         <v>1.0</v>
@@ -4037,12 +4997,16 @@
       <c r="M46" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
+      <c r="N46" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="P46" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q46" s="10"/>
       <c r="R46" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
@@ -4060,8 +5024,14 @@
       <c r="C47" t="n" s="8">
         <v>45.20000076293945</v>
       </c>
+      <c r="D47" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F47" t="s" s="98">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G47" t="n" s="9">
         <v>2.0</v>
@@ -4084,12 +5054,16 @@
       <c r="M47" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N47" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
+      <c r="Q47" s="10"/>
       <c r="R47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -4107,8 +5081,14 @@
       <c r="C48" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="D48" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F48" t="s" s="100">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n" s="9">
         <v>8.0</v>
@@ -4131,12 +5111,16 @@
       <c r="M48" t="n" s="12">
         <v>0.9916666666666667</v>
       </c>
+      <c r="N48" t="s" s="10">
+        <v>92</v>
+      </c>
       <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="P48" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
+      <c r="Q48" s="10"/>
       <c r="R48" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -4154,8 +5138,14 @@
       <c r="C49" t="n" s="8">
         <v>47.0</v>
       </c>
+      <c r="D49" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F49" t="s" s="102">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n" s="9">
         <v>4.0</v>
@@ -4178,12 +5168,16 @@
       <c r="M49" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N49" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="P49" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q49" s="10"/>
       <c r="R49" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
@@ -4201,8 +5195,14 @@
       <c r="C50" t="n" s="8">
         <v>49.0</v>
       </c>
+      <c r="D50" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F50" t="s" s="104">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n" s="9">
         <v>6.0</v>
@@ -4225,12 +5225,16 @@
       <c r="M50" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
+      <c r="N50" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
       <c r="P50" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="Q50" s="10"/>
       <c r="R50" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
@@ -4248,8 +5252,14 @@
       <c r="C51" t="n" s="8">
         <v>50.0</v>
       </c>
+      <c r="D51" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F51" t="s" s="106">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n" s="9">
         <v>8.0</v>
@@ -4272,12 +5282,16 @@
       <c r="M51" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N51" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="P51" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q51" s="10"/>
       <c r="R51" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
@@ -4295,8 +5309,14 @@
       <c r="C52" t="n" s="8">
         <v>51.0</v>
       </c>
+      <c r="D52" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F52" t="s" s="108">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G52" t="n" s="9">
         <v>13.0</v>
@@ -4319,12 +5339,16 @@
       <c r="M52" t="n" s="12">
         <v>1.0104166666666667</v>
       </c>
+      <c r="N52" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
       <c r="P52" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q52" s="10"/>
       <c r="R52" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -4342,8 +5366,14 @@
       <c r="C53" t="n" s="8">
         <v>52.0</v>
       </c>
+      <c r="D53" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F53" t="s" s="110">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n" s="9">
         <v>3.0</v>
@@ -4366,12 +5396,16 @@
       <c r="M53" t="n" s="12">
         <v>0.96875</v>
       </c>
+      <c r="N53" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
       <c r="P53" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q53" s="10"/>
       <c r="R53" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
@@ -4389,8 +5423,14 @@
       <c r="C54" t="n" s="8">
         <v>53.0</v>
       </c>
+      <c r="D54" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F54" t="s" s="112">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G54" t="n" s="9">
         <v>3.0</v>
@@ -4413,12 +5453,16 @@
       <c r="M54" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
+      <c r="N54" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
       <c r="P54" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
+      <c r="Q54" s="10"/>
       <c r="R54" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
@@ -4436,8 +5480,14 @@
       <c r="C55" t="n" s="8">
         <v>54.0</v>
       </c>
+      <c r="D55" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F55" t="s" s="114">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G55" t="n" s="9">
         <v>6.0</v>
@@ -4460,12 +5510,16 @@
       <c r="M55" t="n" s="12">
         <v>0.9979166666666667</v>
       </c>
+      <c r="N55" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
       <c r="P55" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
+      <c r="Q55" s="10"/>
       <c r="R55" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -4483,8 +5537,14 @@
       <c r="C56" t="n" s="8">
         <v>56.0</v>
       </c>
+      <c r="D56" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F56" t="s" s="116">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" t="n" s="9">
         <v>5.0</v>
@@ -4507,12 +5567,16 @@
       <c r="M56" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
+      <c r="N56" t="s" s="10">
+        <v>23</v>
+      </c>
       <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P56" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q56" s="10"/>
       <c r="R56" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -4530,8 +5594,14 @@
       <c r="C57" t="n" s="8">
         <v>57.0</v>
       </c>
+      <c r="D57" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F57" t="s" s="118">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n" s="9">
         <v>1.0</v>
@@ -4554,12 +5624,16 @@
       <c r="M57" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
+      <c r="N57" t="s" s="10">
+        <v>102</v>
+      </c>
       <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
       <c r="P57" t="n" s="12">
         <v>0.9548611111111112</v>
       </c>
+      <c r="Q57" s="10"/>
       <c r="R57" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
@@ -4577,8 +5651,14 @@
       <c r="C58" t="n" s="8">
         <v>58.0</v>
       </c>
+      <c r="D58" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F58" t="s" s="120">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G58" t="n" s="9">
         <v>4.0</v>
@@ -4601,12 +5681,16 @@
       <c r="M58" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N58" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="P58" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q58" s="10"/>
       <c r="R58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -4624,8 +5708,14 @@
       <c r="C59" t="n" s="8">
         <v>59.0</v>
       </c>
+      <c r="D59" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F59" t="s" s="122">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n" s="9">
         <v>7.0</v>
@@ -4648,12 +5738,16 @@
       <c r="M59" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
+      <c r="N59" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="P59" t="n" s="12">
         <v>0.94375</v>
       </c>
+      <c r="Q59" s="10"/>
       <c r="R59" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
@@ -4671,8 +5765,14 @@
       <c r="C60" t="n" s="8">
         <v>60.0</v>
       </c>
+      <c r="D60" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F60" t="s" s="124">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G60" t="n" s="9">
         <v>6.0</v>
@@ -4695,12 +5795,16 @@
       <c r="M60" t="n" s="12">
         <v>0.9833333333333333</v>
       </c>
+      <c r="N60" t="s" s="10">
+        <v>49</v>
+      </c>
       <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
       <c r="P60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
+      <c r="Q60" s="10"/>
       <c r="R60" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
@@ -4718,8 +5822,14 @@
       <c r="C61" t="n" s="8">
         <v>62.0</v>
       </c>
+      <c r="D61" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F61" t="s" s="126">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n" s="9">
         <v>7.0</v>
@@ -4742,12 +5852,16 @@
       <c r="M61" t="n" s="12">
         <v>0.9881944444444445</v>
       </c>
+      <c r="N61" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
       <c r="P61" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q61" s="10"/>
       <c r="R61" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -4765,8 +5879,14 @@
       <c r="C62" t="n" s="8">
         <v>64.0</v>
       </c>
+      <c r="D62" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F62" t="s" s="128">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G62" t="n" s="9">
         <v>1.0</v>
@@ -4789,12 +5909,16 @@
       <c r="M62" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N62" t="s" s="10">
+        <v>108</v>
+      </c>
       <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
       <c r="P62" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q62" s="10"/>
       <c r="R62" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -4812,8 +5936,14 @@
       <c r="C63" t="n" s="8">
         <v>65.0</v>
       </c>
+      <c r="D63" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F63" t="s" s="130">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n" s="9">
         <v>2.0</v>
@@ -4836,12 +5966,16 @@
       <c r="M63" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
+      <c r="N63" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O63" t="n" s="12">
         <v>0.9125</v>
       </c>
       <c r="P63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
+      <c r="Q63" s="10"/>
       <c r="R63" t="n" s="12">
         <v>0.9125</v>
       </c>
@@ -4859,8 +5993,14 @@
       <c r="C64" t="n" s="8">
         <v>67.0</v>
       </c>
+      <c r="D64" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="E64" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F64" t="s" s="132">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G64" t="n" s="9">
         <v>1.0</v>
@@ -4883,12 +6023,16 @@
       <c r="M64" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
+      <c r="N64" t="s" s="10">
+        <v>102</v>
+      </c>
       <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
       <c r="P64" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
+      <c r="Q64" s="10"/>
       <c r="R64" t="n" s="12">
         <v>0.8701388888888889</v>
       </c>
@@ -4906,8 +6050,14 @@
       <c r="C65" t="n" s="8">
         <v>68.0</v>
       </c>
+      <c r="D65" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F65" t="s" s="134">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n" s="9">
         <v>3.0</v>
@@ -4930,12 +6080,16 @@
       <c r="M65" t="n" s="12">
         <v>0.9625</v>
       </c>
+      <c r="N65" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="P65" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
+      <c r="Q65" s="10"/>
       <c r="R65" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
@@ -4953,8 +6107,14 @@
       <c r="C66" t="n" s="8">
         <v>70.0</v>
       </c>
+      <c r="D66" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F66" t="s" s="136">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G66" t="n" s="9">
         <v>7.0</v>
@@ -4977,12 +6137,16 @@
       <c r="M66" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
+      <c r="N66" t="s" s="10">
+        <v>49</v>
+      </c>
       <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="P66" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="Q66" s="10"/>
       <c r="R66" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
@@ -5000,8 +6164,14 @@
       <c r="C67" t="n" s="8">
         <v>71.0</v>
       </c>
+      <c r="D67" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="E67" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F67" t="s" s="138">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n" s="9">
         <v>9.0</v>
@@ -5024,12 +6194,16 @@
       <c r="M67" t="n" s="12">
         <v>0.9881944444444445</v>
       </c>
+      <c r="N67" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
       <c r="P67" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q67" s="10"/>
       <c r="R67" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
@@ -5047,8 +6221,14 @@
       <c r="C68" t="n" s="8">
         <v>72.0</v>
       </c>
+      <c r="D68" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="E68" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F68" t="s" s="140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" t="n" s="9">
         <v>6.0</v>
@@ -5071,12 +6251,16 @@
       <c r="M68" t="n" s="12">
         <v>0.9708333333333333</v>
       </c>
+      <c r="N68" t="s" s="10">
+        <v>115</v>
+      </c>
       <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
+      <c r="Q68" s="10"/>
       <c r="R68" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
@@ -5094,8 +6278,14 @@
       <c r="C69" t="n" s="8">
         <v>73.0</v>
       </c>
+      <c r="D69" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="E69" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F69" t="s" s="142">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n" s="9">
         <v>3.0</v>
@@ -5118,12 +6308,16 @@
       <c r="M69" t="n" s="12">
         <v>0.9625</v>
       </c>
+      <c r="N69" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="P69" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q69" s="10"/>
       <c r="R69" t="n" s="12">
         <v>0.9284722222222223</v>
       </c>
@@ -5141,8 +6335,14 @@
       <c r="C70" t="n" s="8">
         <v>74.0</v>
       </c>
+      <c r="D70" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F70" t="s" s="144">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G70" t="n" s="9">
         <v>1.0</v>
@@ -5165,12 +6365,16 @@
       <c r="M70" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="N70" t="s" s="10">
+        <v>118</v>
+      </c>
       <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
       <c r="P70" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
+      <c r="Q70" s="10"/>
       <c r="R70" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -5188,8 +6392,14 @@
       <c r="C71" t="n" s="8">
         <v>75.0</v>
       </c>
+      <c r="D71" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F71" t="s" s="146">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G71" t="n" s="9">
         <v>2.0</v>
@@ -5212,12 +6422,16 @@
       <c r="M71" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N71" t="s" s="10">
+        <v>118</v>
+      </c>
       <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
+      <c r="Q71" s="10"/>
       <c r="R71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -5235,8 +6449,14 @@
       <c r="C72" t="n" s="8">
         <v>77.0</v>
       </c>
+      <c r="D72" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="E72" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F72" t="s" s="148">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G72" t="n" s="9">
         <v>1.0</v>
@@ -5259,12 +6479,16 @@
       <c r="M72" t="n" s="12">
         <v>0.9618055555555556</v>
       </c>
+      <c r="N72" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
       <c r="P72" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q72" s="10"/>
       <c r="R72" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
@@ -5282,8 +6506,14 @@
       <c r="C73" t="n" s="8">
         <v>78.0</v>
       </c>
+      <c r="D73" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="E73" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F73" t="s" s="150">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G73" t="n" s="9">
         <v>4.0</v>
@@ -5306,12 +6536,16 @@
       <c r="M73" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N73" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P73" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q73" s="10"/>
       <c r="R73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -5329,8 +6563,14 @@
       <c r="C74" t="n" s="8">
         <v>79.0</v>
       </c>
+      <c r="D74" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F74" t="s" s="152">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n" s="9">
         <v>2.0</v>
@@ -5353,12 +6593,16 @@
       <c r="M74" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N74" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
       <c r="P74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
+      <c r="Q74" s="10"/>
       <c r="R74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
@@ -5376,6 +6620,12 @@
       <c r="C75" t="n" s="8">
         <v>80.0</v>
       </c>
+      <c r="D75" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F75" t="s" s="153">
         <v>20</v>
       </c>
@@ -5400,12 +6650,16 @@
       <c r="M75" t="n" s="12">
         <v>0.9604166666666667</v>
       </c>
+      <c r="N75" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
       <c r="P75" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
+      <c r="Q75" s="10"/>
       <c r="R75" t="n" s="12">
         <v>0.8631944444444445</v>
       </c>
@@ -5423,8 +6677,14 @@
       <c r="C76" t="n" s="8">
         <v>81.0</v>
       </c>
+      <c r="D76" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F76" t="s" s="155">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G76" t="n" s="9">
         <v>1.0</v>
@@ -5447,12 +6707,16 @@
       <c r="M76" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
+      <c r="N76" t="s" s="10">
+        <v>125</v>
+      </c>
       <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
       </c>
       <c r="P76" t="n" s="12">
         <v>0.8743055555555556</v>
       </c>
+      <c r="Q76" s="10"/>
       <c r="R76" t="n" s="12">
         <v>0.7805555555555556</v>
       </c>
@@ -5470,8 +6734,14 @@
       <c r="C77" t="n" s="8">
         <v>82.0</v>
       </c>
+      <c r="D77" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="E77" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F77" t="s" s="157">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G77" t="n" s="9">
         <v>2.0</v>
@@ -5494,12 +6764,16 @@
       <c r="M77" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
+      <c r="N77" t="s" s="10">
+        <v>32</v>
+      </c>
       <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
       <c r="P77" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
+      <c r="Q77" s="10"/>
       <c r="R77" t="n" s="12">
         <v>0.8020833333333334</v>
       </c>
@@ -5517,8 +6791,14 @@
       <c r="C78" t="n" s="8">
         <v>84.0</v>
       </c>
+      <c r="D78" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F78" t="s" s="159">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n" s="9">
         <v>4.0</v>
@@ -5541,12 +6821,16 @@
       <c r="M78" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
+      <c r="N78" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
       </c>
       <c r="P78" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q78" s="10"/>
       <c r="R78" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
@@ -5564,8 +6848,14 @@
       <c r="C79" t="n" s="8">
         <v>86.0</v>
       </c>
+      <c r="D79" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="E79" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F79" t="s" s="161">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G79" t="n" s="9">
         <v>8.0</v>
@@ -5588,12 +6878,16 @@
       <c r="M79" t="n" s="12">
         <v>0.9840277777777777</v>
       </c>
+      <c r="N79" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
       <c r="P79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
+      <c r="Q79" s="10"/>
       <c r="R79" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
@@ -5611,8 +6905,14 @@
       <c r="C80" t="n" s="8">
         <v>87.0</v>
       </c>
+      <c r="D80" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F80" t="s" s="163">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G80" t="n" s="9">
         <v>3.0</v>
@@ -5635,12 +6935,16 @@
       <c r="M80" t="n" s="12">
         <v>0.98125</v>
       </c>
+      <c r="N80" t="s" s="10">
+        <v>80</v>
+      </c>
       <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
       <c r="P80" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q80" s="10"/>
       <c r="R80" t="s" s="12">
         <v>20</v>
       </c>
@@ -5658,8 +6962,14 @@
       <c r="C81" t="n" s="8">
         <v>88.0</v>
       </c>
+      <c r="D81" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="E81" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F81" t="s" s="165">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G81" t="n" s="9">
         <v>10.0</v>
@@ -5682,12 +6992,16 @@
       <c r="M81" t="n" s="12">
         <v>0.9805555555555555</v>
       </c>
+      <c r="N81" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
       <c r="P81" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q81" s="10"/>
       <c r="R81" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
@@ -5705,8 +7019,14 @@
       <c r="C82" t="n" s="8">
         <v>89.0</v>
       </c>
+      <c r="D82" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="E82" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F82" t="s" s="167">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n" s="9">
         <v>2.0</v>
@@ -5729,12 +7049,16 @@
       <c r="M82" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N82" t="s" s="10">
+        <v>132</v>
+      </c>
       <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
       <c r="P82" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q82" s="10"/>
       <c r="R82" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
@@ -5752,8 +7076,14 @@
       <c r="C83" t="n" s="8">
         <v>90.0</v>
       </c>
+      <c r="D83" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="E83" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F83" t="s" s="169">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G83" t="n" s="9">
         <v>5.0</v>
@@ -5776,12 +7106,16 @@
       <c r="M83" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
+      <c r="N83" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P83" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="Q83" s="10"/>
       <c r="R83" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
@@ -5799,8 +7133,14 @@
       <c r="C84" t="n" s="8">
         <v>91.0</v>
       </c>
+      <c r="D84" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F84" t="s" s="171">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G84" t="n" s="9">
         <v>3.0</v>
@@ -5823,12 +7163,16 @@
       <c r="M84" t="n" s="12">
         <v>0.9666666666666667</v>
       </c>
+      <c r="N84" t="s" s="10">
+        <v>135</v>
+      </c>
       <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
       <c r="P84" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
+      <c r="Q84" s="10"/>
       <c r="R84" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
@@ -5846,8 +7190,14 @@
       <c r="C85" t="n" s="8">
         <v>92.0</v>
       </c>
+      <c r="D85" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="E85" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F85" t="s" s="173">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G85" t="n" s="9">
         <v>5.0</v>
@@ -5870,12 +7220,16 @@
       <c r="M85" t="n" s="12">
         <v>0.9791666666666666</v>
       </c>
+      <c r="N85" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P85" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q85" s="10"/>
       <c r="R85" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
@@ -5893,8 +7247,14 @@
       <c r="C86" t="n" s="8">
         <v>94.0</v>
       </c>
+      <c r="D86" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F86" t="s" s="175">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G86" t="n" s="9">
         <v>4.0</v>
@@ -5917,12 +7277,16 @@
       <c r="M86" t="n" s="12">
         <v>0.9645833333333333</v>
       </c>
+      <c r="N86" t="s" s="10">
+        <v>138</v>
+      </c>
       <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="P86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q86" s="10"/>
       <c r="R86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
@@ -5940,8 +7304,14 @@
       <c r="C87" t="n" s="8">
         <v>95.0</v>
       </c>
+      <c r="D87" t="s" s="7">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F87" t="s" s="177">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G87" t="n" s="9">
         <v>7.0</v>
@@ -5964,12 +7334,16 @@
       <c r="M87" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
+      <c r="N87" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
       </c>
       <c r="P87" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
+      <c r="Q87" s="10"/>
       <c r="R87" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
@@ -5987,8 +7361,14 @@
       <c r="C88" t="n" s="8">
         <v>99.0</v>
       </c>
+      <c r="D88" t="s" s="7">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F88" t="s" s="179">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n" s="9">
         <v>4.0</v>
@@ -6011,12 +7391,16 @@
       <c r="M88" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
+      <c r="N88" t="s" s="10">
+        <v>32</v>
+      </c>
       <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="P88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q88" s="10"/>
       <c r="R88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -6034,8 +7418,14 @@
       <c r="C89" t="n" s="8">
         <v>101.0</v>
       </c>
+      <c r="D89" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="E89" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F89" t="s" s="181">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G89" t="n" s="9">
         <v>5.0</v>
@@ -6058,12 +7448,16 @@
       <c r="M89" t="n" s="12">
         <v>1.0006944444444446</v>
       </c>
+      <c r="N89" t="s" s="10">
+        <v>142</v>
+      </c>
       <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
       <c r="P89" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
+      <c r="Q89" s="10"/>
       <c r="R89" t="n" s="12">
         <v>0.9069444444444444</v>
       </c>
@@ -6081,8 +7475,14 @@
       <c r="C90" t="n" s="8">
         <v>102.0</v>
       </c>
+      <c r="D90" t="s" s="7">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F90" t="s" s="183">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G90" t="n" s="9">
         <v>5.0</v>
@@ -6105,12 +7505,16 @@
       <c r="M90" t="n" s="12">
         <v>0.9958333333333333</v>
       </c>
+      <c r="N90" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
       <c r="P90" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q90" s="10"/>
       <c r="R90" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
@@ -6128,8 +7532,14 @@
       <c r="C91" t="n" s="8">
         <v>103.0</v>
       </c>
+      <c r="D91" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="E91" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F91" t="s" s="185">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G91" t="n" s="9">
         <v>3.0</v>
@@ -6152,12 +7562,16 @@
       <c r="M91" t="n" s="12">
         <v>0.9701388888888889</v>
       </c>
+      <c r="N91" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
       <c r="P91" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
+      <c r="Q91" s="10"/>
       <c r="R91" t="n" s="12">
         <v>0.8611111111111112</v>
       </c>
@@ -6175,8 +7589,14 @@
       <c r="C92" t="n" s="8">
         <v>104.0</v>
       </c>
+      <c r="D92" t="s" s="7">
+        <v>145</v>
+      </c>
+      <c r="E92" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F92" t="s" s="187">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G92" t="n" s="9">
         <v>2.0</v>
@@ -6199,12 +7619,16 @@
       <c r="M92" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="N92" t="s" s="10">
+        <v>36</v>
+      </c>
       <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
       <c r="P92" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
+      <c r="Q92" s="10"/>
       <c r="R92" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -6222,8 +7646,14 @@
       <c r="C93" t="n" s="8">
         <v>106.0</v>
       </c>
+      <c r="D93" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="E93" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F93" t="s" s="189">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n" s="9">
         <v>4.0</v>
@@ -6246,12 +7676,16 @@
       <c r="M93" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N93" t="s" s="10">
+        <v>147</v>
+      </c>
       <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
       </c>
       <c r="P93" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
+      <c r="Q93" s="10"/>
       <c r="R93" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -6269,8 +7703,14 @@
       <c r="C94" t="n" s="8">
         <v>107.0</v>
       </c>
+      <c r="D94" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="E94" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F94" t="s" s="191">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n" s="9">
         <v>1.0</v>
@@ -6293,12 +7733,16 @@
       <c r="M94" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
+      <c r="N94" t="s" s="10">
+        <v>32</v>
+      </c>
       <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
       </c>
       <c r="P94" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q94" s="10"/>
       <c r="R94" t="n" s="12">
         <v>0.8298611111111112</v>
       </c>
@@ -6316,8 +7760,14 @@
       <c r="C95" t="n" s="8">
         <v>108.0</v>
       </c>
+      <c r="D95" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="E95" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F95" t="s" s="193">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G95" t="n" s="9">
         <v>4.0</v>
@@ -6340,12 +7790,16 @@
       <c r="M95" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N95" t="s" s="10">
+        <v>88</v>
+      </c>
       <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P95" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
+      <c r="Q95" s="10"/>
       <c r="R95" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
@@ -6363,8 +7817,14 @@
       <c r="C96" t="n" s="8">
         <v>109.0</v>
       </c>
+      <c r="D96" t="s" s="7">
+        <v>150</v>
+      </c>
+      <c r="E96" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F96" t="s" s="195">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G96" t="n" s="9">
         <v>1.0</v>
@@ -6387,12 +7847,16 @@
       <c r="M96" t="n" s="12">
         <v>0.9666666666666667</v>
       </c>
+      <c r="N96" t="s" s="10">
+        <v>36</v>
+      </c>
       <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
       <c r="P96" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q96" s="10"/>
       <c r="R96" t="n" s="12">
         <v>0.8694444444444445</v>
       </c>
@@ -6410,8 +7874,14 @@
       <c r="C97" t="n" s="8">
         <v>110.0</v>
       </c>
+      <c r="D97" t="s" s="7">
+        <v>151</v>
+      </c>
+      <c r="E97" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F97" t="s" s="197">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n" s="9">
         <v>2.0</v>
@@ -6434,12 +7904,16 @@
       <c r="M97" t="n" s="12">
         <v>0.9583333333333334</v>
       </c>
+      <c r="N97" t="s" s="10">
+        <v>49</v>
+      </c>
       <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="P97" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q97" s="10"/>
       <c r="R97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -6457,8 +7931,14 @@
       <c r="C98" t="n" s="8">
         <v>112.0</v>
       </c>
+      <c r="D98" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="E98" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F98" t="s" s="199">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G98" t="n" s="9">
         <v>3.0</v>
@@ -6481,12 +7961,16 @@
       <c r="M98" t="n" s="12">
         <v>0.9631944444444445</v>
       </c>
+      <c r="N98" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O98" t="n" s="12">
         <v>0.89375</v>
       </c>
       <c r="P98" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
+      <c r="Q98" s="10"/>
       <c r="R98" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
@@ -6504,8 +7988,14 @@
       <c r="C99" t="n" s="8">
         <v>121.0</v>
       </c>
+      <c r="D99" t="s" s="7">
+        <v>153</v>
+      </c>
+      <c r="E99" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F99" t="s" s="201">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n" s="9">
         <v>5.0</v>
@@ -6528,12 +8018,16 @@
       <c r="M99" t="n" s="12">
         <v>0.9756944444444444</v>
       </c>
+      <c r="N99" t="s" s="10">
+        <v>36</v>
+      </c>
       <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
       <c r="P99" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
+      <c r="Q99" s="10"/>
       <c r="R99" t="n" s="12">
         <v>0.93125</v>
       </c>
@@ -6551,8 +8045,14 @@
       <c r="C100" t="n" s="8">
         <v>122.0</v>
       </c>
+      <c r="D100" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="E100" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F100" t="s" s="203">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G100" t="n" s="9">
         <v>2.0</v>
@@ -6575,12 +8075,16 @@
       <c r="M100" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="N100" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
       <c r="P100" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
+      <c r="Q100" s="10"/>
       <c r="R100" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
@@ -6598,8 +8102,14 @@
       <c r="C101" t="n" s="8">
         <v>124.0</v>
       </c>
+      <c r="D101" t="s" s="7">
+        <v>155</v>
+      </c>
+      <c r="E101" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F101" t="s" s="205">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n" s="9">
         <v>3.0</v>
@@ -6622,12 +8132,16 @@
       <c r="M101" t="n" s="12">
         <v>0.9770833333333333</v>
       </c>
+      <c r="N101" t="s" s="10">
+        <v>156</v>
+      </c>
       <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
       <c r="P101" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
+      <c r="Q101" s="10"/>
       <c r="R101" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
@@ -6645,8 +8159,14 @@
       <c r="C102" t="n" s="8">
         <v>150.0</v>
       </c>
+      <c r="D102" t="s" s="7">
+        <v>157</v>
+      </c>
+      <c r="E102" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F102" t="s" s="207">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G102" t="n" s="9">
         <v>10.0</v>
@@ -6669,12 +8189,16 @@
       <c r="M102" t="n" s="12">
         <v>0.9826388888888888</v>
       </c>
+      <c r="N102" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
       <c r="P102" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
+      <c r="Q102" s="10"/>
       <c r="R102" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -6692,8 +8216,14 @@
       <c r="C103" t="n" s="8">
         <v>301.0</v>
       </c>
+      <c r="D103" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="E103" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F103" t="s" s="209">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G103" t="n" s="9">
         <v>16.0</v>
@@ -6716,12 +8246,16 @@
       <c r="M103" t="n" s="12">
         <v>1.011111111111111</v>
       </c>
+      <c r="N103" t="s" s="10">
+        <v>34</v>
+      </c>
       <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
       </c>
       <c r="P103" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
+      <c r="Q103" s="10"/>
       <c r="R103" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -6739,8 +8273,14 @@
       <c r="C104" t="n" s="8">
         <v>321.0</v>
       </c>
+      <c r="D104" t="s" s="7">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F104" t="s" s="211">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G104" t="n" s="9">
         <v>4.0</v>
@@ -6763,12 +8303,16 @@
       <c r="M104" t="n" s="12">
         <v>0.9652777777777778</v>
       </c>
+      <c r="N104" t="s" s="10">
+        <v>118</v>
+      </c>
       <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P104" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q104" s="10"/>
       <c r="R104" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -6786,8 +8330,14 @@
       <c r="C105" t="n" s="8">
         <v>332.0</v>
       </c>
+      <c r="D105" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F105" t="s" s="213">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G105" t="n" s="9">
         <v>8.0</v>
@@ -6810,12 +8360,16 @@
       <c r="M105" t="n" s="12">
         <v>0.9861111111111112</v>
       </c>
+      <c r="N105" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
+      <c r="Q105" s="10"/>
       <c r="R105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -6833,8 +8387,14 @@
       <c r="C106" t="n" s="8">
         <v>334.0</v>
       </c>
+      <c r="D106" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="E106" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F106" t="s" s="215">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" t="n" s="9">
         <v>8.0</v>
@@ -6857,12 +8417,16 @@
       <c r="M106" t="n" s="12">
         <v>0.9729166666666667</v>
       </c>
+      <c r="N106" t="s" s="10">
+        <v>32</v>
+      </c>
       <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
       <c r="P106" t="n" s="12">
         <v>0.9375</v>
       </c>
+      <c r="Q106" s="10"/>
       <c r="R106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
@@ -6880,8 +8444,14 @@
       <c r="C107" t="n" s="8">
         <v>339.0</v>
       </c>
+      <c r="D107" t="s" s="7">
+        <v>162</v>
+      </c>
+      <c r="E107" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F107" t="s" s="217">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G107" t="n" s="9">
         <v>4.0</v>
@@ -6904,12 +8474,16 @@
       <c r="M107" t="n" s="12">
         <v>0.9673611111111111</v>
       </c>
+      <c r="N107" t="s" s="10">
+        <v>80</v>
+      </c>
       <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
       <c r="P107" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
+      <c r="Q107" s="10"/>
       <c r="R107" t="s" s="12">
         <v>20</v>
       </c>
@@ -6927,8 +8501,14 @@
       <c r="C108" t="n" s="8">
         <v>343.0</v>
       </c>
+      <c r="D108" t="s" s="7">
+        <v>163</v>
+      </c>
+      <c r="E108" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F108" t="s" s="219">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G108" t="n" s="9">
         <v>9.0</v>
@@ -6951,12 +8531,16 @@
       <c r="M108" t="n" s="12">
         <v>0.9916666666666667</v>
       </c>
+      <c r="N108" t="s" s="10">
+        <v>164</v>
+      </c>
       <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
       <c r="P108" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
+      <c r="Q108" s="10"/>
       <c r="R108" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
@@ -6974,8 +8558,14 @@
       <c r="C109" t="n" s="8">
         <v>344.0</v>
       </c>
+      <c r="D109" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="E109" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F109" t="s" s="221">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G109" t="n" s="9">
         <v>9.0</v>
@@ -6998,12 +8588,16 @@
       <c r="M109" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N109" t="s" s="10">
+        <v>164</v>
+      </c>
       <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
       <c r="P109" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q109" s="10"/>
       <c r="R109" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -7021,8 +8615,14 @@
       <c r="C110" t="n" s="8">
         <v>345.0</v>
       </c>
+      <c r="D110" t="s" s="7">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F110" t="s" s="223">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G110" t="n" s="9">
         <v>15.0</v>
@@ -7045,12 +8645,16 @@
       <c r="M110" t="n" s="12">
         <v>0.9930555555555556</v>
       </c>
+      <c r="N110" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="P110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
+      <c r="Q110" s="10"/>
       <c r="R110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -7068,8 +8672,14 @@
       <c r="C111" t="n" s="8">
         <v>346.0</v>
       </c>
+      <c r="D111" t="s" s="7">
+        <v>167</v>
+      </c>
+      <c r="E111" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F111" t="s" s="225">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G111" t="n" s="9">
         <v>10.0</v>
@@ -7092,12 +8702,16 @@
       <c r="M111" t="n" s="12">
         <v>0.9868055555555556</v>
       </c>
+      <c r="N111" t="s" s="10">
+        <v>168</v>
+      </c>
       <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
       <c r="P111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
+      <c r="Q111" s="10"/>
       <c r="R111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -7115,8 +8729,14 @@
       <c r="C112" t="n" s="8">
         <v>363.0</v>
       </c>
+      <c r="D112" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="E112" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F112" t="s" s="227">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G112" t="n" s="9">
         <v>8.0</v>
@@ -7139,12 +8759,16 @@
       <c r="M112" t="n" s="12">
         <v>0.9777777777777777</v>
       </c>
+      <c r="N112" t="s" s="10">
+        <v>53</v>
+      </c>
       <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
       <c r="P112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
+      <c r="Q112" s="10"/>
       <c r="R112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
@@ -7162,8 +8786,14 @@
       <c r="C113" t="n" s="8">
         <v>383.0</v>
       </c>
+      <c r="D113" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="E113" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F113" t="s" s="229">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G113" t="n" s="9">
         <v>8.0</v>
@@ -7186,12 +8816,16 @@
       <c r="M113" t="n" s="12">
         <v>0.9784722222222222</v>
       </c>
+      <c r="N113" t="s" s="10">
+        <v>26</v>
+      </c>
       <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="P113" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
+      <c r="Q113" s="10"/>
       <c r="R113" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -7209,8 +8843,14 @@
       <c r="C114" t="n" s="8">
         <v>385.0</v>
       </c>
+      <c r="D114" t="s" s="7">
+        <v>171</v>
+      </c>
+      <c r="E114" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F114" t="s" s="231">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G114" t="n" s="9">
         <v>3.0</v>
@@ -7233,12 +8873,16 @@
       <c r="M114" t="n" s="12">
         <v>0.9722222222222222</v>
       </c>
+      <c r="N114" t="s" s="10">
+        <v>80</v>
+      </c>
       <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="P114" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
+      <c r="Q114" s="10"/>
       <c r="R114" t="s" s="12">
         <v>20</v>
       </c>
@@ -7256,8 +8900,14 @@
       <c r="C115" t="n" s="8">
         <v>387.0</v>
       </c>
+      <c r="D115" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="E115" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="F115" t="s" s="233">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G115" t="n" s="9">
         <v>4.0</v>
@@ -7280,12 +8930,16 @@
       <c r="M115" t="n" s="12">
         <v>0.9701388888888889</v>
       </c>
+      <c r="N115" t="s" s="10">
+        <v>80</v>
+      </c>
       <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
       <c r="P115" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
+      <c r="Q115" s="10"/>
       <c r="R115" t="s" s="12">
         <v>20</v>
       </c>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="240">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -84,6 +84,9 @@
     <t>MAN A-47</t>
   </si>
   <si>
+    <t> ლილო-ლოჭინი</t>
+  </si>
+  <si>
     <t>მ/ს ისანი</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>BMC Procity</t>
   </si>
   <si>
+    <t>ქიზიყის ქუჩა</t>
+  </si>
+  <si>
     <t>ბარათაშვილის ქუჩა</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
 უკუ მიმართულებით:  ბორის პაიჭაძის ქ. (მიქელაძის ქუჩის გადაკვეთა, #21 პოლიკლინიკის პირდაპირ) - მიქელაძის ქ. - რობერტ ბარძიმაშვილის ქ. - სანდრო ახმეტელის ქ. - ლუბლიანას ქ. - ნოდარ ბოხუას ქ. - აკაკი ბელიაშვილის ქ. - ჯორჯ ბალანჩინის ქ. - გიორგი მინდელის ხიდი - გიორგი მინდელის ქ. - დავით გურამიშვილის გამზირი (მობრუნება შატილის ქუჩის გადაკვეთასთან) - ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის X'ბ'-X კვარტალი - ზღვის უბნის XI მ/რ-ის I-II-III კვ) - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>მ/ს ახმეტელის თეატრი</t>
+  </si>
+  <si>
     <t>პაიჭაძის ქუჩა (დიღომი)</t>
   </si>
   <si>
@@ -111,10 +120,16 @@
     <t>Isuzu Novociti Life</t>
   </si>
   <si>
+    <t>წავკისი </t>
+  </si>
+  <si>
     <t xml:space="preserve">დაბა წყნეთი (მაია წყნეთელის ქუჩისა და მაია წყნეთელის I შესახვევის გადაკვეთის მიმდებარედ) - დაბა წყნეთი (მაია წყნეთელის ქ. - თამარ მეფის ქ. - შოთა რუსთაველის ქ. - დავით აღმაშენებლის ქ. - დიმიტრი ამილახვარის ქ.) - წყნეთის გზატკეცილი -ქაქუცა  ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი-- ფერდინანდ თავაძის ქ. - სერგო ზაქარიაძის ქ. - ვაჟა ფშაველას I ჩიხი - ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ). 
 უკუმიმართულებით:  მ/ს 'დელისი' (ვაჟა ფშაველას გამზირი)  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. №1-თან მოხვევით) - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი - დაბა წყნეთი (დიმიტრი ამილახვარის ქ. - დავით აღმაშენებლის ქ. - შოთა რუსთაველის ქ. - თამარ მეფის ქ. - მაია წყნეთელის ქ. - მაია წყნეთელის ქუჩისა და მაია წყნეთელის I შესახვევის გადაკვეთის მიმდებარედ). </t>
   </si>
   <si>
+    <t>წყნეთი </t>
+  </si>
+  <si>
     <t>მ/ს დელისი</t>
   </si>
   <si>
@@ -128,6 +143,9 @@
     <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. №1-ის მიმდებარედ)აკაკი წერეთლის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფ. დიღომი (დავით აღმაშენებლის ქ. - დავით სარაჯიშვილის ქ. - დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა) (ტრანსპორტის ქ. №1-ის მიმდებარედ)(წრიული). (წრიული). </t>
   </si>
   <si>
+    <t>სოფ. დიღომი</t>
+  </si>
+  <si>
     <t>მ/ს დიდუბე</t>
   </si>
   <si>
@@ -138,6 +156,9 @@
     <t>MAN A-21</t>
   </si>
   <si>
+    <t>სადგურის მოედანი 1</t>
+  </si>
+  <si>
     <t>ვაკე-ბაგები</t>
   </si>
   <si>
@@ -145,10 +166,16 @@
 უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი –  კოჯრის გზატკეცილი -  თბილისი-კოჯრის ქ. (წავკისის ველის, სოფ. წავკისის, სოფ. შინდისის, სოფ. ტაბახმელას გავლით) - დაბა კოჯორი (იუნკერთა ქ. - ზაქარია ბაქრაძის ქ. -  ამაღლების ქ. - გრიგოლ ორბელიანის ქ. - ალექსანდრე ჩხეიძის ქ. (მობრუნება ალექსანდრე ჩხეიძის ქ. #16-თან) - ვაჟა ფშაველას ქ. - აზეულას ქ. (მობრუნება ნიკო კეცხოველის ქუჩის გადაკვეთასთან) - ვჟა ფშაველას ქ. - ვაჟა ფშაველას ქ.#33-ის მიმდებარედ). </t>
   </si>
   <si>
+    <t>კოჯორი </t>
+  </si>
+  <si>
     <t xml:space="preserve">დაბა ზაჰესის დასახლება (ავჭალის ქ., ბენზინ გასამართი სადგურის მიმდებარე ტერიტორია) - ავჭალის ქ. - ელეფთერ ანდრონიკაშვილის ქ. - უწერის ქ. - ლიბანის ქ. - დავით სარაჯიშვილის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი)
 უკუმიმართულებით:  აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი) - აკაკი წერეთლის გამზირი (მობრუნება გიორგი ცაბაძის ქუჩის გადაკვეთასთან) - შემდეგ იგივე სქემით. </t>
   </si>
   <si>
+    <t>ზაჰესი </t>
+  </si>
+  <si>
     <t>ეროვნული სტადიონი</t>
   </si>
   <si>
@@ -156,21 +183,30 @@
 უკუმიმართულებით: მ/ს 'ისანი' (ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ) - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>დიდი ლილო</t>
+  </si>
+  <si>
     <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღომი  IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი  - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - ზურაბ ჟვანიას მოედანი - სიმონ კანდელაკის ქ. - ჟიული შარტავას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი -  თავისუფლების მოედანი-ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                                                                                                                              უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – მერაბ კოსტავას ქ. – გიორგი სააკაძის მოედანი – ჟიული შარტავას ქუჩა -  შემდეგ იგივე სქემით. </t>
+  </si>
+  <si>
+    <t>დიდი დიღმის IV მ/რ</t>
   </si>
   <si>
     <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.)- პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი - გრიგოლ რობაქიძის გამზირი -  შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
 უკუ მიმართულებით:  სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შემდეგ იგივე სქემით. </t>
   </si>
   <si>
-    <t>სადგურის მოედანი 1</t>
-  </si>
-  <si>
     <t>მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფ. დიღომი (დავით აღმაშენებლის ქ. ) - დიდგორის ქ. - მირიან მეფე და ნანა დედოფლის I ჩიხი - სოფელი დიდგორი (ორასი თავდადებული მხედრის ქ. ) - ხოდაბუნების ქ. - მირიან მეფე და ნანა დედოფლის I ჩიხი - სოფელი თელოვანი (ქეთევან დედოფლის ქ. - ქეთევან დედოფლის ქ. #17-19-ის მიმდებარედ).
 უკუმიმართულებით: სოფელი თელოვანი (ქეთევან დედოფლის ქ. #17-19-ის მიმდებარედ - ქეთევან დედოფლის ქ.) - მირიან მეფე და ნანა დედოფლის I ჩიხი - ხოდაბუნების ქ. - სოფელი დიდგორი (ორასი თავდადებული მხედრის ქ. ) - მირიან მეფე და ნანა დედოფლის I ჩიხი - დიდგორის ქ. - სოფ. დიღომი (დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ).</t>
   </si>
   <si>
+    <t>სოფ. თელოვანი</t>
+  </si>
+  <si>
     <t>მუხიანის IV 'ბ' მ/რ (კორპუსი #42-ის მიმდებარედ) - ალეკო გობრონიძის ქ. - აქვსენტ ისააკიანის ქ. - გია რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) - ზღვის უბნის IV მ/რ (მობრუნება სარაჯიშვილის ქ. #1-ის მიმდებარედ) - ჩარგლის ქ. - გუდამაყრის ქ. - დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. -  (მობრუნება ფიროსმანის მოედანზე) - დავით გურამიშვილის გამზირი  - გუდამაყრის ქ. - ჩარგლის ქ. - ზღვის უბნის IV მ/რ - გია რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) -  აქვსენტ ისააკიანის ქ. - ალეკო გობრონიძის ქ. - მუხიანის IV 'ბ' მ/რ (კორპუსი #42-ის მიმდებარედ)(წრიული)</t>
+  </si>
+  <si>
+    <t>მუხიანის IV ბ მ/რ</t>
   </si>
   <si>
     <t>გადასასვლელი ხიდი</t>
@@ -180,7 +216,13 @@
 უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>პატარა ლილო</t>
+  </si>
+  <si>
     <t>დიღმის მასივი, ლუბლიანას ქ. #21“ა“-ს მიმდებარე ტერიტორია - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენის მოედანი - ჩუღურეთის ხიდი – მშრალი ხიდი – გიორგი ათონელის ქ. – სულიკო ვირსალაძის ქ. – მტკვრის მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                              უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)- ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – გიორგი ათონელის ქ. – მშრალი ხიდი – ჩუღურეთის ხიდი – ზაარბრუკენის მოედანი – მტკვრის მარცხენა სანაპირო – კოტე მარჯანიშვილის ქ. – კოტე მარჯანიშვილის მოედანი – დავით აღმაშენებლის გამზირი – გიორგი ცაბაძის ქ. – აკაკი წერეთლის გამზირი – შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>დიღმის მასივი</t>
   </si>
   <si>
     <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი №6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი წინამძღვრიშვილის ქ. - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. -ივანე  ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
@@ -195,7 +237,13 @@
 უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>სოფელი ნასაგური</t>
+  </si>
+  <si>
     <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა)  - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. - გიორგი ჩიტაიას ქ. - გიორგი მაზნიაშვილის ქ. - ივანე ჯავახიშვილის ქ. -  მოსე გოგიბერიძის ქ. – ზაარბრუკენის მოედანი – ჩუღურეთის ხიდი – მშრალი ხიდი – გიორგი ათონელის ქ. – სულიკო ვირსალაძის ქ. – მტკვრის მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).    უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – გიორგი ათონელის ქ. – მშრალი ხიდი – ჩუღურეთის ხიდი – მოსე გოგიბერიძის ქ. – არნოლდ ჩიქობავას ქ. – გიორგი ჩიტაიას ქ. – ცოტნე დადიანის ქ. – დავით გურამიშვილის გამზირი – ქერჩის ქ. – აკაკი ვასაძის ქ. – მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
+  </si>
+  <si>
+    <t>გლდანის VII-VIII მ/რ</t>
   </si>
   <si>
     <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა) - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - გიორგი მინდელის ქ. - გიორგი მინდელის ხიდი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - პეტრე ქავთარაძის ქ. (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
@@ -203,6 +251,9 @@
   </si>
   <si>
     <t xml:space="preserve">ვაზისუბანი II მ/რ (#23 კორპუსის მიმდებარედ) - ვაზისუბნის III მ/რ I კვ.(#3,4,5,6 კორპუსების გავლით) - ვაზისუბნის I მ/რ (#15,14,13 კორპუსების გავლით) - თეოფანე დავითაიას ქ. - შანდორ პეტეფის ქ. - 17 შინდისელი გმირის ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი -  ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).                                       უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს)  – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს `ავლაბარი“ – ქეთევან დედოფლის გამზირი – მოსკოვის გამზირი – ჯავახეთის ქ. (მობრუნება მ/ს „ვარკეთილთან“) – 17 შინდისელი გმირის ქ. – შანდორ პეტეფის ქ. – შემდეგ იგივე სქემით (წრიული) </t>
+  </si>
+  <si>
+    <t>ვაზისუბნის II მ/რ</t>
   </si>
   <si>
     <t>ზურგოვანა (მერაბ კოსტავას ქ. - თავისუფლების ქ.) - ასი ათასი მოწამის ქ. - ფარნავაზ მეფის გამზირი - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ბაზრობა 'ჩემპიონის' პირდაპირ) 
@@ -217,6 +268,9 @@
 </t>
   </si>
   <si>
+    <t>ვაშლიჯვრის დასახლება</t>
+  </si>
+  <si>
     <t>სადგურის მოედანი 2</t>
   </si>
   <si>
@@ -225,6 +279,9 @@
 </t>
   </si>
   <si>
+    <t>მნათობის ქუჩა</t>
+  </si>
+  <si>
     <t>მარჯანიშვილის მ-ნი</t>
   </si>
   <si>
@@ -245,6 +302,9 @@
     <t>სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – გმირთა მოედანი – ვარაზისხევის ქ. – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – შოთა რუსთაველის გამზირი – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (მობრუნება ნიკოლოზ ბარათაშვილისა და ალექსანდრე პუშკინის ქუჩების გადაკვეთასთან) – მარჯვენა სანაპირო – ვახტანგ გორგასალის ქ. – კრწანისის ქ.  (მობრუნება გრიგოლ ვოლსკის ქუჩის გადაკვეთასთან) -კრწანისის ქ. (№63-ის მიმდებარედ). უკუმიმართულებით: კრწანისის ქ. (№63-ის მიმდებარედ)  – კრწანისის ქ. (მობრუნება გრიგოლ ვოლსკის ქუჩის გადაკვეთასთან) – ვახტანგ გორგასალის ქ. – წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი – ევროპის მოედანი – რიყე – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების  მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).</t>
   </si>
   <si>
+    <t>კრწანისის ქუჩა</t>
+  </si>
+  <si>
     <t>ომარ ხიზანიშვილის ქ.  (გლდანის VII - VIII მ/რ-ის დამაკავშირებული გზა)  - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - სარაჯიშვილის გამზირი - თენგიზ შეშელიძის ქ. - ჯორჯ ბალანჩინის ქ. - მირიან მეფის ქ. - ფარნავაზ მეფის გამზირი - გიორგი ბრწყინვალეს ქ. (მობრუნება ფარნავაზ მეფის გამზირზე) - პეტრე იბერის ქ. - მირიან მეფის ქ. - დიდი დიღომი III  მ/რ (მირიან მეფის ქ.) - დიდი დიღმის IV მ/რაიონი ( არჩილ მეფის ქ. - დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.)
 უკუმიმართულებით: დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) -  დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღომი III  მ/რ (მირიან მეფის ქ.) - პეტრე იბერის ქ. - გიორგი ბრწყინვალეს ქ. - ფარნავაზ მეფის გამზირი - მირიან მეფის ქ. - ჯორჯ ბალანჩინის ქ. - გიორგი მინდელის ქ. - თენგიზ შეშელიძის ქ. - მ/ს 'სარაჯიშვილი' - ქერჩის ქ. – აკაკი ვასაძის ქ. – მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI – VIII მ/რ) – ომარ ხიზანიშვილის ქ.  (გლდანის VII – VIII მ/რ-ის დამაკავშირებელი გზა)</t>
   </si>
@@ -268,6 +328,9 @@
 უკუმიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარედ) - ცოტნე დადიანის ქ. - ნიკოლოზ ხუდადოვის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>ზღვის უბანი II მ/რ</t>
+  </si>
+  <si>
     <t>რკინიგზის გადასასვლელი ხიდი</t>
   </si>
   <si>
@@ -276,6 +339,9 @@
 </t>
   </si>
   <si>
+    <t>ავიაქიმიის ქუჩა</t>
+  </si>
+  <si>
     <t xml:space="preserve">სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – გმირთა მოედანი – ვარაზისხევის ქ. – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – შოთა რუსთაველის გამზირი – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – ქეთევან დედოფლის გამზირი – ლეხ კაჩინსკის ქ. – ჯორჯ ბუშის ქ. – კახეთის გზატკეცილი – ევროპის ქ. – თბილისის შოთა რუსთაველის სახელობის საერთაშორისო აეროპორტი. უკუმიმართულებით: თბილისის შოთა რუსთაველის სახელობის საერთაშორისო აეროპორტი – ევროპის ქ. – კახეთის გზატკეცილი – ჯორჯ ბუშის ქ. – ლეხ კაჩინსკის ქ. – ქეთევან დედოფლის გამზირი – ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – თამარ მეფის გამზირი – სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ).
 </t>
   </si>
@@ -286,14 +352,23 @@
     <t>აგრარული უნივერსიტეტი - დავით აღმაშენებლის ხეივანი - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (მიმდებარე ტერიტორია, აკაკი წერეთლის გამზირი) - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი - აგრარული უნივერსიტეტი (მობრუნება გურამ ნიჟარაძის ქუჩის მოპირდაპირედ)(წრიული)</t>
   </si>
   <si>
+    <t>აგრარული უნივერსიტეტი</t>
+  </si>
+  <si>
     <t>წრიული</t>
   </si>
   <si>
     <t>სესილია თაყაიშვილის ქ. (ვარკეთილის IV მ/რ #418 კორპ.) - ვიქტორ კუპრაძის ქ. (მობრუნება ვარკეთილის IV მ/რ, ვიქტორ კუპრაძის და იოთამ ზედგენიძის ქუჩების გადაკვეთასთან) - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი -ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).   უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს) – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს „ავლაბარი“ – ქეთევან დედოფლის გამზირი – მოსკოვის გამზირი –  ჯავახეთის ქ. – ილია სუხიშვილის ქ. – სესილია თაყაიშვილის ქ. (ვარკეთილის IV მ/რ №403 კორპ.).</t>
+  </si>
+  <si>
+    <t>ვარკეთილის IV მ/რ</t>
   </si>
   <si>
     <t>ვარკეთილის მეურნეობა (შოთა რუსთაველის ქ. #16 - მეგობრობის ქ.) - ვარკეთილის მეურნეობა (მშვიდობის ქ. - გრიგოლ რობაქიძის გამზირი (მობრუნება აკაკი წერეთლის გადაკვეთასთან) - მშვიდობის ქ. - ევგენია მაისურაძის ქ. - მიხეილ გახოკიძის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - ჯავახეთის ქ. - მოსკოვის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'  - ნავთლუღის ქ. - ვლადიმერ ლობჟანიძის ქ. - ვლადიმერ ლობჟანიძის ქ.  (#41-42-ის მიმდებარედ)   
 უკუმიმართულებით: ვლადიმერ ლობჟანიძის ქ. (#41-42-ის მიმდებარედ) - ვლადიმერ ლობჟანიძის ქ. - ნავთლუღის ქ. - მ/ს 'ისანი' - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - რომანოზ ხომლელის ქ. - მიხეილ გახოკიძის ქ. - ევგენია მაისურაძის ქ. - შემდეგ იგივე სქემით.</t>
+  </si>
+  <si>
+    <t>ვარკეთილის მეურნეობა</t>
   </si>
   <si>
     <t>ექიმის გასასვლელი</t>
@@ -304,17 +379,26 @@
 </t>
   </si>
   <si>
+    <t>სოფელი წინუბანი</t>
+  </si>
+  <si>
     <t>იყალთოს მთა (#40-ის მიმდებარე ტერიტორია) - ზაზა  ფანასკერტელ-ციციშვილის ქ. (#25,21,19,22,20,16 კორპუსების გავლით) - ბახტრიონის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას - გმირთა მოედანი - მერაბ კოსტავას ქ. - ვახტანგ ჭაბუკიანის ქ. - პეკინის გამზირი - ბახტრიონის ქ. - ფანასკერტელ-ციციშვილის ქ. (#16,20,22,19,21,25 კორპუსების გავლით) - იყალთოს მთა (#40-ის მიმდებარე ტერიტორია). (წრიული)</t>
   </si>
   <si>
+    <t>იყალთოს გორა</t>
+  </si>
+  <si>
     <t>ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება) - ყვარლის ქ. - კაკაბეთის ქ. - კახეთის გზატკეცილი - ვაჟა ჩაჩავას ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი -ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).                                                                   უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (“კონკის“ მხარეს) – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის აღმართი – მ/ს ,,ავლაბარი“   ქეთევან დედოფლის გამზირი - მ/ს ,,ისანი' - ვაჟა ჩაჩავას ქ. -  კახეთის გზატკეცილი - კაკაბეთის ქ. - ტვიშის ქ. - თევდორე უშაკოვის ქ. - ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება). (წრიული)</t>
+  </si>
+  <si>
+    <t>ყვარელის ქუჩა</t>
   </si>
   <si>
     <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. №18 სახლის მიმდებარედ) – სოფელი გლდანი (ბორის პაიჭაძის ქ. – ვიტალი დარასელიას ქ. – ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   – თიანეთის გზატკეცილი – ქერჩის ქ. – აკაკი ვასაძის ქ. – ომარ ხიხანიშვილის ქ. – მ/ს „ახმეტელის თეატრი“ (მიმდებარე ტერიტორია).
 უკუმიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ. - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
-    <t>მ/ს ახმეტელის თეატრი</t>
+    <t>სოფელი გლდანი</t>
   </si>
   <si>
     <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. #18 სახლის მიმდებარედ) - სოფელი გლდანი (ბორის პაიჭაძის ქ. - ვიტალი დარასელიას ქ. - ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
@@ -330,6 +414,9 @@
 </t>
   </si>
   <si>
+    <t>ბელიაშვილის ქუჩა</t>
+  </si>
+  <si>
     <t>მ/ს ავლაბარი</t>
   </si>
   <si>
@@ -337,24 +424,42 @@
 უკუ მიმართულებით: ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) - თამარ მეფის გამზირი - თამარ მეფის გამზირი - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ბექას ქ. - დავით გამრეკელის ქ. - ადამ მიცკევიჩის ქ. - იონა ვაკელის ქ. - ვაჟა ფშაველას გამზირი - მარიჯანის ქ. - შალვა ნუცუბიძის ქ. - ბედიას ქ. (შალვა ნუცუბიძის I მ/რ)  - თავისუფალი უნივერსიტეტი (შალვა ნუცუბიძის I მ/რ).</t>
   </si>
   <si>
+    <t>ნუცუბიძის I მ/რ</t>
+  </si>
+  <si>
     <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ჟიული შარტავას ქ.- ანა კალანდაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი  - მ/ს ,,დელისი' - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - რამაზ ჩხიკვაძის ქ. (შალვა ნუცუბიძის III მ/რ) - შალვა ნუცუბიძის III მ/რ-ის II კვ. #5-2-1 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ IIIკვ. #3-5 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ IIკვ. #8-9 კორპუსების გავლით (რამაზ ჩხიკვაძის ქ.) - შალვა ნუცუბიძის III მ/რ I კვ. #8-7 კორპუსების გავლით (ძოწენიძის ქ.) - რამაზ ჩხიკვაძის ქ. - შალვა ნუცუბიძის ქ. - ფერდინანდ  თავაძის ქ. -  მ/ს ,,დელისი'  - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი (პეტრე ქავთარაძის ქ. #1-თან მოხვევით) - პეკინის გამზირი - თინა იოსებიძის ქ. - დები იშხნელების ქ. - ჟიული შარტავას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) (წრიული).</t>
+  </si>
+  <si>
+    <t>ნუცუბიძის პლატო III მ/რ</t>
   </si>
   <si>
     <t>საერთაშორისო სავაჭრო ცენტრი "თბილისის ზღვის პლაზა"-ს მიმდებარე ტერიტორია (ს/კ: 404934381). - პატარიძის ქ. (ვაზისუბნის III მ/რ, II კვ.) - თეოფანე დავითაიას ქ. - შანდორ პეტეფის ქ. - ლიზა ნაკაშიძე-ბოლქვაძის ქ.  – მ/ს „ვარკეთილი“ - ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - მ/ს "ისანი" - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - მარჯვენა სანაპირო - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი - ევროპის მოედანი - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი -კოტე აფხაზის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება "კონკის" მხარეს).
 უკუ მიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ("კონკის" მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქუჩა - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. (მობრუნება მ/ს "ვარკეთილთან") - 17 შინდისელი გმირის ქ. - შანდორ პეტეფის ქ. - თეოფანე დავითაიას ქ. - ვაზისუბნის III მ/რ, II კვარტლი (წრეზე მოძრაობით) - საერთაშორისო სავაჭრო ცენტრი "თბილისის ზღვის პლაზა"-ს მიმდებარე ტერიტორია (ს/კ: 404934381).</t>
   </si>
   <si>
+    <t>ვაზისუბნის III მ/რ, II კვ</t>
+  </si>
+  <si>
     <t>გლდანულას დასახლება (#4 კორპუსის მიმდებარედ) - გლდანისხევის ქ. - შოთა მიქატაძის ქ. - კონსტანტინე ლესელიძის ქ. (გლდანის VI-VIII მ/რ-ს გამყოფი გზა)  - ომარ ხიზანიშვილის ქ. (გლდანის VIII მ/რ) - ილია ვეკუას ქ. (გლდანის VII - V - III - I მ/რ) - მ/ს 'ახმეტელის თეატრი' - აკაკი ვასაძის ქ. - ქერჩის ქ - სარაჯიშვილის გამზირი - თენგიზ შეშელიძის ქ. - ჯორჯ ბალანჩინის ქ. - აკაკი ბელიაშვილის ქ. - ნოდარ ბოხუას ქ. - ლუბლიანას ქ. - სანდრო ახმეტელის ქ. - რობერტ ბარძიმაშვილის ქ. - ბორის პაიჭაძის ქ. - გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - ქუთაისის ქ. - ვახუშტი ბაგრატიონის ხიდი - გიორგი სააკაძის დაღმართი - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. -  პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - ჩოლოყაშვილის გამზირი - წყნეთის გზატკეცილი (ბაგების დასახლება) - წყნეთის გზატკეცილი, კორპუსი #2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი)
 უკუ მიმართულებით:  წყნეთის გზატკეცილი, კორპუსი №2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი) – წყნეთის გზატკეცილი (ბაგების დასახლება) – ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი – პეტრე მელიქიშვილის ქ. – მერაბ კოსტავას ქ. – გიორგი სააკაძის მოედანი – გიორგი სააკაძის დაღმართი – ვახუშტი ბაგრატიონის  ხიდი – ვახუშტი ბაგრატიონის ქ. – აკაკი წერეთლის გამზირი – შალიკაშვილის ხიდი – გრიგოლ რობაქიძის გამზირი – ბორის პაიჭაძის ქ. – მიქელაძის ქ. – რობერტ ბარძიმაშვილის ქ. – სანდრო ახმეტელის ქ. – ლუბლიანას ქ. – ნოდარ ბოხუას ქ. – აკაკი ბელიაშვილის ქ. – ჯორჯ ბალანჩინის ქ. – გიორგი მინდელის ქ. – თენგიზ შეშელიძის ქ.  - მ/ს 'სარაჯიშვილი' - ქერჩის ქ. - აკაკი ვასაძის ქ. –  მ/ს „ახმეტელის თეატრი“ – ომარ ხიზანიშვილის ქ. (გლდანის II – IV – VI მ/რ)  – კონსტანტინე ლესელიძის ქ. – შოთა მიქატაძის ქ. – გლდანისხევის ქ. -გლდანულას დასახლება (№4 კორპუსის მიმდებარედ).</t>
   </si>
   <si>
+    <t>გლდანულა </t>
+  </si>
+  <si>
     <t>ვიქტორ დოლიძის ქ. (#89-ის მიმდებარედ) - ვიქტორ დოლიძის ქ. - მელიტონ და ანდრია ბალანჩივაძის ქ. - მერაბ კოსტავას ქ. - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი -გიორგი ჭანტურიას ქ. – სოლიკო ვირსალაძის ქ. – მარჯვენა სანაპირო – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                            უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – მერაბ კოსტავას ქ. – გიორგი მიროტაძის ქ. – პეკინის გამზირი – დოლიძის ქ. (№89-ის მიმდებარედ). (წრიული)</t>
+  </si>
+  <si>
+    <t>დოლიძის ქუჩა </t>
   </si>
   <si>
     <t>ცაიშის ქ. (კუკიის დასახლება, ქვის დამამუშავებელი საამქროს მიმდებარედ) - ატოცის ქ.  - ნორიოს აღმართი - ართვინის ქ. (მობრუნება ართვინის ქ. #71-ის მიმდებარედ) - მერაბ მამარდაშვილის ქ. - არნოლდ ჩიქობავას მოედანი - გიორგი მაზნიაშვილის ქ. - კიევის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
 უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - დავით აღმაშენებლის გამზირი - კორტე მარჯანიშვილის მოედანი - კოტე მარჯანიშვილის ქ. - მიხეილ წინამძღვრიშვილის ქ. - კიტა აბაშიძის ქ. - არნოლდ ჩიქობავას მოედანი - მერაბ მამარდაშვილის ქ. - ართვინის ქ. (მობრუნება ართვინის ქ. #71-ის მიმდებარედ) - ნორიოს აღმართი - ატოცის ქ. - ცაიშის ქ. (ქვის დამამუშავებელი საამქროს მიმდებარედ).</t>
   </si>
   <si>
+    <t>კუკიის დასახლება </t>
+  </si>
+  <si>
     <t>დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღმის IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.)  - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - ზურაბ ჟვანიას მოედანი - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ. - ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი)
 უკუმიმართულებით:  ივანე ჯავახიშვილის სახ. თსუ-ის  X კორპუსი (მაღლივი კორპუსი) - ზურაბ ანჯაფარიძის ქ. - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - ზურაბ ჟვანიას მოედანი - გაგარინის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
@@ -363,6 +468,9 @@
 უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი -  მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - კახეთის გზატკეცილი - ორხევის დასახლება ( თენგიზ ჩანტლაძის ქ. - გიორგი მუხაძის ქ. - გიორგი ახვლედიანის ქ. - თენგიზ ჩანტლაძის ქ.) - ორხევის დასახლება (თენგიზ ჩანტლაძის ქ., #5-ის მიმდებარედ)</t>
   </si>
   <si>
+    <t>ორხევი </t>
+  </si>
+  <si>
     <t>კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია) - კრწანისის ქ. - ორთაჭალის ქ. - ვახტანგ გორგასალის ქ. - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - სამგორის ქ. (#2-ის მიმდებარედ)
 უკუმიმართულებით: სამგორის ქ. (#2-ის მიმდებარედ) - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - გია გულუას ქ. - ვახტანგ გორგასალის ქ. - ორთაჭალის ქ. - კრწანისის ქ. - კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია).</t>
   </si>
@@ -373,6 +481,9 @@
     <t>ნუგზარ ენდელაძის მოედანი (ილია ჭავჭავაძის გადაკვეთის მიმდებარედ) - ქაქუცა ჩოლოყაშვილის გამზირი - მიხეილ თამარაშვილის გამზირი - ალექსანდრე ყაზბეგის გამზირი - გივი კარტოზიას ქ. - ვლადიმერ და არჩილ ასათიანების ქ. (მობრუნება გვირაბთან) - სულხან ცინცაძის ქ. - პეკინის გამზირი - 26 მაისის მოედანი - მერაბ კოსტავას ქ. - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი -  მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                       უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) -  ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - მიროტაძის ქ. - პეკინის გამზირი - ვაჟა-ფშაველას გამზირი - ბექას ქ. - ალექსანდრე ყაზბეგის გამზირი - პეკინის გამზირი - სულხან ცინცაძის ქ. - გივი კარტოზიას ქ. - მიხეილ ასათიანის ქ. - ვაჟა-ფშაველას გამზირი - მიხეილ თამარაშვილის გამზირი - ქაქუცა ჩოლოყაშვილის გამზირი - ნუგზარ ენდელაძის მოედანი (ილია ჭავჭავაძის გადაკვეთის მიმდებარედ).</t>
   </si>
   <si>
+    <t>ილია ჭავჭავაძის გამზირი (ვაკე)</t>
+  </si>
+  <si>
     <t>ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს)- ნიკოლოზ ბარათაშვილის ხიდი - მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის პანდუსი (მობრუნება ნიკოლოზ ბარათაშვილის ხიდის დასაწყისში) - კოსტა ხეთაგუროვის ქ. - მოსე გოგიბერიძის ქ. - ზაარბრიუკენის მოედანი - მარცხენა სანაპირო - კოტე მარჯანიშვილის ქ.  (მობრუნება კოტე მარჯანიშვილის მოედანზე) - გალაქტიონ ტაბიძის ხიდი - მიხეილ ჯავახიშვილის ქ. - ვარდების რევოლუციის მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი -ჩოლოყაშვილის გამზირი -  წყნეთის გზატკეცილი (ბაგების დასახლება) - წყნეთის გზატკეცილი, კორპუსი #4-2 კორპუსი (უნივერსიტეტის საერთო საცხოვრებელი)
 უკუმიმართულებით:  წყნეთის გზატკეცილი, კორპუსი #2-ის მიმდებარედ (უნივერსიტეტის საერთო საცხოვრებელი) - წყნეთის გზატკეცილი (ბაგების დასახლება) - ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - მიხეილ ჯავახიშვილის ქ. - გალაქტიონ ტაბიძის ხიდი - კოტე მარჯანიშვილის ქ. - კოტე მარჯანიშვილის მოედანი - დავით აღმაშენებელის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენის მოედანი - ლევ ტოლსტოის ქ. - წმ. ნიკოლოზის ქ. - ხეთაგუროვის ქ. - ნიოლოზ ბარათაშვილის პანდუსი - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს).</t>
   </si>
@@ -381,14 +492,23 @@
 უკუ მიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია) - ნიკოლოზ ხუდადოვის ქ. -  ლიპტოვის ქ. - ბეშენოვას ქ. - უცნობ გმირთა ქ. - ანაპის დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის III-II-I კვ.) - ჩარგლის ქ. - ლიახვის ქ. - დავით გურამიშვილის გამზირი - მ/ს ,,ღრმაღელე' (მიმდებარედ).</t>
   </si>
   <si>
+    <t>მ/ს ღრმაღელე</t>
+  </si>
+  <si>
     <t>ზღვის უბნის III მ/რ-ის IV კვ. (№65 კორპუსის მიმდებარედ) – ლევან რჩეულიშვილის ქ. (ზღვის უბნის III მ/რ, IV-III კვ.) – ანაპის 414-ე დივიზიის ქ. (ზღვის უბნის XI მ/რ-ის V-IV – III-II-I კვარტალი) – ურეკის ქ. – პეტრე გამყრელიძის ქ. – ალექსანდრე ბარამიძის ქ. – დავით გურამიშვილის გამზირი – ცოტნე დადიანის ქ. – გიორგი ჩიტაიას ქ. – დავით კლდიაშვილის ქ. – ივანე ჯავახიშვილის ქ. – კონსტიტუციის ქ. – გიორგი  ჩუბინაშვილის ქ. – თამარ მეფის გამზირი (მობრუნება ვაგზლის მოედნის გადაკვეთასთან) – თევდორე მღვდლის ქ. – ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ)
 უკუმიმართულებით: ვაგზლის მოედნისა და აბასთუმნის ქუჩის გადაკვეთის მიმდებრედ (ყოფილი სასტუმრო „კოლხეთის“ მიმდებარედ) – თამარ მეფის გამზირი – ეგნატე ნინოშვილის ქ. – კონსტიტუციის ქ. – მიხეილ წინამძღვრიშვილის ქ. – კოტე მარჯანიშვილის ქ. – გიორგი ჩიტაიას ქ. – შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>ზღვის უბნის III მ/რ, IV კვ</t>
+  </si>
+  <si>
     <t>ცაცა ამირეჯიბის მესამე და მეორე შესახვევების გადაკვეთის მიმდებარედ (360-ე კმ) - ჯამბულ წურწუმიას ქ. (360-ე კმ) - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - ბესარიონ ჭიჭინაძის ქ. - ქინძმარაულის ქ. - გარდაბნის გზატკეცილი - სადგური ველი.
 უკუმიმართულებით: სადგური ველი - გარდაბნის გზატკეცილი - ქინძმარაულის ქ. - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>ცაცა ამირეჯიბის ქუჩა </t>
+  </si>
+  <si>
     <t>სადგური ველი</t>
   </si>
   <si>
@@ -396,18 +516,30 @@
 უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - დოლიძის ქ. (#89-ის მიმდებარედ). </t>
   </si>
   <si>
+    <t> დოლიძის ქუჩა</t>
+  </si>
+  <si>
     <t>ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება) - ყვარლის ქ. - კაკაბეთის ქ. - კახეთის გზატკეცილი - ვაჟა ჩაჩავას ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - სამგორის ქ., #2-ის მიმდებარედ.
 უკუმიმართულებით: სამგორის ქ., #2-ის მიმდებარედ - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - მ/ს ,,ისანი' - ვაჟა ჩაჩავას ქ. -  კახეთის გზატკეცილი - კაკაბეთის ქ. - მესხეთის ქ. - თევდორე უშაკოვის ქ. - ყვარლისა და თევდორე უშაკოვის ქ-ების გადაკვეთა (ყვარლის ქ. #126, მეტრომშენის დასახლება).</t>
   </si>
   <si>
+    <t>უშაკოვის ქუჩა</t>
+  </si>
+  <si>
     <t>ცაიშის ქ. (ლებარდეს ქუჩის გადაკვეთასთან) - სალხინოს ქ. - ცხრა ძმა ხერხეულიძის ქ. - გიორგი ჩიტაიას ქ. - დავით კლდიაშვილის ქ. - ივანე ჯავახიშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
 უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - ეგნატე ნინოშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - დავით კლდიაშვილის ქ. - გიორგი ჩიტაიას ქ. - ცხრა ძმა ხერხეულიძის ქ. - სალხინოს ქ. - თეკლათის ქ. - ლებარდეს ქ. - დავით გივიშვილის ქ. - სენაკის ქ. - ასხინის ქ. - ცაიშის ქ. (ლებარდეს ქუჩის გადაკვეთასთან).</t>
   </si>
   <si>
+    <t>9 ძმის ქუჩა</t>
+  </si>
+  <si>
     <t xml:space="preserve">ბიჭვინთის ქ. (II-III კორპუსების მიმდებარედ) - ალექსანდრე მანაგაძის ქ. - უწერის ქ. - ლიბანის ქ. - დავით სარაჯიშვილის ქ. -  დავით გურამიშვილის გამზირი - ცოტნე დადიანის ქ. - (მობრუნება ფიროსმანის მოედანზე) - დავით გურამიშვილის გამზირი - დავით სარაჯიშვილის ქ. -  ლიბანის ქ. - უწერის ქ. - ალექსანდრე მანაგაძის ქ.- ბიჭვინთის ქ.  (II-III კორპუსების მიმდებარედ)(წრიული)
 </t>
   </si>
   <si>
+    <t>ბიჭვინთის ქუჩა</t>
+  </si>
+  <si>
     <t>დიმიტრი ალექსიძის ქ. (კორპუსი #403-ის მიმდებარედ) - ვიქტორ კუპრაძის ქ. (ვარკეთილის IV მ/რ-ის #404,406,415,424,420 კორპუსების გავლით) - ვარკეთილის IV მ/რ (#422,421 კორპუსების გავლით) - დიმიტრი ალექსიძის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - ხომლელის ქ. - თრიალეთის ქ. - ზაზა ფანასკერტელ-ციციშვილის ქ. - გიორგი აბაშვილის ქ. - კალოუბნის ქ. - ჯავახეთის ქ. (მობრუნება მ/ს 'ვარკეთილთან') - კახეთის გზატკეცილი - მ/ს ,,ისანი' - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქ. - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - მარჯვენა სანაპირო - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი - ევროპის მოედანი - წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი -კოტე აფხაზის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. (გაჩერება 'კონკის' მხარეს) (წრიული).                                                                                                                                                                                                                           უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქუჩა - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. - მ/ს 'ისანი' - კახეთის გზატკეცილი - ჯავახეთის ქ. - კალოუბნის ქ. -  გიორგი აბაშვილის ქ. - ზაზა ფანასკერტელ-ციციშვილის ქ. - თრიალეთის ქ. - ხომლელის ქ. - საქართველოს ერთიანობისთვის მებრძოლთა ქ. - დიმიტრი ალექსიძის ქ. (კორპუსი #403-ის მიმდებარედ).</t>
   </si>
   <si>
@@ -415,6 +547,9 @@
 უკუმიმართულებით: წმინდა ბარბარეს სახელობის უბანი (გარდაბნის გზატკეცილისა და დავით ყიფიანის ქუჩის გადაკვეთის მიმდებარედ) - ბოგდან ხმელნიცკის ქ. - ბერი გაბრიელ სალოსის გამზირი - რიჩარდ ჰოლბრუკის ქ. - ნავთლუღის ქ. -  ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი -  ქინძმარაულის შესახვევი - ძმები ოცხელებისა - ძმები ოცხელებისა და ნაკადულის ქუჩების გადაკვეთა. </t>
   </si>
   <si>
+    <t>ნაკადულის ქუჩა</t>
+  </si>
+  <si>
     <t>წმინდა ბარბარეს უბანი</t>
   </si>
   <si>
@@ -426,6 +561,9 @@
 უკუმიმართულებით: მ/ს 'სარაჯიშვილი' (მიმდებარედ) - დავით სარაჯიშვილის ქ. (მობრუნება ქერჩის ქუჩის გადაკვეთასთან) - დავით გურამიშვილის გამზირი - ქერჩის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>მონასტრის ქუჩა</t>
+  </si>
+  <si>
     <t>მ/ს სარაჯიშვილი</t>
   </si>
   <si>
@@ -437,14 +575,23 @@
 უკუმიმართულება: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - ეგნატე ნინოშვილის ქ. - კონსტიტუციის ქ. - მიხეილ წინამძღვრიშვილის ქ. - დავით კლდიაშვილის ქ. - გიორგი ჩიტაიას ქ. - გიორგი ზაზიაშვილის ქ. - გიორგი მარუაშვილის ქ. - აჭარის ქ. (მობრუნება #10-ის მიმდებარედ) - გიორგი მარუაშვილის ქ. - სამშვილდეს ქ. #27-ის მიმდებარედ.</t>
   </si>
   <si>
+    <t>ტუბდისპანსერი </t>
+  </si>
+  <si>
     <t>სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. -  თამარ ჭოველიძის ქ. - იაკობ გოგებაშვილის ქ. - გურამ რჩეულიშვილის ქ. - ჯაფარიძის ქ. #46 (მიმდებარედ).
 უკუმიმართულებით: ჯაფარიძის ქ. #46 (მიმდებარედ) - ჯაფარიძის ქ. - გურამ რჩეულიშვილის ქ. - იაკობ გოგებაშვილის ქ. - აკაკი შანიძის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).</t>
   </si>
   <si>
+    <t>ჯაფარიძის ქუჩა</t>
+  </si>
+  <si>
     <t>მუხიანის III მ/რ (#5'ა' კორპუსის მიმდებარედ) - ნოდარ დუმბაძის გამზირი - ნოდარ დუმბაძის გამზირისა და იოსებ ნონეშვილის ქუჩის დამაკავშირებელი გზა -  იოსებ ნონეშვილის ქ.- ალეკო გობრონიძის ქ. - მ/ს 'ახმეტელის თეატრი' (ალეკო გობრონიძისა და ომარ ხიზანიშვილის ქუჩების გადაკვეთა).
 უკუ მიმართულებით: იგივე სქემით.</t>
   </si>
   <si>
+    <t>მუხიანის III მ/რ</t>
+  </si>
+  <si>
     <t>კრწანისის ქ.  (გრიგოლ ვოლსკის ქუჩის გადაკვეთის მიმდებარე ტერიტორია) – კრწანისის ქ. – ორთაჭალის ქ. – ვახტანგ გორგასალის ქ. – დიმიტრი გულიას მოედანი – ვახტანგ გორგასალის ქ. – წმინდა ასი ათასი ქართველი მოწამის სახელობის მეტეხის ხიდი – რიყე – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი (მობრუნება შოთა რუსთაველის გამზირი №42-44-თან) – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ბარათაშვილის ქ. (№2-ის მოპირდაპირედ, გაჩერება „კონკის“ მხარეს).
 უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - ვახტანგ გორგასალის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
@@ -453,6 +600,9 @@
 უკუმიმართულებით: იგივე სქემით</t>
   </si>
   <si>
+    <t>დაბა კიკეთი</t>
+  </si>
+  <si>
     <t>დაბა წყნეთი</t>
   </si>
   <si>
@@ -464,6 +614,9 @@
 უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი - გრიგოლ ფერაძის ქ. (პატარა დიღომი, I-V კორპუსის, #15-1 სახლის გავლით) - პატარა დიღომი ( #1 სახლი).</t>
   </si>
   <si>
+    <t>პატარა დიღომი</t>
+  </si>
+  <si>
     <t>მუხიანის III მ/რ (#5'ა' კორპუსის მიმდებარედ) - ნოდარ დუმბაძის გამზირი - ალეკო გობრონიძის ქ. - აქვსენტ ისააკიანის ქ. - გიორგი რომელაშვილის ქ. (ზღვის უბნის III მ/რ-ის III - II - I კვარტალი) - ზღვის უბნის IV მ/რ - მობრუნება სარაჯიშვილის ქ. #1-ის მიმდებარედ  - ჩარგლის ქ. - ანაპის დივიზიის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ).
 უკუმიმართულებით: სადგურის მოედანი ('თბილისი ცენტრალი'-ს პირდაპირ) - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შემდეგ იგივე სქემით.</t>
   </si>
@@ -475,10 +628,16 @@
 უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) - ალექსანდრე პუშკინის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი - მარიჯანის ქ. - შალვა ნუცუბიძის ქ. - ბესარიონ ჟღენტის ქ. (შალვა ნუცუბიძის II მ/რ) - შალვა ნუცუბიძის IV მ/რ ( №1,2,3,12 კორპუსების გავლით) - კონსტანტინე კაპანელის ქ. (№11-1-2-3-5-6-14 კორპუსების გავლით) - შალვა ნუცუბიძის IV მ/რ ( №28-29-22-21-20-19 კორპუსების გავლით) - ავთო ვარაზის ქ. - შალვა ნუცუბიძის V მ/რ-ის გადასახვევის მიმდებარედ.</t>
   </si>
   <si>
+    <t>ნუცუბიძის პლატო IV მ/რ</t>
+  </si>
+  <si>
     <t>მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - დავით აღმაშენებლის ქ. - თეთრი დუქნის ქ. - პეტრე სარაჯიშვილის ქ. - ვასო გოძიაშვილის ქ. - მუხრან მაჭავარიანის ქ. - ივანე ბერიტაშვილის ქ. - შალვა ნუცუბიძის ქ. - მიხეილ ასათიანის ქ. - ვაჟა ფშაველას გამზირი - ზურაბ ანჯაფარიძის ქ.  (მ/ს 'სახელმწიფო უნივერსიტეტის' მიმდებარედ).
 უკუმიმართულებით: ზურაბ ანჯაფარიძის ქ.   (მ/ს 'სახელმწიფო უნივერსიტეტის' მიმდებარედ) - ზურაბ ანჯაფარიძის ქ. (მობრუნება ანა პოლიტკოვსკაიას ქუჩის გადაკვეთასთან) - ვაჟა ფშაველას გამზირი - ალექსანდრე ყაზბეგის გამზირი  (პეტრე ქავთარაძის ქ. #1-თან მოხვევით)- მიხეილ თამარაშვილის ქუჩა (მობრუნება მარცხნივ ალ. ყაზბეგის გამზირიდან) - ვაჟა ფშაველას გამზირი - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - ბუდაპეშტის ქ. - ტაშკენტის ქ. - სიმონ კანდელაკის ქ. - ივანე ბერიტაშვილის ქ. - მუხრან მაჭავარიანის ქ. - ვასო გოძიაშვილის ქ. - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი - გრიგოლ რობაქიძის გამზირი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ)</t>
   </si>
   <si>
+    <t>მაჭავარიანის ქუჩა (112)</t>
+  </si>
+  <si>
     <t>მ/ს სახელმწიფო უნივერსიტეტი</t>
   </si>
   <si>
@@ -486,6 +645,9 @@
 უკუმიმართულებით: მთაწმინდის პარკი - ოქროყანის დასახლება ('გ-ბ' ზონებთან მობრუნება, თბილისის ქუჩა) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).</t>
   </si>
   <si>
+    <t>ოქროყანა </t>
+  </si>
+  <si>
     <t>მ/ს 'ავლაბარი' - ჰამლეტ გონაშვილის ქ. - ვახტანგ VI ქ. - ვლადიმერ მესხიშვილის ქ. - სამრეკლოს ქ. - მიხეილ ბუხაიძის ქ. - მაქსიმ გორკის ქ. - ივანე ჯავახიშვილის ქ. - მოსე გოგიბერიძის ქ. - ზაარბრიუკენის მოედანი - მარცხენა სანაპირო - კოტე მარჯანიშვილის ქ.  (მობრუნება კოტე მარჯანიშვილის მოედანზე) - გალაქტიონ ტაბიძის ხიდი - მიხეილ ჯავახიშვილის ქ. - მერაბ კოსტავას ქ. - გიორგი სააკაძის მოედანი - ლევან გოთუას ქ. (#26-ის მიმდებარედ).
 უკუმიმართულებით: ლევან გოთუას ქ. (#26-ის მიმდებარედ) - ლევან გოთუას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. -  გმირთა მოედანი - ვარაზის ხევი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი (მობრუნება ზეთის ხილის ხესთან) - ივანე ჯავახიშვილის ქ. - გალაქტიონ ტაბიძის ხიდი - კოტე მარჯანიშვილის ქ. - დავით აღმაშენებლის გამზირი - ჭოროხის ქ. - დიმიტრი უზნაძის ქ. - ზაარბრიუკენი მოედანი - ლევ ტოლსტოის ქ. - კოსტა ხეთაგუროვის ქ. - მაქსიმ გორკის ქ. - მიხეილ ბუხაიძის ქ. - სამრეკლოს ქ. - ვლადიმერ მესხიშვილის ქ. - ფაღავას ქ. - მ/ს 'ავლაბარი' (მიმდებარედ).</t>
   </si>
@@ -511,21 +673,33 @@
 უკუმიმართულებით: ვაჟა ფშაველას გამზირი (მ/ს 'დელისი'-ს მიმდებარედ) - ფერდინანდ თავაძის ქ. - შალვა ნუცუბიძის ქ. - შემდეგ იგივე სქემით. </t>
   </si>
   <si>
+    <t>ნუცუბიძის V მ/რ</t>
+  </si>
+  <si>
     <t>ყოფილი ზოოვეტერინარული უნივერსიტეტის საერთო საცხოვრებელი კორპუსები - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასალის ქ. - გულიას მ-ნი, ქ. - ბაღდადის ქ. - ნავთლუღის ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. - სუხიშვილის ქ - თაყაიშვილის ქ. (ვარკეთილის IV მ/რ, #418-403 კორპუსის მიმდებარედ)
 უკუ მიმართულებით:  იგივე სქემით.</t>
   </si>
   <si>
-    <t>ვარკეთილის IV მ/რ</t>
+    <t>აგრარულის საერთო საცხოვრებელი</t>
   </si>
   <si>
     <t>საქართველოს სასჯელაღსრულების, პრობაციისა და იურიდიული დახმარების საკითხთა სამინისტროს სასჯელაღსრულების დეპარტამეტის დაქვემდებარებაში არსებული N6 დაწესებულება - სოფელი კრწანისი - კრწანისის სასწავლო ცენტრი - შსს-ოს აგარაკები - გიგანტის დასახლება - ზოოვეტერინარული ინსტიტუტის დასახლება - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასლის ქ. - მეტეხის ხიდი - რიყე - მარცხენა სანაპირო - ბარათაშვილის ქ. (მობრუნება ბარათაშვილისა და პუშკინის ქუჩების გადაკვეთასთან, გაჩერება 'კონკის' მხარეს)
 უკუ მიმართულებით: ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - გორგასალის ქ. - შემდეგ იგივე სქემით</t>
   </si>
   <si>
+    <t>№6-ე სასჯელ-აღსრულების დაწესებულება</t>
+  </si>
+  <si>
     <t xml:space="preserve">სოფელი ტაბახმელა (#7 და #6 სახლების გზაგამყოფის მიმდებარედ ) - თბილისი-კოჯრის ქ. (სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                             უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. -  მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - თბილისი-კოჯრის ქ. ( წავკისის ველის, სოფელი წავკისის, სოფ. შინდისის გავლით) - სოფელი ტაბახმელა (კვირაცხოვლის ქ. - საცხოვრებელი კორპუსი - იაშაღაშვილის ქ. - #7,11,12,13,14 სახლი - #6,5,4,3,2,1 სახლი - #7 და #6 სახლების გზაგამყოფის მიმდებარედ). </t>
   </si>
   <si>
+    <t>ტაბახმელა </t>
+  </si>
+  <si>
     <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ)  - წერეთლის გამზირი - შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფელი დიღომი (დავით აღმაშენებლის ქ. - კვირაცხოვლის ქ. - ცამეტი ასურელი მამის ქ. - ალექსანდრე ყაზბეგის ქ. - შოთა რუსთაველის ქ. - ფიროსმანის ქ. - ალექსანდრე ყაზბეგის ქ. - ცამეტი ასურელი მამის ქ. - კვირაცხოვლის ქ. - დავით აღმაშენებლის ქ.). - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი -  შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ, წრიული). </t>
+  </si>
+  <si>
+    <t>სოფელი დიღომი</t>
   </si>
   <si>
     <t>დაბა კიკეთი - თბილისი-კოჯრის გზა (სოფ. დიდება, დაბა კოჯორი, სოფ. ტაბახმელა, სოფ. შინდისი, სოფ. წავკისი, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)
@@ -543,6 +717,9 @@
 უკუმიმართულებით: მ/ს „ ახმეტელის თეატრი“ (მიმდებარედ) – ილია ვეკუას ქ. – აკაკი ვასაძის ქ. – ქერჩის ქ. – დავით სარაჯიშვილის ქ. – ლიბანის ქ. – უწერის ქ. – ელიფთერ ანდრონიკაშვილის ქ. – ცენტროლიტის ნაკვეთები (თბილისის შემოვლითი გზა) – სოფ. გლდანი (26 მაისის ქ. – 26 მაისის და ვახტანგ გორგასალის ქუჩების გადაკვეთის მიმდებარედ).</t>
   </si>
   <si>
+    <t> სოფ. გლდანი</t>
+  </si>
+  <si>
     <t xml:space="preserve">მ/ს 'დიდუბე' (ქვედა გასასვლელი)(ტრანსპორტის ქ. #1-ის მიმდებარედ) - აკაკი წერეთლის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - გრიგოლ რობაქიძის გამზირი - დავით აღმაშენებლის ხეივანი (მობრუნება გიორგი  ბრწყინვალეს  ქუჩის გადაკვეთამდე, რესტორანი „მონოპოლის“ მიმდებარედ) - მარშალ გელოვანის გამზირი - სოფელი დიღომი (დავით აღმაშენებლის ქ. - კვირაცხოვლის ქ. - მუხრან მაჭავარიანის ქ. - ვაჟა ფშაველას ქ. - კვირაცხოვლის ქ. - ავთანდილ მამუჩაშვილის ქ. - მარიამ უგრეხელიძის ქ. - ცამეტი ასურელი მამის ქ. - კვირაცხოვლის ქ. - დავით აღმაშენებლის ქ.) - პეტრე სარაჯიშვილის ქ. - მარშალ გელოვანის გამზირი -  გრიგოლ რობაქიძის გამზირი - ჯონ (მალხაზ) შალიკაშვილის ხიდი - აკაკი  წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ). </t>
   </si>
   <si>
@@ -550,10 +727,16 @@
 უკუმიმართულებით: რკინიგზის გადასასვლელი ხიდი (მიმდებარე ტერიტორია) - ნიკოლოზ ხუდადოვის ქ. - შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>მახათას მთა</t>
+  </si>
+  <si>
     <t>სოფელი შინდისი (ტიციან ტაბიძის ქ. # 25-ის მიმდებარედ) - თბილისი-კოჯრის გზა (სოფ. წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).
 უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. –  თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ იგივე სქემით.</t>
   </si>
   <si>
+    <t>შინდისი </t>
+  </si>
+  <si>
     <t>დაბა ზაჰესი (თვისუფლებისა და მიხეილ წინამძღვრიშვილის ქუჩების გადაკვეთის მიმდებარედ) - დაბა ზაჰესის დასახლება (თავისუფლების ქ.- ჭიჭინაძის ქ.- ავჭალის ქ.) - ზაჰესის ხიდი - დავით აღმაშენებლის ხეივანი - ჯორჯ ბალანჩინის ქ. (მობრუნება დიდი დიღომში, ფარნავაზ მეფის გამზირის მიმდებარედ) - აკაკი ბელიაშვილის ქ. - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - მ/ს 'დიდუბე' (ქვედა გასასვლელი) (ტრანსპორტის ქ. #1-ის მიმდებარედ). 
 უკუ მიმართულებით: იგივე სქემით.</t>
   </si>
@@ -562,10 +745,16 @@
 უკუმიმართულებით:  სადგურის მოედანი (“თბილისი ცენტრალი“-ს პირდაპირ) – თამარ მეფის გამზირი – ეგნატე ნინოშვილის ქ. –  კონსტიტუციის ქ. – მიხეილ წინამძღვრიშვილის ქ. – მოსე გოგიბერიძის ქ. – კოსტა ხეთაგუროვის ქ. – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის  ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მ/ს ,,ავლაბარი“ – ჰამლეტ გონაშვილის ქ. – მეფე ვახტანგ VI-ს ქ. – ვლადიმერ მესხიშვილის ქ. – გუმბრის ქ. – საინგილოს ქ. – ახალუბნის ქ. – შილდის ქ. – თამარ მუჯირიშვილის ქ. (№12 კორპუსის მიმდებარედ).</t>
   </si>
   <si>
+    <t>მუჯირიშვილის ქუჩა </t>
+  </si>
+  <si>
     <t>მ/ს 'რუსთაველი' (Mcdonald's'-ის მიმდებარე ტერიტორია) - შოთა რუსთაველის გამზირი - გიორგი ლეონიძის ქ. - გერონტი ქიქოძის ქ. - მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. - მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - ოქროყანის დასახლება (შემოვლითი გზით, კოტეჯების მხრიდან) - მთაწმინდის პარკი.
 უკუ მიმართულებით: მთაწმინდის პარკი - ოქროყანის დასახლება (შემოვლითი გზით, კოტეჯების მხრიდან) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - შოთა რუსთაველის გამზირი - მერაბ კოსტავას ქ. (სახ. ფილარმონიასთან მობრუნებით) - მ/ს 'რუსთაველი' (Mcdonald's'-ის მიმდებარე ტერიტორია)</t>
   </si>
   <si>
+    <t>მ/ს რუსთაველი</t>
+  </si>
+  <si>
     <t>მთაწმინდის პარკი</t>
   </si>
   <si>
@@ -605,6 +794,9 @@
 უკუმიმართულებით:  ბაგები (წყნეთის გზატკეცილი, კორპუსი #2-ის მიდებარედ, თბილისის ივანე ჯავახიშვილის სახ. სუ-ის საერთო საცხოვრებელი) -  წყნეთის გზატკეცილი - ქაქუცა ჩოლოყაშვილის გამზირი - ილია  ჭავჭავაძის გამზირი - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი -თავისუფლების მოედანი -ნიკოლოზ ბარათაშვილის ქ. - მტკვრის მარჯვენა სანაპირო - ვახტანგ  გორგასალის ქ. - რუსთავის გზატკეცილი -ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე). </t>
   </si>
   <si>
+    <t>ქვემო ფონიჭალის დასახლება</t>
+  </si>
+  <si>
     <t>რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე) - ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - ვახტანგ გორგასალის ქ. - დიმიტრი გულიას მოედანი - დიმიტრი გულიას ქ. - რიჩარდ ჰოლბრუკის ქუჩა - ნავთლუღის ქ. - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ.  - ვიქტორ კუპრაძის ქ. - ზურაბ პატარიძის ქ. - ჰოთელს &amp; პრეფერენს ჰუალინგ თბილისის მიმდებარედ.
 უკუმიმართულებით:  ჰოთელს &amp; პრეფერენს ჰუალინგ თბილისი - ზურაბ პატარიძის ქ. - ვიქტორ კუპრაძის ქ. -  ჯავახეთის ქ. - მოსკოვის გამზირი - ქეთევან დედოფლის გამზირი - ნავთლუღის ქ. - რიჩარდ ჰოლბრუკის ქუჩა - დიმიტრი გულიას ქ. - დიმიტრი გულიას მოედანი - ვახტანგ გორგასალის ქ. - რუსთავის გზატკეცილი - ქვემო ფონიჭალის დასახლება (რუსთავის გზატკეცილი) - რუსთავის გზატკეცილი (ცოტნე დადიანის III ჩიხის მოპირდაპირედ, მობრუნების წრეზე)</t>
   </si>
@@ -616,6 +808,9 @@
 უკუმიმართულებით:  უნივერსიტეტის ქ. (ივანე ჯავახიშვილის სახელობის თსუ-ის მაღლივი კორპუსი) - მიხეილ თამარაშვილის გამზირი (მობრუნება ჭაბუა ამირეჯიბის გზატკეცილის პირდაპირ) - მ/ს „დელისი“ (ვაჟა-ფშაველას გამზირი) – ფერდინანდ თავაძის ქ. – შალვა ნუცუბიძის ქ. – ბესარიონ ჟღენტის ქ. ( შალვა ნუცუბიძის II მ/რაიონი) – ავთო ვარაზის ქ. (ნუცუბიძის  IV მ/რაიონი) – ფერმწერთა ქ. – ტატა თვალჭრელიძის ქ. (მობრუნება ალექსანდრე ბანძელაძის ქუჩის გადაკვეთასთან) – ლევან კვაჭაძის ქ. – კეჭაყმაძის ქ. – სოფელი თხინვალი (თხინვალას და ავალიანის ქუჩების გადაკვეთის მიმდებარედ). </t>
   </si>
   <si>
+    <t>სოფელი თხინვალი</t>
+  </si>
+  <si>
     <t>მ/ს „სახელმწიფო უნივერსიტეტი“(მიმდებარედ) - ზურაბ ანჯაფარიძის ქ. - პეტრე ქავთარაძის ქ. - ალექსანდრე ყაზბეგის გამზირი - მიხეილ თამარაშვილის გამზირი - გიორგი წერეთლის ქ. - ქაქუცა ჩოლოყაშვილის გამზირი - ილია ჭავჭავაძის გამზირი - არჩილ მიშველაძის ქ. - ირაკლი აბაშიძის ქ. - მრგვალი ბაღი - ვასილ ბარნოვის ქ. - კოტე მაყაშვილის ქ. - პოლიკარპე კაკაბაძის ქ. - დანიელ ჭონქაძის ქ. - ამაღლების ქ. - ლადო ასათიანის II შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ.  (კონკის 'მხარეს'). 
 უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (კონკის 'მხარეს') - ნიკოლოზ ბარათაშვილის ხიდი - მტკვრის მარცხენა სანაპირო - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის ქ. - ალექსანდრე პუშკინის ქ. -თავისუფლების მოედანი - გიორგი ლეონიძის ქ. - მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. - დანიელ ჭონქაძის ქ. - პოლიკარპე კაკაბაძის ქ. - კოტე მაყაშვილის ქ. - მიხეილ ზანდუკელის ქ. - ვასილ ბარნოვის ქ. - მრგვალი ბაღი - რაფიელ ერისთავის ქ. - ზაქარია ფალიაშვილის ქ. - ნიკოლოზ ბერძენიშვილის ქ. - ილია ჭავჭავაძის გამზირი - მიხეილ თამარაშვილის გამზირი - ვაჟა ფშაველას გამზირი -  პეტრე ქავთარაძის ქ. (გადასვლა ვაჟა ფშაველას გამზირი #68-ის გავლით) - ზურაბ ანჯაფარიძის ქ. - მ/ს „სახელმწიფო უნივერსიტეტი“ (მიმდებარედ).</t>
   </si>
@@ -623,7 +818,13 @@
     <t>მერაბ კოსტავას ქ. (№68-ის მიმდებარედ) – მერაბ კოსტავას ქ. – ვარაზისხევის ქ. – ილია ჭავჭავაძის გამზირი – მიხეილ თამარაშვილის გამზირი – ალექსანდრე ყაზბეგის გამზირი – პეკინის გამზირი – მერაბ კოსტავას ქ. (№68-ის მიმდებარედ) (წრიული).</t>
   </si>
   <si>
+    <t>ვაკე - საბურთალო</t>
+  </si>
+  <si>
     <t>მერაბ  კოსტავას ქ. (#69-ის მიდებარედ) - გიორგი სააკაძის მოედანი - ჟიული შარტავას ქ. - ანა კალანდაძის ქ. - პეკინის გამზირი - ვაჟა ფშაველას გამზირი - მიხეილ თამარაშვილის გამზირი - ილია ჭავჭავაძის გამზირი  - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ.  (#69-ის მიდებარედ)(წრიული).</t>
+  </si>
+  <si>
+    <t>საბურთალო-ვაკე</t>
   </si>
 </sst>
 </file>
@@ -2669,12 +2870,17 @@
       <c r="P5" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R5" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="S5" t="n" s="12">
         <v>0.9409722222222222</v>
+      </c>
+      <c r="T5" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
@@ -2688,13 +2894,13 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F6" t="s" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n" s="9">
         <v>11.0</v>
@@ -2718,7 +2924,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="N6" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
@@ -2726,12 +2932,17 @@
       <c r="P6" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R6" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S6" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T6" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="true">
@@ -2745,13 +2956,13 @@
         <v>3.0</v>
       </c>
       <c r="D7" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n" s="9">
         <v>6.0</v>
@@ -2775,7 +2986,7 @@
         <v>0.9736111111111111</v>
       </c>
       <c r="N7" t="s" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
@@ -2783,12 +2994,17 @@
       <c r="P7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" t="s" s="10">
+        <v>31</v>
+      </c>
       <c r="R7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
       <c r="S7" t="n" s="12">
         <v>0.9402777777777778</v>
+      </c>
+      <c r="T7" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="true">
@@ -2802,13 +3018,13 @@
         <v>4.0</v>
       </c>
       <c r="D8" t="s" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F8" t="s" s="20">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n" s="9">
         <v>3.0</v>
@@ -2832,7 +3048,7 @@
         <v>0.9840277777777777</v>
       </c>
       <c r="N8" t="s" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
@@ -2840,12 +3056,17 @@
       <c r="P8" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R8" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="S8" t="n" s="12">
         <v>0.9027777777777778</v>
+      </c>
+      <c r="T8" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="true">
@@ -2859,13 +3080,13 @@
         <v>5.0</v>
       </c>
       <c r="D9" t="s" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n" s="9">
         <v>2.0</v>
@@ -2889,7 +3110,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O9" t="n" s="12">
         <v>0.875</v>
@@ -2897,12 +3118,17 @@
       <c r="P9" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" t="s" s="10">
+        <v>37</v>
+      </c>
       <c r="R9" t="n" s="12">
         <v>0.8333333333333334</v>
       </c>
       <c r="S9" t="n" s="12">
         <v>0.875</v>
+      </c>
+      <c r="T9" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="true">
@@ -2916,13 +3142,13 @@
         <v>6.0</v>
       </c>
       <c r="D10" t="s" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F10" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n" s="9">
         <v>7.0</v>
@@ -2946,7 +3172,7 @@
         <v>1.0</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2954,12 +3180,17 @@
       <c r="P10" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q10" s="10"/>
+      <c r="Q10" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="R10" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="S10" t="n" s="12">
         <v>0.9493055555555555</v>
+      </c>
+      <c r="T10" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="true">
@@ -2973,13 +3204,13 @@
         <v>7.0</v>
       </c>
       <c r="D11" t="s" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F11" t="s" s="26">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n" s="9">
         <v>3.0</v>
@@ -3003,7 +3234,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n" s="12">
         <v>0.9375</v>
@@ -3011,12 +3242,17 @@
       <c r="P11" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="Q11" s="10"/>
+      <c r="Q11" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="R11" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="S11" t="n" s="12">
         <v>0.9340277777777778</v>
+      </c>
+      <c r="T11" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="true">
@@ -3030,13 +3266,13 @@
         <v>9.0</v>
       </c>
       <c r="D12" t="s" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F12" t="s" s="28">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G12" t="n" s="9">
         <v>5.0</v>
@@ -3060,7 +3296,7 @@
         <v>0.9736111111111111</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -3068,12 +3304,17 @@
       <c r="P12" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="Q12" s="10"/>
+      <c r="Q12" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="R12" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
       <c r="S12" t="n" s="12">
         <v>0.9479166666666666</v>
+      </c>
+      <c r="T12" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="true">
@@ -3087,13 +3328,13 @@
         <v>10.0</v>
       </c>
       <c r="D13" t="s" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F13" t="s" s="30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n" s="9">
         <v>4.0</v>
@@ -3117,7 +3358,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="N13" t="s" s="10">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3125,12 +3366,17 @@
       <c r="P13" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="Q13" s="10"/>
+      <c r="Q13" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R13" t="n" s="12">
         <v>0.8840277777777777</v>
       </c>
       <c r="S13" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T13" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="true">
@@ -3144,13 +3390,13 @@
         <v>11.0</v>
       </c>
       <c r="D14" t="s" s="7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F14" t="s" s="32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14" t="n" s="9">
         <v>7.0</v>
@@ -3174,7 +3420,7 @@
         <v>0.9923611111111111</v>
       </c>
       <c r="N14" t="s" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -3182,12 +3428,17 @@
       <c r="P14" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" t="s" s="10">
+        <v>51</v>
+      </c>
       <c r="R14" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="S14" t="n" s="12">
         <v>0.9423611111111111</v>
+      </c>
+      <c r="T14" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="true">
@@ -3201,13 +3452,13 @@
         <v>12.0</v>
       </c>
       <c r="D15" t="s" s="7">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F15" t="s" s="34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n" s="9">
         <v>4.0</v>
@@ -3231,7 +3482,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="N15" t="s" s="10">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -3239,12 +3490,17 @@
       <c r="P15" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R15" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
       <c r="S15" t="n" s="12">
         <v>0.9534722222222223</v>
+      </c>
+      <c r="T15" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="true">
@@ -3258,13 +3514,13 @@
         <v>14.0</v>
       </c>
       <c r="D16" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="36">
         <v>44</v>
-      </c>
-      <c r="E16" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s" s="36">
-        <v>38</v>
       </c>
       <c r="G16" t="n" s="9">
         <v>11.0</v>
@@ -3288,7 +3544,7 @@
         <v>0.9958333333333333</v>
       </c>
       <c r="N16" t="s" s="10">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -3296,12 +3552,17 @@
       <c r="P16" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q16" s="10"/>
+      <c r="Q16" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R16" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
       <c r="S16" t="n" s="12">
         <v>0.9458333333333333</v>
+      </c>
+      <c r="T16" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="true">
@@ -3315,13 +3576,13 @@
         <v>15.0</v>
       </c>
       <c r="D17" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F17" t="s" s="38">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n" s="9">
         <v>6.0</v>
@@ -3345,7 +3606,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="N17" t="s" s="10">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3353,12 +3614,17 @@
       <c r="P17" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q17" s="10"/>
+      <c r="Q17" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R17" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="S17" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T17" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="true">
@@ -3372,13 +3638,13 @@
         <v>16.0</v>
       </c>
       <c r="D18" t="s" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F18" t="s" s="40">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n" s="9">
         <v>1.0</v>
@@ -3402,7 +3668,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="N18" t="s" s="10">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O18" t="n" s="12">
         <v>0.8125</v>
@@ -3410,12 +3676,17 @@
       <c r="P18" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="Q18" s="10"/>
+      <c r="Q18" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="R18" t="n" s="12">
         <v>0.7708333333333334</v>
       </c>
       <c r="S18" t="n" s="12">
         <v>0.8541666666666666</v>
+      </c>
+      <c r="T18" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="true">
@@ -3429,13 +3700,13 @@
         <v>17.0</v>
       </c>
       <c r="D19" t="s" s="7">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F19" t="s" s="42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>7.0</v>
@@ -3459,7 +3730,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="N19" t="s" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O19" t="n" s="12">
         <v>0.90625</v>
@@ -3467,12 +3738,17 @@
       <c r="P19" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q19" s="10"/>
+      <c r="Q19" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="R19" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
       <c r="S19" t="n" s="12">
         <v>0.9409722222222222</v>
+      </c>
+      <c r="T19" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="true">
@@ -3486,13 +3762,13 @@
         <v>18.0</v>
       </c>
       <c r="D20" t="s" s="7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F20" t="s" s="44">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n" s="9">
         <v>3.0</v>
@@ -3516,7 +3792,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N20" t="s" s="10">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -3524,12 +3800,17 @@
       <c r="P20" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="Q20" s="10"/>
+      <c r="Q20" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R20" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
       <c r="S20" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T20" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="true">
@@ -3543,7 +3824,7 @@
         <v>20.0</v>
       </c>
       <c r="D21" t="s" s="7">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s" s="7">
         <v>20</v>
@@ -3573,7 +3854,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="N21" t="s" s="10">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -3581,12 +3862,17 @@
       <c r="P21" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="S21" t="n" s="12">
         <v>0.9486111111111111</v>
+      </c>
+      <c r="T21" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="true">
@@ -3600,13 +3886,13 @@
         <v>21.0</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F22" t="s" s="48">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n" s="9">
         <v>11.0</v>
@@ -3630,7 +3916,7 @@
         <v>1.0118055555555556</v>
       </c>
       <c r="N22" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O22" t="n" s="12">
         <v>0.89375</v>
@@ -3638,12 +3924,17 @@
       <c r="P22" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q22" s="10"/>
+      <c r="Q22" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R22" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
       <c r="S22" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T22" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="true">
@@ -3657,13 +3948,13 @@
         <v>22.0</v>
       </c>
       <c r="D23" t="s" s="7">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F23" t="s" s="50">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n" s="9">
         <v>3.0</v>
@@ -3687,7 +3978,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N23" t="s" s="10">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O23" t="n" s="12">
         <v>0.875</v>
@@ -3695,12 +3986,17 @@
       <c r="P23" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="Q23" s="10"/>
+      <c r="Q23" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R23" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
       <c r="S23" t="n" s="12">
         <v>0.94375</v>
+      </c>
+      <c r="T23" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="true">
@@ -3714,13 +4010,13 @@
         <v>23.0</v>
       </c>
       <c r="D24" t="s" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F24" t="s" s="52">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n" s="9">
         <v>9.0</v>
@@ -3744,7 +4040,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="N24" t="s" s="10">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
@@ -3752,12 +4048,17 @@
       <c r="P24" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="Q24" s="10"/>
+      <c r="Q24" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R24" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S24" t="n" s="12">
         <v>0.9402777777777778</v>
+      </c>
+      <c r="T24" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="true">
@@ -3771,13 +4072,13 @@
         <v>24.0</v>
       </c>
       <c r="D25" t="s" s="7">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F25" t="s" s="54">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n" s="9">
         <v>10.0</v>
@@ -3801,7 +4102,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="N25" t="s" s="10">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3809,12 +4110,17 @@
       <c r="P25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q25" s="10"/>
+      <c r="Q25" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R25" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
       <c r="S25" t="n" s="12">
         <v>0.9430555555555555</v>
+      </c>
+      <c r="T25" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="true">
@@ -3828,7 +4134,7 @@
         <v>25.0</v>
       </c>
       <c r="D26" t="s" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s" s="7">
         <v>20</v>
@@ -3858,7 +4164,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="N26" t="s" s="10">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
@@ -3866,12 +4172,17 @@
       <c r="P26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="Q26" s="10"/>
+      <c r="Q26" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="S26" t="n" s="12">
         <v>0.9423611111111111</v>
+      </c>
+      <c r="T26" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="true">
@@ -3885,13 +4196,13 @@
         <v>26.0</v>
       </c>
       <c r="D27" t="s" s="7">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F27" t="s" s="58">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n" s="9">
         <v>1.0</v>
@@ -3915,7 +4226,7 @@
         <v>0.9131944444444444</v>
       </c>
       <c r="N27" t="s" s="10">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
@@ -3923,12 +4234,17 @@
       <c r="P27" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="Q27" s="10"/>
+      <c r="Q27" t="s" s="10">
+        <v>76</v>
+      </c>
       <c r="R27" t="n" s="12">
         <v>0.8159722222222222</v>
       </c>
       <c r="S27" t="n" s="12">
         <v>0.8645833333333334</v>
+      </c>
+      <c r="T27" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="true">
@@ -3942,13 +4258,13 @@
         <v>27.0</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F28" t="s" s="60">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G28" t="n" s="9">
         <v>6.0</v>
@@ -3972,7 +4288,7 @@
         <v>0.9763888888888889</v>
       </c>
       <c r="N28" t="s" s="10">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
@@ -3980,12 +4296,17 @@
       <c r="P28" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="Q28" s="10"/>
+      <c r="Q28" t="s" s="10">
+        <v>79</v>
+      </c>
       <c r="R28" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
       <c r="S28" t="n" s="12">
         <v>0.9451388888888889</v>
+      </c>
+      <c r="T28" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="true">
@@ -3999,13 +4320,13 @@
         <v>28.0</v>
       </c>
       <c r="D29" t="s" s="7">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F29" t="s" s="62">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n" s="9">
         <v>4.0</v>
@@ -4029,7 +4350,7 @@
         <v>0.96875</v>
       </c>
       <c r="N29" t="s" s="10">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -4037,12 +4358,17 @@
       <c r="P29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="Q29" s="10"/>
+      <c r="Q29" t="s" s="10">
+        <v>82</v>
+      </c>
       <c r="R29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
       <c r="S29" t="n" s="12">
         <v>0.9479166666666666</v>
+      </c>
+      <c r="T29" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="true">
@@ -4056,13 +4382,13 @@
         <v>29.0</v>
       </c>
       <c r="D30" t="s" s="7">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F30" t="s" s="64">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n" s="9">
         <v>3.0</v>
@@ -4086,7 +4412,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="N30" t="s" s="10">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -4094,12 +4420,17 @@
       <c r="P30" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q30" s="10"/>
+      <c r="Q30" t="s" s="10">
+        <v>84</v>
+      </c>
       <c r="R30" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
       <c r="S30" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T30" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="true">
@@ -4113,13 +4444,13 @@
         <v>30.0</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F31" t="s" s="66">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G31" t="n" s="9">
         <v>3.0</v>
@@ -4143,7 +4474,7 @@
         <v>0.9756944444444444</v>
       </c>
       <c r="N31" t="s" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O31" t="n" s="12">
         <v>0.90625</v>
@@ -4151,12 +4482,17 @@
       <c r="P31" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q31" s="10"/>
+      <c r="Q31" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R31" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
       <c r="S31" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T31" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="true">
@@ -4170,13 +4506,13 @@
         <v>31.0</v>
       </c>
       <c r="D32" t="s" s="7">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F32" t="s" s="68">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" t="n" s="9">
         <v>5.0</v>
@@ -4200,7 +4536,7 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="N32" t="s" s="10">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -4208,12 +4544,17 @@
       <c r="P32" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q32" s="10"/>
+      <c r="Q32" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R32" t="n" s="12">
         <v>0.91875</v>
       </c>
       <c r="S32" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T32" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="true">
@@ -4227,13 +4568,13 @@
         <v>32.0</v>
       </c>
       <c r="D33" t="s" s="7">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F33" t="s" s="70">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G33" t="n" s="9">
         <v>4.0</v>
@@ -4257,7 +4598,7 @@
         <v>0.96875</v>
       </c>
       <c r="N33" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -4265,12 +4606,17 @@
       <c r="P33" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q33" s="10"/>
+      <c r="Q33" t="s" s="10">
+        <v>90</v>
+      </c>
       <c r="R33" t="n" s="12">
         <v>0.90625</v>
       </c>
       <c r="S33" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T33" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="true">
@@ -4284,13 +4630,13 @@
         <v>33.0</v>
       </c>
       <c r="D34" t="s" s="7">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F34" t="s" s="72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n" s="9">
         <v>9.0</v>
@@ -4314,7 +4660,7 @@
         <v>0.9951388888888889</v>
       </c>
       <c r="N34" t="s" s="10">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -4322,12 +4668,17 @@
       <c r="P34" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="Q34" s="10"/>
+      <c r="Q34" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R34" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
       <c r="S34" t="n" s="12">
         <v>0.9451388888888889</v>
+      </c>
+      <c r="T34" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="true">
@@ -4341,13 +4692,13 @@
         <v>34.0</v>
       </c>
       <c r="D35" t="s" s="7">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F35" t="s" s="74">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n" s="9">
         <v>9.0</v>
@@ -4371,7 +4722,7 @@
         <v>0.9923611111111111</v>
       </c>
       <c r="N35" t="s" s="10">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -4379,12 +4730,17 @@
       <c r="P35" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q35" s="10"/>
+      <c r="Q35" t="s" s="10">
+        <v>93</v>
+      </c>
       <c r="R35" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
       <c r="S35" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T35" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="true">
@@ -4398,13 +4754,13 @@
         <v>35.0</v>
       </c>
       <c r="D36" t="s" s="7">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F36" t="s" s="76">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G36" t="n" s="9">
         <v>1.0</v>
@@ -4428,7 +4784,7 @@
         <v>0.9375</v>
       </c>
       <c r="N36" t="s" s="10">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
@@ -4436,12 +4792,17 @@
       <c r="P36" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="Q36" s="10"/>
+      <c r="Q36" t="s" s="10">
+        <v>96</v>
+      </c>
       <c r="R36" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="S36" t="n" s="12">
         <v>0.9166666666666666</v>
+      </c>
+      <c r="T36" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="30.0" customHeight="true">
@@ -4455,13 +4816,13 @@
         <v>36.0</v>
       </c>
       <c r="D37" t="s" s="7">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F37" t="s" s="78">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n" s="9">
         <v>6.0</v>
@@ -4485,7 +4846,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N37" t="s" s="10">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4493,12 +4854,17 @@
       <c r="P37" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q37" s="10"/>
+      <c r="Q37" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="R37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="S37" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T37" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="30.0" customHeight="true">
@@ -4512,13 +4878,13 @@
         <v>37.0</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F38" t="s" s="80">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n" s="9">
         <v>10.0</v>
@@ -4542,7 +4908,7 @@
         <v>1.0</v>
       </c>
       <c r="N38" t="s" s="10">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4550,12 +4916,17 @@
       <c r="P38" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q38" s="10"/>
+      <c r="Q38" t="s" s="10">
+        <v>100</v>
+      </c>
       <c r="R38" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
       <c r="S38" t="n" s="12">
         <v>0.9472222222222222</v>
+      </c>
+      <c r="T38" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="30.0" customHeight="true">
@@ -4569,13 +4940,13 @@
         <v>38.0</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F39" t="s" s="82">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39" t="n" s="9">
         <v>6.0</v>
@@ -4599,7 +4970,7 @@
         <v>0.975</v>
       </c>
       <c r="N39" t="s" s="10">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O39" t="n" s="12">
         <v>0.925</v>
@@ -4607,11 +4978,16 @@
       <c r="P39" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q39" s="10"/>
+      <c r="Q39" t="s" s="10">
+        <v>103</v>
+      </c>
       <c r="R39" t="s" s="12">
         <v>20</v>
       </c>
       <c r="S39" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="T39" t="s" s="10">
         <v>20</v>
       </c>
     </row>
@@ -4626,7 +5002,7 @@
         <v>39.0</v>
       </c>
       <c r="D40" t="s" s="7">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s" s="7">
         <v>20</v>
@@ -4656,7 +5032,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="N40" t="s" s="10">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4664,12 +5040,17 @@
       <c r="P40" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q40" s="10"/>
+      <c r="Q40" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R40" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="S40" t="n" s="12">
         <v>0.9381944444444444</v>
+      </c>
+      <c r="T40" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="true">
@@ -4683,13 +5064,13 @@
         <v>40.0</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F41" t="s" s="86">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G41" t="n" s="9">
         <v>3.0</v>
@@ -4713,7 +5094,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N41" t="s" s="10">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -4721,12 +5102,17 @@
       <c r="P41" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q41" s="10"/>
+      <c r="Q41" t="s" s="10">
+        <v>108</v>
+      </c>
       <c r="R41" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
       <c r="S41" t="n" s="12">
         <v>0.9340277777777778</v>
+      </c>
+      <c r="T41" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="true">
@@ -4740,13 +5126,13 @@
         <v>41.0</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F42" t="s" s="88">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G42" t="n" s="9">
         <v>3.0</v>
@@ -4770,7 +5156,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="N42" t="s" s="10">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -4778,12 +5164,17 @@
       <c r="P42" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q42" s="10"/>
+      <c r="Q42" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R42" t="n" s="12">
         <v>0.9222222222222223</v>
       </c>
       <c r="S42" t="n" s="12">
         <v>0.95</v>
+      </c>
+      <c r="T42" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="true">
@@ -4797,13 +5188,13 @@
         <v>42.0</v>
       </c>
       <c r="D43" t="s" s="7">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F43" t="s" s="90">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G43" t="n" s="9">
         <v>4.0</v>
@@ -4827,7 +5218,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="N43" t="s" s="10">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
@@ -4835,12 +5226,17 @@
       <c r="P43" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
-      <c r="Q43" s="10"/>
+      <c r="Q43" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R43" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
       <c r="S43" t="n" s="12">
         <v>0.9472222222222222</v>
+      </c>
+      <c r="T43" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="30.0" customHeight="true">
@@ -4854,7 +5250,7 @@
         <v>43.0</v>
       </c>
       <c r="D44" t="s" s="7">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s" s="7">
         <v>20</v>
@@ -4884,7 +5280,7 @@
         <v>0.96875</v>
       </c>
       <c r="N44" t="s" s="10">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -4892,12 +5288,17 @@
       <c r="P44" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="Q44" s="10"/>
+      <c r="Q44" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R44" t="n" s="12">
         <v>0.90625</v>
       </c>
       <c r="S44" t="n" s="12">
         <v>0.9479166666666666</v>
+      </c>
+      <c r="T44" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="30.0" customHeight="true">
@@ -4911,13 +5312,13 @@
         <v>45.0</v>
       </c>
       <c r="D45" t="s" s="7">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F45" t="s" s="94">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G45" t="n" s="9">
         <v>2.0</v>
@@ -4941,7 +5342,7 @@
         <v>0.9527777777777777</v>
       </c>
       <c r="N45" t="s" s="10">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -4949,12 +5350,17 @@
       <c r="P45" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="Q45" s="10"/>
+      <c r="Q45" t="s" s="10">
+        <v>30</v>
+      </c>
       <c r="R45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="S45" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T45" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="30.0" customHeight="true">
@@ -4968,13 +5374,13 @@
         <v>45.099998474121094</v>
       </c>
       <c r="D46" t="s" s="7">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F46" t="s" s="96">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G46" t="n" s="9">
         <v>1.0</v>
@@ -4998,7 +5404,7 @@
         <v>0.9652777777777778</v>
       </c>
       <c r="N46" t="s" s="10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -5013,6 +5419,9 @@
       <c r="S46" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
+      <c r="T46" t="s" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
       <c r="A47" t="n" s="6">
@@ -5025,13 +5434,13 @@
         <v>45.20000076293945</v>
       </c>
       <c r="D47" t="s" s="7">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F47" t="s" s="98">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n" s="9">
         <v>2.0</v>
@@ -5055,7 +5464,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N47" t="s" s="10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -5070,6 +5479,9 @@
       <c r="S47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
+      <c r="T47" t="s" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" ht="30.0" customHeight="true">
       <c r="A48" t="n" s="6">
@@ -5082,13 +5494,13 @@
         <v>46.0</v>
       </c>
       <c r="D48" t="s" s="7">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F48" t="s" s="100">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G48" t="n" s="9">
         <v>8.0</v>
@@ -5112,7 +5524,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="N48" t="s" s="10">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -5120,12 +5532,17 @@
       <c r="P48" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="Q48" s="10"/>
+      <c r="Q48" t="s" s="10">
+        <v>121</v>
+      </c>
       <c r="R48" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="S48" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T48" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="30.0" customHeight="true">
@@ -5139,13 +5556,13 @@
         <v>47.0</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F49" t="s" s="102">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G49" t="n" s="9">
         <v>4.0</v>
@@ -5169,7 +5586,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N49" t="s" s="10">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -5177,12 +5594,17 @@
       <c r="P49" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q49" s="10"/>
+      <c r="Q49" t="s" s="10">
+        <v>79</v>
+      </c>
       <c r="R49" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
       <c r="S49" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T49" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="30.0" customHeight="true">
@@ -5196,13 +5618,13 @@
         <v>49.0</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F50" t="s" s="104">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G50" t="n" s="9">
         <v>6.0</v>
@@ -5226,7 +5648,7 @@
         <v>0.9805555555555555</v>
       </c>
       <c r="N50" t="s" s="10">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -5234,12 +5656,17 @@
       <c r="P50" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="Q50" s="10"/>
+      <c r="Q50" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R50" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
       <c r="S50" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T50" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="true">
@@ -5253,7 +5680,7 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s" s="7">
         <v>20</v>
@@ -5283,7 +5710,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N51" t="s" s="10">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -5291,12 +5718,17 @@
       <c r="P51" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q51" s="10"/>
+      <c r="Q51" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R51" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
       <c r="S51" t="n" s="12">
         <v>0.94375</v>
+      </c>
+      <c r="T51" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="true">
@@ -5310,13 +5742,13 @@
         <v>51.0</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F52" t="s" s="108">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G52" t="n" s="9">
         <v>13.0</v>
@@ -5340,7 +5772,7 @@
         <v>1.0104166666666667</v>
       </c>
       <c r="N52" t="s" s="10">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -5348,12 +5780,17 @@
       <c r="P52" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q52" s="10"/>
+      <c r="Q52" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="R52" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
       <c r="S52" t="n" s="12">
         <v>0.9430555555555555</v>
+      </c>
+      <c r="T52" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="30.0" customHeight="true">
@@ -5367,13 +5804,13 @@
         <v>52.0</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F53" t="s" s="110">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G53" t="n" s="9">
         <v>3.0</v>
@@ -5397,7 +5834,7 @@
         <v>0.96875</v>
       </c>
       <c r="N53" t="s" s="10">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -5405,12 +5842,17 @@
       <c r="P53" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q53" s="10"/>
+      <c r="Q53" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R53" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
       <c r="S53" t="n" s="12">
         <v>0.9486111111111111</v>
+      </c>
+      <c r="T53" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="30.0" customHeight="true">
@@ -5424,13 +5866,13 @@
         <v>53.0</v>
       </c>
       <c r="D54" t="s" s="7">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F54" t="s" s="112">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n" s="9">
         <v>3.0</v>
@@ -5454,7 +5896,7 @@
         <v>0.9756944444444444</v>
       </c>
       <c r="N54" t="s" s="10">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
@@ -5462,12 +5904,17 @@
       <c r="P54" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="Q54" s="10"/>
+      <c r="Q54" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R54" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
       <c r="S54" t="n" s="12">
         <v>0.94375</v>
+      </c>
+      <c r="T54" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="30.0" customHeight="true">
@@ -5481,13 +5928,13 @@
         <v>54.0</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F55" t="s" s="114">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G55" t="n" s="9">
         <v>6.0</v>
@@ -5511,7 +5958,7 @@
         <v>0.9979166666666667</v>
       </c>
       <c r="N55" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -5519,12 +5966,17 @@
       <c r="P55" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="Q55" s="10"/>
+      <c r="Q55" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R55" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
       <c r="S55" t="n" s="12">
         <v>0.9493055555555555</v>
+      </c>
+      <c r="T55" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="true">
@@ -5538,7 +5990,7 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s" s="7">
         <v>20</v>
@@ -5568,7 +6020,7 @@
         <v>0.9805555555555555</v>
       </c>
       <c r="N56" t="s" s="10">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -5576,12 +6028,17 @@
       <c r="P56" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q56" s="10"/>
+      <c r="Q56" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="R56" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
       <c r="S56" t="n" s="12">
         <v>0.9493055555555555</v>
+      </c>
+      <c r="T56" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="30.0" customHeight="true">
@@ -5595,13 +6052,13 @@
         <v>57.0</v>
       </c>
       <c r="D57" t="s" s="7">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F57" t="s" s="118">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G57" t="n" s="9">
         <v>1.0</v>
@@ -5625,7 +6082,7 @@
         <v>0.9756944444444444</v>
       </c>
       <c r="N57" t="s" s="10">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -5633,12 +6090,17 @@
       <c r="P57" t="n" s="12">
         <v>0.9548611111111112</v>
       </c>
-      <c r="Q57" s="10"/>
+      <c r="Q57" t="s" s="10">
+        <v>138</v>
+      </c>
       <c r="R57" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
       <c r="S57" t="n" s="12">
         <v>0.9340277777777778</v>
+      </c>
+      <c r="T57" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="30.0" customHeight="true">
@@ -5652,13 +6114,13 @@
         <v>58.0</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F58" t="s" s="120">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G58" t="n" s="9">
         <v>4.0</v>
@@ -5682,7 +6144,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N58" t="s" s="10">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -5690,12 +6152,17 @@
       <c r="P58" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q58" s="10"/>
+      <c r="Q58" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="S58" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T58" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="30.0" customHeight="true">
@@ -5709,13 +6176,13 @@
         <v>59.0</v>
       </c>
       <c r="D59" t="s" s="7">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F59" t="s" s="122">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G59" t="n" s="9">
         <v>7.0</v>
@@ -5739,7 +6206,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="N59" t="s" s="10">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
@@ -5747,12 +6214,17 @@
       <c r="P59" t="n" s="12">
         <v>0.94375</v>
       </c>
-      <c r="Q59" s="10"/>
+      <c r="Q59" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="R59" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
       <c r="S59" t="n" s="12">
         <v>0.9395833333333333</v>
+      </c>
+      <c r="T59" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="30.0" customHeight="true">
@@ -5766,13 +6238,13 @@
         <v>60.0</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F60" t="s" s="124">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G60" t="n" s="9">
         <v>6.0</v>
@@ -5796,7 +6268,7 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="N60" t="s" s="10">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
@@ -5804,12 +6276,17 @@
       <c r="P60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="Q60" s="10"/>
+      <c r="Q60" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="R60" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
       <c r="S60" t="n" s="12">
         <v>0.9458333333333333</v>
+      </c>
+      <c r="T60" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="30.0" customHeight="true">
@@ -5823,13 +6300,13 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F61" t="s" s="126">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G61" t="n" s="9">
         <v>7.0</v>
@@ -5853,7 +6330,7 @@
         <v>0.9881944444444445</v>
       </c>
       <c r="N61" t="s" s="10">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -5861,12 +6338,17 @@
       <c r="P61" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q61" s="10"/>
+      <c r="Q61" t="s" s="10">
+        <v>79</v>
+      </c>
       <c r="R61" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
       <c r="S61" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T61" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="30.0" customHeight="true">
@@ -5880,13 +6362,13 @@
         <v>64.0</v>
       </c>
       <c r="D62" t="s" s="7">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F62" t="s" s="128">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G62" t="n" s="9">
         <v>1.0</v>
@@ -5910,7 +6392,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N62" t="s" s="10">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -5918,12 +6400,17 @@
       <c r="P62" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q62" s="10"/>
+      <c r="Q62" t="s" s="10">
+        <v>148</v>
+      </c>
       <c r="R62" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="S62" t="n" s="12">
         <v>0.9166666666666666</v>
+      </c>
+      <c r="T62" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="30.0" customHeight="true">
@@ -5937,13 +6424,13 @@
         <v>65.0</v>
       </c>
       <c r="D63" t="s" s="7">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F63" t="s" s="130">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n" s="9">
         <v>2.0</v>
@@ -5967,7 +6454,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="N63" t="s" s="10">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="O63" t="n" s="12">
         <v>0.9125</v>
@@ -5975,12 +6462,17 @@
       <c r="P63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="Q63" s="10"/>
+      <c r="Q63" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R63" t="n" s="12">
         <v>0.9125</v>
       </c>
       <c r="S63" t="n" s="12">
         <v>0.9291666666666667</v>
+      </c>
+      <c r="T63" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="30.0" customHeight="true">
@@ -5994,13 +6486,13 @@
         <v>67.0</v>
       </c>
       <c r="D64" t="s" s="7">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F64" t="s" s="132">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G64" t="n" s="9">
         <v>1.0</v>
@@ -6024,7 +6516,7 @@
         <v>0.9326388888888889</v>
       </c>
       <c r="N64" t="s" s="10">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -6032,12 +6524,17 @@
       <c r="P64" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="Q64" s="10"/>
+      <c r="Q64" t="s" s="10">
+        <v>138</v>
+      </c>
       <c r="R64" t="n" s="12">
         <v>0.8701388888888889</v>
       </c>
       <c r="S64" t="n" s="12">
         <v>0.9013888888888889</v>
+      </c>
+      <c r="T64" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="30.0" customHeight="true">
@@ -6051,13 +6548,13 @@
         <v>68.0</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F65" t="s" s="134">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G65" t="n" s="9">
         <v>3.0</v>
@@ -6081,7 +6578,7 @@
         <v>0.9625</v>
       </c>
       <c r="N65" t="s" s="10">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -6089,12 +6586,17 @@
       <c r="P65" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="Q65" s="10"/>
+      <c r="Q65" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R65" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
       <c r="S65" t="n" s="12">
         <v>0.9388888888888889</v>
+      </c>
+      <c r="T65" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="30.0" customHeight="true">
@@ -6108,13 +6610,13 @@
         <v>70.0</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F66" t="s" s="136">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G66" t="n" s="9">
         <v>7.0</v>
@@ -6138,7 +6640,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="N66" t="s" s="10">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -6146,12 +6648,17 @@
       <c r="P66" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="Q66" s="10"/>
+      <c r="Q66" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="R66" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
       <c r="S66" t="n" s="12">
         <v>0.9381944444444444</v>
+      </c>
+      <c r="T66" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="30.0" customHeight="true">
@@ -6165,7 +6672,7 @@
         <v>71.0</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s" s="7">
         <v>20</v>
@@ -6195,7 +6702,7 @@
         <v>0.9881944444444445</v>
       </c>
       <c r="N67" t="s" s="10">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -6203,12 +6710,17 @@
       <c r="P67" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q67" s="10"/>
+      <c r="Q67" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R67" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
       <c r="S67" t="n" s="12">
         <v>0.9395833333333333</v>
+      </c>
+      <c r="T67" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="30.0" customHeight="true">
@@ -6222,7 +6734,7 @@
         <v>72.0</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s" s="7">
         <v>20</v>
@@ -6252,7 +6764,7 @@
         <v>0.9708333333333333</v>
       </c>
       <c r="N68" t="s" s="10">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -6260,12 +6772,17 @@
       <c r="P68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
-      <c r="Q68" s="10"/>
+      <c r="Q68" t="s" s="10">
+        <v>160</v>
+      </c>
       <c r="R68" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
       <c r="S68" t="n" s="12">
         <v>0.9381944444444444</v>
+      </c>
+      <c r="T68" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="30.0" customHeight="true">
@@ -6279,13 +6796,13 @@
         <v>73.0</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F69" t="s" s="142">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G69" t="n" s="9">
         <v>3.0</v>
@@ -6309,7 +6826,7 @@
         <v>0.9625</v>
       </c>
       <c r="N69" t="s" s="10">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -6317,12 +6834,17 @@
       <c r="P69" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q69" s="10"/>
+      <c r="Q69" t="s" s="10">
+        <v>30</v>
+      </c>
       <c r="R69" t="n" s="12">
         <v>0.9284722222222223</v>
       </c>
       <c r="S69" t="n" s="12">
         <v>0.9479166666666666</v>
+      </c>
+      <c r="T69" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="30.0" customHeight="true">
@@ -6336,13 +6858,13 @@
         <v>74.0</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F70" t="s" s="144">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G70" t="n" s="9">
         <v>1.0</v>
@@ -6366,7 +6888,7 @@
         <v>0.9375</v>
       </c>
       <c r="N70" t="s" s="10">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
@@ -6374,12 +6896,17 @@
       <c r="P70" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="Q70" s="10"/>
+      <c r="Q70" t="s" s="10">
+        <v>164</v>
+      </c>
       <c r="R70" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="S70" t="n" s="12">
         <v>0.9166666666666666</v>
+      </c>
+      <c r="T70" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="30.0" customHeight="true">
@@ -6393,13 +6920,13 @@
         <v>75.0</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F71" t="s" s="146">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G71" t="n" s="9">
         <v>2.0</v>
@@ -6423,7 +6950,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N71" t="s" s="10">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -6431,12 +6958,17 @@
       <c r="P71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="Q71" s="10"/>
+      <c r="Q71" t="s" s="10">
+        <v>164</v>
+      </c>
       <c r="R71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S71" t="n" s="12">
         <v>0.9513888888888888</v>
+      </c>
+      <c r="T71" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="30.0" customHeight="true">
@@ -6450,13 +6982,13 @@
         <v>77.0</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F72" t="s" s="148">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G72" t="n" s="9">
         <v>1.0</v>
@@ -6480,7 +7012,7 @@
         <v>0.9618055555555556</v>
       </c>
       <c r="N72" t="s" s="10">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -6488,12 +7020,17 @@
       <c r="P72" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q72" s="10"/>
+      <c r="Q72" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R72" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
       <c r="S72" t="n" s="12">
         <v>0.9270833333333334</v>
+      </c>
+      <c r="T72" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="30.0" customHeight="true">
@@ -6507,13 +7044,13 @@
         <v>78.0</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F73" t="s" s="150">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G73" t="n" s="9">
         <v>4.0</v>
@@ -6537,7 +7074,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N73" t="s" s="10">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -6545,12 +7082,17 @@
       <c r="P73" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q73" s="10"/>
+      <c r="Q73" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="S73" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T73" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="30.0" customHeight="true">
@@ -6564,13 +7106,13 @@
         <v>79.0</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F74" t="s" s="152">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G74" t="n" s="9">
         <v>2.0</v>
@@ -6594,7 +7136,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N74" t="s" s="10">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
@@ -6602,12 +7144,17 @@
       <c r="P74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="Q74" s="10"/>
+      <c r="Q74" t="s" s="10">
+        <v>30</v>
+      </c>
       <c r="R74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
       <c r="S74" t="n" s="12">
         <v>0.9472222222222222</v>
+      </c>
+      <c r="T74" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="30.0" customHeight="true">
@@ -6621,7 +7168,7 @@
         <v>80.0</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="E75" t="s" s="7">
         <v>20</v>
@@ -6651,7 +7198,7 @@
         <v>0.9604166666666667</v>
       </c>
       <c r="N75" t="s" s="10">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -6659,12 +7206,17 @@
       <c r="P75" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="Q75" s="10"/>
+      <c r="Q75" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R75" t="n" s="12">
         <v>0.8631944444444445</v>
       </c>
       <c r="S75" t="n" s="12">
         <v>0.9118055555555555</v>
+      </c>
+      <c r="T75" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="30.0" customHeight="true">
@@ -6678,13 +7230,13 @@
         <v>81.0</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F76" t="s" s="155">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G76" t="n" s="9">
         <v>1.0</v>
@@ -6708,7 +7260,7 @@
         <v>0.9055555555555556</v>
       </c>
       <c r="N76" t="s" s="10">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
@@ -6716,12 +7268,17 @@
       <c r="P76" t="n" s="12">
         <v>0.8743055555555556</v>
       </c>
-      <c r="Q76" s="10"/>
+      <c r="Q76" t="s" s="10">
+        <v>175</v>
+      </c>
       <c r="R76" t="n" s="12">
         <v>0.7805555555555556</v>
       </c>
       <c r="S76" t="n" s="12">
         <v>0.8430555555555556</v>
+      </c>
+      <c r="T76" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="30.0" customHeight="true">
@@ -6735,13 +7292,13 @@
         <v>82.0</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E77" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F77" t="s" s="157">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G77" t="n" s="9">
         <v>2.0</v>
@@ -6765,7 +7322,7 @@
         <v>0.9270833333333334</v>
       </c>
       <c r="N77" t="s" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O77" t="n" s="12">
         <v>0.84375</v>
@@ -6773,12 +7330,17 @@
       <c r="P77" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="Q77" s="10"/>
+      <c r="Q77" t="s" s="10">
+        <v>37</v>
+      </c>
       <c r="R77" t="n" s="12">
         <v>0.8020833333333334</v>
       </c>
       <c r="S77" t="n" s="12">
         <v>0.84375</v>
+      </c>
+      <c r="T77" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="30.0" customHeight="true">
@@ -6792,13 +7354,13 @@
         <v>84.0</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F78" t="s" s="159">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G78" t="n" s="9">
         <v>4.0</v>
@@ -6822,7 +7384,7 @@
         <v>0.9840277777777777</v>
       </c>
       <c r="N78" t="s" s="10">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
@@ -6830,12 +7392,17 @@
       <c r="P78" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q78" s="10"/>
+      <c r="Q78" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R78" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
       <c r="S78" t="n" s="12">
         <v>0.9465277777777777</v>
+      </c>
+      <c r="T78" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="30.0" customHeight="true">
@@ -6849,13 +7416,13 @@
         <v>86.0</v>
       </c>
       <c r="D79" t="s" s="7">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F79" t="s" s="161">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n" s="9">
         <v>8.0</v>
@@ -6879,7 +7446,7 @@
         <v>0.9840277777777777</v>
       </c>
       <c r="N79" t="s" s="10">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -6887,12 +7454,17 @@
       <c r="P79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="Q79" s="10"/>
+      <c r="Q79" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R79" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="S79" t="n" s="12">
         <v>0.9395833333333333</v>
+      </c>
+      <c r="T79" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="30.0" customHeight="true">
@@ -6906,13 +7478,13 @@
         <v>87.0</v>
       </c>
       <c r="D80" t="s" s="7">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F80" t="s" s="163">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n" s="9">
         <v>3.0</v>
@@ -6936,7 +7508,7 @@
         <v>0.98125</v>
       </c>
       <c r="N80" t="s" s="10">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
@@ -6944,11 +7516,16 @@
       <c r="P80" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q80" s="10"/>
+      <c r="Q80" t="s" s="10">
+        <v>103</v>
+      </c>
       <c r="R80" t="s" s="12">
         <v>20</v>
       </c>
       <c r="S80" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="T80" t="s" s="10">
         <v>20</v>
       </c>
     </row>
@@ -6963,13 +7540,13 @@
         <v>88.0</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F81" t="s" s="165">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G81" t="n" s="9">
         <v>10.0</v>
@@ -6993,7 +7570,7 @@
         <v>0.9805555555555555</v>
       </c>
       <c r="N81" t="s" s="10">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
@@ -7001,12 +7578,17 @@
       <c r="P81" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q81" s="10"/>
+      <c r="Q81" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R81" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
       <c r="S81" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T81" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="30.0" customHeight="true">
@@ -7020,13 +7602,13 @@
         <v>89.0</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F82" t="s" s="167">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G82" t="n" s="9">
         <v>2.0</v>
@@ -7050,7 +7632,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N82" t="s" s="10">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
@@ -7058,12 +7640,17 @@
       <c r="P82" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q82" s="10"/>
+      <c r="Q82" t="s" s="10">
+        <v>185</v>
+      </c>
       <c r="R82" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
       <c r="S82" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T82" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="30.0" customHeight="true">
@@ -7077,13 +7664,13 @@
         <v>90.0</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E83" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F83" t="s" s="169">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G83" t="n" s="9">
         <v>5.0</v>
@@ -7107,7 +7694,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="N83" t="s" s="10">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -7115,12 +7702,17 @@
       <c r="P83" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="Q83" s="10"/>
+      <c r="Q83" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R83" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
       <c r="S83" t="n" s="12">
         <v>0.94375</v>
+      </c>
+      <c r="T83" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="30.0" customHeight="true">
@@ -7134,13 +7726,13 @@
         <v>91.0</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F84" t="s" s="171">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G84" t="n" s="9">
         <v>3.0</v>
@@ -7164,7 +7756,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="N84" t="s" s="10">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -7172,12 +7764,17 @@
       <c r="P84" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="Q84" s="10"/>
+      <c r="Q84" t="s" s="10">
+        <v>189</v>
+      </c>
       <c r="R84" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
       <c r="S84" t="n" s="12">
         <v>0.9298611111111111</v>
+      </c>
+      <c r="T84" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="30.0" customHeight="true">
@@ -7191,13 +7788,13 @@
         <v>92.0</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F85" t="s" s="173">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G85" t="n" s="9">
         <v>5.0</v>
@@ -7221,7 +7818,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="N85" t="s" s="10">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -7229,12 +7826,17 @@
       <c r="P85" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q85" s="10"/>
+      <c r="Q85" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R85" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
       <c r="S85" t="n" s="12">
         <v>0.9479166666666666</v>
+      </c>
+      <c r="T85" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="30.0" customHeight="true">
@@ -7248,13 +7850,13 @@
         <v>94.0</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="E86" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F86" t="s" s="175">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G86" t="n" s="9">
         <v>4.0</v>
@@ -7278,7 +7880,7 @@
         <v>0.9645833333333333</v>
       </c>
       <c r="N86" t="s" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
@@ -7286,12 +7888,17 @@
       <c r="P86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q86" s="10"/>
+      <c r="Q86" t="s" s="10">
+        <v>192</v>
+      </c>
       <c r="R86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="S86" t="n" s="12">
         <v>0.9409722222222222</v>
+      </c>
+      <c r="T86" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="30.0" customHeight="true">
@@ -7305,13 +7912,13 @@
         <v>95.0</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F87" t="s" s="177">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87" t="n" s="9">
         <v>7.0</v>
@@ -7335,7 +7942,7 @@
         <v>0.9958333333333333</v>
       </c>
       <c r="N87" t="s" s="10">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
@@ -7343,12 +7950,17 @@
       <c r="P87" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="Q87" s="10"/>
+      <c r="Q87" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R87" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="S87" t="n" s="12">
         <v>0.9458333333333333</v>
+      </c>
+      <c r="T87" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="30.0" customHeight="true">
@@ -7362,13 +7974,13 @@
         <v>99.0</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F88" t="s" s="179">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88" t="n" s="9">
         <v>4.0</v>
@@ -7392,7 +8004,7 @@
         <v>0.9652777777777778</v>
       </c>
       <c r="N88" t="s" s="10">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -7400,12 +8012,17 @@
       <c r="P88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q88" s="10"/>
+      <c r="Q88" t="s" s="10">
+        <v>37</v>
+      </c>
       <c r="R88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="S88" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T88" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="30.0" customHeight="true">
@@ -7419,13 +8036,13 @@
         <v>101.0</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F89" t="s" s="181">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G89" t="n" s="9">
         <v>5.0</v>
@@ -7449,7 +8066,7 @@
         <v>1.0006944444444446</v>
       </c>
       <c r="N89" t="s" s="10">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
@@ -7457,12 +8074,17 @@
       <c r="P89" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
-      <c r="Q89" s="10"/>
+      <c r="Q89" t="s" s="10">
+        <v>105</v>
+      </c>
       <c r="R89" t="n" s="12">
         <v>0.9069444444444444</v>
       </c>
       <c r="S89" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T89" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="30.0" customHeight="true">
@@ -7476,13 +8098,13 @@
         <v>102.0</v>
       </c>
       <c r="D90" t="s" s="7">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F90" t="s" s="183">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G90" t="n" s="9">
         <v>5.0</v>
@@ -7506,7 +8128,7 @@
         <v>0.9958333333333333</v>
       </c>
       <c r="N90" t="s" s="10">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -7514,12 +8136,17 @@
       <c r="P90" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q90" s="10"/>
+      <c r="Q90" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R90" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
       <c r="S90" t="n" s="12">
         <v>0.9506944444444444</v>
+      </c>
+      <c r="T90" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="30.0" customHeight="true">
@@ -7533,13 +8160,13 @@
         <v>103.0</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E91" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F91" t="s" s="185">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G91" t="n" s="9">
         <v>3.0</v>
@@ -7563,7 +8190,7 @@
         <v>0.9701388888888889</v>
       </c>
       <c r="N91" t="s" s="10">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -7571,12 +8198,17 @@
       <c r="P91" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="Q91" s="10"/>
+      <c r="Q91" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R91" t="n" s="12">
         <v>0.8611111111111112</v>
       </c>
       <c r="S91" t="n" s="12">
         <v>0.8888888888888888</v>
+      </c>
+      <c r="T91" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="30.0" customHeight="true">
@@ -7590,13 +8222,13 @@
         <v>104.0</v>
       </c>
       <c r="D92" t="s" s="7">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F92" t="s" s="187">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G92" t="n" s="9">
         <v>2.0</v>
@@ -7620,7 +8252,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="N92" t="s" s="10">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -7628,12 +8260,17 @@
       <c r="P92" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="Q92" s="10"/>
+      <c r="Q92" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="R92" t="n" s="12">
         <v>0.875</v>
       </c>
       <c r="S92" t="n" s="12">
         <v>0.8993055555555556</v>
+      </c>
+      <c r="T92" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="30.0" customHeight="true">
@@ -7647,13 +8284,13 @@
         <v>106.0</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F93" t="s" s="189">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G93" t="n" s="9">
         <v>4.0</v>
@@ -7677,7 +8314,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N93" t="s" s="10">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
@@ -7685,12 +8322,17 @@
       <c r="P93" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="Q93" s="10"/>
+      <c r="Q93" t="s" s="10">
+        <v>205</v>
+      </c>
       <c r="R93" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
       <c r="S93" t="n" s="12">
         <v>0.9305555555555556</v>
+      </c>
+      <c r="T93" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="30.0" customHeight="true">
@@ -7704,13 +8346,13 @@
         <v>107.0</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F94" t="s" s="191">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G94" t="n" s="9">
         <v>1.0</v>
@@ -7734,7 +8376,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="N94" t="s" s="10">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
@@ -7742,12 +8384,17 @@
       <c r="P94" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q94" s="10"/>
+      <c r="Q94" t="s" s="10">
+        <v>37</v>
+      </c>
       <c r="R94" t="n" s="12">
         <v>0.8298611111111112</v>
       </c>
       <c r="S94" t="n" s="12">
         <v>0.90625</v>
+      </c>
+      <c r="T94" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="30.0" customHeight="true">
@@ -7761,13 +8408,13 @@
         <v>108.0</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F95" t="s" s="193">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="n" s="9">
         <v>4.0</v>
@@ -7791,7 +8438,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N95" t="s" s="10">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -7799,12 +8446,17 @@
       <c r="P95" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="Q95" s="10"/>
+      <c r="Q95" t="s" s="10">
+        <v>30</v>
+      </c>
       <c r="R95" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
       <c r="S95" t="n" s="12">
         <v>0.9520833333333333</v>
+      </c>
+      <c r="T95" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="30.0" customHeight="true">
@@ -7818,13 +8470,13 @@
         <v>109.0</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F96" t="s" s="195">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G96" t="n" s="9">
         <v>1.0</v>
@@ -7848,7 +8500,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="N96" t="s" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -7856,12 +8508,17 @@
       <c r="P96" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q96" s="10"/>
+      <c r="Q96" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="R96" t="n" s="12">
         <v>0.8694444444444445</v>
       </c>
       <c r="S96" t="n" s="12">
         <v>0.9180555555555555</v>
+      </c>
+      <c r="T96" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="30.0" customHeight="true">
@@ -7875,13 +8532,13 @@
         <v>110.0</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F97" t="s" s="197">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G97" t="n" s="9">
         <v>2.0</v>
@@ -7905,7 +8562,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="N97" t="s" s="10">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -7913,12 +8570,17 @@
       <c r="P97" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q97" s="10"/>
+      <c r="Q97" t="s" s="10">
+        <v>61</v>
+      </c>
       <c r="R97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
       <c r="S97" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T97" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="30.0" customHeight="true">
@@ -7932,13 +8594,13 @@
         <v>112.0</v>
       </c>
       <c r="D98" t="s" s="7">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F98" t="s" s="199">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G98" t="n" s="9">
         <v>3.0</v>
@@ -7962,7 +8624,7 @@
         <v>0.9631944444444445</v>
       </c>
       <c r="N98" t="s" s="10">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="O98" t="n" s="12">
         <v>0.89375</v>
@@ -7970,12 +8632,17 @@
       <c r="P98" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="Q98" s="10"/>
+      <c r="Q98" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R98" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
       <c r="S98" t="n" s="12">
         <v>0.8819444444444444</v>
+      </c>
+      <c r="T98" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="30.0" customHeight="true">
@@ -7989,13 +8656,13 @@
         <v>121.0</v>
       </c>
       <c r="D99" t="s" s="7">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F99" t="s" s="201">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G99" t="n" s="9">
         <v>5.0</v>
@@ -8019,7 +8686,7 @@
         <v>0.9756944444444444</v>
       </c>
       <c r="N99" t="s" s="10">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O99" t="n" s="12">
         <v>0.925</v>
@@ -8027,12 +8694,17 @@
       <c r="P99" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="Q99" s="10"/>
+      <c r="Q99" t="s" s="10">
+        <v>42</v>
+      </c>
       <c r="R99" t="n" s="12">
         <v>0.93125</v>
       </c>
       <c r="S99" t="n" s="12">
         <v>0.9423611111111111</v>
+      </c>
+      <c r="T99" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="30.0" customHeight="true">
@@ -8046,13 +8718,13 @@
         <v>122.0</v>
       </c>
       <c r="D100" t="s" s="7">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F100" t="s" s="203">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G100" t="n" s="9">
         <v>2.0</v>
@@ -8076,7 +8748,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="N100" t="s" s="10">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -8084,12 +8756,17 @@
       <c r="P100" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="Q100" s="10"/>
+      <c r="Q100" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R100" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
       <c r="S100" t="n" s="12">
         <v>0.9229166666666667</v>
+      </c>
+      <c r="T100" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="30.0" customHeight="true">
@@ -8103,13 +8780,13 @@
         <v>124.0</v>
       </c>
       <c r="D101" t="s" s="7">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F101" t="s" s="205">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101" t="n" s="9">
         <v>3.0</v>
@@ -8133,7 +8810,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="N101" t="s" s="10">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -8141,12 +8818,17 @@
       <c r="P101" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="Q101" s="10"/>
+      <c r="Q101" t="s" s="10">
+        <v>219</v>
+      </c>
       <c r="R101" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
       <c r="S101" t="n" s="12">
         <v>0.9527777777777777</v>
+      </c>
+      <c r="T101" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="30.0" customHeight="true">
@@ -8160,13 +8842,13 @@
         <v>150.0</v>
       </c>
       <c r="D102" t="s" s="7">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F102" t="s" s="207">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G102" t="n" s="9">
         <v>10.0</v>
@@ -8190,7 +8872,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="N102" t="s" s="10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="O102" t="n" s="12">
         <v>0.9375</v>
@@ -8198,12 +8880,17 @@
       <c r="P102" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="Q102" s="10"/>
+      <c r="Q102" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R102" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
       <c r="S102" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T102" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="30.0" customHeight="true">
@@ -8217,13 +8904,13 @@
         <v>301.0</v>
       </c>
       <c r="D103" t="s" s="7">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F103" t="s" s="209">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G103" t="n" s="9">
         <v>16.0</v>
@@ -8247,7 +8934,7 @@
         <v>1.011111111111111</v>
       </c>
       <c r="N103" t="s" s="10">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
@@ -8255,12 +8942,17 @@
       <c r="P103" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="Q103" s="10"/>
+      <c r="Q103" t="s" s="10">
+        <v>39</v>
+      </c>
       <c r="R103" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S103" t="n" s="12">
         <v>0.9409722222222222</v>
+      </c>
+      <c r="T103" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="30.0" customHeight="true">
@@ -8274,13 +8966,13 @@
         <v>321.0</v>
       </c>
       <c r="D104" t="s" s="7">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F104" t="s" s="211">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G104" t="n" s="9">
         <v>4.0</v>
@@ -8304,7 +8996,7 @@
         <v>0.9652777777777778</v>
       </c>
       <c r="N104" t="s" s="10">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -8312,12 +9004,17 @@
       <c r="P104" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q104" s="10"/>
+      <c r="Q104" t="s" s="10">
+        <v>164</v>
+      </c>
       <c r="R104" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
       <c r="S104" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T104" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="30.0" customHeight="true">
@@ -8331,13 +9028,13 @@
         <v>332.0</v>
       </c>
       <c r="D105" t="s" s="7">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F105" t="s" s="213">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G105" t="n" s="9">
         <v>8.0</v>
@@ -8361,7 +9058,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="N105" t="s" s="10">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -8369,12 +9066,17 @@
       <c r="P105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="Q105" s="10"/>
+      <c r="Q105" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="R105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S105" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T105" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="30.0" customHeight="true">
@@ -8388,7 +9090,7 @@
         <v>334.0</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s" s="7">
         <v>20</v>
@@ -8418,7 +9120,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="N106" t="s" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
@@ -8426,12 +9128,17 @@
       <c r="P106" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="Q106" s="10"/>
+      <c r="Q106" t="s" s="10">
+        <v>37</v>
+      </c>
       <c r="R106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
       <c r="S106" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T106" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="30.0" customHeight="true">
@@ -8445,13 +9152,13 @@
         <v>339.0</v>
       </c>
       <c r="D107" t="s" s="7">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F107" t="s" s="217">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G107" t="n" s="9">
         <v>4.0</v>
@@ -8475,7 +9182,7 @@
         <v>0.9673611111111111</v>
       </c>
       <c r="N107" t="s" s="10">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
@@ -8483,11 +9190,16 @@
       <c r="P107" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="Q107" s="10"/>
+      <c r="Q107" t="s" s="10">
+        <v>103</v>
+      </c>
       <c r="R107" t="s" s="12">
         <v>20</v>
       </c>
       <c r="S107" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="T107" t="s" s="10">
         <v>20</v>
       </c>
     </row>
@@ -8502,13 +9214,13 @@
         <v>343.0</v>
       </c>
       <c r="D108" t="s" s="7">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F108" t="s" s="219">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G108" t="n" s="9">
         <v>9.0</v>
@@ -8532,7 +9244,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="N108" t="s" s="10">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
@@ -8540,12 +9252,17 @@
       <c r="P108" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="Q108" s="10"/>
+      <c r="Q108" t="s" s="10">
+        <v>227</v>
+      </c>
       <c r="R108" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
       <c r="S108" t="n" s="12">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="T108" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="30.0" customHeight="true">
@@ -8559,13 +9276,13 @@
         <v>344.0</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="E109" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F109" t="s" s="221">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" t="n" s="9">
         <v>9.0</v>
@@ -8589,7 +9306,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N109" t="s" s="10">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
@@ -8597,12 +9314,17 @@
       <c r="P109" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q109" s="10"/>
+      <c r="Q109" t="s" s="10">
+        <v>227</v>
+      </c>
       <c r="R109" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S109" t="n" s="12">
         <v>0.9375</v>
+      </c>
+      <c r="T109" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="30.0" customHeight="true">
@@ -8616,13 +9338,13 @@
         <v>345.0</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F110" t="s" s="223">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G110" t="n" s="9">
         <v>15.0</v>
@@ -8646,7 +9368,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="N110" t="s" s="10">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -8654,12 +9376,17 @@
       <c r="P110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="Q110" s="10"/>
+      <c r="Q110" t="s" s="10">
+        <v>46</v>
+      </c>
       <c r="R110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
       <c r="S110" t="n" s="12">
         <v>0.9409722222222222</v>
+      </c>
+      <c r="T110" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="30.0" customHeight="true">
@@ -8673,13 +9400,13 @@
         <v>346.0</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F111" t="s" s="225">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G111" t="n" s="9">
         <v>10.0</v>
@@ -8703,7 +9430,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="N111" t="s" s="10">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
@@ -8711,12 +9438,17 @@
       <c r="P111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="Q111" s="10"/>
+      <c r="Q111" t="s" s="10">
+        <v>232</v>
+      </c>
       <c r="R111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
       <c r="S111" t="n" s="12">
         <v>0.9416666666666667</v>
+      </c>
+      <c r="T111" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="30.0" customHeight="true">
@@ -8730,13 +9462,13 @@
         <v>363.0</v>
       </c>
       <c r="D112" t="s" s="7">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="E112" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F112" t="s" s="227">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G112" t="n" s="9">
         <v>8.0</v>
@@ -8760,7 +9492,7 @@
         <v>0.9777777777777777</v>
       </c>
       <c r="N112" t="s" s="10">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -8768,12 +9500,17 @@
       <c r="P112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="Q112" s="10"/>
+      <c r="Q112" t="s" s="10">
+        <v>67</v>
+      </c>
       <c r="R112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
       <c r="S112" t="n" s="12">
         <v>0.9388888888888889</v>
+      </c>
+      <c r="T112" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="30.0" customHeight="true">
@@ -8787,13 +9524,13 @@
         <v>383.0</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F113" t="s" s="229">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G113" t="n" s="9">
         <v>8.0</v>
@@ -8817,7 +9554,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="N113" t="s" s="10">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -8825,12 +9562,17 @@
       <c r="P113" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="Q113" s="10"/>
+      <c r="Q113" t="s" s="10">
+        <v>28</v>
+      </c>
       <c r="R113" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
       <c r="S113" t="n" s="12">
         <v>0.9416666666666667</v>
+      </c>
+      <c r="T113" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="30.0" customHeight="true">
@@ -8844,13 +9586,13 @@
         <v>385.0</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F114" t="s" s="231">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G114" t="n" s="9">
         <v>3.0</v>
@@ -8874,7 +9616,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="N114" t="s" s="10">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -8882,11 +9624,16 @@
       <c r="P114" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="Q114" s="10"/>
+      <c r="Q114" t="s" s="10">
+        <v>103</v>
+      </c>
       <c r="R114" t="s" s="12">
         <v>20</v>
       </c>
       <c r="S114" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="T114" t="s" s="10">
         <v>20</v>
       </c>
     </row>
@@ -8901,13 +9648,13 @@
         <v>387.0</v>
       </c>
       <c r="D115" t="s" s="7">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
       <c r="F115" t="s" s="233">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G115" t="n" s="9">
         <v>4.0</v>
@@ -8931,7 +9678,7 @@
         <v>0.9701388888888889</v>
       </c>
       <c r="N115" t="s" s="10">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
@@ -8939,11 +9686,16 @@
       <c r="P115" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="Q115" s="10"/>
+      <c r="Q115" t="s" s="10">
+        <v>103</v>
+      </c>
       <c r="R115" t="s" s="12">
         <v>20</v>
       </c>
       <c r="S115" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="T115" t="s" s="10">
         <v>20</v>
       </c>
     </row>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="233">
   <si>
     <t xml:space="preserve">მარშრუტის. № </t>
   </si>
@@ -77,20 +77,10 @@
     <t>გასვლები "B" პუნქტიდან</t>
   </si>
   <si>
-    <t>როსტომ აბრამიშვილის ქ. #1-3 კორპუსის  მიმდებარედ (მოედანთან) - როსტომ აბრამიშვილის ქ. -  ლილოს დასახლება (ჭირნახულის ქ. - მეფრინველეთა ქ. - თენზიგ სტურუას ქ. - ზურაბ ნამორაძის ქ. - ევგენი აფხაზავას II შესახვევი - ევგენი აფხაზავას ქ. - ჭირნახულის ქ.) - ივანე იუმაშევის ქ. - კახეთის გზატკეცილი - ჯავახეთის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ). 
-უკუმიმართულებით: მ/ს 'ისანი'(ქეთევან დედოფლის გამზირი #67'ა'-ს მოპირდაპირედ)  - ვაჟა ჩაჩავას ქ. - აწყურის ქ. - კახეთის I შესახვევი - ქეთევან დედოფლის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - მოსკოვის გამზირი - ჯავახეთის ქ. - კახეთის გზატკეცილი - ივანე იუმაშევის ქ. - ლილოს დასახლება (ჭირნახულის ქ. - ევგენი აფხაზავას ქ. - ევგენი აფხაზავას II შესახვევი - ევგენი აფხაზავას IV შესახვევი -  ევგენი აფხაზავას ქ. - თენზიგ სტურუას ქ. - მეფრინველეთა ქ. - ჭირნახულის ქ. ) - როსტომ აბრამიშვილის ქ. - როსტომ აბრამიშვილის ქ. #1-3 კორპუსის  მიმდებარედ (მოედანთან))</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>MAN A-47</t>
-  </si>
-  <si>
-    <t> ლილო-ლოჭინი</t>
-  </si>
-  <si>
-    <t>მ/ს ისანი</t>
   </si>
   <si>
     <t>ქიზიყის ქ. (#5 კორპუსის მიმდებარედ) - ქიზიყის ქ. - პოლიციის ქ. - აბელ ენუქიძის ქ. - ბესარიონ ჭიჭინაძის ქ. - გუმათჰესის ქ. - ქინძმარაულის ქ. - მოსკოვის გამზირი - მ/ს 'სამგორი' (ქვედა გასასვლელი) - ქეთევან დედოფლის გამზირი - ნიკოლოზ ბარათაშვილის აღმართი – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. (გაჩერება „კონკის“ მხარეს).
@@ -165,13 +155,6 @@
     <t>ვაკე-ბაგები</t>
   </si>
   <si>
-    <t xml:space="preserve">დაბა კოჯორი (ვაჟა ფშაველას ქ. #33-ის მიმდებარედ) - დაბა კოჯორი (ვაჟა ფშაველას ქ. - ალექსანდრე ჩხეიძის ქ. (მობრუნება ალექსანდრე ჩხეიძის ქ. #16-თან) - გრიგოლ ორბელიანის ქ. - ამაღლების ქ. - ზაქარია ბაქრაძის ქ. - იუნკერთა ქ.) - თბილისი-კოჯრის ქ. (სოფ. ტაბახმელას, სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).
-უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი –  კოჯრის გზატკეცილი -  თბილისი-კოჯრის ქ. (წავკისის ველის, სოფ. წავკისის, სოფ. შინდისის, სოფ. ტაბახმელას გავლით) - დაბა კოჯორი (იუნკერთა ქ. - ზაქარია ბაქრაძის ქ. -  ამაღლების ქ. - გრიგოლ ორბელიანის ქ. - ალექსანდრე ჩხეიძის ქ. (მობრუნება ალექსანდრე ჩხეიძის ქ. #16-თან) - ვაჟა ფშაველას ქ. - აზეულას ქ. (მობრუნება ნიკო კეცხოველის ქუჩის გადაკვეთასთან) - ვჟა ფშაველას ქ. - ვაჟა ფშაველას ქ.#33-ის მიმდებარედ). </t>
-  </si>
-  <si>
-    <t>კოჯორი </t>
-  </si>
-  <si>
     <t xml:space="preserve">დაბა ზაჰესის დასახლება (ავჭალის ქ., ბენზინ გასამართი სადგურის მიმდებარე ტერიტორია) - ავჭალის ქ. - ელეფთერ ანდრონიკაშვილის ქ. - უწერის ქ. - ლიბანის ქ. - დავით სარაჯიშვილის ქ. - დავით გურამიშვილის გამზირი - თორნიკე ერისთავის ქ. - აკაკი წერეთლის გამზირი - აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი)
 უკუმიმართულებით:  აკაკი წერეთლის გამზირი #2-ის მიმდებარედ (ბორის პაიჭაძის სახ. ეროვნული სტადიონი) - აკაკი წერეთლის გამზირი (მობრუნება გიორგი ცაბაძის ქუჩის გადაკვეთასთან) - შემდეგ იგივე სქემით. </t>
   </si>
@@ -187,6 +170,9 @@
   </si>
   <si>
     <t>დიდი ლილო</t>
+  </si>
+  <si>
+    <t>მ/ს ისანი</t>
   </si>
   <si>
     <t xml:space="preserve">დიდი დიღმის IV მ/რაიონი, კორპუსი #6-ის მიმდებარედ (დემეტრე თავდადებულის ქ.) - დიდი დიღომი  IV მ/რაიონი (დემეტრე თავდადებულის ქ. - არჩილ მეფის ქ.) - დიდი დიღმის III მ/რაიონი (მირიან მეფის ქ.) - პეტრე იბერის ქ. - იოანე პეტრიწის ქ. - ფარნავაზ მეფის გამზირი - დავით აღმაშენებლის ხეივანი  - მარშალ გელოვანის გამზირი - იური გაგარინის ქ. - ზურაბ ჟვანიას მოედანი - სიმონ კანდელაკის ქ. - ჟიული შარტავას ქ. - გიორგი სააკაძის მოედანი - მერაბ კოსტავას ქ. - გიორგი მიროტაძის ქ. - პეკინის გამზირი - მერაბ კოსტავას ქ. - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი -  თავისუფლების მოედანი-ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                                                                                                                                                                              უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – შოთა რუსთაველის გამზირი – მერაბ კოსტავას ქ. – გმირთა მოედანი – მერაბ კოსტავას ქ. – გიორგი სააკაძის მოედანი – ჟიული შარტავას ქუჩა -  შემდეგ იგივე სქემით. </t>
@@ -679,13 +665,6 @@
     <t>ნუცუბიძის V მ/რ</t>
   </si>
   <si>
-    <t>ყოფილი ზოოვეტერინარული უნივერსიტეტის საერთო საცხოვრებელი კორპუსები - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასალის ქ. - გულიას მ-ნი, ქ. - ბაღდადის ქ. - ნავთლუღის ქ. - მ/ს ,,ისანი' - ქეთევან დედოფლის გამზირი - მოსკოვის გამზირი - ჯავახეთის ქ. - სუხიშვილის ქ - თაყაიშვილის ქ. (ვარკეთილის IV მ/რ, #418-403 კორპუსის მიმდებარედ)
-უკუ მიმართულებით:  იგივე სქემით.</t>
-  </si>
-  <si>
-    <t>აგრარულის საერთო საცხოვრებელი</t>
-  </si>
-  <si>
     <t>საქართველოს სასჯელაღსრულების, პრობაციისა და იურიდიული დახმარების საკითხთა სამინისტროს სასჯელაღსრულების დეპარტამეტის დაქვემდებარებაში არსებული N6 დაწესებულება - სოფელი კრწანისი - კრწანისის სასწავლო ცენტრი - შსს-ოს აგარაკები - გიგანტის დასახლება - ზოოვეტერინარული ინსტიტუტის დასახლება - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასლის ქ. - მეტეხის ხიდი - რიყე - მარცხენა სანაპირო - ბარათაშვილის ქ. (მობრუნება ბარათაშვილისა და პუშკინის ქუჩების გადაკვეთასთან, გაჩერება 'კონკის' მხარეს)
 უკუ მიმართულებით: ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - გორგასალის ქ. - შემდეგ იგივე სქემით</t>
   </si>
@@ -703,13 +682,6 @@
   </si>
   <si>
     <t>სოფელი დიღომი</t>
-  </si>
-  <si>
-    <t>დაბა კიკეთი - თბილისი-კოჯრის გზა (სოფ. დიდება, დაბა კოჯორი, სოფ. ტაბახმელა, სოფ. შინდისი, სოფ. წავკისი, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)
-უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ არსებული სქემით.</t>
-  </si>
-  <si>
-    <t>კიკეთი</t>
   </si>
   <si>
     <t>სოფ. ლისი - სოფ. თხინვალი - ახალი იპოდრომი -  ნუცუბიძის IV-II მ/რ - ჟღენტის ქ. - ნუცუბიძის ქ. - თავაძის ქ. - ზაქარიაძის ქ. - ვაჟა ფშაველას ჩიხი - მ/ს 'დელისი' (მიმდებარედ) 
@@ -2832,14 +2804,12 @@
       <c r="B5" t="n" s="6">
         <v>1.0</v>
       </c>
-      <c r="C5" t="s" s="6">
-        <v>21</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="13">
         <v>22</v>
-      </c>
-      <c r="E5" t="s" s="13">
-        <v>23</v>
       </c>
       <c r="F5" t="n" s="8">
         <v>8.0</v>
@@ -2850,7 +2820,9 @@
       <c r="H5" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" t="n" s="10">
+        <v>0.017361111111111112</v>
+      </c>
       <c r="J5" t="n" s="9">
         <v>142.0</v>
       </c>
@@ -2866,18 +2838,14 @@
       <c r="N5" t="n" s="11">
         <v>0.9930555555555556</v>
       </c>
-      <c r="O5" t="s" s="9">
-        <v>24</v>
-      </c>
+      <c r="O5" s="9"/>
       <c r="P5" t="n" s="11">
         <v>0.925</v>
       </c>
       <c r="Q5" t="n" s="11">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R5" t="s" s="9">
-        <v>25</v>
-      </c>
+      <c r="R5" s="9"/>
       <c r="S5" t="n" s="11">
         <v>0.9236111111111112</v>
       </c>
@@ -2885,7 +2853,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="U5" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
@@ -2896,13 +2864,13 @@
         <v>2.0</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n" s="8">
         <v>11.0</v>
@@ -2913,7 +2881,9 @@
       <c r="H6" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J6" t="n" s="9">
         <v>184.0</v>
       </c>
@@ -2930,7 +2900,7 @@
         <v>1.007638888888889</v>
       </c>
       <c r="O6" t="s" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -2939,7 +2909,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R6" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S6" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -2948,7 +2918,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U6" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="true">
@@ -2959,13 +2929,13 @@
         <v>2.0</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n" s="8">
         <v>6.0</v>
@@ -2976,7 +2946,9 @@
       <c r="H7" t="n" s="11">
         <v>0.06666666666666667</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J7" t="n" s="9">
         <v>111.0</v>
       </c>
@@ -2993,7 +2965,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="O7" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P7" t="n" s="11">
         <v>0.9180555555555555</v>
@@ -3002,7 +2974,7 @@
         <v>0.9402777777777778</v>
       </c>
       <c r="R7" t="s" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S7" t="n" s="11">
         <v>0.9180555555555555</v>
@@ -3011,7 +2983,7 @@
         <v>0.9402777777777778</v>
       </c>
       <c r="U7" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="true">
@@ -3022,13 +2994,13 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n" s="8">
         <v>3.0</v>
@@ -3039,7 +3011,9 @@
       <c r="H8" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J8" t="n" s="9">
         <v>45.0</v>
       </c>
@@ -3056,7 +3030,7 @@
         <v>0.9951388888888889</v>
       </c>
       <c r="O8" t="s" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P8" t="n" s="11">
         <v>0.9145833333333333</v>
@@ -3065,7 +3039,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="R8" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S8" t="n" s="11">
         <v>0.875</v>
@@ -3074,7 +3048,7 @@
         <v>0.9027777777777778</v>
       </c>
       <c r="U8" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="true">
@@ -3085,13 +3059,13 @@
         <v>1.0</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n" s="8">
         <v>2.0</v>
@@ -3102,7 +3076,9 @@
       <c r="H9" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J9" t="n" s="9">
         <v>28.0</v>
       </c>
@@ -3119,7 +3095,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="O9" t="s" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P9" t="n" s="11">
         <v>0.875</v>
@@ -3128,7 +3104,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="R9" t="s" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S9" t="n" s="11">
         <v>0.8333333333333334</v>
@@ -3137,7 +3113,7 @@
         <v>0.875</v>
       </c>
       <c r="U9" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="true">
@@ -3148,13 +3124,13 @@
         <v>2.0</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s" s="23">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n" s="8">
         <v>7.0</v>
@@ -3165,7 +3141,9 @@
       <c r="H10" t="n" s="11">
         <v>0.09722222222222222</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J10" t="n" s="9">
         <v>89.0</v>
       </c>
@@ -3182,7 +3160,7 @@
         <v>1.0229166666666667</v>
       </c>
       <c r="O10" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P10" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3191,7 +3169,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R10" t="s" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S10" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -3200,7 +3178,7 @@
         <v>0.9493055555555555</v>
       </c>
       <c r="U10" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="true">
@@ -3211,13 +3189,13 @@
         <v>3.0</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s" s="25">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n" s="8">
         <v>3.0</v>
@@ -3228,7 +3206,9 @@
       <c r="H11" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J11" t="n" s="9">
         <v>89.0</v>
       </c>
@@ -3245,7 +3225,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="O11" t="s" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P11" t="n" s="11">
         <v>0.9375</v>
@@ -3254,7 +3234,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="R11" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S11" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -3263,7 +3243,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="U11" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="true">
@@ -3274,13 +3254,13 @@
         <v>2.0</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s" s="27">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n" s="8">
         <v>5.0</v>
@@ -3291,7 +3271,9 @@
       <c r="H12" t="n" s="11">
         <v>0.052083333333333336</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J12" t="n" s="9">
         <v>124.0</v>
       </c>
@@ -3308,7 +3290,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="O12" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P12" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -3317,7 +3299,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="R12" t="s" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S12" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -3326,7 +3308,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="U12" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="true">
@@ -3336,14 +3318,12 @@
       <c r="B13" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C13" t="s" s="6">
-        <v>48</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s" s="29">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n" s="8">
         <v>4.0</v>
@@ -3354,7 +3334,9 @@
       <c r="H13" t="n" s="11">
         <v>0.10694444444444444</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" t="n" s="10">
+        <v>0.027083333333333334</v>
+      </c>
       <c r="J13" t="n" s="9">
         <v>47.0</v>
       </c>
@@ -3370,18 +3352,14 @@
       <c r="N13" t="n" s="11">
         <v>1.0263888888888888</v>
       </c>
-      <c r="O13" t="s" s="9">
-        <v>49</v>
-      </c>
+      <c r="O13" s="9"/>
       <c r="P13" t="n" s="11">
         <v>0.9097222222222222</v>
       </c>
       <c r="Q13" t="n" s="11">
         <v>0.9368055555555556</v>
       </c>
-      <c r="R13" t="s" s="9">
-        <v>29</v>
-      </c>
+      <c r="R13" s="9"/>
       <c r="S13" t="n" s="11">
         <v>0.8840277777777777</v>
       </c>
@@ -3389,7 +3367,7 @@
         <v>0.9375</v>
       </c>
       <c r="U13" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="true">
@@ -3400,13 +3378,13 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s" s="31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n" s="8">
         <v>7.0</v>
@@ -3417,7 +3395,9 @@
       <c r="H14" t="n" s="11">
         <v>0.0875</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" t="n" s="10">
+        <v>0.025</v>
+      </c>
       <c r="J14" t="n" s="9">
         <v>98.0</v>
       </c>
@@ -3434,7 +3414,7 @@
         <v>1.00625</v>
       </c>
       <c r="O14" t="s" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P14" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -3443,7 +3423,7 @@
         <v>0.9486111111111111</v>
       </c>
       <c r="R14" t="s" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S14" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -3452,7 +3432,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="U14" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="true">
@@ -3463,13 +3443,13 @@
         <v>1.0</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="n" s="8">
         <v>4.0</v>
@@ -3480,7 +3460,9 @@
       <c r="H15" t="n" s="11">
         <v>0.07361111111111111</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J15" t="n" s="9">
         <v>68.0</v>
       </c>
@@ -3497,7 +3479,7 @@
         <v>1.0041666666666667</v>
       </c>
       <c r="O15" t="s" s="9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P15" t="n" s="11">
         <v>0.8986111111111111</v>
@@ -3506,7 +3488,7 @@
         <v>0.9173611111111111</v>
       </c>
       <c r="R15" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S15" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -3515,7 +3497,7 @@
         <v>0.9534722222222223</v>
       </c>
       <c r="U15" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="true">
@@ -3526,13 +3508,13 @@
         <v>2.0</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s" s="35">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n" s="8">
         <v>11.0</v>
@@ -3543,7 +3525,9 @@
       <c r="H16" t="n" s="11">
         <v>0.09930555555555555</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J16" t="n" s="9">
         <v>135.0</v>
       </c>
@@ -3560,7 +3544,7 @@
         <v>1.0055555555555555</v>
       </c>
       <c r="O16" t="s" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -3569,7 +3553,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R16" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S16" t="n" s="11">
         <v>0.9368055555555556</v>
@@ -3578,7 +3562,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="U16" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="true">
@@ -3589,13 +3573,13 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="s" s="6">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s" s="37">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n" s="8">
         <v>6.0</v>
@@ -3606,7 +3590,9 @@
       <c r="H17" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J17" t="n" s="9">
         <v>87.0</v>
       </c>
@@ -3623,7 +3609,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="O17" t="s" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -3632,7 +3618,7 @@
         <v>0.9375</v>
       </c>
       <c r="R17" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S17" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -3641,7 +3627,7 @@
         <v>0.9375</v>
       </c>
       <c r="U17" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="true">
@@ -3652,13 +3638,13 @@
         <v>3.0</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s" s="39">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n" s="8">
         <v>1.0</v>
@@ -3669,7 +3655,9 @@
       <c r="H18" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" t="n" s="10">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="J18" t="n" s="9">
         <v>13.0</v>
       </c>
@@ -3686,7 +3674,7 @@
         <v>0.9215277777777777</v>
       </c>
       <c r="O18" t="s" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P18" t="n" s="11">
         <v>0.8125</v>
@@ -3695,7 +3683,7 @@
         <v>0.8854166666666666</v>
       </c>
       <c r="R18" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S18" t="n" s="11">
         <v>0.7708333333333334</v>
@@ -3704,7 +3692,7 @@
         <v>0.8541666666666666</v>
       </c>
       <c r="U18" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="true">
@@ -3715,13 +3703,13 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s" s="41">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n" s="8">
         <v>7.0</v>
@@ -3732,7 +3720,9 @@
       <c r="H19" t="n" s="11">
         <v>0.07291666666666667</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J19" t="n" s="9">
         <v>116.0</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O19" t="s" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P19" t="n" s="11">
         <v>0.90625</v>
@@ -3758,7 +3748,7 @@
         <v>0.9375</v>
       </c>
       <c r="R19" t="s" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S19" t="n" s="11">
         <v>0.9201388888888888</v>
@@ -3767,7 +3757,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="U19" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="true">
@@ -3778,13 +3768,13 @@
         <v>1.0</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s" s="43">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n" s="8">
         <v>3.0</v>
@@ -3795,7 +3785,9 @@
       <c r="H20" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J20" t="n" s="9">
         <v>46.0</v>
       </c>
@@ -3812,7 +3804,7 @@
         <v>0.9965277777777778</v>
       </c>
       <c r="O20" t="s" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P20" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -3821,7 +3813,7 @@
         <v>0.9305555555555556</v>
       </c>
       <c r="R20" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S20" t="n" s="11">
         <v>0.8888888888888888</v>
@@ -3830,7 +3822,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U20" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="true">
@@ -3841,13 +3833,13 @@
         <v>1.0</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s" s="45">
         <v>22</v>
-      </c>
-      <c r="E21" t="s" s="45">
-        <v>23</v>
       </c>
       <c r="F21" t="n" s="8">
         <v>10.0</v>
@@ -3858,7 +3850,9 @@
       <c r="H21" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" t="n" s="10">
+        <v>0.015277777777777777</v>
+      </c>
       <c r="J21" t="n" s="9">
         <v>165.0</v>
       </c>
@@ -3875,7 +3869,7 @@
         <v>1.0083333333333333</v>
       </c>
       <c r="O21" t="s" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -3884,7 +3878,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R21" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S21" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -3893,7 +3887,7 @@
         <v>0.9486111111111111</v>
       </c>
       <c r="U21" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="true">
@@ -3904,13 +3898,13 @@
         <v>2.0</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s" s="47">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n" s="8">
         <v>11.0</v>
@@ -3921,7 +3915,9 @@
       <c r="H22" t="n" s="11">
         <v>0.12986111111111112</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" t="n" s="10">
+        <v>0.02361111111111111</v>
+      </c>
       <c r="J22" t="n" s="9">
         <v>103.0</v>
       </c>
@@ -3938,7 +3934,7 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="O22" t="s" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n" s="11">
         <v>0.89375</v>
@@ -3947,7 +3943,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R22" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S22" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -3956,7 +3952,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U22" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="true">
@@ -3967,13 +3963,13 @@
         <v>1.0</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s" s="49">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n" s="8">
         <v>3.0</v>
@@ -3984,7 +3980,9 @@
       <c r="H23" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J23" t="n" s="9">
         <v>45.0</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>1.0013888888888889</v>
       </c>
       <c r="O23" t="s" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P23" t="n" s="11">
         <v>0.875</v>
@@ -4010,7 +4008,7 @@
         <v>0.9027777777777778</v>
       </c>
       <c r="R23" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S23" t="n" s="11">
         <v>0.9159722222222222</v>
@@ -4019,7 +4017,7 @@
         <v>0.94375</v>
       </c>
       <c r="U23" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="true">
@@ -4030,13 +4028,13 @@
         <v>2.0</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s" s="51">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n" s="8">
         <v>9.0</v>
@@ -4047,7 +4045,9 @@
       <c r="H24" t="n" s="11">
         <v>0.09027777777777778</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" t="n" s="10">
+        <v>0.02013888888888889</v>
+      </c>
       <c r="J24" t="n" s="9">
         <v>119.0</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1.007638888888889</v>
       </c>
       <c r="O24" t="s" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n" s="11">
         <v>0.9152777777777777</v>
@@ -4073,7 +4073,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="R24" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S24" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -4082,7 +4082,7 @@
         <v>0.9402777777777778</v>
       </c>
       <c r="U24" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="true">
@@ -4093,13 +4093,13 @@
         <v>2.0</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s" s="53">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n" s="8">
         <v>10.0</v>
@@ -4110,7 +4110,9 @@
       <c r="H25" t="n" s="11">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J25" t="n" s="9">
         <v>108.0</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>1.0131944444444445</v>
       </c>
       <c r="O25" t="s" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -4136,7 +4138,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R25" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S25" t="n" s="11">
         <v>0.9319444444444445</v>
@@ -4145,7 +4147,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="U25" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="true">
@@ -4156,13 +4158,13 @@
         <v>1.0</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s" s="55">
         <v>22</v>
-      </c>
-      <c r="E26" t="s" s="55">
-        <v>23</v>
       </c>
       <c r="F26" t="n" s="8">
         <v>8.0</v>
@@ -4173,7 +4175,9 @@
       <c r="H26" t="n" s="11">
         <v>0.07222222222222222</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J26" t="n" s="9">
         <v>138.0</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>0.9881944444444445</v>
       </c>
       <c r="O26" t="s" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -4199,7 +4203,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="R26" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S26" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -4208,7 +4212,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="U26" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="true">
@@ -4219,13 +4223,13 @@
         <v>3.0</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s" s="57">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n" s="8">
         <v>1.0</v>
@@ -4236,7 +4240,9 @@
       <c r="H27" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J27" t="n" s="9">
         <v>23.0</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>0.91875</v>
       </c>
       <c r="O27" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P27" t="n" s="11">
         <v>0.8402777777777778</v>
@@ -4262,7 +4268,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="R27" t="s" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S27" t="n" s="11">
         <v>0.8159722222222222</v>
@@ -4271,7 +4277,7 @@
         <v>0.8645833333333334</v>
       </c>
       <c r="U27" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="true">
@@ -4282,13 +4288,13 @@
         <v>3.0</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s" s="59">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n" s="8">
         <v>6.0</v>
@@ -4299,7 +4305,9 @@
       <c r="H28" t="n" s="11">
         <v>0.06041666666666667</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" t="n" s="10">
+        <v>0.02013888888888889</v>
+      </c>
       <c r="J28" t="n" s="9">
         <v>120.0</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>0.9854166666666667</v>
       </c>
       <c r="O28" t="s" s="9">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n" s="11">
         <v>0.9256944444444445</v>
@@ -4325,7 +4333,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="R28" t="s" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S28" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -4334,7 +4342,7 @@
         <v>0.9451388888888889</v>
       </c>
       <c r="U28" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="true">
@@ -4345,13 +4353,13 @@
         <v>3.0</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s" s="61">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n" s="8">
         <v>4.0</v>
@@ -4362,7 +4370,9 @@
       <c r="H29" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J29" t="n" s="9">
         <v>119.0</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>0.9805555555555555</v>
       </c>
       <c r="O29" t="s" s="9">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -4388,7 +4398,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="R29" t="s" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S29" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -4397,7 +4407,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="U29" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="true">
@@ -4408,13 +4418,13 @@
         <v>3.0</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s" s="63">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n" s="8">
         <v>3.0</v>
@@ -4425,7 +4435,9 @@
       <c r="H30" t="n" s="11">
         <v>0.06875</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J30" t="n" s="9">
         <v>55.0</v>
       </c>
@@ -4442,7 +4454,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O30" t="s" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n" s="11">
         <v>0.8986111111111111</v>
@@ -4451,7 +4463,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R30" t="s" s="9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S30" t="n" s="11">
         <v>0.9104166666666667</v>
@@ -4460,7 +4472,7 @@
         <v>0.9375</v>
       </c>
       <c r="U30" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="true">
@@ -4471,13 +4483,13 @@
         <v>1.0</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s" s="65">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F31" t="n" s="8">
         <v>3.0</v>
@@ -4488,7 +4500,9 @@
       <c r="H31" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J31" t="n" s="9">
         <v>59.0</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>0.98125</v>
       </c>
       <c r="O31" t="s" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P31" t="n" s="11">
         <v>0.90625</v>
@@ -4514,7 +4528,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R31" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S31" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -4523,7 +4537,7 @@
         <v>0.9375</v>
       </c>
       <c r="U31" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="true">
@@ -4534,13 +4548,13 @@
         <v>1.0</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s" s="67">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n" s="8">
         <v>5.0</v>
@@ -4551,7 +4565,9 @@
       <c r="H32" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J32" t="n" s="9">
         <v>87.0</v>
       </c>
@@ -4568,7 +4584,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O32" t="s" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P32" t="n" s="11">
         <v>0.9138888888888889</v>
@@ -4577,7 +4593,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R32" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S32" t="n" s="11">
         <v>0.91875</v>
@@ -4586,7 +4602,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U32" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="true">
@@ -4597,13 +4613,13 @@
         <v>2.0</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s" s="69">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n" s="8">
         <v>4.0</v>
@@ -4614,7 +4630,9 @@
       <c r="H33" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" t="n" s="10">
+        <v>0.03125</v>
+      </c>
       <c r="J33" t="n" s="9">
         <v>85.0</v>
       </c>
@@ -4631,7 +4649,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O33" t="s" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P33" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -4640,7 +4658,7 @@
         <v>0.9375</v>
       </c>
       <c r="R33" t="s" s="9">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S33" t="n" s="11">
         <v>0.90625</v>
@@ -4649,7 +4667,7 @@
         <v>0.9375</v>
       </c>
       <c r="U33" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="true">
@@ -4660,13 +4678,13 @@
         <v>2.0</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s" s="71">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34" t="n" s="8">
         <v>9.0</v>
@@ -4677,7 +4695,9 @@
       <c r="H34" t="n" s="11">
         <v>0.1</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J34" t="n" s="9">
         <v>107.0</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>1.0069444444444444</v>
       </c>
       <c r="O34" t="s" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P34" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -4703,7 +4723,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="R34" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S34" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -4712,7 +4732,7 @@
         <v>0.9451388888888889</v>
       </c>
       <c r="U34" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="true">
@@ -4723,13 +4743,13 @@
         <v>3.0</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s" s="73">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" t="n" s="8">
         <v>9.0</v>
@@ -4740,7 +4760,9 @@
       <c r="H35" t="n" s="11">
         <v>0.09097222222222222</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" t="n" s="10">
+        <v>0.02013888888888889</v>
+      </c>
       <c r="J35" t="n" s="9">
         <v>127.0</v>
       </c>
@@ -4757,7 +4779,7 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="O35" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P35" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -4766,7 +4788,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R35" t="s" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S35" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -4775,7 +4797,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U35" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="true">
@@ -4786,13 +4808,13 @@
         <v>3.0</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s" s="75">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n" s="8">
         <v>1.0</v>
@@ -4803,7 +4825,9 @@
       <c r="H36" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J36" t="n" s="9">
         <v>30.0</v>
       </c>
@@ -4820,7 +4844,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="O36" t="s" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P36" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -4829,7 +4853,7 @@
         <v>0.8958333333333334</v>
       </c>
       <c r="R36" t="s" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S36" t="n" s="11">
         <v>0.875</v>
@@ -4838,7 +4862,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="U36" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="30.0" customHeight="true">
@@ -4849,13 +4873,13 @@
         <v>3.0</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s" s="77">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" t="n" s="8">
         <v>6.0</v>
@@ -4866,7 +4890,9 @@
       <c r="H37" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J37" t="n" s="9">
         <v>175.0</v>
       </c>
@@ -4883,7 +4909,7 @@
         <v>0.9736111111111111</v>
       </c>
       <c r="O37" t="s" s="9">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P37" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -4892,7 +4918,7 @@
         <v>0.9375</v>
       </c>
       <c r="R37" t="s" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S37" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -4901,7 +4927,7 @@
         <v>0.9375</v>
       </c>
       <c r="U37" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="30.0" customHeight="true">
@@ -4912,13 +4938,13 @@
         <v>2.0</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s" s="79">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n" s="8">
         <v>10.0</v>
@@ -4929,7 +4955,9 @@
       <c r="H38" t="n" s="11">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J38" t="n" s="9">
         <v>126.0</v>
       </c>
@@ -4946,7 +4974,7 @@
         <v>1.023611111111111</v>
       </c>
       <c r="O38" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P38" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -4955,7 +4983,7 @@
         <v>0.9375</v>
       </c>
       <c r="R38" t="s" s="9">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S38" t="n" s="11">
         <v>0.9368055555555556</v>
@@ -4964,7 +4992,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="U38" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="30.0" customHeight="true">
@@ -4975,13 +5003,13 @@
         <v>2.0</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s" s="81">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F39" t="n" s="8">
         <v>6.0</v>
@@ -4992,7 +5020,9 @@
       <c r="H39" t="n" s="11">
         <v>0.03333333333333333</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" t="n" s="10">
+        <v>0.016666666666666666</v>
+      </c>
       <c r="J39" t="n" s="9">
         <v>105.0</v>
       </c>
@@ -5009,7 +5039,7 @@
         <v>0.9819444444444444</v>
       </c>
       <c r="O39" t="s" s="9">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P39" t="n" s="11">
         <v>0.925</v>
@@ -5018,16 +5048,16 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R39" t="s" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S39" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T39" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U39" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="30.0" customHeight="true">
@@ -5038,13 +5068,13 @@
         <v>1.0</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s" s="83">
         <v>22</v>
-      </c>
-      <c r="E40" t="s" s="83">
-        <v>23</v>
       </c>
       <c r="F40" t="n" s="8">
         <v>10.0</v>
@@ -5055,7 +5085,9 @@
       <c r="H40" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J40" t="n" s="9">
         <v>180.0</v>
       </c>
@@ -5072,7 +5104,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="O40" t="s" s="9">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P40" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -5081,7 +5113,7 @@
         <v>0.9375</v>
       </c>
       <c r="R40" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S40" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -5090,7 +5122,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="U40" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="true">
@@ -5101,13 +5133,13 @@
         <v>1.0</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s" s="85">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n" s="8">
         <v>3.0</v>
@@ -5118,7 +5150,9 @@
       <c r="H41" t="n" s="11">
         <v>0.06041666666666667</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" t="n" s="10">
+        <v>0.02013888888888889</v>
+      </c>
       <c r="J41" t="n" s="9">
         <v>61.0</v>
       </c>
@@ -5135,7 +5169,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O41" t="s" s="9">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P41" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -5144,7 +5178,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R41" t="s" s="9">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S41" t="n" s="11">
         <v>0.9180555555555555</v>
@@ -5153,7 +5187,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="U41" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="true">
@@ -5164,13 +5198,13 @@
         <v>1.0</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s" s="87">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n" s="8">
         <v>3.0</v>
@@ -5181,7 +5215,9 @@
       <c r="H42" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I42" s="10"/>
+      <c r="I42" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J42" t="n" s="9">
         <v>46.0</v>
       </c>
@@ -5198,7 +5234,7 @@
         <v>1.0069444444444444</v>
       </c>
       <c r="O42" t="s" s="9">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P42" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -5207,7 +5243,7 @@
         <v>0.9375</v>
       </c>
       <c r="R42" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S42" t="n" s="11">
         <v>0.9222222222222223</v>
@@ -5216,7 +5252,7 @@
         <v>0.95</v>
       </c>
       <c r="U42" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="true">
@@ -5227,13 +5263,13 @@
         <v>3.0</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s" s="89">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n" s="8">
         <v>4.0</v>
@@ -5244,7 +5280,9 @@
       <c r="H43" t="n" s="11">
         <v>0.05138888888888889</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" t="n" s="10">
+        <v>0.025694444444444443</v>
+      </c>
       <c r="J43" t="n" s="9">
         <v>97.0</v>
       </c>
@@ -5261,7 +5299,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O43" t="s" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P43" t="n" s="11">
         <v>0.9208333333333333</v>
@@ -5270,7 +5308,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="R43" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S43" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -5279,7 +5317,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="U43" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="30.0" customHeight="true">
@@ -5290,13 +5328,13 @@
         <v>1.0</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s" s="91">
         <v>22</v>
-      </c>
-      <c r="E44" t="s" s="91">
-        <v>23</v>
       </c>
       <c r="F44" t="n" s="8">
         <v>3.0</v>
@@ -5307,7 +5345,9 @@
       <c r="H44" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I44" s="10"/>
+      <c r="I44" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J44" t="n" s="9">
         <v>84.0</v>
       </c>
@@ -5324,7 +5364,7 @@
         <v>0.975</v>
       </c>
       <c r="O44" t="s" s="9">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P44" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -5333,7 +5373,7 @@
         <v>0.9270833333333334</v>
       </c>
       <c r="R44" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S44" t="n" s="11">
         <v>0.90625</v>
@@ -5342,7 +5382,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="U44" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="30.0" customHeight="true">
@@ -5353,13 +5393,13 @@
         <v>3.0</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s" s="93">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F45" t="n" s="8">
         <v>2.0</v>
@@ -5370,7 +5410,9 @@
       <c r="H45" t="n" s="11">
         <v>0.03125</v>
       </c>
-      <c r="I45" s="10"/>
+      <c r="I45" t="n" s="10">
+        <v>0.03125</v>
+      </c>
       <c r="J45" t="n" s="9">
         <v>79.0</v>
       </c>
@@ -5387,7 +5429,7 @@
         <v>0.9597222222222223</v>
       </c>
       <c r="O45" t="s" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P45" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -5396,7 +5438,7 @@
         <v>0.9319444444444445</v>
       </c>
       <c r="R45" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S45" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -5405,7 +5447,7 @@
         <v>0.9375</v>
       </c>
       <c r="U45" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="30.0" customHeight="true">
@@ -5416,13 +5458,13 @@
         <v>3.0</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s" s="95">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F46" t="n" s="8">
         <v>1.0</v>
@@ -5433,7 +5475,9 @@
       <c r="H46" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I46" s="10"/>
+      <c r="I46" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J46" t="n" s="9">
         <v>29.0</v>
       </c>
@@ -5450,7 +5494,7 @@
         <v>0.96875</v>
       </c>
       <c r="O46" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P46" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5466,7 +5510,7 @@
         <v>0.9236111111111112</v>
       </c>
       <c r="U46" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
@@ -5477,13 +5521,13 @@
         <v>3.0</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s" s="97">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F47" t="n" s="8">
         <v>2.0</v>
@@ -5494,7 +5538,9 @@
       <c r="H47" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J47" t="n" s="9">
         <v>59.0</v>
       </c>
@@ -5511,7 +5557,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O47" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P47" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -5527,7 +5573,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="U47" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="30.0" customHeight="true">
@@ -5538,13 +5584,13 @@
         <v>2.0</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s" s="99">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n" s="8">
         <v>8.0</v>
@@ -5555,7 +5601,9 @@
       <c r="H48" t="n" s="11">
         <v>0.08888888888888889</v>
       </c>
-      <c r="I48" s="10"/>
+      <c r="I48" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J48" t="n" s="9">
         <v>108.0</v>
       </c>
@@ -5572,7 +5620,7 @@
         <v>1.0097222222222222</v>
       </c>
       <c r="O48" t="s" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P48" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5581,7 +5629,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="R48" t="s" s="9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S48" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -5590,7 +5638,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U48" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="30.0" customHeight="true">
@@ -5601,13 +5649,13 @@
         <v>3.0</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s" s="101">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F49" t="n" s="8">
         <v>4.0</v>
@@ -5618,7 +5666,9 @@
       <c r="H49" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" t="n" s="10">
+        <v>0.017361111111111112</v>
+      </c>
       <c r="J49" t="n" s="9">
         <v>69.0</v>
       </c>
@@ -5635,7 +5685,7 @@
         <v>0.9875</v>
       </c>
       <c r="O49" t="s" s="9">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P49" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5644,7 +5694,7 @@
         <v>0.9375</v>
       </c>
       <c r="R49" t="s" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S49" t="n" s="11">
         <v>0.9201388888888888</v>
@@ -5653,7 +5703,7 @@
         <v>0.9375</v>
       </c>
       <c r="U49" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="30.0" customHeight="true">
@@ -5664,13 +5714,13 @@
         <v>3.0</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s" s="103">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F50" t="n" s="8">
         <v>6.0</v>
@@ -5681,7 +5731,9 @@
       <c r="H50" t="n" s="11">
         <v>0.06458333333333334</v>
       </c>
-      <c r="I50" s="10"/>
+      <c r="I50" t="n" s="10">
+        <v>0.021527777777777778</v>
+      </c>
       <c r="J50" t="n" s="9">
         <v>111.0</v>
       </c>
@@ -5698,7 +5750,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O50" t="s" s="9">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P50" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -5707,7 +5759,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="R50" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S50" t="n" s="11">
         <v>0.9201388888888888</v>
@@ -5716,7 +5768,7 @@
         <v>0.9375</v>
       </c>
       <c r="U50" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="true">
@@ -5727,13 +5779,13 @@
         <v>1.0</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s" s="105">
         <v>22</v>
-      </c>
-      <c r="E51" t="s" s="105">
-        <v>23</v>
       </c>
       <c r="F51" t="n" s="8">
         <v>8.0</v>
@@ -5744,7 +5796,9 @@
       <c r="H51" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J51" t="n" s="9">
         <v>118.0</v>
       </c>
@@ -5761,7 +5815,7 @@
         <v>0.9951388888888889</v>
       </c>
       <c r="O51" t="s" s="9">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P51" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -5770,7 +5824,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R51" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S51" t="n" s="11">
         <v>0.9229166666666667</v>
@@ -5779,7 +5833,7 @@
         <v>0.94375</v>
       </c>
       <c r="U51" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="true">
@@ -5790,13 +5844,13 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s" s="107">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F52" t="n" s="8">
         <v>13.0</v>
@@ -5807,7 +5861,9 @@
       <c r="H52" t="n" s="11">
         <v>0.13541666666666666</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J52" t="n" s="9">
         <v>119.0</v>
       </c>
@@ -5824,7 +5880,7 @@
         <v>1.0229166666666667</v>
       </c>
       <c r="O52" t="s" s="9">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P52" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -5833,7 +5889,7 @@
         <v>0.9375</v>
       </c>
       <c r="R52" t="s" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S52" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -5842,7 +5898,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="U52" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="30.0" customHeight="true">
@@ -5853,13 +5909,13 @@
         <v>3.0</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s" s="109">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F53" t="n" s="8">
         <v>3.0</v>
@@ -5870,7 +5926,9 @@
       <c r="H53" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J53" t="n" s="9">
         <v>87.0</v>
       </c>
@@ -5887,7 +5945,7 @@
         <v>0.98125</v>
       </c>
       <c r="O53" t="s" s="9">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P53" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -5896,7 +5954,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R53" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S53" t="n" s="11">
         <v>0.9208333333333333</v>
@@ -5905,7 +5963,7 @@
         <v>0.9486111111111111</v>
       </c>
       <c r="U53" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="30.0" customHeight="true">
@@ -5916,13 +5974,13 @@
         <v>3.0</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s" s="111">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F54" t="n" s="8">
         <v>3.0</v>
@@ -5933,7 +5991,9 @@
       <c r="H54" t="n" s="11">
         <v>0.04791666666666667</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" t="n" s="10">
+        <v>0.03194444444444444</v>
+      </c>
       <c r="J54" t="n" s="9">
         <v>74.0</v>
       </c>
@@ -5950,7 +6010,7 @@
         <v>0.9875</v>
       </c>
       <c r="O54" t="s" s="9">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P54" t="n" s="11">
         <v>0.9194444444444444</v>
@@ -5959,7 +6019,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="R54" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S54" t="n" s="11">
         <v>0.9277777777777778</v>
@@ -5968,7 +6028,7 @@
         <v>0.94375</v>
       </c>
       <c r="U54" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="30.0" customHeight="true">
@@ -5979,13 +6039,13 @@
         <v>2.0</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s" s="113">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F55" t="n" s="8">
         <v>6.0</v>
@@ -5996,7 +6056,9 @@
       <c r="H55" t="n" s="11">
         <v>0.09583333333333334</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" t="n" s="10">
+        <v>0.03194444444444444</v>
+      </c>
       <c r="J55" t="n" s="9">
         <v>75.0</v>
       </c>
@@ -6013,7 +6075,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="O55" t="s" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -6022,7 +6084,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="R55" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S55" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -6031,7 +6093,7 @@
         <v>0.9493055555555555</v>
       </c>
       <c r="U55" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="true">
@@ -6042,13 +6104,13 @@
         <v>1.0</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s" s="115">
         <v>22</v>
-      </c>
-      <c r="E56" t="s" s="115">
-        <v>23</v>
       </c>
       <c r="F56" t="n" s="8">
         <v>5.0</v>
@@ -6059,7 +6121,9 @@
       <c r="H56" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" t="n" s="10">
+        <v>0.025</v>
+      </c>
       <c r="J56" t="n" s="9">
         <v>99.0</v>
       </c>
@@ -6076,7 +6140,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O56" t="s" s="9">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P56" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -6085,7 +6149,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R56" t="s" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S56" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -6094,7 +6158,7 @@
         <v>0.9493055555555555</v>
       </c>
       <c r="U56" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="30.0" customHeight="true">
@@ -6105,13 +6169,13 @@
         <v>1.0</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s" s="117">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F57" t="n" s="8">
         <v>1.0</v>
@@ -6122,7 +6186,9 @@
       <c r="H57" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J57" t="n" s="9">
         <v>29.0</v>
       </c>
@@ -6139,7 +6205,7 @@
         <v>0.9798611111111111</v>
       </c>
       <c r="O57" t="s" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P57" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -6148,7 +6214,7 @@
         <v>0.9548611111111112</v>
       </c>
       <c r="R57" t="s" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S57" t="n" s="11">
         <v>0.8923611111111112</v>
@@ -6157,7 +6223,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="U57" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="30.0" customHeight="true">
@@ -6168,13 +6234,13 @@
         <v>1.0</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s" s="119">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F58" t="n" s="8">
         <v>4.0</v>
@@ -6185,7 +6251,9 @@
       <c r="H58" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" t="n" s="10">
+        <v>0.034722222222222224</v>
+      </c>
       <c r="J58" t="n" s="9">
         <v>65.0</v>
       </c>
@@ -6202,7 +6270,7 @@
         <v>0.9895833333333334</v>
       </c>
       <c r="O58" t="s" s="9">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P58" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -6211,7 +6279,7 @@
         <v>0.9375</v>
       </c>
       <c r="R58" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S58" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -6220,7 +6288,7 @@
         <v>0.9375</v>
       </c>
       <c r="U58" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="30.0" customHeight="true">
@@ -6231,13 +6299,13 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s" s="121">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F59" t="n" s="8">
         <v>7.0</v>
@@ -6248,7 +6316,9 @@
       <c r="H59" t="n" s="11">
         <v>0.06805555555555555</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="I59" t="n" s="10">
+        <v>0.019444444444444445</v>
+      </c>
       <c r="J59" t="n" s="9">
         <v>122.0</v>
       </c>
@@ -6265,7 +6335,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="O59" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P59" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -6274,7 +6344,7 @@
         <v>0.94375</v>
       </c>
       <c r="R59" t="s" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S59" t="n" s="11">
         <v>0.9201388888888888</v>
@@ -6283,7 +6353,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="U59" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="30.0" customHeight="true">
@@ -6294,13 +6364,13 @@
         <v>3.0</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s" s="123">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n" s="8">
         <v>6.0</v>
@@ -6311,7 +6381,9 @@
       <c r="H60" t="n" s="11">
         <v>0.075</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" t="n" s="10">
+        <v>0.025</v>
+      </c>
       <c r="J60" t="n" s="9">
         <v>102.0</v>
       </c>
@@ -6328,7 +6400,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="O60" t="s" s="9">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P60" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -6337,7 +6409,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="R60" t="s" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S60" t="n" s="11">
         <v>0.9208333333333333</v>
@@ -6346,7 +6418,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="U60" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="30.0" customHeight="true">
@@ -6357,13 +6429,13 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s" s="125">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F61" t="n" s="8">
         <v>7.0</v>
@@ -6374,7 +6446,9 @@
       <c r="H61" t="n" s="11">
         <v>0.08263888888888889</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="I61" t="n" s="10">
+        <v>0.02361111111111111</v>
+      </c>
       <c r="J61" t="n" s="9">
         <v>104.0</v>
       </c>
@@ -6391,7 +6465,7 @@
         <v>0.99375</v>
       </c>
       <c r="O61" t="s" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P61" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -6400,7 +6474,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R61" t="s" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S61" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -6409,7 +6483,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U61" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="30.0" customHeight="true">
@@ -6420,13 +6494,13 @@
         <v>1.0</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s" s="127">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F62" t="n" s="8">
         <v>1.0</v>
@@ -6437,7 +6511,9 @@
       <c r="H62" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J62" t="n" s="9">
         <v>29.0</v>
       </c>
@@ -6454,7 +6530,7 @@
         <v>0.9659722222222222</v>
       </c>
       <c r="O62" t="s" s="9">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P62" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -6463,7 +6539,7 @@
         <v>0.9375</v>
       </c>
       <c r="R62" t="s" s="9">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S62" t="n" s="11">
         <v>0.875</v>
@@ -6472,7 +6548,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="U62" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="30.0" customHeight="true">
@@ -6483,13 +6559,13 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s" s="129">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F63" t="n" s="8">
         <v>2.0</v>
@@ -6500,7 +6576,9 @@
       <c r="H63" t="n" s="11">
         <v>0.03333333333333333</v>
       </c>
-      <c r="I63" s="10"/>
+      <c r="I63" t="n" s="10">
+        <v>0.03333333333333333</v>
+      </c>
       <c r="J63" t="n" s="9">
         <v>71.0</v>
       </c>
@@ -6517,7 +6595,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="O63" t="s" s="9">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P63" t="n" s="11">
         <v>0.9125</v>
@@ -6526,7 +6604,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="R63" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S63" t="n" s="11">
         <v>0.9125</v>
@@ -6535,7 +6613,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="U63" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="30.0" customHeight="true">
@@ -6546,13 +6624,13 @@
         <v>1.0</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s" s="131">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F64" t="n" s="8">
         <v>1.0</v>
@@ -6563,7 +6641,9 @@
       <c r="H64" t="n" s="11">
         <v>0.03125</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="I64" t="n" s="10">
+        <v>0.03125</v>
+      </c>
       <c r="J64" t="n" s="9">
         <v>37.0</v>
       </c>
@@ -6580,7 +6660,7 @@
         <v>0.9368055555555556</v>
       </c>
       <c r="O64" t="s" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P64" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -6589,7 +6669,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="R64" t="s" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S64" t="n" s="11">
         <v>0.8701388888888889</v>
@@ -6598,7 +6678,7 @@
         <v>0.9013888888888889</v>
       </c>
       <c r="U64" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="30.0" customHeight="true">
@@ -6609,13 +6689,13 @@
         <v>3.0</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s" s="133">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F65" t="n" s="8">
         <v>3.0</v>
@@ -6626,7 +6706,9 @@
       <c r="H65" t="n" s="11">
         <v>0.035416666666666666</v>
       </c>
-      <c r="I65" s="10"/>
+      <c r="I65" t="n" s="10">
+        <v>0.02361111111111111</v>
+      </c>
       <c r="J65" t="n" s="9">
         <v>100.0</v>
       </c>
@@ -6643,7 +6725,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="O65" t="s" s="9">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P65" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -6652,7 +6734,7 @@
         <v>0.9451388888888889</v>
       </c>
       <c r="R65" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S65" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -6661,7 +6743,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="U65" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="30.0" customHeight="true">
@@ -6672,13 +6754,13 @@
         <v>2.0</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s" s="135">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F66" t="n" s="8">
         <v>7.0</v>
@@ -6689,7 +6771,9 @@
       <c r="H66" t="n" s="11">
         <v>0.08472222222222223</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" t="n" s="10">
+        <v>0.024305555555555556</v>
+      </c>
       <c r="J66" t="n" s="9">
         <v>102.0</v>
       </c>
@@ -6706,7 +6790,7 @@
         <v>1.0027777777777778</v>
       </c>
       <c r="O66" t="s" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P66" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -6715,7 +6799,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="R66" t="s" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S66" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -6724,7 +6808,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="U66" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="30.0" customHeight="true">
@@ -6735,13 +6819,13 @@
         <v>1.0</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s" s="137">
         <v>22</v>
-      </c>
-      <c r="E67" t="s" s="137">
-        <v>23</v>
       </c>
       <c r="F67" t="n" s="8">
         <v>9.0</v>
@@ -6752,7 +6836,9 @@
       <c r="H67" t="n" s="11">
         <v>0.0875</v>
       </c>
-      <c r="I67" s="10"/>
+      <c r="I67" t="n" s="10">
+        <v>0.019444444444444445</v>
+      </c>
       <c r="J67" t="n" s="9">
         <v>122.0</v>
       </c>
@@ -6769,7 +6855,7 @@
         <v>0.9979166666666667</v>
       </c>
       <c r="O67" t="s" s="9">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P67" t="n" s="11">
         <v>0.9138888888888889</v>
@@ -6778,7 +6864,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R67" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S67" t="n" s="11">
         <v>0.9201388888888888</v>
@@ -6787,7 +6873,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="U67" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="30.0" customHeight="true">
@@ -6798,13 +6884,13 @@
         <v>1.0</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s" s="139">
         <v>22</v>
-      </c>
-      <c r="E68" t="s" s="139">
-        <v>23</v>
       </c>
       <c r="F68" t="n" s="8">
         <v>6.0</v>
@@ -6815,7 +6901,9 @@
       <c r="H68" t="n" s="11">
         <v>0.06458333333333334</v>
       </c>
-      <c r="I68" s="10"/>
+      <c r="I68" t="n" s="10">
+        <v>0.021527777777777778</v>
+      </c>
       <c r="J68" t="n" s="9">
         <v>121.0</v>
       </c>
@@ -6832,7 +6920,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O68" t="s" s="9">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P68" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -6841,7 +6929,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="R68" t="s" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S68" t="n" s="11">
         <v>0.9277777777777778</v>
@@ -6850,7 +6938,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="U68" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="30.0" customHeight="true">
@@ -6861,13 +6949,13 @@
         <v>3.0</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s" s="141">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F69" t="n" s="8">
         <v>3.0</v>
@@ -6878,7 +6966,9 @@
       <c r="H69" t="n" s="11">
         <v>0.029166666666666667</v>
       </c>
-      <c r="I69" s="10"/>
+      <c r="I69" t="n" s="10">
+        <v>0.019444444444444445</v>
+      </c>
       <c r="J69" t="n" s="9">
         <v>131.0</v>
       </c>
@@ -6895,7 +6985,7 @@
         <v>0.9680555555555556</v>
       </c>
       <c r="O69" t="s" s="9">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P69" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -6904,7 +6994,7 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R69" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S69" t="n" s="11">
         <v>0.9284722222222223</v>
@@ -6913,7 +7003,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="U69" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="30.0" customHeight="true">
@@ -6924,13 +7014,13 @@
         <v>3.0</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s" s="143">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F70" t="n" s="8">
         <v>1.0</v>
@@ -6941,7 +7031,9 @@
       <c r="H70" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I70" s="10"/>
+      <c r="I70" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J70" t="n" s="9">
         <v>30.0</v>
       </c>
@@ -6958,7 +7050,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="O70" t="s" s="9">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P70" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -6967,7 +7059,7 @@
         <v>0.8958333333333334</v>
       </c>
       <c r="R70" t="s" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S70" t="n" s="11">
         <v>0.875</v>
@@ -6976,7 +7068,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="U70" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="30.0" customHeight="true">
@@ -6987,13 +7079,13 @@
         <v>3.0</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s" s="145">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F71" t="n" s="8">
         <v>2.0</v>
@@ -7004,7 +7096,9 @@
       <c r="H71" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J71" t="n" s="9">
         <v>63.0</v>
       </c>
@@ -7021,7 +7115,7 @@
         <v>0.9777777777777777</v>
       </c>
       <c r="O71" t="s" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7030,7 +7124,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="R71" t="s" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7039,7 +7133,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="U71" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="30.0" customHeight="true">
@@ -7050,13 +7144,13 @@
         <v>3.0</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s" s="147">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" t="n" s="8">
         <v>1.0</v>
@@ -7067,7 +7161,9 @@
       <c r="H72" t="n" s="11">
         <v>0.034722222222222224</v>
       </c>
-      <c r="I72" s="10"/>
+      <c r="I72" t="n" s="10">
+        <v>0.03125</v>
+      </c>
       <c r="J72" t="n" s="9">
         <v>37.0</v>
       </c>
@@ -7084,7 +7180,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O72" t="s" s="9">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P72" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -7093,7 +7189,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R72" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S72" t="n" s="11">
         <v>0.8923611111111112</v>
@@ -7102,7 +7198,7 @@
         <v>0.9270833333333334</v>
       </c>
       <c r="U72" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="30.0" customHeight="true">
@@ -7113,13 +7209,13 @@
         <v>3.0</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s" s="149">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F73" t="n" s="8">
         <v>4.0</v>
@@ -7130,7 +7226,9 @@
       <c r="H73" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="I73" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J73" t="n" s="9">
         <v>110.0</v>
       </c>
@@ -7147,7 +7245,7 @@
         <v>0.9715277777777778</v>
       </c>
       <c r="O73" t="s" s="9">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P73" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7156,7 +7254,7 @@
         <v>0.9375</v>
       </c>
       <c r="R73" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S73" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7165,7 +7263,7 @@
         <v>0.9375</v>
       </c>
       <c r="U73" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="30.0" customHeight="true">
@@ -7176,13 +7274,13 @@
         <v>2.0</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s" s="151">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F74" t="n" s="8">
         <v>2.0</v>
@@ -7193,7 +7291,9 @@
       <c r="H74" t="n" s="11">
         <v>0.022222222222222223</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J74" t="n" s="9">
         <v>115.0</v>
       </c>
@@ -7210,7 +7310,7 @@
         <v>0.9673611111111111</v>
       </c>
       <c r="O74" t="s" s="9">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P74" t="n" s="11">
         <v>0.9361111111111111</v>
@@ -7219,7 +7319,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="R74" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S74" t="n" s="11">
         <v>0.9361111111111111</v>
@@ -7228,7 +7328,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="U74" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="30.0" customHeight="true">
@@ -7239,13 +7339,13 @@
         <v>1.0</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s" s="152">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" t="n" s="8">
         <v>1.0</v>
@@ -7256,7 +7356,9 @@
       <c r="H75" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I75" s="10"/>
+      <c r="I75" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J75" t="n" s="9">
         <v>25.0</v>
       </c>
@@ -7273,7 +7375,7 @@
         <v>0.9694444444444444</v>
       </c>
       <c r="O75" t="s" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P75" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -7282,7 +7384,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="R75" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S75" t="n" s="11">
         <v>0.8631944444444445</v>
@@ -7291,7 +7393,7 @@
         <v>0.9118055555555555</v>
       </c>
       <c r="U75" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="30.0" customHeight="true">
@@ -7302,13 +7404,13 @@
         <v>1.0</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s" s="154">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F76" t="n" s="8">
         <v>1.0</v>
@@ -7319,7 +7421,9 @@
       <c r="H76" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="I76" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J76" t="n" s="9">
         <v>17.0</v>
       </c>
@@ -7336,7 +7440,7 @@
         <v>0.9319444444444445</v>
       </c>
       <c r="O76" t="s" s="9">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P76" t="n" s="11">
         <v>0.8118055555555556</v>
@@ -7345,7 +7449,7 @@
         <v>0.8743055555555556</v>
       </c>
       <c r="R76" t="s" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S76" t="n" s="11">
         <v>0.7805555555555556</v>
@@ -7354,7 +7458,7 @@
         <v>0.8430555555555556</v>
       </c>
       <c r="U76" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="30.0" customHeight="true">
@@ -7365,13 +7469,13 @@
         <v>1.0</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s" s="156">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F77" t="n" s="8">
         <v>2.0</v>
@@ -7382,7 +7486,9 @@
       <c r="H77" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J77" t="n" s="9">
         <v>26.0</v>
       </c>
@@ -7399,7 +7505,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="O77" t="s" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P77" t="n" s="11">
         <v>0.84375</v>
@@ -7408,7 +7514,7 @@
         <v>0.8854166666666666</v>
       </c>
       <c r="R77" t="s" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S77" t="n" s="11">
         <v>0.8020833333333334</v>
@@ -7417,7 +7523,7 @@
         <v>0.84375</v>
       </c>
       <c r="U77" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="30.0" customHeight="true">
@@ -7428,13 +7534,13 @@
         <v>3.0</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s" s="158">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F78" t="n" s="8">
         <v>4.0</v>
@@ -7445,7 +7551,9 @@
       <c r="H78" t="n" s="11">
         <v>0.075</v>
       </c>
-      <c r="I78" s="10"/>
+      <c r="I78" t="n" s="10">
+        <v>0.01875</v>
+      </c>
       <c r="J78" t="n" s="9">
         <v>65.0</v>
       </c>
@@ -7462,7 +7570,7 @@
         <v>0.9944444444444445</v>
       </c>
       <c r="O78" t="s" s="9">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P78" t="n" s="11">
         <v>0.9041666666666667</v>
@@ -7471,7 +7579,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R78" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S78" t="n" s="11">
         <v>0.9090277777777778</v>
@@ -7480,7 +7588,7 @@
         <v>0.9465277777777777</v>
       </c>
       <c r="U78" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="30.0" customHeight="true">
@@ -7491,13 +7599,13 @@
         <v>2.0</v>
       </c>
       <c r="C79" t="s" s="6">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s" s="160">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F79" t="n" s="8">
         <v>8.0</v>
@@ -7508,7 +7616,9 @@
       <c r="H79" t="n" s="11">
         <v>0.08888888888888889</v>
       </c>
-      <c r="I79" s="10"/>
+      <c r="I79" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J79" t="n" s="9">
         <v>104.0</v>
       </c>
@@ -7525,7 +7635,7 @@
         <v>0.9993055555555556</v>
       </c>
       <c r="O79" t="s" s="9">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P79" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -7534,7 +7644,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="R79" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S79" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -7543,7 +7653,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="U79" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="30.0" customHeight="true">
@@ -7554,13 +7664,13 @@
         <v>2.0</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s" s="162">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F80" t="n" s="8">
         <v>3.0</v>
@@ -7571,7 +7681,9 @@
       <c r="H80" t="n" s="11">
         <v>0.04375</v>
       </c>
-      <c r="I80" s="10"/>
+      <c r="I80" t="n" s="10">
+        <v>0.014583333333333334</v>
+      </c>
       <c r="J80" t="n" s="9">
         <v>43.0</v>
       </c>
@@ -7588,7 +7700,7 @@
         <v>0.9972222222222222</v>
       </c>
       <c r="O80" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P80" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -7597,16 +7709,16 @@
         <v>0.9375</v>
       </c>
       <c r="R80" t="s" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S80" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T80" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U80" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="30.0" customHeight="true">
@@ -7617,13 +7729,13 @@
         <v>2.0</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s" s="164">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F81" t="n" s="8">
         <v>10.0</v>
@@ -7634,7 +7746,9 @@
       <c r="H81" t="n" s="11">
         <v>0.08680555555555555</v>
       </c>
-      <c r="I81" s="10"/>
+      <c r="I81" t="n" s="10">
+        <v>0.017361111111111112</v>
+      </c>
       <c r="J81" t="n" s="9">
         <v>142.0</v>
       </c>
@@ -7651,7 +7765,7 @@
         <v>0.9972222222222222</v>
       </c>
       <c r="O81" t="s" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P81" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7660,7 +7774,7 @@
         <v>0.9375</v>
       </c>
       <c r="R81" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S81" t="n" s="11">
         <v>0.9291666666666667</v>
@@ -7669,7 +7783,7 @@
         <v>0.9375</v>
       </c>
       <c r="U81" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="30.0" customHeight="true">
@@ -7680,13 +7794,13 @@
         <v>3.0</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s" s="166">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" t="n" s="8">
         <v>2.0</v>
@@ -7697,7 +7811,9 @@
       <c r="H82" t="n" s="11">
         <v>0.04583333333333333</v>
       </c>
-      <c r="I82" s="10"/>
+      <c r="I82" t="n" s="10">
+        <v>0.022916666666666665</v>
+      </c>
       <c r="J82" t="n" s="9">
         <v>53.0</v>
       </c>
@@ -7714,7 +7830,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O82" t="s" s="9">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P82" t="n" s="11">
         <v>0.9090277777777778</v>
@@ -7723,7 +7839,7 @@
         <v>0.9375</v>
       </c>
       <c r="R82" t="s" s="9">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S82" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -7732,7 +7848,7 @@
         <v>0.9375</v>
       </c>
       <c r="U82" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="30.0" customHeight="true">
@@ -7743,13 +7859,13 @@
         <v>3.0</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s" s="168">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F83" t="n" s="8">
         <v>5.0</v>
@@ -7760,7 +7876,9 @@
       <c r="H83" t="n" s="11">
         <v>0.052083333333333336</v>
       </c>
-      <c r="I83" s="10"/>
+      <c r="I83" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J83" t="n" s="9">
         <v>116.0</v>
       </c>
@@ -7777,7 +7895,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O83" t="s" s="9">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P83" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7786,7 +7904,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="R83" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S83" t="n" s="11">
         <v>0.9229166666666667</v>
@@ -7795,7 +7913,7 @@
         <v>0.94375</v>
       </c>
       <c r="U83" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="30.0" customHeight="true">
@@ -7806,13 +7924,13 @@
         <v>1.0</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D84" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s" s="170">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" t="n" s="8">
         <v>3.0</v>
@@ -7823,7 +7941,9 @@
       <c r="H84" t="n" s="11">
         <v>0.05555555555555555</v>
       </c>
-      <c r="I84" s="10"/>
+      <c r="I84" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J84" t="n" s="9">
         <v>66.0</v>
       </c>
@@ -7840,7 +7960,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="O84" t="s" s="9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P84" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -7849,7 +7969,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="R84" t="s" s="9">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S84" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7858,7 +7978,7 @@
         <v>0.9298611111111111</v>
       </c>
       <c r="U84" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="30.0" customHeight="true">
@@ -7869,13 +7989,13 @@
         <v>1.0</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s" s="172">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F85" t="n" s="8">
         <v>5.0</v>
@@ -7886,7 +8006,9 @@
       <c r="H85" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I85" s="10"/>
+      <c r="I85" t="n" s="10">
+        <v>0.025</v>
+      </c>
       <c r="J85" t="n" s="9">
         <v>99.0</v>
       </c>
@@ -7903,7 +8025,7 @@
         <v>0.99375</v>
       </c>
       <c r="O85" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P85" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7912,7 +8034,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R85" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S85" t="n" s="11">
         <v>0.9229166666666667</v>
@@ -7921,7 +8043,7 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="U85" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="30.0" customHeight="true">
@@ -7932,13 +8054,13 @@
         <v>2.0</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s" s="174">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F86" t="n" s="8">
         <v>4.0</v>
@@ -7949,7 +8071,9 @@
       <c r="H86" t="n" s="11">
         <v>0.04722222222222222</v>
       </c>
-      <c r="I86" s="10"/>
+      <c r="I86" t="n" s="10">
+        <v>0.02361111111111111</v>
+      </c>
       <c r="J86" t="n" s="9">
         <v>103.0</v>
       </c>
@@ -7966,7 +8090,7 @@
         <v>0.975</v>
       </c>
       <c r="O86" t="s" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -7975,7 +8099,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R86" t="s" s="9">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="S86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -7984,7 +8108,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="U86" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="30.0" customHeight="true">
@@ -7995,13 +8119,13 @@
         <v>2.0</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s" s="176">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F87" t="n" s="8">
         <v>7.0</v>
@@ -8012,7 +8136,9 @@
       <c r="H87" t="n" s="11">
         <v>0.09930555555555555</v>
       </c>
-      <c r="I87" s="10"/>
+      <c r="I87" t="n" s="10">
+        <v>0.02847222222222222</v>
+      </c>
       <c r="J87" t="n" s="9">
         <v>81.0</v>
       </c>
@@ -8029,7 +8155,7 @@
         <v>1.0055555555555555</v>
       </c>
       <c r="O87" t="s" s="9">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P87" t="n" s="11">
         <v>0.8965277777777778</v>
@@ -8038,7 +8164,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="R87" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S87" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8047,7 +8173,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="U87" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="30.0" customHeight="true">
@@ -8058,13 +8184,13 @@
         <v>3.0</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s" s="178">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F88" t="n" s="8">
         <v>4.0</v>
@@ -8075,7 +8201,9 @@
       <c r="H88" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I88" s="10"/>
+      <c r="I88" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J88" t="n" s="9">
         <v>115.0</v>
       </c>
@@ -8092,7 +8220,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="O88" t="s" s="9">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P88" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -8101,7 +8229,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R88" t="s" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S88" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -8110,7 +8238,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U88" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="30.0" customHeight="true">
@@ -8120,14 +8248,12 @@
       <c r="B89" t="n" s="6">
         <v>1.0</v>
       </c>
-      <c r="C89" t="s" s="6">
-        <v>197</v>
-      </c>
+      <c r="C89" s="6"/>
       <c r="D89" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s" s="180">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" t="n" s="8">
         <v>5.0</v>
@@ -8138,7 +8264,9 @@
       <c r="H89" t="n" s="11">
         <v>0.09375</v>
       </c>
-      <c r="I89" s="10"/>
+      <c r="I89" t="n" s="10">
+        <v>0.01875</v>
+      </c>
       <c r="J89" t="n" s="9">
         <v>66.0</v>
       </c>
@@ -8154,18 +8282,14 @@
       <c r="N89" t="n" s="11">
         <v>1.0125</v>
       </c>
-      <c r="O89" t="s" s="9">
-        <v>198</v>
-      </c>
+      <c r="O89" s="9"/>
       <c r="P89" t="n" s="11">
         <v>0.9159722222222222</v>
       </c>
       <c r="Q89" t="n" s="11">
         <v>0.9534722222222223</v>
       </c>
-      <c r="R89" t="s" s="9">
-        <v>106</v>
-      </c>
+      <c r="R89" s="9"/>
       <c r="S89" t="n" s="11">
         <v>0.9069444444444444</v>
       </c>
@@ -8173,7 +8297,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U89" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="30.0" customHeight="true">
@@ -8184,13 +8308,13 @@
         <v>1.0</v>
       </c>
       <c r="C90" t="s" s="6">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s" s="182">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F90" t="n" s="8">
         <v>5.0</v>
@@ -8201,7 +8325,9 @@
       <c r="H90" t="n" s="11">
         <v>0.09027777777777778</v>
       </c>
-      <c r="I90" s="10"/>
+      <c r="I90" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J90" t="n" s="9">
         <v>68.0</v>
       </c>
@@ -8218,7 +8344,7 @@
         <v>1.0215277777777778</v>
       </c>
       <c r="O90" t="s" s="9">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P90" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -8227,7 +8353,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R90" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S90" t="n" s="11">
         <v>0.9145833333333333</v>
@@ -8236,7 +8362,7 @@
         <v>0.9506944444444444</v>
       </c>
       <c r="U90" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="30.0" customHeight="true">
@@ -8247,13 +8373,13 @@
         <v>1.0</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D91" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s" s="184">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F91" t="n" s="8">
         <v>3.0</v>
@@ -8264,7 +8390,9 @@
       <c r="H91" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I91" s="10"/>
+      <c r="I91" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J91" t="n" s="9">
         <v>45.0</v>
       </c>
@@ -8281,7 +8409,7 @@
         <v>0.98125</v>
       </c>
       <c r="O91" t="s" s="9">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P91" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -8290,7 +8418,7 @@
         <v>0.9298611111111111</v>
       </c>
       <c r="R91" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S91" t="n" s="11">
         <v>0.8611111111111112</v>
@@ -8299,7 +8427,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U91" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="30.0" customHeight="true">
@@ -8310,13 +8438,13 @@
         <v>3.0</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s" s="186">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F92" t="n" s="8">
         <v>2.0</v>
@@ -8327,7 +8455,9 @@
       <c r="H92" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I92" s="10"/>
+      <c r="I92" t="n" s="10">
+        <v>0.024305555555555556</v>
+      </c>
       <c r="J92" t="n" s="9">
         <v>50.0</v>
       </c>
@@ -8344,7 +8474,7 @@
         <v>0.9527777777777777</v>
       </c>
       <c r="O92" t="s" s="9">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P92" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -8353,7 +8483,7 @@
         <v>0.9236111111111112</v>
       </c>
       <c r="R92" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S92" t="n" s="11">
         <v>0.875</v>
@@ -8362,7 +8492,7 @@
         <v>0.8993055555555556</v>
       </c>
       <c r="U92" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="30.0" customHeight="true">
@@ -8372,14 +8502,12 @@
       <c r="B93" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C93" t="s" s="6">
-        <v>205</v>
-      </c>
+      <c r="C93" s="6"/>
       <c r="D93" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s" s="188">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F93" t="n" s="8">
         <v>4.0</v>
@@ -8390,7 +8518,9 @@
       <c r="H93" t="n" s="11">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I93" s="10"/>
+      <c r="I93" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J93" t="n" s="9">
         <v>45.0</v>
       </c>
@@ -8406,18 +8536,14 @@
       <c r="N93" t="n" s="11">
         <v>1.0034722222222223</v>
       </c>
-      <c r="O93" t="s" s="9">
-        <v>29</v>
-      </c>
+      <c r="O93" s="9"/>
       <c r="P93" t="n" s="11">
         <v>0.8756944444444444</v>
       </c>
       <c r="Q93" t="n" s="11">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" t="s" s="9">
-        <v>206</v>
-      </c>
+      <c r="R93" s="9"/>
       <c r="S93" t="n" s="11">
         <v>0.9027777777777778</v>
       </c>
@@ -8425,7 +8551,7 @@
         <v>0.9305555555555556</v>
       </c>
       <c r="U93" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="30.0" customHeight="true">
@@ -8436,13 +8562,13 @@
         <v>3.0</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s" s="190">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F94" t="n" s="8">
         <v>1.0</v>
@@ -8453,7 +8579,9 @@
       <c r="H94" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I94" s="10"/>
+      <c r="I94" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J94" t="n" s="9">
         <v>17.0</v>
       </c>
@@ -8470,7 +8598,7 @@
         <v>0.9944444444444445</v>
       </c>
       <c r="O94" t="s" s="9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P94" t="n" s="11">
         <v>0.8680555555555556</v>
@@ -8479,7 +8607,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R94" t="s" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S94" t="n" s="11">
         <v>0.8298611111111112</v>
@@ -8488,7 +8616,7 @@
         <v>0.90625</v>
       </c>
       <c r="U94" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="30.0" customHeight="true">
@@ -8499,13 +8627,13 @@
         <v>3.0</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s" s="192">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F95" t="n" s="8">
         <v>4.0</v>
@@ -8516,7 +8644,9 @@
       <c r="H95" t="n" s="11">
         <v>0.06944444444444445</v>
       </c>
-      <c r="I95" s="10"/>
+      <c r="I95" t="n" s="10">
+        <v>0.034722222222222224</v>
+      </c>
       <c r="J95" t="n" s="9">
         <v>72.0</v>
       </c>
@@ -8533,7 +8663,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O95" t="s" s="9">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P95" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8542,7 +8672,7 @@
         <v>0.9340277777777778</v>
       </c>
       <c r="R95" t="s" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S95" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8551,7 +8681,7 @@
         <v>0.9520833333333333</v>
       </c>
       <c r="U95" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="30.0" customHeight="true">
@@ -8562,13 +8692,13 @@
         <v>3.0</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s" s="194">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" t="n" s="8">
         <v>1.0</v>
@@ -8579,7 +8709,9 @@
       <c r="H96" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I96" s="10"/>
+      <c r="I96" t="n" s="10">
+        <v>0.041666666666666664</v>
+      </c>
       <c r="J96" t="n" s="9">
         <v>25.0</v>
       </c>
@@ -8596,7 +8728,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O96" t="s" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P96" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -8605,7 +8737,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R96" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S96" t="n" s="11">
         <v>0.8694444444444445</v>
@@ -8614,7 +8746,7 @@
         <v>0.9180555555555555</v>
       </c>
       <c r="U96" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="30.0" customHeight="true">
@@ -8625,13 +8757,13 @@
         <v>3.0</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s" s="196">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n" s="8">
         <v>2.0</v>
@@ -8642,7 +8774,9 @@
       <c r="H97" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I97" s="10"/>
+      <c r="I97" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J97" t="n" s="9">
         <v>60.0</v>
       </c>
@@ -8659,7 +8793,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O97" t="s" s="9">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P97" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8668,7 +8802,7 @@
         <v>0.9375</v>
       </c>
       <c r="R97" t="s" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S97" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8677,7 +8811,7 @@
         <v>0.9375</v>
       </c>
       <c r="U97" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="30.0" customHeight="true">
@@ -8688,13 +8822,13 @@
         <v>1.0</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s" s="198">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n" s="8">
         <v>3.0</v>
@@ -8705,7 +8839,9 @@
       <c r="H98" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I98" s="10"/>
+      <c r="I98" t="n" s="10">
+        <v>0.027777777777777776</v>
+      </c>
       <c r="J98" t="n" s="9">
         <v>43.0</v>
       </c>
@@ -8722,7 +8858,7 @@
         <v>0.9743055555555555</v>
       </c>
       <c r="O98" t="s" s="9">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P98" t="n" s="11">
         <v>0.89375</v>
@@ -8731,7 +8867,7 @@
         <v>0.9215277777777777</v>
       </c>
       <c r="R98" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S98" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -8740,7 +8876,7 @@
         <v>0.8819444444444444</v>
       </c>
       <c r="U98" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="30.0" customHeight="true">
@@ -8751,13 +8887,13 @@
         <v>3.0</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s" s="200">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F99" t="n" s="8">
         <v>5.0</v>
@@ -8768,7 +8904,9 @@
       <c r="H99" t="n" s="11">
         <v>0.05555555555555555</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" t="n" s="10">
+        <v>0.022222222222222223</v>
+      </c>
       <c r="J99" t="n" s="9">
         <v>112.0</v>
       </c>
@@ -8785,7 +8923,7 @@
         <v>0.9805555555555555</v>
       </c>
       <c r="O99" t="s" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P99" t="n" s="11">
         <v>0.925</v>
@@ -8794,7 +8932,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="R99" t="s" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S99" t="n" s="11">
         <v>0.93125</v>
@@ -8803,7 +8941,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="U99" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="30.0" customHeight="true">
@@ -8814,13 +8952,13 @@
         <v>1.0</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s" s="202">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F100" t="n" s="8">
         <v>2.0</v>
@@ -8831,7 +8969,9 @@
       <c r="H100" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I100" s="10"/>
+      <c r="I100" t="n" s="10">
+        <v>0.024305555555555556</v>
+      </c>
       <c r="J100" t="n" s="9">
         <v>51.0</v>
       </c>
@@ -8848,7 +8988,7 @@
         <v>0.9618055555555556</v>
       </c>
       <c r="O100" t="s" s="9">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P100" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -8857,7 +8997,7 @@
         <v>0.9236111111111112</v>
       </c>
       <c r="R100" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S100" t="n" s="11">
         <v>0.8986111111111111</v>
@@ -8866,7 +9006,7 @@
         <v>0.9229166666666667</v>
       </c>
       <c r="U100" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="30.0" customHeight="true">
@@ -8877,13 +9017,13 @@
         <v>3.0</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s" s="204">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F101" t="n" s="8">
         <v>3.0</v>
@@ -8894,7 +9034,9 @@
       <c r="H101" t="n" s="11">
         <v>0.04791666666666667</v>
       </c>
-      <c r="I101" s="10"/>
+      <c r="I101" t="n" s="10">
+        <v>0.01597222222222222</v>
+      </c>
       <c r="J101" t="n" s="9">
         <v>72.0</v>
       </c>
@@ -8911,7 +9053,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O101" t="s" s="9">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P101" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -8920,7 +9062,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="R101" t="s" s="9">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="S101" t="n" s="11">
         <v>0.9368055555555556</v>
@@ -8929,7 +9071,7 @@
         <v>0.9527777777777777</v>
       </c>
       <c r="U101" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="30.0" customHeight="true">
@@ -8940,13 +9082,13 @@
         <v>2.0</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s" s="206">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F102" t="n" s="8">
         <v>10.0</v>
@@ -8957,7 +9099,9 @@
       <c r="H102" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="I102" t="n" s="10">
+        <v>0.015277777777777777</v>
+      </c>
       <c r="J102" t="n" s="9">
         <v>164.0</v>
       </c>
@@ -8974,7 +9118,7 @@
         <v>0.9979166666666667</v>
       </c>
       <c r="O102" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P102" t="n" s="11">
         <v>0.9375</v>
@@ -8983,7 +9127,7 @@
         <v>0.9451388888888889</v>
       </c>
       <c r="R102" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S102" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -8992,7 +9136,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U102" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="30.0" customHeight="true">
@@ -9003,13 +9147,13 @@
         <v>2.0</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s" s="208">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F103" t="n" s="8">
         <v>16.0</v>
@@ -9020,7 +9164,9 @@
       <c r="H103" t="n" s="11">
         <v>0.13333333333333333</v>
       </c>
-      <c r="I103" s="10"/>
+      <c r="I103" t="n" s="10">
+        <v>0.016666666666666666</v>
+      </c>
       <c r="J103" t="n" s="9">
         <v>151.0</v>
       </c>
@@ -9037,7 +9183,7 @@
         <v>1.0347222222222223</v>
       </c>
       <c r="O103" t="s" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P103" t="n" s="11">
         <v>0.9354166666666667</v>
@@ -9046,7 +9192,7 @@
         <v>0.9451388888888889</v>
       </c>
       <c r="R103" t="s" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S103" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9055,7 +9201,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="U103" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="30.0" customHeight="true">
@@ -9066,13 +9212,13 @@
         <v>2.0</v>
       </c>
       <c r="C104" t="s" s="6">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D104" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s" s="210">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F104" t="n" s="8">
         <v>4.0</v>
@@ -9083,7 +9229,9 @@
       <c r="H104" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I104" s="10"/>
+      <c r="I104" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J104" t="n" s="9">
         <v>119.0</v>
       </c>
@@ -9100,7 +9248,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="O104" t="s" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P104" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9109,7 +9257,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R104" t="s" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S104" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -9118,7 +9266,7 @@
         <v>0.9375</v>
       </c>
       <c r="U104" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="30.0" customHeight="true">
@@ -9129,13 +9277,13 @@
         <v>2.0</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s" s="212">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F105" t="n" s="8">
         <v>8.0</v>
@@ -9146,7 +9294,9 @@
       <c r="H105" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I105" s="10"/>
+      <c r="I105" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J105" t="n" s="9">
         <v>120.0</v>
       </c>
@@ -9163,7 +9313,7 @@
         <v>1.0048611111111112</v>
       </c>
       <c r="O105" t="s" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P105" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9172,7 +9322,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R105" t="s" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S105" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9181,7 +9331,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U105" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="30.0" customHeight="true">
@@ -9192,13 +9342,13 @@
         <v>1.0</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D106" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s" s="214">
         <v>22</v>
-      </c>
-      <c r="E106" t="s" s="214">
-        <v>23</v>
       </c>
       <c r="F106" t="n" s="8">
         <v>8.0</v>
@@ -9209,7 +9359,9 @@
       <c r="H106" t="n" s="11">
         <v>0.07222222222222222</v>
       </c>
-      <c r="I106" s="10"/>
+      <c r="I106" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J106" t="n" s="9">
         <v>138.0</v>
       </c>
@@ -9226,7 +9378,7 @@
         <v>0.9993055555555556</v>
       </c>
       <c r="O106" t="s" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P106" t="n" s="11">
         <v>0.9256944444444445</v>
@@ -9235,7 +9387,7 @@
         <v>0.9375</v>
       </c>
       <c r="R106" t="s" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S106" t="n" s="11">
         <v>0.9256944444444445</v>
@@ -9244,7 +9396,7 @@
         <v>0.9375</v>
       </c>
       <c r="U106" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="30.0" customHeight="true">
@@ -9255,13 +9407,13 @@
         <v>2.0</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D107" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s" s="216">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F107" t="n" s="8">
         <v>4.0</v>
@@ -9289,7 +9441,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O107" t="s" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P107" t="n" s="11">
         <v>0.9430555555555555</v>
@@ -9298,16 +9450,16 @@
         <v>0.9479166666666666</v>
       </c>
       <c r="R107" t="s" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S107" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T107" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U107" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="30.0" customHeight="true">
@@ -9318,13 +9470,13 @@
         <v>2.0</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D108" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s" s="218">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F108" t="n" s="8">
         <v>9.0</v>
@@ -9335,7 +9487,9 @@
       <c r="H108" t="n" s="11">
         <v>0.09375</v>
       </c>
-      <c r="I108" s="10"/>
+      <c r="I108" t="n" s="10">
+        <v>0.020833333333333332</v>
+      </c>
       <c r="J108" t="n" s="9">
         <v>123.0</v>
       </c>
@@ -9352,7 +9506,7 @@
         <v>1.020138888888889</v>
       </c>
       <c r="O108" t="s" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P108" t="n" s="11">
         <v>0.9291666666666667</v>
@@ -9361,7 +9515,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="R108" t="s" s="9">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S108" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -9370,7 +9524,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="U108" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="30.0" customHeight="true">
@@ -9381,13 +9535,13 @@
         <v>2.0</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s" s="220">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F109" t="n" s="8">
         <v>9.0</v>
@@ -9398,7 +9552,9 @@
       <c r="H109" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I109" s="10"/>
+      <c r="I109" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J109" t="n" s="9">
         <v>184.0</v>
       </c>
@@ -9415,7 +9571,7 @@
         <v>1.0027777777777778</v>
       </c>
       <c r="O109" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P109" t="n" s="11">
         <v>0.9347222222222222</v>
@@ -9424,7 +9580,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R109" t="s" s="9">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S109" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9433,7 +9589,7 @@
         <v>0.9375</v>
       </c>
       <c r="U109" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="30.0" customHeight="true">
@@ -9444,13 +9600,13 @@
         <v>2.0</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D110" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s" s="222">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F110" t="n" s="8">
         <v>15.0</v>
@@ -9461,7 +9617,9 @@
       <c r="H110" t="n" s="11">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I110" s="10"/>
+      <c r="I110" t="n" s="10">
+        <v>0.013888888888888888</v>
+      </c>
       <c r="J110" t="n" s="9">
         <v>179.0</v>
       </c>
@@ -9478,7 +9636,7 @@
         <v>1.0256944444444445</v>
       </c>
       <c r="O110" t="s" s="9">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P110" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9487,7 +9645,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R110" t="s" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S110" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9496,7 +9654,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="U110" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="30.0" customHeight="true">
@@ -9507,13 +9665,13 @@
         <v>2.0</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s" s="224">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F111" t="n" s="8">
         <v>10.0</v>
@@ -9524,7 +9682,9 @@
       <c r="H111" t="n" s="11">
         <v>0.09027777777777778</v>
       </c>
-      <c r="I111" s="10"/>
+      <c r="I111" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J111" t="n" s="9">
         <v>142.0</v>
       </c>
@@ -9541,7 +9701,7 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="O111" t="s" s="9">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9550,7 +9710,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R111" t="s" s="9">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9559,7 +9719,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="U111" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="30.0" customHeight="true">
@@ -9570,13 +9730,13 @@
         <v>3.0</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s" s="226">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F112" t="n" s="8">
         <v>8.0</v>
@@ -9587,7 +9747,9 @@
       <c r="H112" t="n" s="11">
         <v>0.07777777777777778</v>
       </c>
-      <c r="I112" s="10"/>
+      <c r="I112" t="n" s="10">
+        <v>0.019444444444444445</v>
+      </c>
       <c r="J112" t="n" s="9">
         <v>128.0</v>
       </c>
@@ -9604,7 +9766,7 @@
         <v>0.99375</v>
       </c>
       <c r="O112" t="s" s="9">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P112" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -9613,7 +9775,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="R112" t="s" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S112" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -9622,7 +9784,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="U112" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="30.0" customHeight="true">
@@ -9633,13 +9795,13 @@
         <v>1.0</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s" s="228">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F113" t="n" s="8">
         <v>8.0</v>
@@ -9650,7 +9812,9 @@
       <c r="H113" t="n" s="11">
         <v>0.07222222222222222</v>
       </c>
-      <c r="I113" s="10"/>
+      <c r="I113" t="n" s="10">
+        <v>0.018055555555555554</v>
+      </c>
       <c r="J113" t="n" s="9">
         <v>142.0</v>
       </c>
@@ -9667,7 +9831,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="O113" t="s" s="9">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P113" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9676,7 +9840,7 @@
         <v>0.9423611111111111</v>
       </c>
       <c r="R113" t="s" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S113" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9685,7 +9849,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="U113" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="30.0" customHeight="true">
@@ -9696,13 +9860,13 @@
         <v>2.0</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s" s="230">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F114" t="n" s="8">
         <v>3.0</v>
@@ -9730,7 +9894,7 @@
         <v>0.9875</v>
       </c>
       <c r="O114" t="s" s="9">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P114" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9739,16 +9903,16 @@
         <v>0.9430555555555555</v>
       </c>
       <c r="R114" t="s" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S114" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T114" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U114" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="30.0" customHeight="true">
@@ -9759,13 +9923,13 @@
         <v>2.0</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D115" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s" s="232">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F115" t="n" s="8">
         <v>4.0</v>
@@ -9793,7 +9957,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="O115" t="s" s="9">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P115" t="n" s="11">
         <v>0.9298611111111111</v>
@@ -9802,16 +9966,16 @@
         <v>0.9402777777777778</v>
       </c>
       <c r="R115" t="s" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S115" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T115" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U115" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="231">
   <si>
     <t xml:space="preserve">მარშრუტის. № </t>
   </si>
@@ -390,14 +390,6 @@
     <t>სოფელი გლდანი</t>
   </si>
   <si>
-    <t>სოფელ გლდანი (ბორის პაიჭაძის ქ. #18 სახლის მიმდებარედ) - სოფელი გლდანი (ბორის პაიჭაძის ქ. - ვიტალი დარასელიას ქ. - ვახტანგ გორგასალის ქ. – 26 მაისის ქ.).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
-უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ.  - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
-  </si>
-  <si>
-    <t>სოფელ გლდანი (26 მაისის ქ. #83- 26 მაისის ქუჩა).   - ლიბანის შესახვევი - ლიბანის ქუჩა - იპოლიტე-ივანოვის ქუჩა -  ქერჩის ქუჩა - აკაკი ვასაძის ქუჩა - ომარ ხიხანიშვილის ქ. - მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია).
-უკუ მიმართულებით: მ/ს 'ახმეტელის თეატრი' (მიმდებარე ტერიტორია) - ილია ვეკუას ქ. - აკაკი ვასაძის ქ. - შემდეგ იგივე სქემით.</t>
-  </si>
-  <si>
     <t xml:space="preserve">აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. - სანდრო ახმეტელის ქ - რობერტ ბარძიმაშვილის ქ. - პაიჭაძის ქ. (მობრუნება პაიჭაძის ქ. #5'ა'-სთან) - ევგენი მიქელაძის ქ. - აკაკი ბელიაშვილის ქ. - აკაკი ბაქრაძის ქ. - გრიგოლ რობაქიძის გამზირი - შალიკაშვილის ხიდი - აკაკი წერეთლის გამზირი - გიორგი ცაბაძის ქ. - დავით აღმაშენებლის გამზირი - თამარ მეფის გამზირი - გმირთა მოედანი - ვარაზისხევის ქ. - პეტრე მელიქიშვილის ქ. - მერაბ კოსტავას ქ. - შოთა რუსთაველის გამზირი - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. - ნიკოლოზ ბარათაშვილის ქ. - ნიკოლოზ ბარათაშვილის ხიდი - ნიკოლოზ ბარათაშვილის აღმართი - მ/ს ,,ავლაბარი' (მიმდებარედ).
 უკუმიმართულებით: მ/ს ,,ავლაბარი' (მიმდებარედ) - ნიკოლოზ ბარათაშვილის აღმართი - ნიკოლოზ ბარათაშვილის ხიდი - მარჯვენა სანაპირო - მიხეილ ჯავახიშვილის ქუჩა - რუსთაველის გამზირი - მერაბ კოსტავას ქ. - გმირთა მოედანი - თამარ მეფის გამზირი - მიხეილ წინამძღვრიშვილის ქ. - აკაკი წერეთლის გამზირი - შალიკაშვილის ხიდი  - აკაკი ბელიაშვილის ქ. (მობრუნება ჯორჯ ბალანჩინის ქუჩაზე, 'Mcdonald's'-ის მიმდებარედ) - აკაკი ბელიაშვილის ქ. (#40-ის მიმდებარედ).
 </t>
@@ -665,13 +657,6 @@
     <t>ნუცუბიძის V მ/რ</t>
   </si>
   <si>
-    <t>საქართველოს სასჯელაღსრულების, პრობაციისა და იურიდიული დახმარების საკითხთა სამინისტროს სასჯელაღსრულების დეპარტამეტის დაქვემდებარებაში არსებული N6 დაწესებულება - სოფელი კრწანისი - კრწანისის სასწავლო ცენტრი - შსს-ოს აგარაკები - გიგანტის დასახლება - ზოოვეტერინარული ინსტიტუტის დასახლება - სოფ. სოღანლუღი - ქვემო ფონიჭალის დასახლება - რუსთავის გზატკეცილი - გორგასლის ქ. - მეტეხის ხიდი - რიყე - მარცხენა სანაპირო - ბარათაშვილის ქ. (მობრუნება ბარათაშვილისა და პუშკინის ქუჩების გადაკვეთასთან, გაჩერება 'კონკის' მხარეს)
-უკუ მიმართულებით: ბარათაშვილის ქ. ('კონკის' მხარეს) - მარჯვენა სანაპირო - გორგასალის ქ. - შემდეგ იგივე სქემით</t>
-  </si>
-  <si>
-    <t>№6-ე სასჯელ-აღსრულების დაწესებულება</t>
-  </si>
-  <si>
     <t xml:space="preserve">სოფელი ტაბახმელა (#7 და #6 სახლების გზაგამყოფის მიმდებარედ ) - თბილისი-კოჯრის ქ. (სოფ. შინდისის, სოფელი წავკისის, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი - ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ).                                             უკუმიმართულებით: ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. - პაოლო იაშვილის ქ. - ამაღლების ქ. -  მარო მაყაშვილის ქ. - მარო მაყაშვილის აღმართი - კოჯრის გზატკეცილი - თბილისი-კოჯრის ქ. ( წავკისის ველის, სოფელი წავკისის, სოფ. შინდისის გავლით) - სოფელი ტაბახმელა (კვირაცხოვლის ქ. - საცხოვრებელი კორპუსი - იაშაღაშვილის ქ. - #7,11,12,13,14 სახლი - #6,5,4,3,2,1 სახლი - #7 და #6 სახლების გზაგამყოფის მიმდებარედ). </t>
   </si>
   <si>
@@ -682,6 +667,13 @@
   </si>
   <si>
     <t>სოფელი დიღომი</t>
+  </si>
+  <si>
+    <t>დაბა კიკეთი - თბილისი-კოჯრის გზა (სოფ. დიდება, დაბა კოჯორი, სოფ. ტაბახმელა, სოფ. შინდისი, სოფ. წავკისი, წავკისის ველის გავლით) - კოჯრის გზატკეცილი - მარო მაყაშვილის აღმართი - მარო მაყაშვილის ქ. - ამაღლების ქ. - ლადო ასათიანის შესახვევი - ლადო ასათიანის ქ. - შალვა დადიანის ქ. - თავისუფლების მოედანი -ალექსანდრე პუშკინის ქ. – ნიკოლოზ ბარათაშვილის ქ. – ნიკოლოზ ბარათაშვილის ხიდი – მარცხენა სანაპირო – ნიკოლოზ ბარათაშვილის ხიდი – ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ)
+უკუმიმართულებით:  ნიკოლოზ ბარათაშვილის ქ. (№2-ის მიმდებარედ) – ალექსანდრე პუშკინის ქ. – თავისუფლების მოედანი – გიორგი ლეონიძის ქ. – მიხეილ ლერმონტოვის ქ. – პაოლო იაშვილის ქ. – ამაღლების ქ. – მარო მაყაშვილის ქ. – მარო მაყაშვილის აღმართი – კოჯრის გზატკეცილი – შემდეგ არსებული სქემით.</t>
+  </si>
+  <si>
+    <t>კიკეთი</t>
   </si>
   <si>
     <t>სოფ. ლისი - სოფ. თხინვალი - ახალი იპოდრომი -  ნუცუბიძის IV-II მ/რ - ჟღენტის ქ. - ნუცუბიძის ქ. - თავაძის ქ. - ზაქარიაძის ქ. - ვაჟა ფშაველას ჩიხი - მ/ს 'დელისი' (მიმდებარედ) 
@@ -2638,6 +2630,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="3">
+        <f>SUBTOTAL(9,F5:F115)</f>
         <v>5</v>
       </c>
       <c r="G1" t="s" s="1">
@@ -5457,9 +5450,7 @@
       <c r="B46" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C46" t="s" s="6">
-        <v>114</v>
-      </c>
+      <c r="C46" s="6"/>
       <c r="D46" t="s" s="6">
         <v>21</v>
       </c>
@@ -5493,9 +5484,7 @@
       <c r="N46" t="n" s="11">
         <v>0.96875</v>
       </c>
-      <c r="O46" t="s" s="9">
-        <v>28</v>
-      </c>
+      <c r="O46" s="9"/>
       <c r="P46" t="n" s="11">
         <v>0.9027777777777778</v>
       </c>
@@ -5520,9 +5509,7 @@
       <c r="B47" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C47" t="s" s="6">
-        <v>115</v>
-      </c>
+      <c r="C47" s="6"/>
       <c r="D47" t="s" s="6">
         <v>21</v>
       </c>
@@ -5556,9 +5543,7 @@
       <c r="N47" t="n" s="11">
         <v>0.9791666666666666</v>
       </c>
-      <c r="O47" t="s" s="9">
-        <v>28</v>
-      </c>
+      <c r="O47" s="9"/>
       <c r="P47" t="n" s="11">
         <v>0.9305555555555556</v>
       </c>
@@ -5584,7 +5569,7 @@
         <v>2.0</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s" s="6">
         <v>21</v>
@@ -5620,7 +5605,7 @@
         <v>1.0097222222222222</v>
       </c>
       <c r="O48" t="s" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P48" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5629,7 +5614,7 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="R48" t="s" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S48" t="n" s="11">
         <v>0.9243055555555556</v>
@@ -5649,7 +5634,7 @@
         <v>3.0</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s" s="6">
         <v>21</v>
@@ -5685,7 +5670,7 @@
         <v>0.9875</v>
       </c>
       <c r="O49" t="s" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P49" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -5714,7 +5699,7 @@
         <v>3.0</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s" s="6">
         <v>21</v>
@@ -5750,7 +5735,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O50" t="s" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P50" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -5779,7 +5764,7 @@
         <v>1.0</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s" s="6">
         <v>21</v>
@@ -5815,7 +5800,7 @@
         <v>0.9951388888888889</v>
       </c>
       <c r="O51" t="s" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P51" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -5844,7 +5829,7 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s" s="6">
         <v>21</v>
@@ -5880,7 +5865,7 @@
         <v>1.0229166666666667</v>
       </c>
       <c r="O52" t="s" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P52" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -5909,7 +5894,7 @@
         <v>3.0</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s" s="6">
         <v>21</v>
@@ -5945,7 +5930,7 @@
         <v>0.98125</v>
       </c>
       <c r="O53" t="s" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P53" t="n" s="11">
         <v>0.9270833333333334</v>
@@ -5974,7 +5959,7 @@
         <v>3.0</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s" s="6">
         <v>21</v>
@@ -6010,7 +5995,7 @@
         <v>0.9875</v>
       </c>
       <c r="O54" t="s" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P54" t="n" s="11">
         <v>0.9194444444444444</v>
@@ -6039,7 +6024,7 @@
         <v>2.0</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s" s="6">
         <v>21</v>
@@ -6104,7 +6089,7 @@
         <v>1.0</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s" s="6">
         <v>21</v>
@@ -6140,7 +6125,7 @@
         <v>0.9909722222222223</v>
       </c>
       <c r="O56" t="s" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P56" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -6169,7 +6154,7 @@
         <v>1.0</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s" s="6">
         <v>21</v>
@@ -6214,7 +6199,7 @@
         <v>0.9548611111111112</v>
       </c>
       <c r="R57" t="s" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S57" t="n" s="11">
         <v>0.8923611111111112</v>
@@ -6234,7 +6219,7 @@
         <v>1.0</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s" s="6">
         <v>21</v>
@@ -6270,7 +6255,7 @@
         <v>0.9895833333333334</v>
       </c>
       <c r="O58" t="s" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P58" t="n" s="11">
         <v>0.9027777777777778</v>
@@ -6299,7 +6284,7 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s" s="6">
         <v>21</v>
@@ -6364,7 +6349,7 @@
         <v>3.0</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s" s="6">
         <v>21</v>
@@ -6400,7 +6385,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="O60" t="s" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P60" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -6429,7 +6414,7 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s" s="6">
         <v>21</v>
@@ -6465,7 +6450,7 @@
         <v>0.99375</v>
       </c>
       <c r="O61" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P61" t="n" s="11">
         <v>0.9055555555555556</v>
@@ -6494,7 +6479,7 @@
         <v>1.0</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s" s="6">
         <v>21</v>
@@ -6530,7 +6515,7 @@
         <v>0.9659722222222222</v>
       </c>
       <c r="O62" t="s" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P62" t="n" s="11">
         <v>0.8958333333333334</v>
@@ -6539,7 +6524,7 @@
         <v>0.9375</v>
       </c>
       <c r="R62" t="s" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S62" t="n" s="11">
         <v>0.875</v>
@@ -6559,7 +6544,7 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s" s="6">
         <v>21</v>
@@ -6595,7 +6580,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="O63" t="s" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P63" t="n" s="11">
         <v>0.9125</v>
@@ -6624,7 +6609,7 @@
         <v>1.0</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s" s="6">
         <v>21</v>
@@ -6660,7 +6645,7 @@
         <v>0.9368055555555556</v>
       </c>
       <c r="O64" t="s" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P64" t="n" s="11">
         <v>0.8854166666666666</v>
@@ -6669,7 +6654,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="R64" t="s" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S64" t="n" s="11">
         <v>0.8701388888888889</v>
@@ -6689,7 +6674,7 @@
         <v>3.0</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s" s="6">
         <v>21</v>
@@ -6725,7 +6710,7 @@
         <v>0.9729166666666667</v>
       </c>
       <c r="O65" t="s" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P65" t="n" s="11">
         <v>0.9215277777777777</v>
@@ -6754,7 +6739,7 @@
         <v>2.0</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s" s="6">
         <v>21</v>
@@ -6790,7 +6775,7 @@
         <v>1.0027777777777778</v>
       </c>
       <c r="O66" t="s" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P66" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -6819,7 +6804,7 @@
         <v>1.0</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s" s="6">
         <v>21</v>
@@ -6884,7 +6869,7 @@
         <v>1.0</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s" s="6">
         <v>21</v>
@@ -6920,7 +6905,7 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="O68" t="s" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P68" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -6929,7 +6914,7 @@
         <v>0.9381944444444444</v>
       </c>
       <c r="R68" t="s" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S68" t="n" s="11">
         <v>0.9277777777777778</v>
@@ -6949,7 +6934,7 @@
         <v>3.0</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s" s="6">
         <v>21</v>
@@ -6985,7 +6970,7 @@
         <v>0.9680555555555556</v>
       </c>
       <c r="O69" t="s" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P69" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -7014,7 +6999,7 @@
         <v>3.0</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s" s="6">
         <v>21</v>
@@ -7050,7 +7035,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="O70" t="s" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P70" t="n" s="11">
         <v>0.8541666666666666</v>
@@ -7059,7 +7044,7 @@
         <v>0.8958333333333334</v>
       </c>
       <c r="R70" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S70" t="n" s="11">
         <v>0.875</v>
@@ -7079,7 +7064,7 @@
         <v>3.0</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s" s="6">
         <v>21</v>
@@ -7115,7 +7100,7 @@
         <v>0.9777777777777777</v>
       </c>
       <c r="O71" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7124,7 +7109,7 @@
         <v>0.9513888888888888</v>
       </c>
       <c r="R71" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S71" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -7144,7 +7129,7 @@
         <v>3.0</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s" s="6">
         <v>21</v>
@@ -7180,7 +7165,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O72" t="s" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P72" t="n" s="11">
         <v>0.9097222222222222</v>
@@ -7209,7 +7194,7 @@
         <v>3.0</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s" s="6">
         <v>21</v>
@@ -7245,7 +7230,7 @@
         <v>0.9715277777777778</v>
       </c>
       <c r="O73" t="s" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P73" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7274,7 +7259,7 @@
         <v>2.0</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s" s="6">
         <v>21</v>
@@ -7310,7 +7295,7 @@
         <v>0.9673611111111111</v>
       </c>
       <c r="O74" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P74" t="n" s="11">
         <v>0.9361111111111111</v>
@@ -7339,7 +7324,7 @@
         <v>1.0</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s" s="6">
         <v>21</v>
@@ -7404,7 +7389,7 @@
         <v>1.0</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s" s="6">
         <v>21</v>
@@ -7440,7 +7425,7 @@
         <v>0.9319444444444445</v>
       </c>
       <c r="O76" t="s" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P76" t="n" s="11">
         <v>0.8118055555555556</v>
@@ -7449,7 +7434,7 @@
         <v>0.8743055555555556</v>
       </c>
       <c r="R76" t="s" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S76" t="n" s="11">
         <v>0.7805555555555556</v>
@@ -7469,7 +7454,7 @@
         <v>1.0</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s" s="6">
         <v>21</v>
@@ -7534,7 +7519,7 @@
         <v>3.0</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s" s="6">
         <v>21</v>
@@ -7570,7 +7555,7 @@
         <v>0.9944444444444445</v>
       </c>
       <c r="O78" t="s" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P78" t="n" s="11">
         <v>0.9041666666666667</v>
@@ -7599,7 +7584,7 @@
         <v>2.0</v>
       </c>
       <c r="C79" t="s" s="6">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s" s="6">
         <v>21</v>
@@ -7635,7 +7620,7 @@
         <v>0.9993055555555556</v>
       </c>
       <c r="O79" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P79" t="n" s="11">
         <v>0.8951388888888889</v>
@@ -7664,7 +7649,7 @@
         <v>2.0</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s" s="6">
         <v>21</v>
@@ -7729,7 +7714,7 @@
         <v>2.0</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s" s="6">
         <v>21</v>
@@ -7765,7 +7750,7 @@
         <v>0.9972222222222222</v>
       </c>
       <c r="O81" t="s" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P81" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7794,7 +7779,7 @@
         <v>3.0</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s" s="6">
         <v>21</v>
@@ -7830,7 +7815,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O82" t="s" s="9">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P82" t="n" s="11">
         <v>0.9090277777777778</v>
@@ -7839,7 +7824,7 @@
         <v>0.9375</v>
       </c>
       <c r="R82" t="s" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S82" t="n" s="11">
         <v>0.9083333333333333</v>
@@ -7859,7 +7844,7 @@
         <v>3.0</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s" s="6">
         <v>21</v>
@@ -7895,7 +7880,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O83" t="s" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P83" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -7924,7 +7909,7 @@
         <v>1.0</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s" s="6">
         <v>21</v>
@@ -7960,7 +7945,7 @@
         <v>0.9826388888888888</v>
       </c>
       <c r="O84" t="s" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P84" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -7969,7 +7954,7 @@
         <v>0.9388888888888889</v>
       </c>
       <c r="R84" t="s" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S84" t="n" s="11">
         <v>0.9111111111111111</v>
@@ -7989,7 +7974,7 @@
         <v>1.0</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s" s="6">
         <v>21</v>
@@ -8054,7 +8039,7 @@
         <v>2.0</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s" s="6">
         <v>21</v>
@@ -8090,7 +8075,7 @@
         <v>0.975</v>
       </c>
       <c r="O86" t="s" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8099,7 +8084,7 @@
         <v>0.9409722222222222</v>
       </c>
       <c r="R86" t="s" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S86" t="n" s="11">
         <v>0.9173611111111111</v>
@@ -8119,7 +8104,7 @@
         <v>2.0</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s" s="6">
         <v>21</v>
@@ -8155,7 +8140,7 @@
         <v>1.0055555555555555</v>
       </c>
       <c r="O87" t="s" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P87" t="n" s="11">
         <v>0.8965277777777778</v>
@@ -8184,7 +8169,7 @@
         <v>3.0</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s" s="6">
         <v>21</v>
@@ -8220,7 +8205,7 @@
         <v>0.9784722222222222</v>
       </c>
       <c r="O88" t="s" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P88" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -8307,9 +8292,7 @@
       <c r="B90" t="n" s="6">
         <v>1.0</v>
       </c>
-      <c r="C90" t="s" s="6">
-        <v>193</v>
-      </c>
+      <c r="C90" s="6"/>
       <c r="D90" t="s" s="6">
         <v>21</v>
       </c>
@@ -8343,18 +8326,14 @@
       <c r="N90" t="n" s="11">
         <v>1.0215277777777778</v>
       </c>
-      <c r="O90" t="s" s="9">
-        <v>194</v>
-      </c>
+      <c r="O90" s="9"/>
       <c r="P90" t="n" s="11">
         <v>0.9055555555555556</v>
       </c>
       <c r="Q90" t="n" s="11">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R90" t="s" s="9">
-        <v>26</v>
-      </c>
+      <c r="R90" s="9"/>
       <c r="S90" t="n" s="11">
         <v>0.9145833333333333</v>
       </c>
@@ -8373,7 +8352,7 @@
         <v>1.0</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s" s="6">
         <v>21</v>
@@ -8409,7 +8388,7 @@
         <v>0.98125</v>
       </c>
       <c r="O91" t="s" s="9">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P91" t="n" s="11">
         <v>0.9020833333333333</v>
@@ -8438,7 +8417,7 @@
         <v>3.0</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s" s="6">
         <v>21</v>
@@ -8474,7 +8453,7 @@
         <v>0.9527777777777777</v>
       </c>
       <c r="O92" t="s" s="9">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P92" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -8502,7 +8481,9 @@
       <c r="B93" t="n" s="6">
         <v>3.0</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" t="s" s="6">
+        <v>195</v>
+      </c>
       <c r="D93" t="s" s="6">
         <v>21</v>
       </c>
@@ -8536,14 +8517,18 @@
       <c r="N93" t="n" s="11">
         <v>1.0034722222222223</v>
       </c>
-      <c r="O93" s="9"/>
+      <c r="O93" t="s" s="9">
+        <v>26</v>
+      </c>
       <c r="P93" t="n" s="11">
         <v>0.8756944444444444</v>
       </c>
       <c r="Q93" t="n" s="11">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" s="9"/>
+      <c r="R93" t="s" s="9">
+        <v>196</v>
+      </c>
       <c r="S93" t="n" s="11">
         <v>0.9027777777777778</v>
       </c>
@@ -8562,7 +8547,7 @@
         <v>3.0</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s" s="6">
         <v>21</v>
@@ -8627,7 +8612,7 @@
         <v>3.0</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s" s="6">
         <v>21</v>
@@ -8663,7 +8648,7 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="O95" t="s" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P95" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8692,7 +8677,7 @@
         <v>3.0</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s" s="6">
         <v>21</v>
@@ -8757,7 +8742,7 @@
         <v>3.0</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97" t="s" s="6">
         <v>21</v>
@@ -8793,7 +8778,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="O97" t="s" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P97" t="n" s="11">
         <v>0.9166666666666666</v>
@@ -8822,7 +8807,7 @@
         <v>1.0</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" t="s" s="6">
         <v>21</v>
@@ -8858,7 +8843,7 @@
         <v>0.9743055555555555</v>
       </c>
       <c r="O98" t="s" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P98" t="n" s="11">
         <v>0.89375</v>
@@ -8887,7 +8872,7 @@
         <v>3.0</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" t="s" s="6">
         <v>21</v>
@@ -8952,7 +8937,7 @@
         <v>1.0</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s" s="6">
         <v>21</v>
@@ -8988,7 +8973,7 @@
         <v>0.9618055555555556</v>
       </c>
       <c r="O100" t="s" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P100" t="n" s="11">
         <v>0.8993055555555556</v>
@@ -9017,7 +9002,7 @@
         <v>3.0</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s" s="6">
         <v>21</v>
@@ -9053,7 +9038,7 @@
         <v>0.9902777777777778</v>
       </c>
       <c r="O101" t="s" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P101" t="n" s="11">
         <v>0.9131944444444444</v>
@@ -9062,7 +9047,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="R101" t="s" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S101" t="n" s="11">
         <v>0.9368055555555556</v>
@@ -9082,7 +9067,7 @@
         <v>2.0</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s" s="6">
         <v>21</v>
@@ -9147,7 +9132,7 @@
         <v>2.0</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s" s="6">
         <v>21</v>
@@ -9183,7 +9168,7 @@
         <v>1.0347222222222223</v>
       </c>
       <c r="O103" t="s" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P103" t="n" s="11">
         <v>0.9354166666666667</v>
@@ -9212,7 +9197,7 @@
         <v>2.0</v>
       </c>
       <c r="C104" t="s" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s" s="6">
         <v>21</v>
@@ -9257,7 +9242,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="R104" t="s" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S104" t="n" s="11">
         <v>0.9236111111111112</v>
@@ -9277,7 +9262,7 @@
         <v>2.0</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D105" t="s" s="6">
         <v>21</v>
@@ -9313,7 +9298,7 @@
         <v>1.0048611111111112</v>
       </c>
       <c r="O105" t="s" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P105" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9342,7 +9327,7 @@
         <v>1.0</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s" s="6">
         <v>21</v>
@@ -9407,7 +9392,7 @@
         <v>2.0</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s" s="6">
         <v>21</v>
@@ -9470,7 +9455,7 @@
         <v>2.0</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s" s="6">
         <v>21</v>
@@ -9515,7 +9500,7 @@
         <v>0.9395833333333333</v>
       </c>
       <c r="R108" t="s" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S108" t="n" s="11">
         <v>0.9340277777777778</v>
@@ -9535,7 +9520,7 @@
         <v>2.0</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D109" t="s" s="6">
         <v>21</v>
@@ -9580,7 +9565,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R109" t="s" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S109" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9600,7 +9585,7 @@
         <v>2.0</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D110" t="s" s="6">
         <v>21</v>
@@ -9636,7 +9621,7 @@
         <v>1.0256944444444445</v>
       </c>
       <c r="O110" t="s" s="9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P110" t="n" s="11">
         <v>0.9305555555555556</v>
@@ -9665,7 +9650,7 @@
         <v>2.0</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D111" t="s" s="6">
         <v>21</v>
@@ -9701,7 +9686,7 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="O111" t="s" s="9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9710,7 +9695,7 @@
         <v>0.9416666666666667</v>
       </c>
       <c r="R111" t="s" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S111" t="n" s="11">
         <v>0.9326388888888889</v>
@@ -9730,7 +9715,7 @@
         <v>3.0</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s" s="6">
         <v>21</v>
@@ -9766,7 +9751,7 @@
         <v>0.99375</v>
       </c>
       <c r="O112" t="s" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P112" t="n" s="11">
         <v>0.9263888888888889</v>
@@ -9795,7 +9780,7 @@
         <v>1.0</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D113" t="s" s="6">
         <v>21</v>
@@ -9831,7 +9816,7 @@
         <v>0.9986111111111111</v>
       </c>
       <c r="O113" t="s" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P113" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9860,7 +9845,7 @@
         <v>2.0</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s" s="6">
         <v>21</v>
@@ -9894,7 +9879,7 @@
         <v>0.9875</v>
       </c>
       <c r="O114" t="s" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P114" t="n" s="11">
         <v>0.9333333333333333</v>
@@ -9923,7 +9908,7 @@
         <v>2.0</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s" s="6">
         <v>21</v>
@@ -9957,7 +9942,7 @@
         <v>0.9861111111111112</v>
       </c>
       <c r="O115" t="s" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P115" t="n" s="11">
         <v>0.9298611111111111</v>

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -2727,67 +2727,67 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H4" t="n" s="5">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" t="n" s="5">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="J4" t="n" s="5">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" t="n" s="5">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" t="n" s="5">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M4" t="n" s="5">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N4" t="n" s="5">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O4" t="n" s="5">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="P4" t="n" s="5">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q4" t="n" s="5">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="R4" t="n" s="5">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="S4" t="n" s="5">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="T4" t="n" s="5">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="U4" t="n" s="5">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="true">

--- a/downloads/sdasd.xlsx
+++ b/downloads/sdasd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <workbookPr date1904="true"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="41">
   <si>
     <t>მარშრუტის #</t>
   </si>
@@ -65,43 +65,13 @@
     <t>ბაზა_A</t>
   </si>
   <si>
-    <t>00:01:00</t>
-  </si>
-  <si>
     <t>A_B</t>
-  </si>
-  <si>
-    <t>00:05:00</t>
   </si>
   <si>
     <t>B_A</t>
   </si>
   <si>
-    <t>00:07:00</t>
-  </si>
-  <si>
-    <t>00:02:00</t>
-  </si>
-  <si>
-    <t>00:03:00</t>
-  </si>
-  <si>
-    <t>00:06:00</t>
-  </si>
-  <si>
-    <t>00:04:00</t>
-  </si>
-  <si>
-    <t>-00:01:00</t>
-  </si>
-  <si>
     <t>შესვენება</t>
-  </si>
-  <si>
-    <t>-00:06:00</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
   </si>
   <si>
     <t>A_ბაზა</t>
@@ -116,18 +86,6 @@
     <t>თამაზ გიგოლაშვილი</t>
   </si>
   <si>
-    <t>00:26:00</t>
-  </si>
-  <si>
-    <t>00:08:00</t>
-  </si>
-  <si>
-    <t>00:10:00</t>
-  </si>
-  <si>
-    <t>00:13:00</t>
-  </si>
-  <si>
     <t>B_ბაზა</t>
   </si>
   <si>
@@ -137,31 +95,16 @@
     <t>ზაზა გაბრიელაშვილი</t>
   </si>
   <si>
-    <t>-00:02:00</t>
-  </si>
-  <si>
-    <t>00:25:00</t>
-  </si>
-  <si>
-    <t>00:12:00</t>
-  </si>
-  <si>
     <t>TT-208-CB</t>
   </si>
   <si>
     <t>თეიმურაზ გოგიძე</t>
   </si>
   <si>
-    <t>00:21:00</t>
-  </si>
-  <si>
     <t>TT-156-CB</t>
   </si>
   <si>
     <t>დავით სილაქაძე</t>
-  </si>
-  <si>
-    <t>-00:03:00</t>
   </si>
   <si>
     <t>TT-202-CB</t>
@@ -179,25 +122,10 @@
     <t>ბაზა_B</t>
   </si>
   <si>
-    <t>00:11:00</t>
-  </si>
-  <si>
-    <t>00:09:00</t>
-  </si>
-  <si>
-    <t>-00:07:00</t>
-  </si>
-  <si>
     <t>TT-230-CB</t>
   </si>
   <si>
     <t>ვლადიმერ კვარაცხელია</t>
-  </si>
-  <si>
-    <t>-00:08:00</t>
-  </si>
-  <si>
-    <t>00:24:00</t>
   </si>
   <si>
     <t>2021-06-08</t>
@@ -207,9 +135,6 @@
   </si>
   <si>
     <t>თეიმურ ალიაზოვი</t>
-  </si>
-  <si>
-    <t>-00:05:00</t>
   </si>
 </sst>
 </file>
@@ -221,7 +146,7 @@
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -253,8 +178,16 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +212,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
@@ -330,6 +283,12 @@
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,8 +404,8 @@
       <c r="L2" t="n" s="6">
         <v>0.0125</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
+      <c r="M2" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
@@ -466,7 +425,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n" s="5">
         <v>0.2916666666666667</v>
@@ -486,8 +445,8 @@
       <c r="L3" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
+      <c r="M3" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
@@ -507,7 +466,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n" s="5">
         <v>0.325</v>
@@ -527,8 +486,8 @@
       <c r="L4" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M4" t="s">
-        <v>21</v>
+      <c r="M4" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="true">
@@ -548,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n" s="5">
         <v>0.3611111111111111</v>
@@ -568,8 +527,8 @@
       <c r="L5" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
+      <c r="M5" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
@@ -589,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n" s="5">
         <v>0.39444444444444443</v>
@@ -609,8 +568,8 @@
       <c r="L6" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
+      <c r="M6" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="true">
@@ -630,7 +589,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n" s="5">
         <v>0.4305555555555556</v>
@@ -650,8 +609,8 @@
       <c r="L7" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M7" t="s">
-        <v>17</v>
+      <c r="M7" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="true">
@@ -671,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n" s="5">
         <v>0.4638888888888889</v>
@@ -691,8 +650,8 @@
       <c r="L8" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M8" t="s">
-        <v>24</v>
+      <c r="M8" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="true">
@@ -712,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n" s="5">
         <v>0.5</v>
@@ -732,8 +691,8 @@
       <c r="L9" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M9" t="s">
-        <v>25</v>
+      <c r="M9" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="true">
@@ -753,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n" s="5">
         <v>0.5333333333333333</v>
@@ -773,8 +732,8 @@
       <c r="L10" t="n" s="6">
         <v>0.03333333333333333</v>
       </c>
-      <c r="M10" t="s">
-        <v>26</v>
+      <c r="M10" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="true">
@@ -794,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n" s="5">
         <v>0.5659722222222222</v>
@@ -814,8 +773,8 @@
       <c r="L11" t="n" s="6">
         <v>0.021527777777777778</v>
       </c>
-      <c r="M11" t="s">
-        <v>28</v>
+      <c r="M11" t="n" s="8">
+        <v>-0.004166666666666667</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="true">
@@ -835,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n" s="5">
         <v>0.5868055555555556</v>
@@ -855,8 +814,8 @@
       <c r="L12" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M12" t="s">
-        <v>19</v>
+      <c r="M12" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="true">
@@ -876,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n" s="5">
         <v>0.6201388888888889</v>
@@ -896,8 +855,8 @@
       <c r="L13" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M13" t="s">
-        <v>19</v>
+      <c r="M13" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="true">
@@ -917,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n" s="5">
         <v>0.65625</v>
@@ -937,8 +896,8 @@
       <c r="L14" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M14" t="s">
-        <v>24</v>
+      <c r="M14" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="true">
@@ -958,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n" s="5">
         <v>0.6895833333333333</v>
@@ -978,8 +937,8 @@
       <c r="L15" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M15" t="s">
-        <v>23</v>
+      <c r="M15" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="true">
@@ -999,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n" s="5">
         <v>0.7256944444444444</v>
@@ -1019,8 +978,8 @@
       <c r="L16" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M16" t="s">
-        <v>23</v>
+      <c r="M16" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="true">
@@ -1040,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n" s="5">
         <v>0.7590277777777777</v>
@@ -1060,8 +1019,8 @@
       <c r="L17" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M17" t="s">
-        <v>24</v>
+      <c r="M17" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="true">
@@ -1081,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n" s="5">
         <v>0.7951388888888888</v>
@@ -1101,8 +1060,8 @@
       <c r="L18" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M18" t="s">
-        <v>19</v>
+      <c r="M18" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="true">
@@ -1122,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n" s="5">
         <v>0.8284722222222223</v>
@@ -1142,8 +1101,8 @@
       <c r="L19" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M19" t="s">
-        <v>21</v>
+      <c r="M19" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="true">
@@ -1163,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n" s="5">
         <v>0.8645833333333334</v>
@@ -1183,8 +1142,8 @@
       <c r="L20" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M20" t="s">
-        <v>29</v>
+      <c r="M20" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="true">
@@ -1204,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n" s="5">
         <v>0.8979166666666667</v>
@@ -1224,8 +1183,8 @@
       <c r="L21" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M21" t="s">
-        <v>24</v>
+      <c r="M21" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="true">
@@ -1245,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n" s="5">
         <v>0.9340277777777778</v>
@@ -1257,16 +1216,16 @@
         <v>0.95</v>
       </c>
       <c r="J22" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K22" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L22" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M22" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M22" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="true">
@@ -1277,13 +1236,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s" s="3">
         <v>16</v>
@@ -1306,8 +1265,8 @@
       <c r="L23" t="n" s="6">
         <v>0.0125</v>
       </c>
-      <c r="M23" t="s">
-        <v>29</v>
+      <c r="M23" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="true">
@@ -1318,16 +1277,16 @@
         <v>13</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n" s="5">
         <v>0.3</v>
@@ -1347,8 +1306,8 @@
       <c r="L24" t="n" s="6">
         <v>0.025</v>
       </c>
-      <c r="M24" t="s">
-        <v>21</v>
+      <c r="M24" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="true">
@@ -1359,16 +1318,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n" s="5">
         <v>0.3333333333333333</v>
@@ -1388,8 +1347,8 @@
       <c r="L25" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M25" t="s">
-        <v>21</v>
+      <c r="M25" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="true">
@@ -1400,16 +1359,16 @@
         <v>13</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n" s="5">
         <v>0.36944444444444446</v>
@@ -1429,8 +1388,8 @@
       <c r="L26" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M26" t="s">
-        <v>17</v>
+      <c r="M26" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="true">
@@ -1441,16 +1400,16 @@
         <v>13</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n" s="5">
         <v>0.4027777777777778</v>
@@ -1470,8 +1429,8 @@
       <c r="L27" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M27" t="s">
-        <v>21</v>
+      <c r="M27" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="true">
@@ -1482,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n" s="5">
         <v>0.4388888888888889</v>
@@ -1511,8 +1470,8 @@
       <c r="L28" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M28" t="s">
-        <v>22</v>
+      <c r="M28" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="true">
@@ -1523,16 +1482,16 @@
         <v>13</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n" s="5">
         <v>0.4722222222222222</v>
@@ -1552,8 +1511,8 @@
       <c r="L29" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M29" t="s">
-        <v>29</v>
+      <c r="M29" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="true">
@@ -1564,16 +1523,16 @@
         <v>13</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D30" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n" s="5">
         <v>0.5048611111111111</v>
@@ -1593,8 +1552,8 @@
       <c r="L30" t="n" s="6">
         <v>-6.944444444444445E-4</v>
       </c>
-      <c r="M30" t="s">
-        <v>34</v>
+      <c r="M30" t="n" s="8">
+        <v>0.018055555555555554</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="true">
@@ -1605,16 +1564,16 @@
         <v>13</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n" s="5">
         <v>0.5256944444444445</v>
@@ -1634,8 +1593,8 @@
       <c r="L31" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M31" t="s">
-        <v>25</v>
+      <c r="M31" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="true">
@@ -1646,16 +1605,16 @@
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D32" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n" s="5">
         <v>0.5590277777777778</v>
@@ -1675,8 +1634,8 @@
       <c r="L32" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M32" t="s">
-        <v>25</v>
+      <c r="M32" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="true">
@@ -1687,16 +1646,16 @@
         <v>13</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n" s="5">
         <v>0.5951388888888889</v>
@@ -1716,8 +1675,8 @@
       <c r="L33" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M33" t="s">
-        <v>25</v>
+      <c r="M33" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="true">
@@ -1728,16 +1687,16 @@
         <v>13</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D34" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n" s="5">
         <v>0.6284722222222222</v>
@@ -1757,8 +1716,8 @@
       <c r="L34" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M34" t="s">
-        <v>35</v>
+      <c r="M34" t="n" s="8">
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="true">
@@ -1769,16 +1728,16 @@
         <v>13</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D35" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E35" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n" s="5">
         <v>0.6645833333333333</v>
@@ -1798,8 +1757,8 @@
       <c r="L35" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M35" t="s">
-        <v>22</v>
+      <c r="M35" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="true">
@@ -1810,16 +1769,16 @@
         <v>13</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n" s="5">
         <v>0.6979166666666666</v>
@@ -1839,8 +1798,8 @@
       <c r="L36" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M36" t="s">
-        <v>24</v>
+      <c r="M36" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="37" ht="30.0" customHeight="true">
@@ -1851,16 +1810,16 @@
         <v>13</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D37" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E37" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n" s="5">
         <v>0.7340277777777777</v>
@@ -1880,8 +1839,8 @@
       <c r="L37" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M37" t="s">
-        <v>22</v>
+      <c r="M37" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="38" ht="30.0" customHeight="true">
@@ -1892,16 +1851,16 @@
         <v>13</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D38" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E38" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n" s="5">
         <v>0.7673611111111112</v>
@@ -1921,8 +1880,8 @@
       <c r="L38" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M38" t="s">
-        <v>23</v>
+      <c r="M38" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="39" ht="30.0" customHeight="true">
@@ -1933,16 +1892,16 @@
         <v>13</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D39" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n" s="5">
         <v>0.8034722222222223</v>
@@ -1962,8 +1921,8 @@
       <c r="L39" t="n" s="6">
         <v>0.022916666666666665</v>
       </c>
-      <c r="M39" t="s">
-        <v>36</v>
+      <c r="M39" t="n" s="8">
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="40" ht="30.0" customHeight="true">
@@ -1974,16 +1933,16 @@
         <v>13</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n" s="5">
         <v>0.8368055555555556</v>
@@ -2003,8 +1962,8 @@
       <c r="L40" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M40" t="s">
-        <v>23</v>
+      <c r="M40" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="true">
@@ -2015,16 +1974,16 @@
         <v>13</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n" s="5">
         <v>0.8729166666666667</v>
@@ -2044,8 +2003,8 @@
       <c r="L41" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M41" t="s">
-        <v>17</v>
+      <c r="M41" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="true">
@@ -2056,16 +2015,16 @@
         <v>13</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n" s="5">
         <v>0.90625</v>
@@ -2085,8 +2044,8 @@
       <c r="L42" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M42" t="s">
-        <v>19</v>
+      <c r="M42" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="true">
@@ -2097,16 +2056,16 @@
         <v>13</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n" s="5">
         <v>0.9423611111111111</v>
@@ -2126,8 +2085,8 @@
       <c r="L43" t="n" s="6">
         <v>0.020833333333333332</v>
       </c>
-      <c r="M43" t="s">
-        <v>37</v>
+      <c r="M43" t="n" s="8">
+        <v>0.009027777777777777</v>
       </c>
     </row>
     <row r="44" ht="30.0" customHeight="true">
@@ -2138,16 +2097,16 @@
         <v>13</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E44" t="s" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s" s="3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G44" t="n" s="5">
         <v>0.9756944444444444</v>
@@ -2159,16 +2118,16 @@
         <v>0.9819444444444444</v>
       </c>
       <c r="J44" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K44" t="n" s="6">
         <v>0.00625</v>
       </c>
       <c r="L44" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M44" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M44" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="30.0" customHeight="true">
@@ -2179,13 +2138,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s" s="3">
         <v>16</v>
@@ -2208,8 +2167,8 @@
       <c r="L45" t="n" s="6">
         <v>0.014583333333333334</v>
       </c>
-      <c r="M45" t="s">
-        <v>41</v>
+      <c r="M45" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="46" ht="30.0" customHeight="true">
@@ -2220,16 +2179,16 @@
         <v>13</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="n" s="5">
         <v>0.3090277777777778</v>
@@ -2249,8 +2208,8 @@
       <c r="L46" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M46" t="s">
-        <v>25</v>
+      <c r="M46" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
@@ -2261,16 +2220,16 @@
         <v>13</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" t="n" s="5">
         <v>0.3423611111111111</v>
@@ -2290,8 +2249,8 @@
       <c r="L47" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M47" t="s">
-        <v>22</v>
+      <c r="M47" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="48" ht="30.0" customHeight="true">
@@ -2302,16 +2261,16 @@
         <v>13</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" t="n" s="5">
         <v>0.3784722222222222</v>
@@ -2331,8 +2290,8 @@
       <c r="L48" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M48" t="s">
-        <v>23</v>
+      <c r="M48" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="49" ht="30.0" customHeight="true">
@@ -2343,16 +2302,16 @@
         <v>13</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G49" t="n" s="5">
         <v>0.41180555555555554</v>
@@ -2372,8 +2331,8 @@
       <c r="L49" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M49" t="s">
-        <v>29</v>
+      <c r="M49" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="30.0" customHeight="true">
@@ -2384,16 +2343,16 @@
         <v>13</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" t="n" s="5">
         <v>0.4479166666666667</v>
@@ -2413,8 +2372,8 @@
       <c r="L50" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M50" t="s">
-        <v>22</v>
+      <c r="M50" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="true">
@@ -2425,16 +2384,16 @@
         <v>13</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n" s="5">
         <v>0.48125</v>
@@ -2454,8 +2413,8 @@
       <c r="L51" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M51" t="s">
-        <v>35</v>
+      <c r="M51" t="n" s="8">
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="true">
@@ -2466,16 +2425,16 @@
         <v>13</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n" s="5">
         <v>0.5173611111111112</v>
@@ -2495,8 +2454,8 @@
       <c r="L52" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M52" t="s">
-        <v>17</v>
+      <c r="M52" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="53" ht="30.0" customHeight="true">
@@ -2507,16 +2466,16 @@
         <v>13</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G53" t="n" s="5">
         <v>0.5506944444444445</v>
@@ -2536,8 +2495,8 @@
       <c r="L53" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M53" t="s">
-        <v>25</v>
+      <c r="M53" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="54" ht="30.0" customHeight="true">
@@ -2548,16 +2507,16 @@
         <v>13</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G54" t="n" s="5">
         <v>0.5833333333333334</v>
@@ -2577,8 +2536,8 @@
       <c r="L54" t="n" s="6">
         <v>0.0</v>
       </c>
-      <c r="M54" t="s">
-        <v>42</v>
+      <c r="M54" t="n" s="8">
+        <v>0.017361111111111112</v>
       </c>
     </row>
     <row r="55" ht="30.0" customHeight="true">
@@ -2589,16 +2548,16 @@
         <v>13</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n" s="5">
         <v>0.6041666666666666</v>
@@ -2618,8 +2577,8 @@
       <c r="L55" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M55" t="s">
-        <v>22</v>
+      <c r="M55" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="true">
@@ -2630,16 +2589,16 @@
         <v>13</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n" s="5">
         <v>0.6375</v>
@@ -2659,8 +2618,8 @@
       <c r="L56" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M56" t="s">
-        <v>22</v>
+      <c r="M56" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="57" ht="30.0" customHeight="true">
@@ -2671,16 +2630,16 @@
         <v>13</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D57" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" t="n" s="5">
         <v>0.6736111111111112</v>
@@ -2700,8 +2659,8 @@
       <c r="L57" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M57" t="s">
-        <v>25</v>
+      <c r="M57" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="58" ht="30.0" customHeight="true">
@@ -2712,16 +2671,16 @@
         <v>13</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E58" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n" s="5">
         <v>0.7069444444444445</v>
@@ -2741,8 +2700,8 @@
       <c r="L58" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M58" t="s">
-        <v>36</v>
+      <c r="M58" t="n" s="8">
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="59" ht="30.0" customHeight="true">
@@ -2753,16 +2712,16 @@
         <v>13</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E59" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n" s="5">
         <v>0.7430555555555556</v>
@@ -2782,8 +2741,8 @@
       <c r="L59" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M59" t="s">
-        <v>24</v>
+      <c r="M59" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="60" ht="30.0" customHeight="true">
@@ -2794,16 +2753,16 @@
         <v>13</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n" s="5">
         <v>0.7763888888888889</v>
@@ -2823,8 +2782,8 @@
       <c r="L60" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M60" t="s">
-        <v>24</v>
+      <c r="M60" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="61" ht="30.0" customHeight="true">
@@ -2835,16 +2794,16 @@
         <v>13</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n" s="5">
         <v>0.8125</v>
@@ -2864,8 +2823,8 @@
       <c r="L61" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M61" t="s">
-        <v>25</v>
+      <c r="M61" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="62" ht="30.0" customHeight="true">
@@ -2876,16 +2835,16 @@
         <v>13</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n" s="5">
         <v>0.8458333333333333</v>
@@ -2905,8 +2864,8 @@
       <c r="L62" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M62" t="s">
-        <v>19</v>
+      <c r="M62" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="63" ht="30.0" customHeight="true">
@@ -2917,16 +2876,16 @@
         <v>13</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="n" s="5">
         <v>0.8819444444444444</v>
@@ -2946,8 +2905,8 @@
       <c r="L63" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M63" t="s">
-        <v>24</v>
+      <c r="M63" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="64" ht="30.0" customHeight="true">
@@ -2958,16 +2917,16 @@
         <v>13</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G64" t="n" s="5">
         <v>0.9152777777777777</v>
@@ -2987,8 +2946,8 @@
       <c r="L64" t="n" s="6">
         <v>0.024305555555555556</v>
       </c>
-      <c r="M64" t="s">
-        <v>43</v>
+      <c r="M64" t="n" s="8">
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="65" ht="30.0" customHeight="true">
@@ -2999,16 +2958,16 @@
         <v>13</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n" s="4">
         <v>3.0</v>
       </c>
       <c r="E65" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n" s="5">
         <v>0.9513888888888888</v>
@@ -3020,16 +2979,16 @@
         <v>0.9673611111111111</v>
       </c>
       <c r="J65" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K65" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L65" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M65" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M65" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="30.0" customHeight="true">
@@ -3040,13 +2999,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E66" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s" s="3">
         <v>16</v>
@@ -3069,8 +3028,8 @@
       <c r="L66" t="n" s="6">
         <v>0.013194444444444444</v>
       </c>
-      <c r="M66" t="s">
-        <v>26</v>
+      <c r="M66" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="67" ht="30.0" customHeight="true">
@@ -3081,16 +3040,16 @@
         <v>13</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n" s="5">
         <v>0.3173611111111111</v>
@@ -3110,8 +3069,8 @@
       <c r="L67" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M67" t="s">
-        <v>25</v>
+      <c r="M67" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="68" ht="30.0" customHeight="true">
@@ -3122,16 +3081,16 @@
         <v>13</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E68" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F68" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n" s="5">
         <v>0.3506944444444444</v>
@@ -3151,8 +3110,8 @@
       <c r="L68" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M68" t="s">
-        <v>29</v>
+      <c r="M68" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" ht="30.0" customHeight="true">
@@ -3163,16 +3122,16 @@
         <v>13</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="n" s="5">
         <v>0.38680555555555557</v>
@@ -3192,8 +3151,8 @@
       <c r="L69" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M69" t="s">
-        <v>17</v>
+      <c r="M69" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="70" ht="30.0" customHeight="true">
@@ -3204,16 +3163,16 @@
         <v>13</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E70" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n" s="5">
         <v>0.4201388888888889</v>
@@ -3233,8 +3192,8 @@
       <c r="L70" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M70" t="s">
-        <v>24</v>
+      <c r="M70" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="71" ht="30.0" customHeight="true">
@@ -3245,16 +3204,16 @@
         <v>13</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" t="n" s="5">
         <v>0.45625</v>
@@ -3274,8 +3233,8 @@
       <c r="L71" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M71" t="s">
-        <v>23</v>
+      <c r="M71" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="72" ht="30.0" customHeight="true">
@@ -3286,16 +3245,16 @@
         <v>13</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E72" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" t="n" s="5">
         <v>0.4895833333333333</v>
@@ -3315,8 +3274,8 @@
       <c r="L72" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M72" t="s">
-        <v>23</v>
+      <c r="M72" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="73" ht="30.0" customHeight="true">
@@ -3327,16 +3286,16 @@
         <v>13</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E73" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n" s="5">
         <v>0.5222222222222223</v>
@@ -3356,8 +3315,8 @@
       <c r="L73" t="n" s="6">
         <v>0.002777777777777778</v>
       </c>
-      <c r="M73" t="s">
-        <v>46</v>
+      <c r="M73" t="n" s="8">
+        <v>0.014583333333333334</v>
       </c>
     </row>
     <row r="74" ht="30.0" customHeight="true">
@@ -3368,16 +3327,16 @@
         <v>13</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E74" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="n" s="5">
         <v>0.5430555555555555</v>
@@ -3397,8 +3356,8 @@
       <c r="L74" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M74" t="s">
-        <v>24</v>
+      <c r="M74" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="75" ht="30.0" customHeight="true">
@@ -3409,16 +3368,16 @@
         <v>13</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E75" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n" s="5">
         <v>0.5763888888888888</v>
@@ -3438,8 +3397,8 @@
       <c r="L75" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M75" t="s">
-        <v>24</v>
+      <c r="M75" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="76" ht="30.0" customHeight="true">
@@ -3450,16 +3409,16 @@
         <v>13</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E76" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n" s="5">
         <v>0.6125</v>
@@ -3479,8 +3438,8 @@
       <c r="L76" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M76" t="s">
-        <v>19</v>
+      <c r="M76" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="77" ht="30.0" customHeight="true">
@@ -3491,16 +3450,16 @@
         <v>13</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D77" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E77" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G77" t="n" s="5">
         <v>0.6458333333333334</v>
@@ -3520,8 +3479,8 @@
       <c r="L77" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M77" t="s">
-        <v>19</v>
+      <c r="M77" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="78" ht="30.0" customHeight="true">
@@ -3532,16 +3491,16 @@
         <v>13</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E78" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" t="n" s="5">
         <v>0.6819444444444445</v>
@@ -3561,8 +3520,8 @@
       <c r="L78" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M78" t="s">
-        <v>29</v>
+      <c r="M78" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="79" ht="30.0" customHeight="true">
@@ -3573,16 +3532,16 @@
         <v>13</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D79" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E79" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G79" t="n" s="5">
         <v>0.7152777777777778</v>
@@ -3602,8 +3561,8 @@
       <c r="L79" t="n" s="6">
         <v>0.03194444444444444</v>
       </c>
-      <c r="M79" t="s">
-        <v>17</v>
+      <c r="M79" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="80" ht="30.0" customHeight="true">
@@ -3614,16 +3573,16 @@
         <v>13</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E80" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G80" t="n" s="5">
         <v>0.7513888888888889</v>
@@ -3643,8 +3602,8 @@
       <c r="L80" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M80" t="s">
-        <v>29</v>
+      <c r="M80" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="81" ht="30.0" customHeight="true">
@@ -3655,16 +3614,16 @@
         <v>13</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E81" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n" s="5">
         <v>0.7847222222222222</v>
@@ -3684,8 +3643,8 @@
       <c r="L81" t="n" s="6">
         <v>0.03333333333333333</v>
       </c>
-      <c r="M81" t="s">
-        <v>26</v>
+      <c r="M81" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="82" ht="30.0" customHeight="true">
@@ -3696,16 +3655,16 @@
         <v>13</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E82" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" t="n" s="5">
         <v>0.8208333333333333</v>
@@ -3725,8 +3684,8 @@
       <c r="L82" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M82" t="s">
-        <v>24</v>
+      <c r="M82" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="83" ht="30.0" customHeight="true">
@@ -3737,16 +3696,16 @@
         <v>13</v>
       </c>
       <c r="C83" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E83" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G83" t="n" s="5">
         <v>0.8541666666666666</v>
@@ -3766,8 +3725,8 @@
       <c r="L83" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M83" t="s">
-        <v>25</v>
+      <c r="M83" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="84" ht="30.0" customHeight="true">
@@ -3778,16 +3737,16 @@
         <v>13</v>
       </c>
       <c r="C84" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E84" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G84" t="n" s="5">
         <v>0.8902777777777777</v>
@@ -3807,8 +3766,8 @@
       <c r="L84" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M84" t="s">
-        <v>25</v>
+      <c r="M84" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="85" ht="30.0" customHeight="true">
@@ -3819,16 +3778,16 @@
         <v>13</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D85" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E85" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G85" t="n" s="5">
         <v>0.9236111111111112</v>
@@ -3848,8 +3807,8 @@
       <c r="L85" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M85" t="s">
-        <v>23</v>
+      <c r="M85" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="86" ht="30.0" customHeight="true">
@@ -3860,16 +3819,16 @@
         <v>13</v>
       </c>
       <c r="C86" t="s" s="3">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D86" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="E86" t="s" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F86" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n" s="5">
         <v>0.9597222222222223</v>
@@ -3881,16 +3840,16 @@
         <v>0.9756944444444444</v>
       </c>
       <c r="J86" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K86" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L86" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M86" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M86" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="30.0" customHeight="true">
@@ -3901,13 +3860,13 @@
         <v>13</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E87" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s" s="3">
         <v>16</v>
@@ -3930,8 +3889,8 @@
       <c r="L87" t="n" s="6">
         <v>0.014583333333333334</v>
       </c>
-      <c r="M87" t="s">
-        <v>41</v>
+      <c r="M87" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="88" ht="30.0" customHeight="true">
@@ -3942,16 +3901,16 @@
         <v>13</v>
       </c>
       <c r="C88" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E88" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" t="n" s="5">
         <v>0.3263888888888889</v>
@@ -3971,8 +3930,8 @@
       <c r="L88" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M88" t="s">
-        <v>22</v>
+      <c r="M88" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="89" ht="30.0" customHeight="true">
@@ -3983,16 +3942,16 @@
         <v>13</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D89" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E89" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G89" t="n" s="5">
         <v>0.3597222222222222</v>
@@ -4012,8 +3971,8 @@
       <c r="L89" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M89" t="s">
-        <v>29</v>
+      <c r="M89" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90" ht="30.0" customHeight="true">
@@ -4024,16 +3983,16 @@
         <v>13</v>
       </c>
       <c r="C90" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E90" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G90" t="n" s="5">
         <v>0.3958333333333333</v>
@@ -4053,8 +4012,8 @@
       <c r="L90" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M90" t="s">
-        <v>29</v>
+      <c r="M90" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91" ht="30.0" customHeight="true">
@@ -4065,16 +4024,16 @@
         <v>13</v>
       </c>
       <c r="C91" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D91" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E91" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n" s="5">
         <v>0.42916666666666664</v>
@@ -4094,8 +4053,8 @@
       <c r="L91" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M91" t="s">
-        <v>22</v>
+      <c r="M91" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="92" ht="30.0" customHeight="true">
@@ -4106,16 +4065,16 @@
         <v>13</v>
       </c>
       <c r="C92" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E92" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" t="n" s="5">
         <v>0.4652777777777778</v>
@@ -4135,8 +4094,8 @@
       <c r="L92" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M92" t="s">
-        <v>26</v>
+      <c r="M92" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="93" ht="30.0" customHeight="true">
@@ -4147,16 +4106,16 @@
         <v>13</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G93" t="n" s="5">
         <v>0.4986111111111111</v>
@@ -4176,8 +4135,8 @@
       <c r="L93" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M93" t="s">
-        <v>29</v>
+      <c r="M93" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94" ht="30.0" customHeight="true">
@@ -4188,16 +4147,16 @@
         <v>13</v>
       </c>
       <c r="C94" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E94" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G94" t="n" s="5">
         <v>0.5347222222222222</v>
@@ -4217,8 +4176,8 @@
       <c r="L94" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M94" t="s">
-        <v>17</v>
+      <c r="M94" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="95" ht="30.0" customHeight="true">
@@ -4229,16 +4188,16 @@
         <v>13</v>
       </c>
       <c r="C95" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E95" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n" s="5">
         <v>0.5680555555555555</v>
@@ -4258,8 +4217,8 @@
       <c r="L95" t="n" s="6">
         <v>0.03333333333333333</v>
       </c>
-      <c r="M95" t="s">
-        <v>26</v>
+      <c r="M95" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="96" ht="30.0" customHeight="true">
@@ -4270,16 +4229,16 @@
         <v>13</v>
       </c>
       <c r="C96" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E96" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G96" t="n" s="5">
         <v>0.6006944444444444</v>
@@ -4299,8 +4258,8 @@
       <c r="L96" t="n" s="6">
         <v>0.019444444444444445</v>
       </c>
-      <c r="M96" t="s">
-        <v>49</v>
+      <c r="M96" t="n" s="7">
+        <v>-0.0020833333333333333</v>
       </c>
     </row>
     <row r="97" ht="30.0" customHeight="true">
@@ -4311,16 +4270,16 @@
         <v>13</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E97" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G97" t="n" s="5">
         <v>0.6215277777777778</v>
@@ -4340,8 +4299,8 @@
       <c r="L97" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M97" t="s">
-        <v>23</v>
+      <c r="M97" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="98" ht="30.0" customHeight="true">
@@ -4352,16 +4311,16 @@
         <v>13</v>
       </c>
       <c r="C98" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E98" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G98" t="n" s="5">
         <v>0.6548611111111111</v>
@@ -4381,8 +4340,8 @@
       <c r="L98" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M98" t="s">
-        <v>21</v>
+      <c r="M98" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="99" ht="30.0" customHeight="true">
@@ -4393,16 +4352,16 @@
         <v>13</v>
       </c>
       <c r="C99" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E99" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" t="n" s="5">
         <v>0.6909722222222222</v>
@@ -4422,8 +4381,8 @@
       <c r="L99" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M99" t="s">
-        <v>17</v>
+      <c r="M99" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="100" ht="30.0" customHeight="true">
@@ -4434,16 +4393,16 @@
         <v>13</v>
       </c>
       <c r="C100" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E100" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G100" t="n" s="5">
         <v>0.7243055555555555</v>
@@ -4463,8 +4422,8 @@
       <c r="L100" t="n" s="6">
         <v>0.034722222222222224</v>
       </c>
-      <c r="M100" t="s">
-        <v>49</v>
+      <c r="M100" t="n" s="7">
+        <v>-0.0020833333333333333</v>
       </c>
     </row>
     <row r="101" ht="30.0" customHeight="true">
@@ -4475,16 +4434,16 @@
         <v>13</v>
       </c>
       <c r="C101" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D101" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E101" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G101" t="n" s="5">
         <v>0.7604166666666666</v>
@@ -4504,8 +4463,8 @@
       <c r="L101" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M101" t="s">
-        <v>17</v>
+      <c r="M101" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="102" ht="30.0" customHeight="true">
@@ -4516,16 +4475,16 @@
         <v>13</v>
       </c>
       <c r="C102" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E102" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n" s="5">
         <v>0.79375</v>
@@ -4545,8 +4504,8 @@
       <c r="L102" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M102" t="s">
-        <v>29</v>
+      <c r="M102" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="103" ht="30.0" customHeight="true">
@@ -4557,16 +4516,16 @@
         <v>13</v>
       </c>
       <c r="C103" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D103" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E103" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G103" t="n" s="5">
         <v>0.8298611111111112</v>
@@ -4586,8 +4545,8 @@
       <c r="L103" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M103" t="s">
-        <v>25</v>
+      <c r="M103" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="104" ht="30.0" customHeight="true">
@@ -4598,16 +4557,16 @@
         <v>13</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D104" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E104" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G104" t="n" s="5">
         <v>0.8631944444444445</v>
@@ -4627,8 +4586,8 @@
       <c r="L104" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M104" t="s">
-        <v>25</v>
+      <c r="M104" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="105" ht="30.0" customHeight="true">
@@ -4639,16 +4598,16 @@
         <v>13</v>
       </c>
       <c r="C105" t="s" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D105" t="n" s="4">
         <v>5.0</v>
       </c>
       <c r="E105" t="s" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n" s="5">
         <v>0.8993055555555556</v>
@@ -4660,16 +4619,16 @@
         <v>0.9152777777777777</v>
       </c>
       <c r="J105" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K105" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L105" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M105" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M105" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="30.0" customHeight="true">
@@ -4680,13 +4639,13 @@
         <v>13</v>
       </c>
       <c r="C106" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E106" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s" s="3">
         <v>16</v>
@@ -4709,8 +4668,8 @@
       <c r="L106" t="n" s="6">
         <v>0.013194444444444444</v>
       </c>
-      <c r="M106" t="s">
-        <v>26</v>
+      <c r="M106" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="107" ht="30.0" customHeight="true">
@@ -4721,16 +4680,16 @@
         <v>13</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D107" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E107" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G107" t="n" s="5">
         <v>0.3347222222222222</v>
@@ -4750,8 +4709,8 @@
       <c r="L107" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M107" t="s">
-        <v>22</v>
+      <c r="M107" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="108" ht="30.0" customHeight="true">
@@ -4762,16 +4721,16 @@
         <v>13</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E108" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n" s="5">
         <v>0.3680555555555556</v>
@@ -4791,8 +4750,8 @@
       <c r="L108" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M108" t="s">
-        <v>22</v>
+      <c r="M108" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="109" ht="30.0" customHeight="true">
@@ -4803,16 +4762,16 @@
         <v>13</v>
       </c>
       <c r="C109" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E109" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" t="n" s="5">
         <v>0.4041666666666667</v>
@@ -4832,8 +4791,8 @@
       <c r="L109" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M109" t="s">
-        <v>22</v>
+      <c r="M109" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="110" ht="30.0" customHeight="true">
@@ -4844,16 +4803,16 @@
         <v>13</v>
       </c>
       <c r="C110" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E110" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G110" t="n" s="5">
         <v>0.4375</v>
@@ -4873,8 +4832,8 @@
       <c r="L110" t="n" s="6">
         <v>0.03333333333333333</v>
       </c>
-      <c r="M110" t="s">
-        <v>26</v>
+      <c r="M110" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="111" ht="30.0" customHeight="true">
@@ -4885,16 +4844,16 @@
         <v>13</v>
       </c>
       <c r="C111" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E111" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G111" t="n" s="5">
         <v>0.4736111111111111</v>
@@ -4914,8 +4873,8 @@
       <c r="L111" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M111" t="s">
-        <v>25</v>
+      <c r="M111" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="112" ht="30.0" customHeight="true">
@@ -4926,16 +4885,16 @@
         <v>13</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D112" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E112" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G112" t="n" s="5">
         <v>0.5069444444444444</v>
@@ -4955,8 +4914,8 @@
       <c r="L112" t="n" s="6">
         <v>0.034722222222222224</v>
       </c>
-      <c r="M112" t="s">
-        <v>49</v>
+      <c r="M112" t="n" s="7">
+        <v>-0.0020833333333333333</v>
       </c>
     </row>
     <row r="113" ht="30.0" customHeight="true">
@@ -4967,16 +4926,16 @@
         <v>13</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D113" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E113" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G113" t="n" s="5">
         <v>0.5395833333333333</v>
@@ -4996,8 +4955,8 @@
       <c r="L113" t="n" s="6">
         <v>0.01875</v>
       </c>
-      <c r="M113" t="s">
-        <v>41</v>
+      <c r="M113" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="114" ht="30.0" customHeight="true">
@@ -5008,16 +4967,16 @@
         <v>13</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E114" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G114" t="n" s="5">
         <v>0.5604166666666667</v>
@@ -5037,8 +4996,8 @@
       <c r="L114" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M114" t="s">
-        <v>22</v>
+      <c r="M114" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="115" ht="30.0" customHeight="true">
@@ -5049,16 +5008,16 @@
         <v>13</v>
       </c>
       <c r="C115" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E115" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G115" t="n" s="5">
         <v>0.59375</v>
@@ -5078,8 +5037,8 @@
       <c r="L115" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M115" t="s">
-        <v>25</v>
+      <c r="M115" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="116" ht="30.0" customHeight="true">
@@ -5090,16 +5049,16 @@
         <v>13</v>
       </c>
       <c r="C116" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D116" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E116" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G116" t="n" s="5">
         <v>0.6298611111111111</v>
@@ -5119,8 +5078,8 @@
       <c r="L116" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M116" t="s">
-        <v>24</v>
+      <c r="M116" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="117" ht="30.0" customHeight="true">
@@ -5131,16 +5090,16 @@
         <v>13</v>
       </c>
       <c r="C117" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D117" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E117" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G117" t="n" s="5">
         <v>0.6631944444444444</v>
@@ -5160,8 +5119,8 @@
       <c r="L117" t="n" s="6">
         <v>0.03194444444444444</v>
       </c>
-      <c r="M117" t="s">
-        <v>17</v>
+      <c r="M117" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="118" ht="30.0" customHeight="true">
@@ -5172,16 +5131,16 @@
         <v>13</v>
       </c>
       <c r="C118" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D118" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E118" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G118" t="n" s="5">
         <v>0.6993055555555555</v>
@@ -5201,8 +5160,8 @@
       <c r="L118" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M118" t="s">
-        <v>22</v>
+      <c r="M118" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="119" ht="30.0" customHeight="true">
@@ -5213,16 +5172,16 @@
         <v>13</v>
       </c>
       <c r="C119" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E119" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G119" t="n" s="5">
         <v>0.7326388888888888</v>
@@ -5242,8 +5201,8 @@
       <c r="L119" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M119" t="s">
-        <v>22</v>
+      <c r="M119" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="120" ht="30.0" customHeight="true">
@@ -5254,16 +5213,16 @@
         <v>13</v>
       </c>
       <c r="C120" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D120" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E120" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G120" t="n" s="5">
         <v>0.76875</v>
@@ -5283,8 +5242,8 @@
       <c r="L120" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M120" t="s">
-        <v>29</v>
+      <c r="M120" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="121" ht="30.0" customHeight="true">
@@ -5295,16 +5254,16 @@
         <v>13</v>
       </c>
       <c r="C121" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D121" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E121" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G121" t="n" s="5">
         <v>0.8020833333333334</v>
@@ -5324,8 +5283,8 @@
       <c r="L121" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M121" t="s">
-        <v>19</v>
+      <c r="M121" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="122" ht="30.0" customHeight="true">
@@ -5336,16 +5295,16 @@
         <v>13</v>
       </c>
       <c r="C122" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D122" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E122" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122" t="n" s="5">
         <v>0.8381944444444445</v>
@@ -5365,8 +5324,8 @@
       <c r="L122" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M122" t="s">
-        <v>24</v>
+      <c r="M122" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="123" ht="30.0" customHeight="true">
@@ -5377,16 +5336,16 @@
         <v>13</v>
       </c>
       <c r="C123" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D123" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E123" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G123" t="n" s="5">
         <v>0.8715277777777778</v>
@@ -5406,8 +5365,8 @@
       <c r="L123" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M123" t="s">
-        <v>29</v>
+      <c r="M123" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124" ht="30.0" customHeight="true">
@@ -5418,16 +5377,16 @@
         <v>13</v>
       </c>
       <c r="C124" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D124" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E124" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G124" t="n" s="5">
         <v>0.9076388888888889</v>
@@ -5447,8 +5406,8 @@
       <c r="L124" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M124" t="s">
-        <v>25</v>
+      <c r="M124" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="125" ht="30.0" customHeight="true">
@@ -5459,16 +5418,16 @@
         <v>13</v>
       </c>
       <c r="C125" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E125" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G125" t="n" s="5">
         <v>0.9409722222222222</v>
@@ -5488,8 +5447,8 @@
       <c r="L125" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M125" t="s">
-        <v>36</v>
+      <c r="M125" t="n" s="8">
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="126" ht="30.0" customHeight="true">
@@ -5500,16 +5459,16 @@
         <v>13</v>
       </c>
       <c r="C126" t="s" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D126" t="n" s="4">
         <v>6.0</v>
       </c>
       <c r="E126" t="s" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G126" t="n" s="5">
         <v>0.9770833333333333</v>
@@ -5521,16 +5480,16 @@
         <v>0.9930555555555556</v>
       </c>
       <c r="J126" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K126" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L126" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M126" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M126" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="30.0" customHeight="true">
@@ -5541,16 +5500,16 @@
         <v>13</v>
       </c>
       <c r="C127" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D127" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E127" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G127" t="n" s="5">
         <v>0.29791666666666666</v>
@@ -5570,8 +5529,8 @@
       <c r="L127" t="n" s="6">
         <v>0.008333333333333333</v>
       </c>
-      <c r="M127" t="s">
-        <v>49</v>
+      <c r="M127" t="n" s="7">
+        <v>-0.0020833333333333333</v>
       </c>
     </row>
     <row r="128" ht="30.0" customHeight="true">
@@ -5582,16 +5541,16 @@
         <v>13</v>
       </c>
       <c r="C128" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D128" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E128" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G128" t="n" s="5">
         <v>0.3076388888888889</v>
@@ -5611,8 +5570,8 @@
       <c r="L128" t="n" s="6">
         <v>0.025</v>
       </c>
-      <c r="M128" t="s">
-        <v>55</v>
+      <c r="M128" t="n" s="8">
+        <v>0.007638888888888889</v>
       </c>
     </row>
     <row r="129" ht="30.0" customHeight="true">
@@ -5623,16 +5582,16 @@
         <v>13</v>
       </c>
       <c r="C129" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D129" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E129" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G129" t="n" s="5">
         <v>0.34375</v>
@@ -5652,8 +5611,8 @@
       <c r="L129" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M129" t="s">
-        <v>22</v>
+      <c r="M129" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="130" ht="30.0" customHeight="true">
@@ -5664,16 +5623,16 @@
         <v>13</v>
       </c>
       <c r="C130" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D130" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E130" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G130" t="n" s="5">
         <v>0.3770833333333333</v>
@@ -5693,8 +5652,8 @@
       <c r="L130" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M130" t="s">
-        <v>21</v>
+      <c r="M130" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="131" ht="30.0" customHeight="true">
@@ -5705,16 +5664,16 @@
         <v>13</v>
       </c>
       <c r="C131" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D131" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E131" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G131" t="n" s="5">
         <v>0.4131944444444444</v>
@@ -5734,8 +5693,8 @@
       <c r="L131" t="n" s="6">
         <v>0.025</v>
       </c>
-      <c r="M131" t="s">
-        <v>21</v>
+      <c r="M131" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="132" ht="30.0" customHeight="true">
@@ -5746,16 +5705,16 @@
         <v>13</v>
       </c>
       <c r="C132" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D132" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E132" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G132" t="n" s="5">
         <v>0.4465277777777778</v>
@@ -5775,8 +5734,8 @@
       <c r="L132" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M132" t="s">
-        <v>35</v>
+      <c r="M132" t="n" s="8">
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="133" ht="30.0" customHeight="true">
@@ -5787,16 +5746,16 @@
         <v>13</v>
       </c>
       <c r="C133" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D133" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E133" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G133" t="n" s="5">
         <v>0.4826388888888889</v>
@@ -5816,8 +5775,8 @@
       <c r="L133" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M133" t="s">
-        <v>19</v>
+      <c r="M133" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="134" ht="30.0" customHeight="true">
@@ -5828,16 +5787,16 @@
         <v>13</v>
       </c>
       <c r="C134" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D134" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E134" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G134" t="n" s="5">
         <v>0.5159722222222223</v>
@@ -5857,8 +5816,8 @@
       <c r="L134" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M134" t="s">
-        <v>56</v>
+      <c r="M134" t="n" s="8">
+        <v>0.00625</v>
       </c>
     </row>
     <row r="135" ht="30.0" customHeight="true">
@@ -5869,16 +5828,16 @@
         <v>13</v>
       </c>
       <c r="C135" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E135" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n" s="5">
         <v>0.5520833333333334</v>
@@ -5898,8 +5857,8 @@
       <c r="L135" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M135" t="s">
-        <v>24</v>
+      <c r="M135" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="136" ht="30.0" customHeight="true">
@@ -5910,16 +5869,16 @@
         <v>13</v>
       </c>
       <c r="C136" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D136" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E136" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G136" t="n" s="5">
         <v>0.5854166666666667</v>
@@ -5939,8 +5898,8 @@
       <c r="L136" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M136" t="s">
-        <v>21</v>
+      <c r="M136" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="137" ht="30.0" customHeight="true">
@@ -5951,16 +5910,16 @@
         <v>13</v>
       </c>
       <c r="C137" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D137" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E137" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G137" t="n" s="5">
         <v>0.6180555555555556</v>
@@ -5980,8 +5939,8 @@
       <c r="L137" t="n" s="6">
         <v>0.022222222222222223</v>
       </c>
-      <c r="M137" t="s">
-        <v>57</v>
+      <c r="M137" t="n" s="8">
+        <v>-0.004861111111111111</v>
       </c>
     </row>
     <row r="138" ht="30.0" customHeight="true">
@@ -5992,16 +5951,16 @@
         <v>13</v>
       </c>
       <c r="C138" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D138" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E138" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G138" t="n" s="5">
         <v>0.6388888888888888</v>
@@ -6021,8 +5980,8 @@
       <c r="L138" t="n" s="6">
         <v>0.022916666666666665</v>
       </c>
-      <c r="M138" t="s">
-        <v>36</v>
+      <c r="M138" t="n" s="8">
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="139" ht="30.0" customHeight="true">
@@ -6033,16 +5992,16 @@
         <v>13</v>
       </c>
       <c r="C139" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D139" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E139" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G139" t="n" s="5">
         <v>0.6722222222222223</v>
@@ -6062,8 +6021,8 @@
       <c r="L139" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M139" t="s">
-        <v>21</v>
+      <c r="M139" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="140" ht="30.0" customHeight="true">
@@ -6074,16 +6033,16 @@
         <v>13</v>
       </c>
       <c r="C140" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D140" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E140" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G140" t="n" s="5">
         <v>0.7083333333333334</v>
@@ -6103,8 +6062,8 @@
       <c r="L140" t="n" s="6">
         <v>0.025</v>
       </c>
-      <c r="M140" t="s">
-        <v>21</v>
+      <c r="M140" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="141" ht="30.0" customHeight="true">
@@ -6115,16 +6074,16 @@
         <v>13</v>
       </c>
       <c r="C141" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D141" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E141" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G141" t="n" s="5">
         <v>0.7416666666666667</v>
@@ -6144,8 +6103,8 @@
       <c r="L141" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M141" t="s">
-        <v>25</v>
+      <c r="M141" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="142" ht="30.0" customHeight="true">
@@ -6156,16 +6115,16 @@
         <v>13</v>
       </c>
       <c r="C142" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D142" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E142" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G142" t="n" s="5">
         <v>0.7777777777777778</v>
@@ -6185,8 +6144,8 @@
       <c r="L142" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M142" t="s">
-        <v>24</v>
+      <c r="M142" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="143" ht="30.0" customHeight="true">
@@ -6197,16 +6156,16 @@
         <v>13</v>
       </c>
       <c r="C143" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D143" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E143" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G143" t="n" s="5">
         <v>0.8111111111111111</v>
@@ -6226,8 +6185,8 @@
       <c r="L143" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M143" t="s">
-        <v>21</v>
+      <c r="M143" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="144" ht="30.0" customHeight="true">
@@ -6238,16 +6197,16 @@
         <v>13</v>
       </c>
       <c r="C144" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E144" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G144" t="n" s="5">
         <v>0.8472222222222222</v>
@@ -6267,8 +6226,8 @@
       <c r="L144" t="n" s="6">
         <v>0.02361111111111111</v>
       </c>
-      <c r="M144" t="s">
-        <v>56</v>
+      <c r="M144" t="n" s="8">
+        <v>0.00625</v>
       </c>
     </row>
     <row r="145" ht="30.0" customHeight="true">
@@ -6279,16 +6238,16 @@
         <v>13</v>
       </c>
       <c r="C145" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D145" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E145" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G145" t="n" s="5">
         <v>0.8805555555555555</v>
@@ -6308,8 +6267,8 @@
       <c r="L145" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M145" t="s">
-        <v>19</v>
+      <c r="M145" t="n" s="7">
+        <v>0.003472222222222222</v>
       </c>
     </row>
     <row r="146" ht="30.0" customHeight="true">
@@ -6320,16 +6279,16 @@
         <v>13</v>
       </c>
       <c r="C146" t="s" s="3">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D146" t="n" s="4">
         <v>7.0</v>
       </c>
       <c r="E146" t="s" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G146" t="n" s="5">
         <v>0.9166666666666666</v>
@@ -6341,16 +6300,16 @@
         <v>0.9326388888888889</v>
       </c>
       <c r="J146" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K146" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L146" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M146" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M146" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="147" ht="30.0" customHeight="true">
@@ -6361,16 +6320,16 @@
         <v>13</v>
       </c>
       <c r="C147" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D147" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E147" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s" s="3">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G147" t="n" s="5">
         <v>0.30694444444444446</v>
@@ -6390,8 +6349,8 @@
       <c r="L147" t="n" s="6">
         <v>0.011111111111111112</v>
       </c>
-      <c r="M147" t="s">
-        <v>60</v>
+      <c r="M147" t="n" s="8">
+        <v>-0.005555555555555556</v>
       </c>
     </row>
     <row r="148" ht="30.0" customHeight="true">
@@ -6402,16 +6361,16 @@
         <v>13</v>
       </c>
       <c r="C148" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D148" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E148" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G148" t="n" s="5">
         <v>0.3159722222222222</v>
@@ -6431,8 +6390,8 @@
       <c r="L148" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M148" t="s">
-        <v>25</v>
+      <c r="M148" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="149" ht="30.0" customHeight="true">
@@ -6443,16 +6402,16 @@
         <v>13</v>
       </c>
       <c r="C149" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D149" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E149" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G149" t="n" s="5">
         <v>0.35208333333333336</v>
@@ -6472,8 +6431,8 @@
       <c r="L149" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M149" t="s">
-        <v>17</v>
+      <c r="M149" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="150" ht="30.0" customHeight="true">
@@ -6484,16 +6443,16 @@
         <v>13</v>
       </c>
       <c r="C150" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D150" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E150" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G150" t="n" s="5">
         <v>0.3854166666666667</v>
@@ -6513,8 +6472,8 @@
       <c r="L150" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M150" t="s">
-        <v>25</v>
+      <c r="M150" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="151" ht="30.0" customHeight="true">
@@ -6525,16 +6484,16 @@
         <v>13</v>
       </c>
       <c r="C151" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D151" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E151" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G151" t="n" s="5">
         <v>0.4215277777777778</v>
@@ -6554,8 +6513,8 @@
       <c r="L151" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M151" t="s">
-        <v>23</v>
+      <c r="M151" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="152" ht="30.0" customHeight="true">
@@ -6566,16 +6525,16 @@
         <v>13</v>
       </c>
       <c r="C152" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D152" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E152" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G152" t="n" s="5">
         <v>0.4548611111111111</v>
@@ -6595,8 +6554,8 @@
       <c r="L152" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M152" t="s">
-        <v>25</v>
+      <c r="M152" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="153" ht="30.0" customHeight="true">
@@ -6607,16 +6566,16 @@
         <v>13</v>
       </c>
       <c r="C153" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D153" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E153" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G153" t="n" s="5">
         <v>0.4875</v>
@@ -6636,8 +6595,8 @@
       <c r="L153" t="n" s="6">
         <v>6.944444444444445E-4</v>
       </c>
-      <c r="M153" t="s">
-        <v>61</v>
+      <c r="M153" t="n" s="8">
+        <v>0.016666666666666666</v>
       </c>
     </row>
     <row r="154" ht="30.0" customHeight="true">
@@ -6648,16 +6607,16 @@
         <v>13</v>
       </c>
       <c r="C154" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D154" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E154" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G154" t="n" s="5">
         <v>0.5083333333333333</v>
@@ -6677,8 +6636,8 @@
       <c r="L154" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M154" t="s">
-        <v>24</v>
+      <c r="M154" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="155" ht="30.0" customHeight="true">
@@ -6689,16 +6648,16 @@
         <v>13</v>
       </c>
       <c r="C155" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D155" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E155" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G155" t="n" s="5">
         <v>0.5416666666666666</v>
@@ -6718,8 +6677,8 @@
       <c r="L155" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M155" t="s">
-        <v>25</v>
+      <c r="M155" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="156" ht="30.0" customHeight="true">
@@ -6730,16 +6689,16 @@
         <v>13</v>
       </c>
       <c r="C156" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D156" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E156" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G156" t="n" s="5">
         <v>0.5777777777777777</v>
@@ -6759,8 +6718,8 @@
       <c r="L156" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M156" t="s">
-        <v>24</v>
+      <c r="M156" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="157" ht="30.0" customHeight="true">
@@ -6771,16 +6730,16 @@
         <v>13</v>
       </c>
       <c r="C157" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D157" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E157" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G157" t="n" s="5">
         <v>0.6111111111111112</v>
@@ -6800,8 +6759,8 @@
       <c r="L157" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M157" t="s">
-        <v>23</v>
+      <c r="M157" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="158" ht="30.0" customHeight="true">
@@ -6812,16 +6771,16 @@
         <v>13</v>
       </c>
       <c r="C158" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D158" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E158" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G158" t="n" s="5">
         <v>0.6472222222222223</v>
@@ -6841,8 +6800,8 @@
       <c r="L158" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M158" t="s">
-        <v>25</v>
+      <c r="M158" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="159" ht="30.0" customHeight="true">
@@ -6853,16 +6812,16 @@
         <v>13</v>
       </c>
       <c r="C159" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D159" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E159" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G159" t="n" s="5">
         <v>0.6805555555555556</v>
@@ -6882,8 +6841,8 @@
       <c r="L159" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M159" t="s">
-        <v>23</v>
+      <c r="M159" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="160" ht="30.0" customHeight="true">
@@ -6894,16 +6853,16 @@
         <v>13</v>
       </c>
       <c r="C160" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D160" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E160" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G160" t="n" s="5">
         <v>0.7166666666666667</v>
@@ -6923,8 +6882,8 @@
       <c r="L160" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M160" t="s">
-        <v>22</v>
+      <c r="M160" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="161" ht="30.0" customHeight="true">
@@ -6935,16 +6894,16 @@
         <v>13</v>
       </c>
       <c r="C161" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D161" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E161" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G161" t="n" s="5">
         <v>0.75</v>
@@ -6964,8 +6923,8 @@
       <c r="L161" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M161" t="s">
-        <v>23</v>
+      <c r="M161" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="162" ht="30.0" customHeight="true">
@@ -6976,16 +6935,16 @@
         <v>13</v>
       </c>
       <c r="C162" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D162" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E162" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G162" t="n" s="5">
         <v>0.7861111111111111</v>
@@ -7005,8 +6964,8 @@
       <c r="L162" t="n" s="6">
         <v>0.025694444444444443</v>
       </c>
-      <c r="M162" t="s">
-        <v>24</v>
+      <c r="M162" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="163" ht="30.0" customHeight="true">
@@ -7017,16 +6976,16 @@
         <v>13</v>
       </c>
       <c r="C163" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D163" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E163" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G163" t="n" s="5">
         <v>0.8194444444444444</v>
@@ -7046,8 +7005,8 @@
       <c r="L163" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M163" t="s">
-        <v>25</v>
+      <c r="M163" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="164" ht="30.0" customHeight="true">
@@ -7058,16 +7017,16 @@
         <v>13</v>
       </c>
       <c r="C164" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D164" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E164" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G164" t="n" s="5">
         <v>0.8555555555555555</v>
@@ -7087,8 +7046,8 @@
       <c r="L164" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M164" t="s">
-        <v>23</v>
+      <c r="M164" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="165" ht="30.0" customHeight="true">
@@ -7099,16 +7058,16 @@
         <v>13</v>
       </c>
       <c r="C165" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D165" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E165" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G165" t="n" s="5">
         <v>0.8888888888888888</v>
@@ -7128,8 +7087,8 @@
       <c r="L165" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M165" t="s">
-        <v>22</v>
+      <c r="M165" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="166" ht="30.0" customHeight="true">
@@ -7140,16 +7099,16 @@
         <v>13</v>
       </c>
       <c r="C166" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D166" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E166" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G166" t="n" s="5">
         <v>0.925</v>
@@ -7169,8 +7128,8 @@
       <c r="L166" t="n" s="6">
         <v>0.02361111111111111</v>
       </c>
-      <c r="M166" t="s">
-        <v>56</v>
+      <c r="M166" t="n" s="8">
+        <v>0.00625</v>
       </c>
     </row>
     <row r="167" ht="30.0" customHeight="true">
@@ -7181,16 +7140,16 @@
         <v>13</v>
       </c>
       <c r="C167" t="s" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D167" t="n" s="4">
         <v>8.0</v>
       </c>
       <c r="E167" t="s" s="3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s" s="3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G167" t="n" s="5">
         <v>0.9583333333333334</v>
@@ -7202,16 +7161,16 @@
         <v>0.9645833333333333</v>
       </c>
       <c r="J167" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K167" t="n" s="6">
         <v>0.00625</v>
       </c>
       <c r="L167" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M167" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M167" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="168" ht="30.0" customHeight="true">
@@ -7219,7 +7178,7 @@
         <v>1.0</v>
       </c>
       <c r="B168" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s" s="3">
         <v>14</v>
@@ -7228,7 +7187,7 @@
         <v>1.0</v>
       </c>
       <c r="E168" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s" s="3">
         <v>16</v>
@@ -7251,8 +7210,8 @@
       <c r="L168" t="n" s="6">
         <v>0.014583333333333334</v>
       </c>
-      <c r="M168" t="s">
-        <v>41</v>
+      <c r="M168" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="169" ht="30.0" customHeight="true">
@@ -7260,7 +7219,7 @@
         <v>1.0</v>
       </c>
       <c r="B169" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C169" t="s" s="3">
         <v>14</v>
@@ -7269,10 +7228,10 @@
         <v>1.0</v>
       </c>
       <c r="E169" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G169" t="n" s="5">
         <v>0.2916666666666667</v>
@@ -7292,8 +7251,8 @@
       <c r="L169" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M169" t="s">
-        <v>25</v>
+      <c r="M169" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="170" ht="30.0" customHeight="true">
@@ -7301,7 +7260,7 @@
         <v>1.0</v>
       </c>
       <c r="B170" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s" s="3">
         <v>14</v>
@@ -7310,10 +7269,10 @@
         <v>1.0</v>
       </c>
       <c r="E170" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G170" t="n" s="5">
         <v>0.325</v>
@@ -7333,8 +7292,8 @@
       <c r="L170" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M170" t="s">
-        <v>35</v>
+      <c r="M170" t="n" s="8">
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="171" ht="30.0" customHeight="true">
@@ -7342,7 +7301,7 @@
         <v>1.0</v>
       </c>
       <c r="B171" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s" s="3">
         <v>14</v>
@@ -7351,10 +7310,10 @@
         <v>1.0</v>
       </c>
       <c r="E171" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G171" t="n" s="5">
         <v>0.3611111111111111</v>
@@ -7374,8 +7333,8 @@
       <c r="L171" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M171" t="s">
-        <v>29</v>
+      <c r="M171" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="172" ht="30.0" customHeight="true">
@@ -7383,7 +7342,7 @@
         <v>1.0</v>
       </c>
       <c r="B172" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s" s="3">
         <v>14</v>
@@ -7392,10 +7351,10 @@
         <v>1.0</v>
       </c>
       <c r="E172" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G172" t="n" s="5">
         <v>0.39444444444444443</v>
@@ -7415,8 +7374,8 @@
       <c r="L172" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M172" t="s">
-        <v>25</v>
+      <c r="M172" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="173" ht="30.0" customHeight="true">
@@ -7424,7 +7383,7 @@
         <v>1.0</v>
       </c>
       <c r="B173" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C173" t="s" s="3">
         <v>14</v>
@@ -7433,10 +7392,10 @@
         <v>1.0</v>
       </c>
       <c r="E173" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G173" t="n" s="5">
         <v>0.4305555555555556</v>
@@ -7456,8 +7415,8 @@
       <c r="L173" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M173" t="s">
-        <v>22</v>
+      <c r="M173" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="174" ht="30.0" customHeight="true">
@@ -7465,7 +7424,7 @@
         <v>1.0</v>
       </c>
       <c r="B174" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s" s="3">
         <v>14</v>
@@ -7474,10 +7433,10 @@
         <v>1.0</v>
       </c>
       <c r="E174" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G174" t="n" s="5">
         <v>0.4638888888888889</v>
@@ -7497,8 +7456,8 @@
       <c r="L174" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M174" t="s">
-        <v>24</v>
+      <c r="M174" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="175" ht="30.0" customHeight="true">
@@ -7506,7 +7465,7 @@
         <v>1.0</v>
       </c>
       <c r="B175" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s" s="3">
         <v>14</v>
@@ -7515,10 +7474,10 @@
         <v>1.0</v>
       </c>
       <c r="E175" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G175" t="n" s="5">
         <v>0.5</v>
@@ -7538,8 +7497,8 @@
       <c r="L175" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M175" t="s">
-        <v>26</v>
+      <c r="M175" t="n" s="6">
+        <v>-6.944444444444445E-4</v>
       </c>
     </row>
     <row r="176" ht="30.0" customHeight="true">
@@ -7547,7 +7506,7 @@
         <v>1.0</v>
       </c>
       <c r="B176" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s" s="3">
         <v>14</v>
@@ -7556,10 +7515,10 @@
         <v>1.0</v>
       </c>
       <c r="E176" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G176" t="n" s="5">
         <v>0.5333333333333333</v>
@@ -7579,8 +7538,8 @@
       <c r="L176" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M176" t="s">
-        <v>23</v>
+      <c r="M176" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="177" ht="30.0" customHeight="true">
@@ -7588,7 +7547,7 @@
         <v>1.0</v>
       </c>
       <c r="B177" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s" s="3">
         <v>14</v>
@@ -7597,10 +7556,10 @@
         <v>1.0</v>
       </c>
       <c r="E177" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G177" t="n" s="5">
         <v>0.5659722222222222</v>
@@ -7620,8 +7579,8 @@
       <c r="L177" t="n" s="6">
         <v>-6.944444444444445E-4</v>
       </c>
-      <c r="M177" t="s">
-        <v>34</v>
+      <c r="M177" t="n" s="8">
+        <v>0.018055555555555554</v>
       </c>
     </row>
     <row r="178" ht="30.0" customHeight="true">
@@ -7629,7 +7588,7 @@
         <v>1.0</v>
       </c>
       <c r="B178" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s" s="3">
         <v>14</v>
@@ -7638,10 +7597,10 @@
         <v>1.0</v>
       </c>
       <c r="E178" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G178" t="n" s="5">
         <v>0.5868055555555556</v>
@@ -7661,8 +7620,8 @@
       <c r="L178" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M178" t="s">
-        <v>25</v>
+      <c r="M178" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="179" ht="30.0" customHeight="true">
@@ -7670,7 +7629,7 @@
         <v>1.0</v>
       </c>
       <c r="B179" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s" s="3">
         <v>14</v>
@@ -7679,10 +7638,10 @@
         <v>1.0</v>
       </c>
       <c r="E179" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G179" t="n" s="5">
         <v>0.6201388888888889</v>
@@ -7702,8 +7661,8 @@
       <c r="L179" t="n" s="6">
         <v>0.03125</v>
       </c>
-      <c r="M179" t="s">
-        <v>22</v>
+      <c r="M179" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="180" ht="30.0" customHeight="true">
@@ -7711,7 +7670,7 @@
         <v>1.0</v>
       </c>
       <c r="B180" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s" s="3">
         <v>14</v>
@@ -7720,10 +7679,10 @@
         <v>1.0</v>
       </c>
       <c r="E180" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G180" t="n" s="5">
         <v>0.65625</v>
@@ -7743,8 +7702,8 @@
       <c r="L180" t="n" s="6">
         <v>0.025</v>
       </c>
-      <c r="M180" t="s">
-        <v>21</v>
+      <c r="M180" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="181" ht="30.0" customHeight="true">
@@ -7752,7 +7711,7 @@
         <v>1.0</v>
       </c>
       <c r="B181" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s" s="3">
         <v>14</v>
@@ -7761,10 +7720,10 @@
         <v>1.0</v>
       </c>
       <c r="E181" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G181" t="n" s="5">
         <v>0.6895833333333333</v>
@@ -7784,8 +7743,8 @@
       <c r="L181" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M181" t="s">
-        <v>21</v>
+      <c r="M181" t="n" s="8">
+        <v>0.004861111111111111</v>
       </c>
     </row>
     <row r="182" ht="30.0" customHeight="true">
@@ -7793,7 +7752,7 @@
         <v>1.0</v>
       </c>
       <c r="B182" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s" s="3">
         <v>14</v>
@@ -7802,10 +7761,10 @@
         <v>1.0</v>
       </c>
       <c r="E182" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G182" t="n" s="5">
         <v>0.7256944444444444</v>
@@ -7825,8 +7784,8 @@
       <c r="L182" t="n" s="6">
         <v>0.02361111111111111</v>
       </c>
-      <c r="M182" t="s">
-        <v>56</v>
+      <c r="M182" t="n" s="8">
+        <v>0.00625</v>
       </c>
     </row>
     <row r="183" ht="30.0" customHeight="true">
@@ -7834,7 +7793,7 @@
         <v>1.0</v>
       </c>
       <c r="B183" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s" s="3">
         <v>14</v>
@@ -7843,10 +7802,10 @@
         <v>1.0</v>
       </c>
       <c r="E183" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G183" t="n" s="5">
         <v>0.7590277777777777</v>
@@ -7866,8 +7825,8 @@
       <c r="L183" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M183" t="s">
-        <v>24</v>
+      <c r="M183" t="n" s="8">
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="184" ht="30.0" customHeight="true">
@@ -7875,7 +7834,7 @@
         <v>1.0</v>
       </c>
       <c r="B184" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C184" t="s" s="3">
         <v>14</v>
@@ -7884,10 +7843,10 @@
         <v>1.0</v>
       </c>
       <c r="E184" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G184" t="n" s="5">
         <v>0.7951388888888888</v>
@@ -7907,8 +7866,8 @@
       <c r="L184" t="n" s="6">
         <v>0.022222222222222223</v>
       </c>
-      <c r="M184" t="s">
-        <v>55</v>
+      <c r="M184" t="n" s="8">
+        <v>0.007638888888888889</v>
       </c>
     </row>
     <row r="185" ht="30.0" customHeight="true">
@@ -7916,7 +7875,7 @@
         <v>1.0</v>
       </c>
       <c r="B185" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C185" t="s" s="3">
         <v>14</v>
@@ -7925,10 +7884,10 @@
         <v>1.0</v>
       </c>
       <c r="E185" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G185" t="n" s="5">
         <v>0.8284722222222223</v>
@@ -7948,8 +7907,8 @@
       <c r="L185" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M185" t="s">
-        <v>25</v>
+      <c r="M185" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="186" ht="30.0" customHeight="true">
@@ -7957,7 +7916,7 @@
         <v>1.0</v>
       </c>
       <c r="B186" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C186" t="s" s="3">
         <v>14</v>
@@ -7966,10 +7925,10 @@
         <v>1.0</v>
       </c>
       <c r="E186" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G186" t="n" s="5">
         <v>0.8645833333333334</v>
@@ -7989,8 +7948,8 @@
       <c r="L186" t="n" s="6">
         <v>0.022916666666666665</v>
       </c>
-      <c r="M186" t="s">
-        <v>36</v>
+      <c r="M186" t="n" s="8">
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="187" ht="30.0" customHeight="true">
@@ -7998,7 +7957,7 @@
         <v>1.0</v>
       </c>
       <c r="B187" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C187" t="s" s="3">
         <v>14</v>
@@ -8007,10 +7966,10 @@
         <v>1.0</v>
       </c>
       <c r="E187" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G187" t="n" s="5">
         <v>0.8979166666666667</v>
@@ -8030,8 +7989,8 @@
       <c r="L187" t="n" s="6">
         <v>0.02638888888888889</v>
       </c>
-      <c r="M187" t="s">
-        <v>56</v>
+      <c r="M187" t="n" s="8">
+        <v>0.00625</v>
       </c>
     </row>
     <row r="188" ht="30.0" customHeight="true">
@@ -8039,7 +7998,7 @@
         <v>1.0</v>
       </c>
       <c r="B188" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C188" t="s" s="3">
         <v>14</v>
@@ -8048,10 +8007,10 @@
         <v>1.0</v>
       </c>
       <c r="E188" t="s" s="3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G188" t="n" s="5">
         <v>0.9340277777777778</v>
@@ -8063,16 +8022,16 @@
         <v>0.95</v>
       </c>
       <c r="J188" t="s" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K188" t="n" s="6">
         <v>0.01597222222222222</v>
       </c>
       <c r="L188" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="M188" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M188" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="189" ht="30.0" customHeight="true">
@@ -8080,16 +8039,16 @@
         <v>1.0</v>
       </c>
       <c r="B189" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C189" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D189" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E189" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s" s="3">
         <v>16</v>
@@ -8112,8 +8071,8 @@
       <c r="L189" t="n" s="6">
         <v>0.013888888888888888</v>
       </c>
-      <c r="M189" t="s">
-        <v>41</v>
+      <c r="M189" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="190" ht="30.0" customHeight="true">
@@ -8121,19 +8080,19 @@
         <v>1.0</v>
       </c>
       <c r="B190" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C190" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D190" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E190" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F190" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G190" t="n" s="5">
         <v>0.3</v>
@@ -8153,8 +8112,8 @@
       <c r="L190" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M190" t="s">
-        <v>22</v>
+      <c r="M190" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="191" ht="30.0" customHeight="true">
@@ -8162,19 +8121,19 @@
         <v>1.0</v>
       </c>
       <c r="B191" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C191" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D191" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E191" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G191" t="n" s="5">
         <v>0.3333333333333333</v>
@@ -8194,8 +8153,8 @@
       <c r="L191" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M191" t="s">
-        <v>29</v>
+      <c r="M191" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="192" ht="30.0" customHeight="true">
@@ -8203,19 +8162,19 @@
         <v>1.0</v>
       </c>
       <c r="B192" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D192" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E192" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G192" t="n" s="5">
         <v>0.36944444444444446</v>
@@ -8235,8 +8194,8 @@
       <c r="L192" t="n" s="6">
         <v>0.029861111111111113</v>
       </c>
-      <c r="M192" t="s">
-        <v>29</v>
+      <c r="M192" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="193" ht="30.0" customHeight="true">
@@ -8244,19 +8203,19 @@
         <v>1.0</v>
       </c>
       <c r="B193" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C193" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D193" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E193" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F193" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G193" t="n" s="5">
         <v>0.4027777777777778</v>
@@ -8276,8 +8235,8 @@
       <c r="L193" t="n" s="6">
         <v>0.034027777777777775</v>
       </c>
-      <c r="M193" t="s">
-        <v>41</v>
+      <c r="M193" t="n" s="7">
+        <v>-0.001388888888888889</v>
       </c>
     </row>
     <row r="194" ht="30.0" customHeight="true">
@@ -8285,19 +8244,19 @@
         <v>1.0</v>
       </c>
       <c r="B194" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D194" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E194" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G194" t="n" s="5">
         <v>0.4388888888888889</v>
@@ -8317,8 +8276,8 @@
       <c r="L194" t="n" s="6">
         <v>0.02847222222222222</v>
       </c>
-      <c r="M194" t="s">
-        <v>22</v>
+      <c r="M194" t="n" s="7">
+        <v>0.001388888888888889</v>
       </c>
     </row>
     <row r="195" ht="30.0" customHeight="true">
@@ -8326,19 +8285,19 @@
         <v>1.0</v>
       </c>
       <c r="B195" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D195" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E195" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G195" t="n" s="5">
         <v>0.4722222222222222</v>
@@ -8358,8 +8317,8 @@
       <c r="L195" t="n" s="6">
         <v>0.03611111111111111</v>
       </c>
-      <c r="M195" t="s">
-        <v>65</v>
+      <c r="M195" t="n" s="7">
+        <v>-0.003472222222222222</v>
       </c>
     </row>
     <row r="196" ht="30.0" customHeight="true">
@@ -8367,19 +8326,19 @@
         <v>1.0</v>
       </c>
       <c r="B196" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D196" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E196" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G196" t="n" s="5">
         <v>0.5048611111111111</v>
@@ -8399,8 +8358,8 @@
       <c r="L196" t="n" s="6">
         <v>0.016666666666666666</v>
       </c>
-      <c r="M196" t="s">
-        <v>17</v>
+      <c r="M196" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
     <row r="197" ht="30.0" customHeight="true">
@@ -8408,19 +8367,19 @@
         <v>1.0</v>
       </c>
       <c r="B197" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C197" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D197" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E197" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G197" t="n" s="5">
         <v>0.5256944444444445</v>
@@ -8440,8 +8399,8 @@
       <c r="L197" t="n" s="6">
         <v>0.027083333333333334</v>
       </c>
-      <c r="M197" t="s">
-        <v>25</v>
+      <c r="M197" t="n" s="7">
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="198" ht="30.0" customHeight="true">
@@ -8449,19 +8408,19 @@
         <v>1.0</v>
       </c>
       <c r="B198" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D198" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E198" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G198" t="n" s="5">
         <v>0.5590277777777778</v>
@@ -8481,8 +8440,8 @@
       <c r="L198" t="n" s="6">
         <v>0.030555555555555555</v>
       </c>
-      <c r="M198" t="s">
-        <v>23</v>
+      <c r="M198" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="199" ht="30.0" customHeight="true">
@@ -8490,19 +8449,19 @@
         <v>1.0</v>
       </c>
       <c r="B199" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D199" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E199" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G199" t="n" s="5">
         <v>0.5951388888888889</v>
@@ -8522,8 +8481,8 @@
       <c r="L199" t="n" s="6">
         <v>0.027777777777777776</v>
       </c>
-      <c r="M199" t="s">
-        <v>23</v>
+      <c r="M199" t="n" s="7">
+        <v>0.0020833333333333333</v>
       </c>
     </row>
     <row r="200" ht="30.0" customHeight="true">
@@ -8531,19 +8490,19 @@
         <v>1.0</v>
       </c>
       <c r="B200" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D200" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E200" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G200" t="n" s="5">
         <v>0.6284722222222222</v>
@@ -8563,8 +8522,8 @@
       <c r="L200" t="n" s="6">
         <v>0.03263888888888889</v>
       </c>
-      <c r="M200" t="s">
-        <v>29</v>
+      <c r="M200" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="201" ht="30.0" customHeight="true">
@@ -8572,19 +8531,19 @@
         <v>1.0</v>
       </c>
       <c r="B201" t="s" s="3">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D201" t="n" s="4">
         <v>2.0</v>
       </c>
       <c r="E201" t="s" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G201" t="n" s="5">
         <v>0.6645833333333333</v>
@@ -8604,8 +8563,8 @@
       <c r="L201" t="n" s="6">
         <v>0.029166666666666667</v>
       </c>
-      <c r="M201" t="s">
-        <v>17</v>
+      <c r="M201" t="n" s="6">
+        <v>6.944444444444445E-4</v>
       </c>
     </row>
   </sheetData>
